--- a/public/report/macro_enabled_cs_form_no_2122.xlsx
+++ b/public/report/macro_enabled_cs_form_no_2122.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\personal-info-management-system\public\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BA0704-3BE8-4E38-B83F-3A56F10DB464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9F32BB-FA43-48F3-8CC0-F3B55B7A4420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -3457,173 +3457,478 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3640,20 +3945,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3684,9 +3975,6 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="24" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3699,18 +3987,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3723,377 +3999,214 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="31" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4102,6 +4215,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="31" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4116,10 +4259,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4132,169 +4271,79 @@
     <xf numFmtId="49" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="41" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4318,42 +4367,14 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4361,21 +4382,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4397,18 +4409,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4432,52 +4432,105 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4488,8 +4541,31 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4500,51 +4576,255 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4561,36 +4841,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -4600,144 +4872,41 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4748,185 +4917,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -6833,8 +6833,8 @@
   </sheetPr>
   <dimension ref="A1:R264"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="160" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:H38"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A48" zoomScale="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56:I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6859,20 +6859,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="370"/>
-      <c r="B1" s="371"/>
-      <c r="C1" s="371"/>
-      <c r="D1" s="371"/>
-      <c r="E1" s="371"/>
-      <c r="F1" s="371"/>
-      <c r="G1" s="371"/>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="371"/>
-      <c r="K1" s="371"/>
-      <c r="L1" s="371"/>
-      <c r="M1" s="371"/>
-      <c r="N1" s="372"/>
+      <c r="A1" s="347"/>
+      <c r="B1" s="348"/>
+      <c r="C1" s="348"/>
+      <c r="D1" s="348"/>
+      <c r="E1" s="348"/>
+      <c r="F1" s="348"/>
+      <c r="G1" s="348"/>
+      <c r="H1" s="348"/>
+      <c r="I1" s="348"/>
+      <c r="J1" s="348"/>
+      <c r="K1" s="348"/>
+      <c r="L1" s="348"/>
+      <c r="M1" s="348"/>
+      <c r="N1" s="349"/>
     </row>
     <row r="2" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="167"/>
@@ -6902,58 +6902,58 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="373" t="s">
+      <c r="A3" s="350" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="374"/>
-      <c r="C3" s="374"/>
-      <c r="D3" s="374"/>
-      <c r="E3" s="374"/>
-      <c r="F3" s="374"/>
-      <c r="G3" s="374"/>
-      <c r="H3" s="374"/>
-      <c r="I3" s="374"/>
-      <c r="J3" s="374"/>
-      <c r="K3" s="374"/>
-      <c r="L3" s="374"/>
-      <c r="M3" s="374"/>
-      <c r="N3" s="375"/>
+      <c r="B3" s="351"/>
+      <c r="C3" s="351"/>
+      <c r="D3" s="351"/>
+      <c r="E3" s="351"/>
+      <c r="F3" s="351"/>
+      <c r="G3" s="351"/>
+      <c r="H3" s="351"/>
+      <c r="I3" s="351"/>
+      <c r="J3" s="351"/>
+      <c r="K3" s="351"/>
+      <c r="L3" s="351"/>
+      <c r="M3" s="351"/>
+      <c r="N3" s="352"/>
     </row>
     <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="408" t="s">
+      <c r="A4" s="382" t="s">
         <v>401</v>
       </c>
-      <c r="B4" s="409"/>
-      <c r="C4" s="409"/>
-      <c r="D4" s="409"/>
-      <c r="E4" s="409"/>
-      <c r="F4" s="409"/>
-      <c r="G4" s="409"/>
-      <c r="H4" s="409"/>
-      <c r="I4" s="409"/>
-      <c r="J4" s="409"/>
-      <c r="K4" s="409"/>
-      <c r="L4" s="409"/>
-      <c r="M4" s="409"/>
-      <c r="N4" s="410"/>
+      <c r="B4" s="383"/>
+      <c r="C4" s="383"/>
+      <c r="D4" s="383"/>
+      <c r="E4" s="383"/>
+      <c r="F4" s="383"/>
+      <c r="G4" s="383"/>
+      <c r="H4" s="383"/>
+      <c r="I4" s="383"/>
+      <c r="J4" s="383"/>
+      <c r="K4" s="383"/>
+      <c r="L4" s="383"/>
+      <c r="M4" s="383"/>
+      <c r="N4" s="384"/>
     </row>
     <row r="5" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="319" t="s">
+      <c r="A5" s="413" t="s">
         <v>386</v>
       </c>
-      <c r="B5" s="320"/>
-      <c r="C5" s="320"/>
-      <c r="D5" s="320"/>
-      <c r="E5" s="320"/>
-      <c r="F5" s="320"/>
-      <c r="G5" s="320"/>
-      <c r="H5" s="320"/>
-      <c r="I5" s="320"/>
-      <c r="J5" s="320"/>
-      <c r="K5" s="320"/>
-      <c r="L5" s="320"/>
-      <c r="M5" s="320"/>
-      <c r="N5" s="321"/>
+      <c r="B5" s="414"/>
+      <c r="C5" s="414"/>
+      <c r="D5" s="414"/>
+      <c r="E5" s="414"/>
+      <c r="F5" s="414"/>
+      <c r="G5" s="414"/>
+      <c r="H5" s="414"/>
+      <c r="I5" s="414"/>
+      <c r="J5" s="414"/>
+      <c r="K5" s="414"/>
+      <c r="L5" s="414"/>
+      <c r="M5" s="414"/>
+      <c r="N5" s="415"/>
     </row>
     <row r="6" spans="1:18" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="204"/>
@@ -6987,63 +6987,63 @@
       <c r="K7" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="379" t="s">
+      <c r="L7" s="356" t="s">
         <v>358</v>
       </c>
-      <c r="M7" s="380"/>
-      <c r="N7" s="381"/>
+      <c r="M7" s="357"/>
+      <c r="N7" s="358"/>
     </row>
     <row r="8" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="171"/>
       <c r="N8" s="163"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="376" t="s">
+      <c r="A9" s="353" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="377"/>
-      <c r="C9" s="377"/>
-      <c r="D9" s="377"/>
-      <c r="E9" s="377"/>
-      <c r="F9" s="377"/>
-      <c r="G9" s="377"/>
-      <c r="H9" s="377"/>
-      <c r="I9" s="377"/>
-      <c r="J9" s="377"/>
-      <c r="K9" s="377"/>
-      <c r="L9" s="377"/>
-      <c r="M9" s="377"/>
-      <c r="N9" s="378"/>
+      <c r="B9" s="354"/>
+      <c r="C9" s="354"/>
+      <c r="D9" s="354"/>
+      <c r="E9" s="354"/>
+      <c r="F9" s="354"/>
+      <c r="G9" s="354"/>
+      <c r="H9" s="354"/>
+      <c r="I9" s="354"/>
+      <c r="J9" s="354"/>
+      <c r="K9" s="354"/>
+      <c r="L9" s="354"/>
+      <c r="M9" s="354"/>
+      <c r="N9" s="355"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="394" t="s">
+      <c r="B10" s="372" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="345"/>
-      <c r="D10" s="390"/>
-      <c r="E10" s="390"/>
-      <c r="F10" s="390"/>
-      <c r="G10" s="390"/>
-      <c r="H10" s="390"/>
-      <c r="I10" s="390"/>
-      <c r="J10" s="390"/>
-      <c r="K10" s="390"/>
-      <c r="L10" s="390"/>
-      <c r="M10" s="390"/>
-      <c r="N10" s="391"/>
+      <c r="C10" s="373"/>
+      <c r="D10" s="367"/>
+      <c r="E10" s="367"/>
+      <c r="F10" s="367"/>
+      <c r="G10" s="367"/>
+      <c r="H10" s="367"/>
+      <c r="I10" s="367"/>
+      <c r="J10" s="367"/>
+      <c r="K10" s="367"/>
+      <c r="L10" s="367"/>
+      <c r="M10" s="367"/>
+      <c r="N10" s="368"/>
       <c r="P10" s="99" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="172"/>
-      <c r="B11" s="395" t="s">
+      <c r="B11" s="374" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="396"/>
+      <c r="C11" s="375"/>
       <c r="D11" s="212"/>
       <c r="E11" s="213"/>
       <c r="F11" s="213"/>
@@ -7052,11 +7052,11 @@
       <c r="I11" s="213"/>
       <c r="J11" s="213"/>
       <c r="K11" s="213"/>
-      <c r="L11" s="346" t="s">
+      <c r="L11" s="437" t="s">
         <v>403</v>
       </c>
-      <c r="M11" s="347"/>
-      <c r="N11" s="348"/>
+      <c r="M11" s="438"/>
+      <c r="N11" s="439"/>
       <c r="P11" s="100" t="s">
         <v>52</v>
       </c>
@@ -7066,10 +7066,10 @@
     </row>
     <row r="12" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="173"/>
-      <c r="B12" s="397" t="s">
+      <c r="B12" s="376" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="398"/>
+      <c r="C12" s="377"/>
       <c r="D12" s="209"/>
       <c r="E12" s="210"/>
       <c r="F12" s="210"/>
@@ -7092,23 +7092,23 @@
       <c r="A13" s="246" t="s">
         <v>369</v>
       </c>
-      <c r="B13" s="344" t="s">
+      <c r="B13" s="436" t="s">
         <v>394</v>
       </c>
-      <c r="C13" s="345"/>
-      <c r="D13" s="278"/>
-      <c r="E13" s="278"/>
-      <c r="F13" s="279"/>
+      <c r="C13" s="373"/>
+      <c r="D13" s="452"/>
+      <c r="E13" s="452"/>
+      <c r="F13" s="453"/>
       <c r="G13" s="106" t="s">
         <v>372</v>
       </c>
       <c r="H13" s="149"/>
       <c r="I13" s="149"/>
-      <c r="J13" s="290"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="291"/>
-      <c r="M13" s="291"/>
-      <c r="N13" s="292"/>
+      <c r="J13" s="461"/>
+      <c r="K13" s="462"/>
+      <c r="L13" s="462"/>
+      <c r="M13" s="462"/>
+      <c r="N13" s="463"/>
       <c r="P13" s="100" t="s">
         <v>53</v>
       </c>
@@ -7126,11 +7126,11 @@
       <c r="G14" s="154"/>
       <c r="H14" s="162"/>
       <c r="I14" s="162"/>
-      <c r="J14" s="293"/>
-      <c r="K14" s="294"/>
-      <c r="L14" s="294"/>
-      <c r="M14" s="294"/>
-      <c r="N14" s="295"/>
+      <c r="J14" s="464"/>
+      <c r="K14" s="465"/>
+      <c r="L14" s="465"/>
+      <c r="M14" s="465"/>
+      <c r="N14" s="466"/>
       <c r="P14" s="100"/>
       <c r="Q14" s="3"/>
     </row>
@@ -7142,19 +7142,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="101"/>
-      <c r="D15" s="315"/>
-      <c r="E15" s="315"/>
-      <c r="F15" s="316"/>
-      <c r="G15" s="283" t="s">
+      <c r="D15" s="410"/>
+      <c r="E15" s="410"/>
+      <c r="F15" s="411"/>
+      <c r="G15" s="457" t="s">
         <v>387</v>
       </c>
-      <c r="H15" s="284"/>
-      <c r="I15" s="284"/>
-      <c r="J15" s="296"/>
-      <c r="K15" s="297"/>
-      <c r="L15" s="297"/>
-      <c r="M15" s="297"/>
-      <c r="N15" s="298"/>
+      <c r="H15" s="458"/>
+      <c r="I15" s="458"/>
+      <c r="J15" s="467"/>
+      <c r="K15" s="468"/>
+      <c r="L15" s="468"/>
+      <c r="M15" s="468"/>
+      <c r="N15" s="469"/>
       <c r="P15" s="100" t="s">
         <v>118</v>
       </c>
@@ -7171,13 +7171,13 @@
       </c>
       <c r="C16" s="102"/>
       <c r="D16" s="267"/>
-      <c r="E16" s="287"/>
-      <c r="F16" s="288"/>
-      <c r="G16" s="280" t="s">
+      <c r="E16" s="412"/>
+      <c r="F16" s="459"/>
+      <c r="G16" s="454" t="s">
         <v>324</v>
       </c>
-      <c r="H16" s="281"/>
-      <c r="I16" s="282"/>
+      <c r="H16" s="455"/>
+      <c r="I16" s="456"/>
       <c r="N16" s="163"/>
       <c r="P16" s="100" t="s">
         <v>119</v>
@@ -7187,49 +7187,49 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="335">
+      <c r="A17" s="427">
         <v>6</v>
       </c>
-      <c r="B17" s="340" t="s">
+      <c r="B17" s="432" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="341"/>
-      <c r="D17" s="411"/>
-      <c r="E17" s="412"/>
-      <c r="F17" s="413"/>
+      <c r="C17" s="433"/>
+      <c r="D17" s="385"/>
+      <c r="E17" s="386"/>
+      <c r="F17" s="387"/>
       <c r="G17" s="107" t="s">
         <v>373</v>
       </c>
       <c r="H17" s="108"/>
-      <c r="I17" s="299"/>
-      <c r="J17" s="285"/>
-      <c r="K17" s="285"/>
-      <c r="L17" s="285"/>
-      <c r="M17" s="285"/>
-      <c r="N17" s="286"/>
+      <c r="I17" s="328"/>
+      <c r="J17" s="329"/>
+      <c r="K17" s="329"/>
+      <c r="L17" s="329"/>
+      <c r="M17" s="329"/>
+      <c r="N17" s="330"/>
       <c r="Q17" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="336"/>
-      <c r="B18" s="342"/>
-      <c r="C18" s="343"/>
-      <c r="D18" s="349"/>
-      <c r="E18" s="350"/>
-      <c r="F18" s="351"/>
+      <c r="A18" s="428"/>
+      <c r="B18" s="434"/>
+      <c r="C18" s="435"/>
+      <c r="D18" s="388"/>
+      <c r="E18" s="389"/>
+      <c r="F18" s="390"/>
       <c r="G18" s="156"/>
       <c r="H18" s="109"/>
-      <c r="I18" s="275" t="s">
+      <c r="I18" s="451" t="s">
         <v>354</v>
       </c>
-      <c r="J18" s="276"/>
-      <c r="K18" s="276"/>
-      <c r="L18" s="276" t="s">
+      <c r="J18" s="416"/>
+      <c r="K18" s="416"/>
+      <c r="L18" s="416" t="s">
         <v>353</v>
       </c>
-      <c r="M18" s="276"/>
-      <c r="N18" s="277"/>
+      <c r="M18" s="416"/>
+      <c r="N18" s="417"/>
       <c r="Q18" s="3" t="s">
         <v>126</v>
       </c>
@@ -7243,100 +7243,100 @@
       <c r="F19" s="270"/>
       <c r="G19" s="156"/>
       <c r="H19" s="109"/>
-      <c r="I19" s="322"/>
-      <c r="J19" s="323"/>
-      <c r="K19" s="323"/>
-      <c r="L19" s="326"/>
-      <c r="M19" s="323"/>
-      <c r="N19" s="327"/>
+      <c r="I19" s="418"/>
+      <c r="J19" s="419"/>
+      <c r="K19" s="419"/>
+      <c r="L19" s="422"/>
+      <c r="M19" s="419"/>
+      <c r="N19" s="423"/>
       <c r="Q19" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="336"/>
+      <c r="A20" s="428"/>
       <c r="B20" s="228"/>
       <c r="C20" s="143"/>
-      <c r="D20" s="349"/>
-      <c r="E20" s="350"/>
-      <c r="F20" s="351"/>
+      <c r="D20" s="388"/>
+      <c r="E20" s="389"/>
+      <c r="F20" s="390"/>
       <c r="G20" s="154"/>
       <c r="H20" s="162"/>
-      <c r="I20" s="324"/>
-      <c r="J20" s="325"/>
-      <c r="K20" s="325"/>
-      <c r="L20" s="325"/>
-      <c r="M20" s="325"/>
-      <c r="N20" s="328"/>
+      <c r="I20" s="420"/>
+      <c r="J20" s="421"/>
+      <c r="K20" s="421"/>
+      <c r="L20" s="421"/>
+      <c r="M20" s="421"/>
+      <c r="N20" s="424"/>
       <c r="Q20" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="337"/>
+      <c r="A21" s="429"/>
       <c r="B21" s="229"/>
       <c r="C21" s="141"/>
-      <c r="D21" s="352"/>
-      <c r="E21" s="353"/>
-      <c r="F21" s="354"/>
+      <c r="D21" s="440"/>
+      <c r="E21" s="441"/>
+      <c r="F21" s="442"/>
       <c r="G21" s="154"/>
       <c r="H21" s="162"/>
-      <c r="I21" s="329" t="s">
+      <c r="I21" s="425" t="s">
         <v>350</v>
       </c>
-      <c r="J21" s="330"/>
-      <c r="K21" s="330"/>
-      <c r="L21" s="434" t="s">
+      <c r="J21" s="426"/>
+      <c r="K21" s="426"/>
+      <c r="L21" s="325" t="s">
         <v>351</v>
       </c>
-      <c r="M21" s="435"/>
-      <c r="N21" s="436"/>
+      <c r="M21" s="326"/>
+      <c r="N21" s="327"/>
       <c r="Q21" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="338" t="s">
+      <c r="A22" s="430" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="313" t="s">
+      <c r="B22" s="401" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="314"/>
-      <c r="D22" s="358"/>
-      <c r="E22" s="333"/>
-      <c r="F22" s="359"/>
+      <c r="C22" s="402"/>
+      <c r="D22" s="394"/>
+      <c r="E22" s="371"/>
+      <c r="F22" s="395"/>
       <c r="G22" s="154"/>
       <c r="H22" s="162"/>
-      <c r="I22" s="299"/>
-      <c r="J22" s="285"/>
-      <c r="K22" s="285"/>
-      <c r="L22" s="285"/>
-      <c r="M22" s="285"/>
-      <c r="N22" s="286"/>
+      <c r="I22" s="328"/>
+      <c r="J22" s="329"/>
+      <c r="K22" s="329"/>
+      <c r="L22" s="329"/>
+      <c r="M22" s="329"/>
+      <c r="N22" s="330"/>
       <c r="Q22" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="339"/>
-      <c r="B23" s="362"/>
-      <c r="C23" s="363"/>
-      <c r="D23" s="360"/>
-      <c r="E23" s="334"/>
-      <c r="F23" s="361"/>
+      <c r="A23" s="431"/>
+      <c r="B23" s="403"/>
+      <c r="C23" s="404"/>
+      <c r="D23" s="396"/>
+      <c r="E23" s="397"/>
+      <c r="F23" s="398"/>
       <c r="G23" s="154"/>
       <c r="H23" s="162"/>
-      <c r="I23" s="439" t="s">
+      <c r="I23" s="333" t="s">
         <v>361</v>
       </c>
-      <c r="J23" s="440"/>
-      <c r="K23" s="440"/>
-      <c r="L23" s="437" t="s">
+      <c r="J23" s="334"/>
+      <c r="K23" s="334"/>
+      <c r="L23" s="331" t="s">
         <v>352</v>
       </c>
-      <c r="M23" s="437"/>
-      <c r="N23" s="438"/>
+      <c r="M23" s="331"/>
+      <c r="N23" s="332"/>
       <c r="Q23" s="3" t="s">
         <v>131</v>
       </c>
@@ -7345,132 +7345,132 @@
       <c r="A24" s="172" t="s">
         <v>333</v>
       </c>
-      <c r="B24" s="364" t="s">
+      <c r="B24" s="405" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="365"/>
-      <c r="D24" s="287"/>
-      <c r="E24" s="287"/>
-      <c r="F24" s="287"/>
-      <c r="G24" s="399" t="s">
+      <c r="C24" s="379"/>
+      <c r="D24" s="412"/>
+      <c r="E24" s="412"/>
+      <c r="F24" s="412"/>
+      <c r="G24" s="340" t="s">
         <v>326</v>
       </c>
-      <c r="H24" s="400"/>
-      <c r="I24" s="300"/>
-      <c r="J24" s="301"/>
-      <c r="K24" s="301"/>
-      <c r="L24" s="301"/>
-      <c r="M24" s="301"/>
-      <c r="N24" s="302"/>
+      <c r="H24" s="318"/>
+      <c r="I24" s="341"/>
+      <c r="J24" s="342"/>
+      <c r="K24" s="342"/>
+      <c r="L24" s="342"/>
+      <c r="M24" s="342"/>
+      <c r="N24" s="343"/>
       <c r="Q24" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="331" t="s">
+      <c r="A25" s="399" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="313" t="s">
+      <c r="B25" s="401" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="314"/>
-      <c r="D25" s="333"/>
-      <c r="E25" s="333"/>
-      <c r="F25" s="333"/>
+      <c r="C25" s="402"/>
+      <c r="D25" s="371"/>
+      <c r="E25" s="371"/>
+      <c r="F25" s="371"/>
       <c r="G25" s="114" t="s">
         <v>374</v>
       </c>
       <c r="H25" s="103"/>
-      <c r="I25" s="317"/>
-      <c r="J25" s="318"/>
-      <c r="K25" s="318"/>
-      <c r="L25" s="318"/>
-      <c r="M25" s="318"/>
-      <c r="N25" s="444"/>
+      <c r="I25" s="344"/>
+      <c r="J25" s="338"/>
+      <c r="K25" s="338"/>
+      <c r="L25" s="338"/>
+      <c r="M25" s="338"/>
+      <c r="N25" s="339"/>
       <c r="Q25" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="332"/>
-      <c r="B26" s="362"/>
-      <c r="C26" s="363"/>
-      <c r="D26" s="334"/>
-      <c r="E26" s="334"/>
-      <c r="F26" s="334"/>
+      <c r="A26" s="400"/>
+      <c r="B26" s="403"/>
+      <c r="C26" s="404"/>
+      <c r="D26" s="397"/>
+      <c r="E26" s="397"/>
+      <c r="F26" s="397"/>
       <c r="G26" s="154"/>
       <c r="H26" s="162"/>
-      <c r="I26" s="275" t="s">
+      <c r="I26" s="451" t="s">
         <v>354</v>
       </c>
-      <c r="J26" s="276"/>
-      <c r="K26" s="276"/>
-      <c r="L26" s="276" t="s">
+      <c r="J26" s="416"/>
+      <c r="K26" s="416"/>
+      <c r="L26" s="416" t="s">
         <v>353</v>
       </c>
-      <c r="M26" s="276"/>
-      <c r="N26" s="277"/>
+      <c r="M26" s="416"/>
+      <c r="N26" s="417"/>
       <c r="Q26" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="331" t="s">
+      <c r="A27" s="399" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="313" t="s">
+      <c r="B27" s="401" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="314"/>
-      <c r="D27" s="333"/>
-      <c r="E27" s="333"/>
-      <c r="F27" s="333"/>
+      <c r="C27" s="402"/>
+      <c r="D27" s="371"/>
+      <c r="E27" s="371"/>
+      <c r="F27" s="371"/>
       <c r="G27" s="156"/>
       <c r="H27" s="109"/>
-      <c r="I27" s="317"/>
-      <c r="J27" s="318"/>
-      <c r="K27" s="318"/>
-      <c r="L27" s="318"/>
-      <c r="M27" s="318"/>
-      <c r="N27" s="444"/>
+      <c r="I27" s="344"/>
+      <c r="J27" s="338"/>
+      <c r="K27" s="338"/>
+      <c r="L27" s="338"/>
+      <c r="M27" s="338"/>
+      <c r="N27" s="339"/>
       <c r="Q27" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="332"/>
-      <c r="B28" s="362"/>
-      <c r="C28" s="363"/>
-      <c r="D28" s="334"/>
-      <c r="E28" s="334"/>
-      <c r="F28" s="334"/>
+      <c r="A28" s="400"/>
+      <c r="B28" s="403"/>
+      <c r="C28" s="404"/>
+      <c r="D28" s="397"/>
+      <c r="E28" s="397"/>
+      <c r="F28" s="397"/>
       <c r="G28" s="156"/>
       <c r="H28" s="109"/>
-      <c r="I28" s="366" t="s">
+      <c r="I28" s="406" t="s">
         <v>350</v>
       </c>
-      <c r="J28" s="367"/>
-      <c r="K28" s="367"/>
-      <c r="L28" s="368" t="s">
+      <c r="J28" s="407"/>
+      <c r="K28" s="407"/>
+      <c r="L28" s="408" t="s">
         <v>351</v>
       </c>
-      <c r="M28" s="367"/>
-      <c r="N28" s="369"/>
+      <c r="M28" s="407"/>
+      <c r="N28" s="409"/>
       <c r="Q28" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="331" t="s">
+      <c r="A29" s="399" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="313" t="s">
+      <c r="B29" s="401" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="314"/>
-      <c r="D29" s="333"/>
-      <c r="E29" s="333"/>
-      <c r="F29" s="333"/>
+      <c r="C29" s="402"/>
+      <c r="D29" s="371"/>
+      <c r="E29" s="371"/>
+      <c r="F29" s="371"/>
       <c r="G29" s="156"/>
       <c r="H29" s="165"/>
       <c r="I29" s="158"/>
@@ -7484,24 +7484,24 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="332"/>
-      <c r="B30" s="362"/>
-      <c r="C30" s="363"/>
-      <c r="D30" s="334"/>
-      <c r="E30" s="334"/>
-      <c r="F30" s="334"/>
+      <c r="A30" s="400"/>
+      <c r="B30" s="403"/>
+      <c r="C30" s="404"/>
+      <c r="D30" s="397"/>
+      <c r="E30" s="397"/>
+      <c r="F30" s="397"/>
       <c r="G30" s="156"/>
       <c r="H30" s="165"/>
-      <c r="I30" s="441" t="s">
+      <c r="I30" s="335" t="s">
         <v>361</v>
       </c>
-      <c r="J30" s="441"/>
-      <c r="K30" s="441"/>
-      <c r="L30" s="441" t="s">
+      <c r="J30" s="335"/>
+      <c r="K30" s="335"/>
+      <c r="L30" s="335" t="s">
         <v>352</v>
       </c>
-      <c r="M30" s="441"/>
-      <c r="N30" s="442"/>
+      <c r="M30" s="335"/>
+      <c r="N30" s="336"/>
       <c r="Q30" s="3" t="s">
         <v>138</v>
       </c>
@@ -7514,19 +7514,19 @@
         <v>60</v>
       </c>
       <c r="C31" s="102"/>
-      <c r="D31" s="274"/>
-      <c r="E31" s="274"/>
-      <c r="F31" s="274"/>
-      <c r="G31" s="399" t="s">
+      <c r="D31" s="450"/>
+      <c r="E31" s="450"/>
+      <c r="F31" s="450"/>
+      <c r="G31" s="340" t="s">
         <v>326</v>
       </c>
-      <c r="H31" s="400"/>
-      <c r="I31" s="439"/>
-      <c r="J31" s="440"/>
-      <c r="K31" s="440"/>
-      <c r="L31" s="434"/>
-      <c r="M31" s="434"/>
-      <c r="N31" s="443"/>
+      <c r="H31" s="318"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="334"/>
+      <c r="K31" s="334"/>
+      <c r="L31" s="325"/>
+      <c r="M31" s="325"/>
+      <c r="N31" s="337"/>
       <c r="Q31" s="3" t="s">
         <v>139</v>
       </c>
@@ -7539,42 +7539,42 @@
         <v>84</v>
       </c>
       <c r="C32" s="102"/>
-      <c r="D32" s="287"/>
-      <c r="E32" s="287"/>
-      <c r="F32" s="287"/>
+      <c r="D32" s="412"/>
+      <c r="E32" s="412"/>
+      <c r="F32" s="412"/>
       <c r="G32" s="153" t="s">
         <v>375</v>
       </c>
       <c r="H32" s="157"/>
-      <c r="I32" s="300"/>
-      <c r="J32" s="301"/>
-      <c r="K32" s="301"/>
-      <c r="L32" s="301"/>
-      <c r="M32" s="301"/>
-      <c r="N32" s="302"/>
+      <c r="I32" s="341"/>
+      <c r="J32" s="342"/>
+      <c r="K32" s="342"/>
+      <c r="L32" s="342"/>
+      <c r="M32" s="342"/>
+      <c r="N32" s="343"/>
       <c r="Q32" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="402" t="s">
+      <c r="A33" s="378" t="s">
         <v>370</v>
       </c>
-      <c r="B33" s="365"/>
-      <c r="C33" s="403"/>
-      <c r="D33" s="404"/>
-      <c r="E33" s="404"/>
-      <c r="F33" s="404"/>
+      <c r="B33" s="379"/>
+      <c r="C33" s="380"/>
+      <c r="D33" s="381"/>
+      <c r="E33" s="381"/>
+      <c r="F33" s="381"/>
       <c r="G33" s="211" t="s">
         <v>376</v>
       </c>
       <c r="H33" s="155"/>
-      <c r="I33" s="300"/>
-      <c r="J33" s="301"/>
-      <c r="K33" s="301"/>
-      <c r="L33" s="301"/>
-      <c r="M33" s="301"/>
-      <c r="N33" s="302"/>
+      <c r="I33" s="341"/>
+      <c r="J33" s="342"/>
+      <c r="K33" s="342"/>
+      <c r="L33" s="342"/>
+      <c r="M33" s="342"/>
+      <c r="N33" s="343"/>
       <c r="Q33" s="3" t="s">
         <v>141</v>
       </c>
@@ -7585,19 +7585,19 @@
       </c>
       <c r="B34" s="230"/>
       <c r="C34" s="160"/>
-      <c r="D34" s="333"/>
-      <c r="E34" s="333"/>
-      <c r="F34" s="333"/>
+      <c r="D34" s="371"/>
+      <c r="E34" s="371"/>
+      <c r="F34" s="371"/>
       <c r="G34" s="114" t="s">
         <v>377</v>
       </c>
       <c r="H34" s="103"/>
-      <c r="I34" s="355"/>
-      <c r="J34" s="356"/>
-      <c r="K34" s="356"/>
-      <c r="L34" s="356"/>
-      <c r="M34" s="356"/>
-      <c r="N34" s="357"/>
+      <c r="I34" s="391"/>
+      <c r="J34" s="392"/>
+      <c r="K34" s="392"/>
+      <c r="L34" s="392"/>
+      <c r="M34" s="392"/>
+      <c r="N34" s="393"/>
       <c r="Q34" s="3" t="s">
         <v>142</v>
       </c>
@@ -7631,21 +7631,21 @@
         <v>74</v>
       </c>
       <c r="C36" s="235"/>
-      <c r="D36" s="289"/>
-      <c r="E36" s="289"/>
-      <c r="F36" s="289"/>
-      <c r="G36" s="289"/>
-      <c r="H36" s="289"/>
-      <c r="I36" s="445" t="s">
+      <c r="D36" s="460"/>
+      <c r="E36" s="460"/>
+      <c r="F36" s="460"/>
+      <c r="G36" s="460"/>
+      <c r="H36" s="460"/>
+      <c r="I36" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="J36" s="445"/>
-      <c r="K36" s="445"/>
-      <c r="L36" s="446"/>
-      <c r="M36" s="384" t="s">
+      <c r="J36" s="345"/>
+      <c r="K36" s="345"/>
+      <c r="L36" s="346"/>
+      <c r="M36" s="361" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="385"/>
+      <c r="N36" s="362"/>
       <c r="Q36" s="3" t="s">
         <v>144</v>
       </c>
@@ -7656,19 +7656,19 @@
         <v>67</v>
       </c>
       <c r="C37" s="165"/>
-      <c r="D37" s="405"/>
-      <c r="E37" s="406"/>
-      <c r="F37" s="407"/>
-      <c r="G37" s="401" t="s">
+      <c r="D37" s="285"/>
+      <c r="E37" s="286"/>
+      <c r="F37" s="287"/>
+      <c r="G37" s="297" t="s">
         <v>382</v>
       </c>
-      <c r="H37" s="401"/>
-      <c r="I37" s="743"/>
-      <c r="J37" s="743"/>
-      <c r="K37" s="743"/>
-      <c r="L37" s="744"/>
-      <c r="M37" s="272"/>
-      <c r="N37" s="273"/>
+      <c r="H37" s="297"/>
+      <c r="I37" s="283"/>
+      <c r="J37" s="283"/>
+      <c r="K37" s="283"/>
+      <c r="L37" s="284"/>
+      <c r="M37" s="281"/>
+      <c r="N37" s="282"/>
       <c r="Q37" s="3" t="s">
         <v>145</v>
       </c>
@@ -7679,17 +7679,17 @@
         <v>68</v>
       </c>
       <c r="C38" s="225"/>
-      <c r="D38" s="405"/>
-      <c r="E38" s="406"/>
-      <c r="F38" s="406"/>
-      <c r="G38" s="406"/>
-      <c r="H38" s="407"/>
-      <c r="I38" s="743"/>
-      <c r="J38" s="743"/>
-      <c r="K38" s="743"/>
-      <c r="L38" s="744"/>
-      <c r="M38" s="272"/>
-      <c r="N38" s="273"/>
+      <c r="D38" s="285"/>
+      <c r="E38" s="286"/>
+      <c r="F38" s="286"/>
+      <c r="G38" s="286"/>
+      <c r="H38" s="287"/>
+      <c r="I38" s="283"/>
+      <c r="J38" s="283"/>
+      <c r="K38" s="283"/>
+      <c r="L38" s="284"/>
+      <c r="M38" s="281"/>
+      <c r="N38" s="282"/>
       <c r="Q38" s="3" t="s">
         <v>146</v>
       </c>
@@ -7700,17 +7700,17 @@
         <v>18</v>
       </c>
       <c r="C39" s="102"/>
-      <c r="D39" s="271"/>
-      <c r="E39" s="271"/>
-      <c r="F39" s="271"/>
-      <c r="G39" s="271"/>
-      <c r="H39" s="271"/>
-      <c r="I39" s="743"/>
-      <c r="J39" s="743"/>
-      <c r="K39" s="743"/>
-      <c r="L39" s="744"/>
-      <c r="M39" s="272"/>
-      <c r="N39" s="273"/>
+      <c r="D39" s="295"/>
+      <c r="E39" s="295"/>
+      <c r="F39" s="295"/>
+      <c r="G39" s="295"/>
+      <c r="H39" s="295"/>
+      <c r="I39" s="283"/>
+      <c r="J39" s="283"/>
+      <c r="K39" s="283"/>
+      <c r="L39" s="284"/>
+      <c r="M39" s="281"/>
+      <c r="N39" s="282"/>
       <c r="Q39" s="3" t="s">
         <v>147</v>
       </c>
@@ -7721,17 +7721,17 @@
         <v>368</v>
       </c>
       <c r="C40" s="102"/>
-      <c r="D40" s="271"/>
-      <c r="E40" s="271"/>
-      <c r="F40" s="271"/>
-      <c r="G40" s="271"/>
-      <c r="H40" s="271"/>
-      <c r="I40" s="743"/>
-      <c r="J40" s="743"/>
-      <c r="K40" s="743"/>
-      <c r="L40" s="744"/>
-      <c r="M40" s="272"/>
-      <c r="N40" s="273"/>
+      <c r="D40" s="295"/>
+      <c r="E40" s="295"/>
+      <c r="F40" s="295"/>
+      <c r="G40" s="295"/>
+      <c r="H40" s="295"/>
+      <c r="I40" s="283"/>
+      <c r="J40" s="283"/>
+      <c r="K40" s="283"/>
+      <c r="L40" s="284"/>
+      <c r="M40" s="281"/>
+      <c r="N40" s="282"/>
       <c r="Q40" s="3" t="s">
         <v>148</v>
       </c>
@@ -7742,17 +7742,17 @@
         <v>19</v>
       </c>
       <c r="C41" s="102"/>
-      <c r="D41" s="271"/>
-      <c r="E41" s="271"/>
-      <c r="F41" s="271"/>
-      <c r="G41" s="271"/>
-      <c r="H41" s="271"/>
-      <c r="I41" s="743"/>
-      <c r="J41" s="743"/>
-      <c r="K41" s="743"/>
-      <c r="L41" s="744"/>
-      <c r="M41" s="272"/>
-      <c r="N41" s="273"/>
+      <c r="D41" s="295"/>
+      <c r="E41" s="295"/>
+      <c r="F41" s="295"/>
+      <c r="G41" s="295"/>
+      <c r="H41" s="295"/>
+      <c r="I41" s="283"/>
+      <c r="J41" s="283"/>
+      <c r="K41" s="283"/>
+      <c r="L41" s="284"/>
+      <c r="M41" s="281"/>
+      <c r="N41" s="282"/>
       <c r="Q41" s="3" t="s">
         <v>149</v>
       </c>
@@ -7763,17 +7763,17 @@
         <v>36</v>
       </c>
       <c r="C42" s="142"/>
-      <c r="D42" s="271"/>
-      <c r="E42" s="271"/>
-      <c r="F42" s="271"/>
-      <c r="G42" s="271"/>
-      <c r="H42" s="271"/>
-      <c r="I42" s="743"/>
-      <c r="J42" s="743"/>
-      <c r="K42" s="743"/>
-      <c r="L42" s="744"/>
-      <c r="M42" s="272"/>
-      <c r="N42" s="273"/>
+      <c r="D42" s="295"/>
+      <c r="E42" s="295"/>
+      <c r="F42" s="295"/>
+      <c r="G42" s="295"/>
+      <c r="H42" s="295"/>
+      <c r="I42" s="283"/>
+      <c r="J42" s="283"/>
+      <c r="K42" s="283"/>
+      <c r="L42" s="284"/>
+      <c r="M42" s="281"/>
+      <c r="N42" s="282"/>
       <c r="Q42" s="3" t="s">
         <v>150</v>
       </c>
@@ -7786,17 +7786,17 @@
         <v>72</v>
       </c>
       <c r="C43" s="108"/>
-      <c r="D43" s="271"/>
-      <c r="E43" s="271"/>
-      <c r="F43" s="271"/>
-      <c r="G43" s="271"/>
-      <c r="H43" s="271"/>
-      <c r="I43" s="743"/>
-      <c r="J43" s="743"/>
-      <c r="K43" s="743"/>
-      <c r="L43" s="744"/>
-      <c r="M43" s="272"/>
-      <c r="N43" s="273"/>
+      <c r="D43" s="295"/>
+      <c r="E43" s="295"/>
+      <c r="F43" s="295"/>
+      <c r="G43" s="295"/>
+      <c r="H43" s="295"/>
+      <c r="I43" s="283"/>
+      <c r="J43" s="283"/>
+      <c r="K43" s="283"/>
+      <c r="L43" s="284"/>
+      <c r="M43" s="281"/>
+      <c r="N43" s="282"/>
       <c r="Q43" s="3" t="s">
         <v>151</v>
       </c>
@@ -7807,19 +7807,19 @@
         <v>2</v>
       </c>
       <c r="C44" s="162"/>
-      <c r="D44" s="405"/>
-      <c r="E44" s="406"/>
-      <c r="F44" s="407"/>
-      <c r="G44" s="401" t="s">
+      <c r="D44" s="285"/>
+      <c r="E44" s="286"/>
+      <c r="F44" s="287"/>
+      <c r="G44" s="297" t="s">
         <v>402</v>
       </c>
-      <c r="H44" s="401"/>
-      <c r="I44" s="743"/>
-      <c r="J44" s="743"/>
-      <c r="K44" s="743"/>
-      <c r="L44" s="744"/>
-      <c r="M44" s="272"/>
-      <c r="N44" s="273"/>
+      <c r="H44" s="297"/>
+      <c r="I44" s="283"/>
+      <c r="J44" s="283"/>
+      <c r="K44" s="283"/>
+      <c r="L44" s="284"/>
+      <c r="M44" s="281"/>
+      <c r="N44" s="282"/>
       <c r="Q44" s="3" t="s">
         <v>152</v>
       </c>
@@ -7830,17 +7830,17 @@
         <v>3</v>
       </c>
       <c r="C45" s="218"/>
-      <c r="D45" s="405"/>
-      <c r="E45" s="406"/>
-      <c r="F45" s="406"/>
-      <c r="G45" s="406"/>
-      <c r="H45" s="407"/>
-      <c r="I45" s="743"/>
-      <c r="J45" s="743"/>
-      <c r="K45" s="743"/>
-      <c r="L45" s="744"/>
-      <c r="M45" s="272"/>
-      <c r="N45" s="273"/>
+      <c r="D45" s="285"/>
+      <c r="E45" s="286"/>
+      <c r="F45" s="286"/>
+      <c r="G45" s="286"/>
+      <c r="H45" s="287"/>
+      <c r="I45" s="283"/>
+      <c r="J45" s="283"/>
+      <c r="K45" s="283"/>
+      <c r="L45" s="284"/>
+      <c r="M45" s="281"/>
+      <c r="N45" s="282"/>
       <c r="Q45" s="3" t="s">
         <v>153</v>
       </c>
@@ -7849,21 +7849,21 @@
       <c r="A46" s="154" t="s">
         <v>335</v>
       </c>
-      <c r="B46" s="313" t="s">
+      <c r="B46" s="401" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="313"/>
-      <c r="D46" s="313"/>
-      <c r="E46" s="313"/>
-      <c r="F46" s="313"/>
-      <c r="G46" s="313"/>
-      <c r="H46" s="314"/>
-      <c r="I46" s="743"/>
-      <c r="J46" s="743"/>
-      <c r="K46" s="743"/>
-      <c r="L46" s="744"/>
-      <c r="M46" s="272"/>
-      <c r="N46" s="273"/>
+      <c r="C46" s="401"/>
+      <c r="D46" s="401"/>
+      <c r="E46" s="401"/>
+      <c r="F46" s="401"/>
+      <c r="G46" s="401"/>
+      <c r="H46" s="402"/>
+      <c r="I46" s="283"/>
+      <c r="J46" s="283"/>
+      <c r="K46" s="283"/>
+      <c r="L46" s="284"/>
+      <c r="M46" s="281"/>
+      <c r="N46" s="282"/>
       <c r="Q46" s="3" t="s">
         <v>154</v>
       </c>
@@ -7874,17 +7874,17 @@
         <v>1</v>
       </c>
       <c r="C47" s="162"/>
-      <c r="D47" s="467"/>
-      <c r="E47" s="467"/>
-      <c r="F47" s="467"/>
-      <c r="G47" s="467"/>
-      <c r="H47" s="467"/>
-      <c r="I47" s="743"/>
-      <c r="J47" s="743"/>
-      <c r="K47" s="743"/>
-      <c r="L47" s="744"/>
-      <c r="M47" s="272"/>
-      <c r="N47" s="273"/>
+      <c r="D47" s="296"/>
+      <c r="E47" s="296"/>
+      <c r="F47" s="296"/>
+      <c r="G47" s="296"/>
+      <c r="H47" s="296"/>
+      <c r="I47" s="283"/>
+      <c r="J47" s="283"/>
+      <c r="K47" s="283"/>
+      <c r="L47" s="284"/>
+      <c r="M47" s="281"/>
+      <c r="N47" s="282"/>
       <c r="Q47" s="3" t="s">
         <v>155</v>
       </c>
@@ -7895,17 +7895,17 @@
         <v>2</v>
       </c>
       <c r="C48" s="162"/>
-      <c r="D48" s="467"/>
-      <c r="E48" s="467"/>
-      <c r="F48" s="467"/>
-      <c r="G48" s="467"/>
-      <c r="H48" s="467"/>
-      <c r="I48" s="743"/>
-      <c r="J48" s="743"/>
-      <c r="K48" s="743"/>
-      <c r="L48" s="744"/>
-      <c r="M48" s="272"/>
-      <c r="N48" s="273"/>
+      <c r="D48" s="296"/>
+      <c r="E48" s="296"/>
+      <c r="F48" s="296"/>
+      <c r="G48" s="296"/>
+      <c r="H48" s="296"/>
+      <c r="I48" s="283"/>
+      <c r="J48" s="283"/>
+      <c r="K48" s="283"/>
+      <c r="L48" s="284"/>
+      <c r="M48" s="281"/>
+      <c r="N48" s="282"/>
       <c r="Q48" s="3" t="s">
         <v>156</v>
       </c>
@@ -7916,19 +7916,19 @@
         <v>3</v>
       </c>
       <c r="C49" s="220"/>
-      <c r="D49" s="308"/>
-      <c r="E49" s="308"/>
-      <c r="F49" s="308"/>
-      <c r="G49" s="308"/>
-      <c r="H49" s="308"/>
-      <c r="I49" s="306" t="s">
+      <c r="D49" s="445"/>
+      <c r="E49" s="445"/>
+      <c r="F49" s="445"/>
+      <c r="G49" s="445"/>
+      <c r="H49" s="445"/>
+      <c r="I49" s="443" t="s">
         <v>63</v>
       </c>
-      <c r="J49" s="306"/>
-      <c r="K49" s="306"/>
-      <c r="L49" s="306"/>
-      <c r="M49" s="306"/>
-      <c r="N49" s="307"/>
+      <c r="J49" s="443"/>
+      <c r="K49" s="443"/>
+      <c r="L49" s="443"/>
+      <c r="M49" s="443"/>
+      <c r="N49" s="444"/>
       <c r="Q49" s="3" t="s">
         <v>157</v>
       </c>
@@ -7944,47 +7944,47 @@
       <c r="F50" s="105"/>
       <c r="G50" s="105"/>
       <c r="H50" s="105"/>
-      <c r="I50" s="392" t="s">
+      <c r="I50" s="369" t="s">
         <v>113</v>
       </c>
-      <c r="J50" s="392"/>
-      <c r="K50" s="392"/>
-      <c r="L50" s="392"/>
-      <c r="M50" s="392"/>
-      <c r="N50" s="393"/>
+      <c r="J50" s="369"/>
+      <c r="K50" s="369"/>
+      <c r="L50" s="369"/>
+      <c r="M50" s="369"/>
+      <c r="N50" s="370"/>
       <c r="Q50" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="386" t="s">
+      <c r="A51" s="363" t="s">
         <v>336</v>
       </c>
-      <c r="B51" s="417" t="s">
+      <c r="B51" s="313" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="417"/>
-      <c r="D51" s="420" t="s">
+      <c r="C51" s="313"/>
+      <c r="D51" s="298" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="421"/>
-      <c r="F51" s="422"/>
-      <c r="G51" s="420" t="s">
+      <c r="E51" s="299"/>
+      <c r="F51" s="316"/>
+      <c r="G51" s="298" t="s">
         <v>385</v>
       </c>
-      <c r="H51" s="421"/>
-      <c r="I51" s="468"/>
-      <c r="J51" s="309" t="s">
+      <c r="H51" s="299"/>
+      <c r="I51" s="300"/>
+      <c r="J51" s="446" t="s">
         <v>325</v>
       </c>
-      <c r="K51" s="310"/>
-      <c r="L51" s="462" t="s">
+      <c r="K51" s="447"/>
+      <c r="L51" s="293" t="s">
         <v>115</v>
       </c>
-      <c r="M51" s="388" t="s">
+      <c r="M51" s="365" t="s">
         <v>114</v>
       </c>
-      <c r="N51" s="382" t="s">
+      <c r="N51" s="359" t="s">
         <v>76</v>
       </c>
       <c r="Q51" s="3" t="s">
@@ -7992,43 +7992,43 @@
       </c>
     </row>
     <row r="52" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="387"/>
-      <c r="B52" s="418"/>
-      <c r="C52" s="418"/>
-      <c r="D52" s="423"/>
-      <c r="E52" s="424"/>
-      <c r="F52" s="425"/>
-      <c r="G52" s="423"/>
-      <c r="H52" s="424"/>
-      <c r="I52" s="469"/>
-      <c r="J52" s="311"/>
-      <c r="K52" s="312"/>
-      <c r="L52" s="462"/>
-      <c r="M52" s="388"/>
-      <c r="N52" s="382"/>
+      <c r="A52" s="364"/>
+      <c r="B52" s="314"/>
+      <c r="C52" s="314"/>
+      <c r="D52" s="301"/>
+      <c r="E52" s="302"/>
+      <c r="F52" s="317"/>
+      <c r="G52" s="301"/>
+      <c r="H52" s="302"/>
+      <c r="I52" s="303"/>
+      <c r="J52" s="448"/>
+      <c r="K52" s="449"/>
+      <c r="L52" s="293"/>
+      <c r="M52" s="365"/>
+      <c r="N52" s="359"/>
       <c r="Q52" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="233"/>
-      <c r="B53" s="419"/>
-      <c r="C53" s="419"/>
-      <c r="D53" s="426"/>
-      <c r="E53" s="427"/>
-      <c r="F53" s="400"/>
-      <c r="G53" s="426"/>
-      <c r="H53" s="427"/>
-      <c r="I53" s="470"/>
+      <c r="B53" s="315"/>
+      <c r="C53" s="315"/>
+      <c r="D53" s="304"/>
+      <c r="E53" s="305"/>
+      <c r="F53" s="318"/>
+      <c r="G53" s="304"/>
+      <c r="H53" s="305"/>
+      <c r="I53" s="306"/>
       <c r="J53" s="110" t="s">
         <v>26</v>
       </c>
       <c r="K53" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="L53" s="463"/>
-      <c r="M53" s="389"/>
-      <c r="N53" s="383"/>
+      <c r="L53" s="294"/>
+      <c r="M53" s="366"/>
+      <c r="N53" s="360"/>
       <c r="O53" s="112"/>
       <c r="P53" s="112"/>
       <c r="Q53" s="3" t="s">
@@ -8041,12 +8041,12 @@
         <v>23</v>
       </c>
       <c r="C54" s="239"/>
-      <c r="D54" s="428"/>
-      <c r="E54" s="429"/>
-      <c r="F54" s="430"/>
-      <c r="G54" s="464"/>
-      <c r="H54" s="465"/>
-      <c r="I54" s="466"/>
+      <c r="D54" s="319"/>
+      <c r="E54" s="320"/>
+      <c r="F54" s="321"/>
+      <c r="G54" s="742"/>
+      <c r="H54" s="743"/>
+      <c r="I54" s="744"/>
       <c r="J54" s="26"/>
       <c r="K54" s="232"/>
       <c r="L54" s="166"/>
@@ -8062,12 +8062,12 @@
         <v>24</v>
       </c>
       <c r="C55" s="239"/>
-      <c r="D55" s="428"/>
-      <c r="E55" s="429"/>
-      <c r="F55" s="430"/>
-      <c r="G55" s="464"/>
-      <c r="H55" s="465"/>
-      <c r="I55" s="466"/>
+      <c r="D55" s="319"/>
+      <c r="E55" s="320"/>
+      <c r="F55" s="321"/>
+      <c r="G55" s="742"/>
+      <c r="H55" s="743"/>
+      <c r="I55" s="744"/>
       <c r="J55" s="26"/>
       <c r="K55" s="27"/>
       <c r="L55" s="242"/>
@@ -8083,12 +8083,12 @@
         <v>58</v>
       </c>
       <c r="C56" s="239"/>
-      <c r="D56" s="428"/>
-      <c r="E56" s="429"/>
-      <c r="F56" s="430"/>
-      <c r="G56" s="303"/>
-      <c r="H56" s="304"/>
-      <c r="I56" s="305"/>
+      <c r="D56" s="319"/>
+      <c r="E56" s="320"/>
+      <c r="F56" s="321"/>
+      <c r="G56" s="307"/>
+      <c r="H56" s="308"/>
+      <c r="I56" s="309"/>
       <c r="J56" s="26"/>
       <c r="K56" s="27"/>
       <c r="L56" s="166"/>
@@ -8104,12 +8104,12 @@
         <v>71</v>
       </c>
       <c r="C57" s="239"/>
-      <c r="D57" s="428"/>
-      <c r="E57" s="429"/>
-      <c r="F57" s="430"/>
-      <c r="G57" s="303"/>
-      <c r="H57" s="304"/>
-      <c r="I57" s="305"/>
+      <c r="D57" s="319"/>
+      <c r="E57" s="320"/>
+      <c r="F57" s="321"/>
+      <c r="G57" s="307"/>
+      <c r="H57" s="308"/>
+      <c r="I57" s="309"/>
       <c r="J57" s="26"/>
       <c r="K57" s="27"/>
       <c r="L57" s="166"/>
@@ -8125,12 +8125,12 @@
         <v>25</v>
       </c>
       <c r="C58" s="241"/>
-      <c r="D58" s="431"/>
-      <c r="E58" s="432"/>
-      <c r="F58" s="433"/>
-      <c r="G58" s="414"/>
-      <c r="H58" s="415"/>
-      <c r="I58" s="416"/>
+      <c r="D58" s="322"/>
+      <c r="E58" s="323"/>
+      <c r="F58" s="324"/>
+      <c r="G58" s="310"/>
+      <c r="H58" s="311"/>
+      <c r="I58" s="312"/>
       <c r="J58" s="236"/>
       <c r="K58" s="237"/>
       <c r="L58" s="20"/>
@@ -8141,66 +8141,66 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="451" t="s">
+      <c r="A59" s="275" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="452"/>
-      <c r="C59" s="452"/>
-      <c r="D59" s="452"/>
-      <c r="E59" s="452"/>
-      <c r="F59" s="452"/>
-      <c r="G59" s="452"/>
-      <c r="H59" s="452"/>
-      <c r="I59" s="452"/>
-      <c r="J59" s="452"/>
-      <c r="K59" s="452"/>
-      <c r="L59" s="452"/>
-      <c r="M59" s="452"/>
-      <c r="N59" s="453"/>
+      <c r="B59" s="276"/>
+      <c r="C59" s="276"/>
+      <c r="D59" s="276"/>
+      <c r="E59" s="276"/>
+      <c r="F59" s="276"/>
+      <c r="G59" s="276"/>
+      <c r="H59" s="276"/>
+      <c r="I59" s="276"/>
+      <c r="J59" s="276"/>
+      <c r="K59" s="276"/>
+      <c r="L59" s="276"/>
+      <c r="M59" s="276"/>
+      <c r="N59" s="277"/>
       <c r="Q59" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="448" t="s">
+      <c r="A60" s="272" t="s">
         <v>392</v>
       </c>
-      <c r="B60" s="449"/>
-      <c r="C60" s="450"/>
-      <c r="D60" s="457"/>
-      <c r="E60" s="458"/>
-      <c r="F60" s="458"/>
-      <c r="G60" s="458"/>
-      <c r="H60" s="458"/>
-      <c r="I60" s="459"/>
-      <c r="J60" s="460" t="s">
+      <c r="B60" s="273"/>
+      <c r="C60" s="274"/>
+      <c r="D60" s="288"/>
+      <c r="E60" s="289"/>
+      <c r="F60" s="289"/>
+      <c r="G60" s="289"/>
+      <c r="H60" s="289"/>
+      <c r="I60" s="290"/>
+      <c r="J60" s="291" t="s">
         <v>393</v>
       </c>
-      <c r="K60" s="461"/>
-      <c r="L60" s="454"/>
-      <c r="M60" s="455"/>
-      <c r="N60" s="456"/>
+      <c r="K60" s="292"/>
+      <c r="L60" s="278"/>
+      <c r="M60" s="279"/>
+      <c r="N60" s="280"/>
       <c r="Q60" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="147" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="447" t="s">
+      <c r="A61" s="271" t="s">
         <v>395</v>
       </c>
-      <c r="B61" s="447"/>
-      <c r="C61" s="447"/>
-      <c r="D61" s="447"/>
-      <c r="E61" s="447"/>
-      <c r="F61" s="447"/>
-      <c r="G61" s="447"/>
-      <c r="H61" s="447"/>
-      <c r="I61" s="447"/>
-      <c r="J61" s="447"/>
-      <c r="K61" s="447"/>
-      <c r="L61" s="447"/>
-      <c r="M61" s="447"/>
-      <c r="N61" s="447"/>
+      <c r="B61" s="271"/>
+      <c r="C61" s="271"/>
+      <c r="D61" s="271"/>
+      <c r="E61" s="271"/>
+      <c r="F61" s="271"/>
+      <c r="G61" s="271"/>
+      <c r="H61" s="271"/>
+      <c r="I61" s="271"/>
+      <c r="J61" s="271"/>
+      <c r="K61" s="271"/>
+      <c r="L61" s="271"/>
+      <c r="M61" s="271"/>
+      <c r="N61" s="271"/>
       <c r="Q61" s="253" t="s">
         <v>396</v>
       </c>
@@ -11927,6 +11927,122 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="140">
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="J13:N15"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="I19:K20"/>
+    <mergeCell ref="L19:N20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D25:F26"/>
+    <mergeCell ref="D27:F28"/>
+    <mergeCell ref="D29:F30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="D20:F21"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="D22:F23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="N51:N53"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="D17:F18"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B51:C53"/>
+    <mergeCell ref="D51:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="I36:L36"/>
     <mergeCell ref="A61:N61"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A59:N59"/>
@@ -11951,122 +12067,6 @@
     <mergeCell ref="G51:I53"/>
     <mergeCell ref="G55:I55"/>
     <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B51:C53"/>
-    <mergeCell ref="D51:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="D17:F18"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="D22:F23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="I19:K20"/>
-    <mergeCell ref="L19:N20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D25:F26"/>
-    <mergeCell ref="D27:F28"/>
-    <mergeCell ref="D29:F30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="D20:F21"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="J13:N15"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I24:N24"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -12311,76 +12311,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="507"/>
-      <c r="B1" s="508"/>
-      <c r="C1" s="508"/>
-      <c r="D1" s="508"/>
-      <c r="E1" s="508"/>
-      <c r="F1" s="508"/>
-      <c r="G1" s="508"/>
-      <c r="H1" s="508"/>
-      <c r="I1" s="508"/>
-      <c r="J1" s="508"/>
-      <c r="K1" s="508"/>
-      <c r="L1" s="508"/>
-      <c r="M1" s="509"/>
+      <c r="A1" s="474"/>
+      <c r="B1" s="475"/>
+      <c r="C1" s="475"/>
+      <c r="D1" s="475"/>
+      <c r="E1" s="475"/>
+      <c r="F1" s="475"/>
+      <c r="G1" s="475"/>
+      <c r="H1" s="475"/>
+      <c r="I1" s="475"/>
+      <c r="J1" s="475"/>
+      <c r="K1" s="475"/>
+      <c r="L1" s="475"/>
+      <c r="M1" s="476"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="517" t="s">
+      <c r="A2" s="487" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="518"/>
-      <c r="C2" s="518"/>
-      <c r="D2" s="518"/>
-      <c r="E2" s="518"/>
-      <c r="F2" s="518"/>
-      <c r="G2" s="518"/>
-      <c r="H2" s="518"/>
-      <c r="I2" s="518"/>
-      <c r="J2" s="518"/>
-      <c r="K2" s="518"/>
-      <c r="L2" s="518"/>
-      <c r="M2" s="519"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
+      <c r="K2" s="488"/>
+      <c r="L2" s="488"/>
+      <c r="M2" s="489"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="144" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="510" t="s">
+      <c r="B3" s="477" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="510"/>
-      <c r="D3" s="510"/>
-      <c r="E3" s="511"/>
-      <c r="F3" s="515" t="s">
+      <c r="C3" s="477"/>
+      <c r="D3" s="477"/>
+      <c r="E3" s="478"/>
+      <c r="F3" s="485" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="512" t="s">
+      <c r="G3" s="481" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="511"/>
-      <c r="I3" s="512" t="s">
+      <c r="H3" s="478"/>
+      <c r="I3" s="481" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="510"/>
-      <c r="K3" s="511"/>
-      <c r="L3" s="513" t="s">
+      <c r="J3" s="477"/>
+      <c r="K3" s="478"/>
+      <c r="L3" s="483" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="514"/>
+      <c r="M3" s="484"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="486"/>
-      <c r="C4" s="486"/>
-      <c r="D4" s="486"/>
-      <c r="E4" s="487"/>
-      <c r="F4" s="516"/>
-      <c r="G4" s="498"/>
-      <c r="H4" s="487"/>
-      <c r="I4" s="498"/>
-      <c r="J4" s="486"/>
-      <c r="K4" s="487"/>
+      <c r="B4" s="479"/>
+      <c r="C4" s="479"/>
+      <c r="D4" s="479"/>
+      <c r="E4" s="480"/>
+      <c r="F4" s="486"/>
+      <c r="G4" s="482"/>
+      <c r="H4" s="480"/>
+      <c r="I4" s="482"/>
+      <c r="J4" s="479"/>
+      <c r="K4" s="480"/>
       <c r="L4" s="5" t="s">
         <v>91</v>
       </c>
@@ -12389,143 +12389,143 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="496"/>
-      <c r="B5" s="471"/>
-      <c r="C5" s="471"/>
-      <c r="D5" s="471"/>
-      <c r="E5" s="471"/>
+      <c r="A5" s="494"/>
+      <c r="B5" s="495"/>
+      <c r="C5" s="495"/>
+      <c r="D5" s="495"/>
+      <c r="E5" s="495"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="495"/>
-      <c r="I5" s="499"/>
-      <c r="J5" s="499"/>
-      <c r="K5" s="499"/>
+      <c r="G5" s="492"/>
+      <c r="H5" s="492"/>
+      <c r="I5" s="493"/>
+      <c r="J5" s="493"/>
+      <c r="K5" s="493"/>
       <c r="L5" s="9"/>
       <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="496"/>
-      <c r="B6" s="471"/>
-      <c r="C6" s="471"/>
-      <c r="D6" s="471"/>
-      <c r="E6" s="471"/>
+      <c r="A6" s="494"/>
+      <c r="B6" s="495"/>
+      <c r="C6" s="495"/>
+      <c r="D6" s="495"/>
+      <c r="E6" s="495"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="526"/>
-      <c r="H6" s="527"/>
-      <c r="I6" s="499"/>
-      <c r="J6" s="499"/>
-      <c r="K6" s="499"/>
+      <c r="G6" s="503"/>
+      <c r="H6" s="504"/>
+      <c r="I6" s="493"/>
+      <c r="J6" s="493"/>
+      <c r="K6" s="493"/>
       <c r="L6" s="9"/>
       <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="496"/>
-      <c r="B7" s="471"/>
-      <c r="C7" s="471"/>
-      <c r="D7" s="471"/>
-      <c r="E7" s="471"/>
+      <c r="A7" s="494"/>
+      <c r="B7" s="495"/>
+      <c r="C7" s="495"/>
+      <c r="D7" s="495"/>
+      <c r="E7" s="495"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="495"/>
-      <c r="H7" s="495"/>
-      <c r="I7" s="499"/>
-      <c r="J7" s="499"/>
-      <c r="K7" s="499"/>
+      <c r="G7" s="492"/>
+      <c r="H7" s="492"/>
+      <c r="I7" s="493"/>
+      <c r="J7" s="493"/>
+      <c r="K7" s="493"/>
       <c r="L7" s="9"/>
       <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="496"/>
-      <c r="B8" s="471"/>
-      <c r="C8" s="471"/>
-      <c r="D8" s="471"/>
-      <c r="E8" s="471"/>
+      <c r="A8" s="494"/>
+      <c r="B8" s="495"/>
+      <c r="C8" s="495"/>
+      <c r="D8" s="495"/>
+      <c r="E8" s="495"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="495"/>
-      <c r="H8" s="495"/>
-      <c r="I8" s="499"/>
-      <c r="J8" s="499"/>
-      <c r="K8" s="499"/>
+      <c r="G8" s="492"/>
+      <c r="H8" s="492"/>
+      <c r="I8" s="493"/>
+      <c r="J8" s="493"/>
+      <c r="K8" s="493"/>
       <c r="L8" s="9"/>
       <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="496"/>
-      <c r="B9" s="471"/>
-      <c r="C9" s="471"/>
-      <c r="D9" s="471"/>
-      <c r="E9" s="471"/>
+      <c r="A9" s="494"/>
+      <c r="B9" s="495"/>
+      <c r="C9" s="495"/>
+      <c r="D9" s="495"/>
+      <c r="E9" s="495"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="495"/>
-      <c r="H9" s="495"/>
-      <c r="I9" s="499"/>
-      <c r="J9" s="499"/>
-      <c r="K9" s="499"/>
+      <c r="G9" s="492"/>
+      <c r="H9" s="492"/>
+      <c r="I9" s="493"/>
+      <c r="J9" s="493"/>
+      <c r="K9" s="493"/>
       <c r="L9" s="9"/>
       <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="496"/>
-      <c r="B10" s="471"/>
-      <c r="C10" s="471"/>
-      <c r="D10" s="471"/>
-      <c r="E10" s="471"/>
+      <c r="A10" s="494"/>
+      <c r="B10" s="495"/>
+      <c r="C10" s="495"/>
+      <c r="D10" s="495"/>
+      <c r="E10" s="495"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="495"/>
-      <c r="H10" s="495"/>
-      <c r="I10" s="499"/>
-      <c r="J10" s="499"/>
-      <c r="K10" s="499"/>
+      <c r="G10" s="492"/>
+      <c r="H10" s="492"/>
+      <c r="I10" s="493"/>
+      <c r="J10" s="493"/>
+      <c r="K10" s="493"/>
       <c r="L10" s="9"/>
       <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="483"/>
-      <c r="B11" s="478"/>
-      <c r="C11" s="478"/>
-      <c r="D11" s="478"/>
-      <c r="E11" s="478"/>
+      <c r="A11" s="510"/>
+      <c r="B11" s="511"/>
+      <c r="C11" s="511"/>
+      <c r="D11" s="511"/>
+      <c r="E11" s="511"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="494"/>
-      <c r="H11" s="494"/>
-      <c r="I11" s="500"/>
-      <c r="J11" s="500"/>
-      <c r="K11" s="500"/>
+      <c r="G11" s="518"/>
+      <c r="H11" s="518"/>
+      <c r="I11" s="505"/>
+      <c r="J11" s="505"/>
+      <c r="K11" s="505"/>
       <c r="L11" s="11"/>
       <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="488" t="s">
+      <c r="A12" s="512" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="489"/>
-      <c r="C12" s="489"/>
-      <c r="D12" s="489"/>
-      <c r="E12" s="489"/>
-      <c r="F12" s="489"/>
-      <c r="G12" s="489"/>
-      <c r="H12" s="489"/>
-      <c r="I12" s="489"/>
-      <c r="J12" s="489"/>
-      <c r="K12" s="489"/>
-      <c r="L12" s="489"/>
-      <c r="M12" s="490"/>
+      <c r="B12" s="513"/>
+      <c r="C12" s="513"/>
+      <c r="D12" s="513"/>
+      <c r="E12" s="513"/>
+      <c r="F12" s="513"/>
+      <c r="G12" s="513"/>
+      <c r="H12" s="513"/>
+      <c r="I12" s="513"/>
+      <c r="J12" s="513"/>
+      <c r="K12" s="513"/>
+      <c r="L12" s="513"/>
+      <c r="M12" s="514"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="491" t="s">
+      <c r="A13" s="515" t="s">
         <v>384</v>
       </c>
-      <c r="B13" s="492"/>
-      <c r="C13" s="492"/>
-      <c r="D13" s="492"/>
-      <c r="E13" s="492"/>
-      <c r="F13" s="492"/>
-      <c r="G13" s="492"/>
-      <c r="H13" s="492"/>
-      <c r="I13" s="492"/>
-      <c r="J13" s="492"/>
-      <c r="K13" s="492"/>
-      <c r="L13" s="492"/>
-      <c r="M13" s="493"/>
+      <c r="B13" s="516"/>
+      <c r="C13" s="516"/>
+      <c r="D13" s="516"/>
+      <c r="E13" s="516"/>
+      <c r="F13" s="516"/>
+      <c r="G13" s="516"/>
+      <c r="H13" s="516"/>
+      <c r="I13" s="516"/>
+      <c r="J13" s="516"/>
+      <c r="K13" s="516"/>
+      <c r="L13" s="516"/>
+      <c r="M13" s="517"/>
     </row>
     <row r="14" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="217" t="s">
@@ -12548,515 +12548,515 @@
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="484" t="s">
+      <c r="B15" s="501" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="485"/>
-      <c r="D15" s="497" t="s">
+      <c r="C15" s="502"/>
+      <c r="D15" s="500" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="484"/>
-      <c r="F15" s="485"/>
-      <c r="G15" s="497" t="s">
+      <c r="E15" s="501"/>
+      <c r="F15" s="502"/>
+      <c r="G15" s="500" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="484"/>
-      <c r="I15" s="485"/>
-      <c r="J15" s="501" t="s">
+      <c r="H15" s="501"/>
+      <c r="I15" s="502"/>
+      <c r="J15" s="506" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="522" t="s">
+      <c r="K15" s="496" t="s">
         <v>346</v>
       </c>
-      <c r="L15" s="476" t="s">
+      <c r="L15" s="521" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="520" t="s">
+      <c r="M15" s="490" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="486"/>
-      <c r="C16" s="487"/>
-      <c r="D16" s="497"/>
-      <c r="E16" s="484"/>
-      <c r="F16" s="485"/>
-      <c r="G16" s="497"/>
-      <c r="H16" s="484"/>
-      <c r="I16" s="485"/>
-      <c r="J16" s="501"/>
-      <c r="K16" s="522"/>
-      <c r="L16" s="476"/>
-      <c r="M16" s="520"/>
+      <c r="B16" s="479"/>
+      <c r="C16" s="480"/>
+      <c r="D16" s="500"/>
+      <c r="E16" s="501"/>
+      <c r="F16" s="502"/>
+      <c r="G16" s="500"/>
+      <c r="H16" s="501"/>
+      <c r="I16" s="502"/>
+      <c r="J16" s="506"/>
+      <c r="K16" s="496"/>
+      <c r="L16" s="521"/>
+      <c r="M16" s="490"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="524" t="s">
+      <c r="A17" s="498" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="525"/>
+      <c r="B17" s="499"/>
       <c r="C17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="498"/>
-      <c r="E17" s="486"/>
-      <c r="F17" s="487"/>
-      <c r="G17" s="498"/>
-      <c r="H17" s="486"/>
-      <c r="I17" s="487"/>
-      <c r="J17" s="502"/>
-      <c r="K17" s="523"/>
-      <c r="L17" s="477"/>
-      <c r="M17" s="521"/>
+      <c r="D17" s="482"/>
+      <c r="E17" s="479"/>
+      <c r="F17" s="480"/>
+      <c r="G17" s="482"/>
+      <c r="H17" s="479"/>
+      <c r="I17" s="480"/>
+      <c r="J17" s="507"/>
+      <c r="K17" s="497"/>
+      <c r="L17" s="522"/>
+      <c r="M17" s="491"/>
     </row>
     <row r="18" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="472"/>
-      <c r="B18" s="473"/>
+      <c r="A18" s="508"/>
+      <c r="B18" s="509"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="471"/>
-      <c r="E18" s="471"/>
-      <c r="F18" s="471"/>
-      <c r="G18" s="471"/>
-      <c r="H18" s="471"/>
-      <c r="I18" s="471"/>
+      <c r="D18" s="495"/>
+      <c r="E18" s="495"/>
+      <c r="F18" s="495"/>
+      <c r="G18" s="495"/>
+      <c r="H18" s="495"/>
+      <c r="I18" s="495"/>
       <c r="J18" s="14"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="472"/>
-      <c r="B19" s="473"/>
+      <c r="A19" s="508"/>
+      <c r="B19" s="509"/>
       <c r="C19" s="24"/>
-      <c r="D19" s="471"/>
-      <c r="E19" s="471"/>
-      <c r="F19" s="471"/>
-      <c r="G19" s="471"/>
-      <c r="H19" s="471"/>
-      <c r="I19" s="471"/>
+      <c r="D19" s="495"/>
+      <c r="E19" s="495"/>
+      <c r="F19" s="495"/>
+      <c r="G19" s="495"/>
+      <c r="H19" s="495"/>
+      <c r="I19" s="495"/>
       <c r="J19" s="14"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="472"/>
-      <c r="B20" s="473"/>
+      <c r="A20" s="508"/>
+      <c r="B20" s="509"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="471"/>
-      <c r="E20" s="471"/>
-      <c r="F20" s="471"/>
-      <c r="G20" s="471"/>
-      <c r="H20" s="471"/>
-      <c r="I20" s="471"/>
+      <c r="D20" s="495"/>
+      <c r="E20" s="495"/>
+      <c r="F20" s="495"/>
+      <c r="G20" s="495"/>
+      <c r="H20" s="495"/>
+      <c r="I20" s="495"/>
       <c r="J20" s="14"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="472"/>
-      <c r="B21" s="473"/>
+      <c r="A21" s="508"/>
+      <c r="B21" s="509"/>
       <c r="C21" s="24"/>
-      <c r="D21" s="471"/>
-      <c r="E21" s="471"/>
-      <c r="F21" s="471"/>
-      <c r="G21" s="471"/>
-      <c r="H21" s="471"/>
-      <c r="I21" s="471"/>
+      <c r="D21" s="495"/>
+      <c r="E21" s="495"/>
+      <c r="F21" s="495"/>
+      <c r="G21" s="495"/>
+      <c r="H21" s="495"/>
+      <c r="I21" s="495"/>
       <c r="J21" s="14"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="472"/>
-      <c r="B22" s="473"/>
+      <c r="A22" s="508"/>
+      <c r="B22" s="509"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="471"/>
-      <c r="E22" s="471"/>
-      <c r="F22" s="471"/>
-      <c r="G22" s="471"/>
-      <c r="H22" s="471"/>
-      <c r="I22" s="471"/>
+      <c r="D22" s="495"/>
+      <c r="E22" s="495"/>
+      <c r="F22" s="495"/>
+      <c r="G22" s="495"/>
+      <c r="H22" s="495"/>
+      <c r="I22" s="495"/>
       <c r="J22" s="14"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="472"/>
-      <c r="B23" s="473"/>
+      <c r="A23" s="508"/>
+      <c r="B23" s="509"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="471"/>
-      <c r="E23" s="471"/>
-      <c r="F23" s="471"/>
-      <c r="G23" s="471"/>
-      <c r="H23" s="471"/>
-      <c r="I23" s="471"/>
+      <c r="D23" s="495"/>
+      <c r="E23" s="495"/>
+      <c r="F23" s="495"/>
+      <c r="G23" s="495"/>
+      <c r="H23" s="495"/>
+      <c r="I23" s="495"/>
       <c r="J23" s="14"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="472"/>
-      <c r="B24" s="473"/>
+      <c r="A24" s="508"/>
+      <c r="B24" s="509"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="471"/>
-      <c r="E24" s="471"/>
-      <c r="F24" s="471"/>
-      <c r="G24" s="471"/>
-      <c r="H24" s="471"/>
-      <c r="I24" s="471"/>
+      <c r="D24" s="495"/>
+      <c r="E24" s="495"/>
+      <c r="F24" s="495"/>
+      <c r="G24" s="495"/>
+      <c r="H24" s="495"/>
+      <c r="I24" s="495"/>
       <c r="J24" s="14"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="472"/>
-      <c r="B25" s="473"/>
+      <c r="A25" s="508"/>
+      <c r="B25" s="509"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="471"/>
-      <c r="E25" s="471"/>
-      <c r="F25" s="471"/>
-      <c r="G25" s="471"/>
-      <c r="H25" s="471"/>
-      <c r="I25" s="471"/>
+      <c r="D25" s="495"/>
+      <c r="E25" s="495"/>
+      <c r="F25" s="495"/>
+      <c r="G25" s="495"/>
+      <c r="H25" s="495"/>
+      <c r="I25" s="495"/>
       <c r="J25" s="14"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="472"/>
-      <c r="B26" s="473"/>
+      <c r="A26" s="508"/>
+      <c r="B26" s="509"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="471"/>
-      <c r="E26" s="471"/>
-      <c r="F26" s="471"/>
-      <c r="G26" s="471"/>
-      <c r="H26" s="471"/>
-      <c r="I26" s="471"/>
+      <c r="D26" s="495"/>
+      <c r="E26" s="495"/>
+      <c r="F26" s="495"/>
+      <c r="G26" s="495"/>
+      <c r="H26" s="495"/>
+      <c r="I26" s="495"/>
       <c r="J26" s="14"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="472"/>
-      <c r="B27" s="473"/>
+      <c r="A27" s="508"/>
+      <c r="B27" s="509"/>
       <c r="C27" s="24"/>
-      <c r="D27" s="471"/>
-      <c r="E27" s="471"/>
-      <c r="F27" s="471"/>
-      <c r="G27" s="471"/>
-      <c r="H27" s="471"/>
-      <c r="I27" s="471"/>
+      <c r="D27" s="495"/>
+      <c r="E27" s="495"/>
+      <c r="F27" s="495"/>
+      <c r="G27" s="495"/>
+      <c r="H27" s="495"/>
+      <c r="I27" s="495"/>
       <c r="J27" s="14"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="10"/>
     </row>
     <row r="28" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="472"/>
-      <c r="B28" s="473"/>
+      <c r="A28" s="508"/>
+      <c r="B28" s="509"/>
       <c r="C28" s="24"/>
-      <c r="D28" s="471"/>
-      <c r="E28" s="471"/>
-      <c r="F28" s="471"/>
-      <c r="G28" s="471"/>
-      <c r="H28" s="471"/>
-      <c r="I28" s="471"/>
+      <c r="D28" s="495"/>
+      <c r="E28" s="495"/>
+      <c r="F28" s="495"/>
+      <c r="G28" s="495"/>
+      <c r="H28" s="495"/>
+      <c r="I28" s="495"/>
       <c r="J28" s="14"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="10"/>
     </row>
     <row r="29" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="472"/>
-      <c r="B29" s="473"/>
+      <c r="A29" s="508"/>
+      <c r="B29" s="509"/>
       <c r="C29" s="24"/>
-      <c r="D29" s="471"/>
-      <c r="E29" s="471"/>
-      <c r="F29" s="471"/>
-      <c r="G29" s="471"/>
-      <c r="H29" s="471"/>
-      <c r="I29" s="471"/>
+      <c r="D29" s="495"/>
+      <c r="E29" s="495"/>
+      <c r="F29" s="495"/>
+      <c r="G29" s="495"/>
+      <c r="H29" s="495"/>
+      <c r="I29" s="495"/>
       <c r="J29" s="14"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="10"/>
     </row>
     <row r="30" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="472"/>
-      <c r="B30" s="473"/>
+      <c r="A30" s="508"/>
+      <c r="B30" s="509"/>
       <c r="C30" s="24"/>
-      <c r="D30" s="471"/>
-      <c r="E30" s="471"/>
-      <c r="F30" s="471"/>
-      <c r="G30" s="471"/>
-      <c r="H30" s="471"/>
-      <c r="I30" s="471"/>
+      <c r="D30" s="495"/>
+      <c r="E30" s="495"/>
+      <c r="F30" s="495"/>
+      <c r="G30" s="495"/>
+      <c r="H30" s="495"/>
+      <c r="I30" s="495"/>
       <c r="J30" s="14"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="472"/>
-      <c r="B31" s="473"/>
+      <c r="A31" s="508"/>
+      <c r="B31" s="509"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="471"/>
-      <c r="E31" s="471"/>
-      <c r="F31" s="471"/>
-      <c r="G31" s="471"/>
-      <c r="H31" s="471"/>
-      <c r="I31" s="471"/>
+      <c r="D31" s="495"/>
+      <c r="E31" s="495"/>
+      <c r="F31" s="495"/>
+      <c r="G31" s="495"/>
+      <c r="H31" s="495"/>
+      <c r="I31" s="495"/>
       <c r="J31" s="14"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="10"/>
     </row>
     <row r="32" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="472"/>
-      <c r="B32" s="473"/>
+      <c r="A32" s="508"/>
+      <c r="B32" s="509"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="471"/>
-      <c r="E32" s="471"/>
-      <c r="F32" s="471"/>
-      <c r="G32" s="471"/>
-      <c r="H32" s="471"/>
-      <c r="I32" s="471"/>
+      <c r="D32" s="495"/>
+      <c r="E32" s="495"/>
+      <c r="F32" s="495"/>
+      <c r="G32" s="495"/>
+      <c r="H32" s="495"/>
+      <c r="I32" s="495"/>
       <c r="J32" s="14"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="10"/>
     </row>
     <row r="33" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="472"/>
-      <c r="B33" s="473"/>
+      <c r="A33" s="508"/>
+      <c r="B33" s="509"/>
       <c r="C33" s="24"/>
-      <c r="D33" s="471"/>
-      <c r="E33" s="471"/>
-      <c r="F33" s="471"/>
-      <c r="G33" s="471"/>
-      <c r="H33" s="471"/>
-      <c r="I33" s="471"/>
+      <c r="D33" s="495"/>
+      <c r="E33" s="495"/>
+      <c r="F33" s="495"/>
+      <c r="G33" s="495"/>
+      <c r="H33" s="495"/>
+      <c r="I33" s="495"/>
       <c r="J33" s="14"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="10"/>
     </row>
     <row r="34" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="472"/>
-      <c r="B34" s="473"/>
+      <c r="A34" s="508"/>
+      <c r="B34" s="509"/>
       <c r="C34" s="24"/>
-      <c r="D34" s="471"/>
-      <c r="E34" s="471"/>
-      <c r="F34" s="471"/>
-      <c r="G34" s="471"/>
-      <c r="H34" s="471"/>
-      <c r="I34" s="471"/>
+      <c r="D34" s="495"/>
+      <c r="E34" s="495"/>
+      <c r="F34" s="495"/>
+      <c r="G34" s="495"/>
+      <c r="H34" s="495"/>
+      <c r="I34" s="495"/>
       <c r="J34" s="14"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="10"/>
     </row>
     <row r="35" spans="1:14" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="472"/>
-      <c r="B35" s="473"/>
+      <c r="A35" s="508"/>
+      <c r="B35" s="509"/>
       <c r="C35" s="24"/>
-      <c r="D35" s="471"/>
-      <c r="E35" s="471"/>
-      <c r="F35" s="471"/>
-      <c r="G35" s="471"/>
-      <c r="H35" s="471"/>
-      <c r="I35" s="471"/>
+      <c r="D35" s="495"/>
+      <c r="E35" s="495"/>
+      <c r="F35" s="495"/>
+      <c r="G35" s="495"/>
+      <c r="H35" s="495"/>
+      <c r="I35" s="495"/>
       <c r="J35" s="14"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="10"/>
     </row>
     <row r="36" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="472"/>
-      <c r="B36" s="473"/>
+      <c r="A36" s="508"/>
+      <c r="B36" s="509"/>
       <c r="C36" s="24"/>
-      <c r="D36" s="471"/>
-      <c r="E36" s="471"/>
-      <c r="F36" s="471"/>
-      <c r="G36" s="471"/>
-      <c r="H36" s="471"/>
-      <c r="I36" s="471"/>
+      <c r="D36" s="495"/>
+      <c r="E36" s="495"/>
+      <c r="F36" s="495"/>
+      <c r="G36" s="495"/>
+      <c r="H36" s="495"/>
+      <c r="I36" s="495"/>
       <c r="J36" s="14"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="10"/>
     </row>
     <row r="37" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="472"/>
-      <c r="B37" s="473"/>
+      <c r="A37" s="508"/>
+      <c r="B37" s="509"/>
       <c r="C37" s="24"/>
-      <c r="D37" s="471"/>
-      <c r="E37" s="471"/>
-      <c r="F37" s="471"/>
-      <c r="G37" s="471"/>
-      <c r="H37" s="471"/>
-      <c r="I37" s="471"/>
+      <c r="D37" s="495"/>
+      <c r="E37" s="495"/>
+      <c r="F37" s="495"/>
+      <c r="G37" s="495"/>
+      <c r="H37" s="495"/>
+      <c r="I37" s="495"/>
       <c r="J37" s="14"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="472"/>
-      <c r="B38" s="473"/>
+      <c r="A38" s="508"/>
+      <c r="B38" s="509"/>
       <c r="C38" s="24"/>
-      <c r="D38" s="471"/>
-      <c r="E38" s="471"/>
-      <c r="F38" s="471"/>
-      <c r="G38" s="471"/>
-      <c r="H38" s="471"/>
-      <c r="I38" s="471"/>
+      <c r="D38" s="495"/>
+      <c r="E38" s="495"/>
+      <c r="F38" s="495"/>
+      <c r="G38" s="495"/>
+      <c r="H38" s="495"/>
+      <c r="I38" s="495"/>
       <c r="J38" s="14"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="10"/>
     </row>
     <row r="39" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="472"/>
-      <c r="B39" s="473"/>
+      <c r="A39" s="508"/>
+      <c r="B39" s="509"/>
       <c r="C39" s="24"/>
-      <c r="D39" s="471"/>
-      <c r="E39" s="471"/>
-      <c r="F39" s="471"/>
-      <c r="G39" s="471"/>
-      <c r="H39" s="471"/>
-      <c r="I39" s="471"/>
+      <c r="D39" s="495"/>
+      <c r="E39" s="495"/>
+      <c r="F39" s="495"/>
+      <c r="G39" s="495"/>
+      <c r="H39" s="495"/>
+      <c r="I39" s="495"/>
       <c r="J39" s="14"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="10"/>
     </row>
     <row r="40" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="472"/>
-      <c r="B40" s="473"/>
+      <c r="A40" s="508"/>
+      <c r="B40" s="509"/>
       <c r="C40" s="24"/>
-      <c r="D40" s="471"/>
-      <c r="E40" s="471"/>
-      <c r="F40" s="471"/>
-      <c r="G40" s="471"/>
-      <c r="H40" s="471"/>
-      <c r="I40" s="471"/>
+      <c r="D40" s="495"/>
+      <c r="E40" s="495"/>
+      <c r="F40" s="495"/>
+      <c r="G40" s="495"/>
+      <c r="H40" s="495"/>
+      <c r="I40" s="495"/>
       <c r="J40" s="14"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="10"/>
     </row>
     <row r="41" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="472"/>
-      <c r="B41" s="473"/>
+      <c r="A41" s="508"/>
+      <c r="B41" s="509"/>
       <c r="C41" s="24"/>
-      <c r="D41" s="471"/>
-      <c r="E41" s="471"/>
-      <c r="F41" s="471"/>
-      <c r="G41" s="471"/>
-      <c r="H41" s="471"/>
-      <c r="I41" s="471"/>
+      <c r="D41" s="495"/>
+      <c r="E41" s="495"/>
+      <c r="F41" s="495"/>
+      <c r="G41" s="495"/>
+      <c r="H41" s="495"/>
+      <c r="I41" s="495"/>
       <c r="J41" s="14"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="10"/>
     </row>
     <row r="42" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="472"/>
-      <c r="B42" s="473"/>
+      <c r="A42" s="508"/>
+      <c r="B42" s="509"/>
       <c r="C42" s="24"/>
-      <c r="D42" s="471"/>
-      <c r="E42" s="471"/>
-      <c r="F42" s="471"/>
-      <c r="G42" s="471"/>
-      <c r="H42" s="471"/>
-      <c r="I42" s="471"/>
+      <c r="D42" s="495"/>
+      <c r="E42" s="495"/>
+      <c r="F42" s="495"/>
+      <c r="G42" s="495"/>
+      <c r="H42" s="495"/>
+      <c r="I42" s="495"/>
       <c r="J42" s="14"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="10"/>
     </row>
     <row r="43" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="472"/>
-      <c r="B43" s="473"/>
+      <c r="A43" s="508"/>
+      <c r="B43" s="509"/>
       <c r="C43" s="24"/>
-      <c r="D43" s="471"/>
-      <c r="E43" s="471"/>
-      <c r="F43" s="471"/>
-      <c r="G43" s="471"/>
-      <c r="H43" s="471"/>
-      <c r="I43" s="471"/>
+      <c r="D43" s="495"/>
+      <c r="E43" s="495"/>
+      <c r="F43" s="495"/>
+      <c r="G43" s="495"/>
+      <c r="H43" s="495"/>
+      <c r="I43" s="495"/>
       <c r="J43" s="14"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="10"/>
     </row>
     <row r="44" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="472"/>
-      <c r="B44" s="473"/>
+      <c r="A44" s="508"/>
+      <c r="B44" s="509"/>
       <c r="C44" s="24"/>
-      <c r="D44" s="471"/>
-      <c r="E44" s="471"/>
-      <c r="F44" s="471"/>
-      <c r="G44" s="471"/>
-      <c r="H44" s="471"/>
-      <c r="I44" s="471"/>
+      <c r="D44" s="495"/>
+      <c r="E44" s="495"/>
+      <c r="F44" s="495"/>
+      <c r="G44" s="495"/>
+      <c r="H44" s="495"/>
+      <c r="I44" s="495"/>
       <c r="J44" s="14"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="10"/>
     </row>
     <row r="45" spans="1:14" s="13" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="474"/>
-      <c r="B45" s="475"/>
+      <c r="A45" s="519"/>
+      <c r="B45" s="520"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="478"/>
-      <c r="E45" s="478"/>
-      <c r="F45" s="478"/>
-      <c r="G45" s="478"/>
-      <c r="H45" s="478"/>
-      <c r="I45" s="478"/>
+      <c r="D45" s="511"/>
+      <c r="E45" s="511"/>
+      <c r="F45" s="511"/>
+      <c r="G45" s="511"/>
+      <c r="H45" s="511"/>
+      <c r="I45" s="511"/>
       <c r="J45" s="15"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="12"/>
     </row>
     <row r="46" spans="1:14" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="479" t="s">
+      <c r="A46" s="523" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="480"/>
-      <c r="C46" s="480"/>
-      <c r="D46" s="480"/>
-      <c r="E46" s="480"/>
-      <c r="F46" s="480"/>
-      <c r="G46" s="480"/>
-      <c r="H46" s="480"/>
-      <c r="I46" s="480"/>
-      <c r="J46" s="480"/>
-      <c r="K46" s="481"/>
-      <c r="L46" s="481"/>
-      <c r="M46" s="482"/>
+      <c r="B46" s="524"/>
+      <c r="C46" s="524"/>
+      <c r="D46" s="524"/>
+      <c r="E46" s="524"/>
+      <c r="F46" s="524"/>
+      <c r="G46" s="524"/>
+      <c r="H46" s="524"/>
+      <c r="I46" s="524"/>
+      <c r="J46" s="524"/>
+      <c r="K46" s="525"/>
+      <c r="L46" s="525"/>
+      <c r="M46" s="526"/>
     </row>
     <row r="47" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="448" t="s">
+      <c r="A47" s="272" t="s">
         <v>392</v>
       </c>
-      <c r="B47" s="449"/>
-      <c r="C47" s="450"/>
-      <c r="D47" s="504"/>
-      <c r="E47" s="505"/>
-      <c r="F47" s="505"/>
-      <c r="G47" s="505"/>
-      <c r="H47" s="506"/>
+      <c r="B47" s="273"/>
+      <c r="C47" s="274"/>
+      <c r="D47" s="471"/>
+      <c r="E47" s="472"/>
+      <c r="F47" s="472"/>
+      <c r="G47" s="472"/>
+      <c r="H47" s="473"/>
       <c r="I47" s="248" t="s">
         <v>393</v>
       </c>
@@ -13067,21 +13067,21 @@
       <c r="N47" s="251"/>
     </row>
     <row r="48" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="503" t="s">
+      <c r="A48" s="470" t="s">
         <v>397</v>
       </c>
-      <c r="B48" s="503"/>
-      <c r="C48" s="503"/>
-      <c r="D48" s="503"/>
-      <c r="E48" s="503"/>
-      <c r="F48" s="503"/>
-      <c r="G48" s="503"/>
-      <c r="H48" s="503"/>
-      <c r="I48" s="503"/>
-      <c r="J48" s="503"/>
-      <c r="K48" s="503"/>
-      <c r="L48" s="503"/>
-      <c r="M48" s="503"/>
+      <c r="B48" s="470"/>
+      <c r="C48" s="470"/>
+      <c r="D48" s="470"/>
+      <c r="E48" s="470"/>
+      <c r="F48" s="470"/>
+      <c r="G48" s="470"/>
+      <c r="H48" s="470"/>
+      <c r="I48" s="470"/>
+      <c r="J48" s="470"/>
+      <c r="K48" s="470"/>
+      <c r="L48" s="470"/>
+      <c r="M48" s="470"/>
       <c r="N48" s="254"/>
     </row>
   </sheetData>
@@ -13095,6 +13095,108 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="126">
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="G15:I17"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="J15:J17"/>
     <mergeCell ref="A48:M48"/>
     <mergeCell ref="D47:H47"/>
     <mergeCell ref="A1:M1"/>
@@ -13119,108 +13221,6 @@
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="G15:I17"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -13258,280 +13258,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="550"/>
-      <c r="B1" s="551"/>
-      <c r="C1" s="551"/>
-      <c r="D1" s="551"/>
-      <c r="E1" s="551"/>
-      <c r="F1" s="551"/>
-      <c r="G1" s="551"/>
-      <c r="H1" s="551"/>
-      <c r="I1" s="551"/>
-      <c r="J1" s="551"/>
-      <c r="K1" s="552"/>
+      <c r="A1" s="556"/>
+      <c r="B1" s="557"/>
+      <c r="C1" s="557"/>
+      <c r="D1" s="557"/>
+      <c r="E1" s="557"/>
+      <c r="F1" s="557"/>
+      <c r="G1" s="557"/>
+      <c r="H1" s="557"/>
+      <c r="I1" s="557"/>
+      <c r="J1" s="557"/>
+      <c r="K1" s="558"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="575" t="s">
+      <c r="A2" s="576" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="576"/>
-      <c r="C2" s="576"/>
-      <c r="D2" s="576"/>
-      <c r="E2" s="576"/>
-      <c r="F2" s="576"/>
-      <c r="G2" s="576"/>
-      <c r="H2" s="576"/>
-      <c r="I2" s="576"/>
-      <c r="J2" s="576"/>
-      <c r="K2" s="577"/>
+      <c r="B2" s="577"/>
+      <c r="C2" s="577"/>
+      <c r="D2" s="577"/>
+      <c r="E2" s="577"/>
+      <c r="F2" s="577"/>
+      <c r="G2" s="577"/>
+      <c r="H2" s="577"/>
+      <c r="I2" s="577"/>
+      <c r="J2" s="577"/>
+      <c r="K2" s="578"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="559" t="s">
+      <c r="A3" s="562" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="560" t="s">
+      <c r="B3" s="564" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="560"/>
-      <c r="D3" s="561"/>
-      <c r="E3" s="510" t="s">
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="477" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="511"/>
-      <c r="G3" s="587" t="s">
+      <c r="F3" s="478"/>
+      <c r="G3" s="540" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="512" t="s">
+      <c r="H3" s="481" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="570"/>
-      <c r="J3" s="570"/>
-      <c r="K3" s="571"/>
+      <c r="I3" s="571"/>
+      <c r="J3" s="571"/>
+      <c r="K3" s="572"/>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="549"/>
-      <c r="B4" s="562"/>
-      <c r="C4" s="562"/>
-      <c r="D4" s="563"/>
-      <c r="E4" s="486"/>
-      <c r="F4" s="487"/>
-      <c r="G4" s="522"/>
-      <c r="H4" s="572"/>
-      <c r="I4" s="553"/>
-      <c r="J4" s="553"/>
-      <c r="K4" s="573"/>
+      <c r="A4" s="563"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="566"/>
+      <c r="D4" s="567"/>
+      <c r="E4" s="479"/>
+      <c r="F4" s="480"/>
+      <c r="G4" s="496"/>
+      <c r="H4" s="573"/>
+      <c r="I4" s="559"/>
+      <c r="J4" s="559"/>
+      <c r="K4" s="574"/>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
-      <c r="B5" s="578"/>
-      <c r="C5" s="578"/>
-      <c r="D5" s="579"/>
+      <c r="B5" s="579"/>
+      <c r="C5" s="579"/>
+      <c r="D5" s="580"/>
       <c r="E5" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="523"/>
-      <c r="H5" s="574"/>
-      <c r="I5" s="435"/>
-      <c r="J5" s="435"/>
-      <c r="K5" s="436"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="575"/>
+      <c r="I5" s="326"/>
+      <c r="J5" s="326"/>
+      <c r="K5" s="327"/>
     </row>
     <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="567"/>
-      <c r="B6" s="568"/>
-      <c r="C6" s="568"/>
-      <c r="D6" s="569"/>
+      <c r="A6" s="537"/>
+      <c r="B6" s="538"/>
+      <c r="C6" s="538"/>
+      <c r="D6" s="539"/>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="556"/>
-      <c r="I6" s="557"/>
-      <c r="J6" s="557"/>
-      <c r="K6" s="558"/>
+      <c r="H6" s="541"/>
+      <c r="I6" s="542"/>
+      <c r="J6" s="542"/>
+      <c r="K6" s="543"/>
     </row>
     <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="567"/>
-      <c r="B7" s="568"/>
-      <c r="C7" s="568"/>
-      <c r="D7" s="569"/>
+      <c r="A7" s="537"/>
+      <c r="B7" s="538"/>
+      <c r="C7" s="538"/>
+      <c r="D7" s="539"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
       <c r="G7" s="39"/>
-      <c r="H7" s="556"/>
-      <c r="I7" s="557"/>
-      <c r="J7" s="557"/>
-      <c r="K7" s="558"/>
+      <c r="H7" s="541"/>
+      <c r="I7" s="542"/>
+      <c r="J7" s="542"/>
+      <c r="K7" s="543"/>
     </row>
     <row r="8" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="567"/>
-      <c r="B8" s="568"/>
-      <c r="C8" s="568"/>
-      <c r="D8" s="569"/>
+      <c r="A8" s="537"/>
+      <c r="B8" s="538"/>
+      <c r="C8" s="538"/>
+      <c r="D8" s="539"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
       <c r="G8" s="39"/>
-      <c r="H8" s="556"/>
-      <c r="I8" s="557"/>
-      <c r="J8" s="557"/>
-      <c r="K8" s="558"/>
+      <c r="H8" s="541"/>
+      <c r="I8" s="542"/>
+      <c r="J8" s="542"/>
+      <c r="K8" s="543"/>
     </row>
     <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="567"/>
-      <c r="B9" s="568"/>
-      <c r="C9" s="568"/>
-      <c r="D9" s="569"/>
+      <c r="A9" s="537"/>
+      <c r="B9" s="538"/>
+      <c r="C9" s="538"/>
+      <c r="D9" s="539"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="39"/>
-      <c r="H9" s="556"/>
-      <c r="I9" s="557"/>
-      <c r="J9" s="557"/>
-      <c r="K9" s="558"/>
+      <c r="H9" s="541"/>
+      <c r="I9" s="542"/>
+      <c r="J9" s="542"/>
+      <c r="K9" s="543"/>
     </row>
     <row r="10" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="567"/>
-      <c r="B10" s="568"/>
-      <c r="C10" s="568"/>
-      <c r="D10" s="569"/>
+      <c r="A10" s="537"/>
+      <c r="B10" s="538"/>
+      <c r="C10" s="538"/>
+      <c r="D10" s="539"/>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
       <c r="G10" s="39"/>
-      <c r="H10" s="556"/>
-      <c r="I10" s="557"/>
-      <c r="J10" s="557"/>
-      <c r="K10" s="558"/>
+      <c r="H10" s="541"/>
+      <c r="I10" s="542"/>
+      <c r="J10" s="542"/>
+      <c r="K10" s="543"/>
     </row>
     <row r="11" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="567"/>
-      <c r="B11" s="568"/>
-      <c r="C11" s="568"/>
-      <c r="D11" s="569"/>
+      <c r="A11" s="537"/>
+      <c r="B11" s="538"/>
+      <c r="C11" s="538"/>
+      <c r="D11" s="539"/>
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
       <c r="G11" s="39"/>
-      <c r="H11" s="556"/>
-      <c r="I11" s="557"/>
-      <c r="J11" s="557"/>
-      <c r="K11" s="558"/>
+      <c r="H11" s="541"/>
+      <c r="I11" s="542"/>
+      <c r="J11" s="542"/>
+      <c r="K11" s="543"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="564"/>
-      <c r="B12" s="565"/>
-      <c r="C12" s="565"/>
-      <c r="D12" s="566"/>
+      <c r="A12" s="568"/>
+      <c r="B12" s="569"/>
+      <c r="C12" s="569"/>
+      <c r="D12" s="570"/>
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
       <c r="G12" s="40"/>
-      <c r="H12" s="528"/>
-      <c r="I12" s="529"/>
-      <c r="J12" s="529"/>
-      <c r="K12" s="530"/>
+      <c r="H12" s="581"/>
+      <c r="I12" s="582"/>
+      <c r="J12" s="582"/>
+      <c r="K12" s="583"/>
     </row>
     <row r="13" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="488" t="s">
+      <c r="A13" s="512" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="489"/>
-      <c r="C13" s="489"/>
-      <c r="D13" s="489"/>
-      <c r="E13" s="489"/>
-      <c r="F13" s="489"/>
-      <c r="G13" s="489"/>
-      <c r="H13" s="489"/>
-      <c r="I13" s="489"/>
-      <c r="J13" s="489"/>
-      <c r="K13" s="490"/>
+      <c r="B13" s="513"/>
+      <c r="C13" s="513"/>
+      <c r="D13" s="513"/>
+      <c r="E13" s="513"/>
+      <c r="F13" s="513"/>
+      <c r="G13" s="513"/>
+      <c r="H13" s="513"/>
+      <c r="I13" s="513"/>
+      <c r="J13" s="513"/>
+      <c r="K13" s="514"/>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="531" t="s">
+      <c r="A14" s="584" t="s">
         <v>342</v>
       </c>
-      <c r="B14" s="532"/>
-      <c r="C14" s="532"/>
-      <c r="D14" s="532"/>
-      <c r="E14" s="532"/>
-      <c r="F14" s="532"/>
-      <c r="G14" s="532"/>
-      <c r="H14" s="532"/>
-      <c r="I14" s="532"/>
-      <c r="J14" s="532"/>
-      <c r="K14" s="533"/>
+      <c r="B14" s="585"/>
+      <c r="C14" s="585"/>
+      <c r="D14" s="585"/>
+      <c r="E14" s="585"/>
+      <c r="F14" s="585"/>
+      <c r="G14" s="585"/>
+      <c r="H14" s="585"/>
+      <c r="I14" s="585"/>
+      <c r="J14" s="585"/>
+      <c r="K14" s="586"/>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="549" t="s">
+      <c r="A15" s="563" t="s">
         <v>362</v>
       </c>
-      <c r="B15" s="484" t="s">
+      <c r="B15" s="501" t="s">
         <v>364</v>
       </c>
-      <c r="C15" s="553"/>
-      <c r="D15" s="554"/>
-      <c r="E15" s="484" t="s">
+      <c r="C15" s="559"/>
+      <c r="D15" s="560"/>
+      <c r="E15" s="501" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="485"/>
-      <c r="G15" s="522" t="s">
+      <c r="F15" s="502"/>
+      <c r="G15" s="496" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="501" t="s">
+      <c r="H15" s="506" t="s">
         <v>339</v>
       </c>
-      <c r="I15" s="497" t="s">
+      <c r="I15" s="500" t="s">
         <v>360</v>
       </c>
-      <c r="J15" s="553"/>
-      <c r="K15" s="573"/>
+      <c r="J15" s="559"/>
+      <c r="K15" s="574"/>
     </row>
     <row r="16" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="549"/>
-      <c r="B16" s="553"/>
-      <c r="C16" s="553"/>
-      <c r="D16" s="554"/>
-      <c r="E16" s="486"/>
-      <c r="F16" s="487"/>
-      <c r="G16" s="522"/>
-      <c r="H16" s="501"/>
-      <c r="I16" s="572"/>
-      <c r="J16" s="553"/>
-      <c r="K16" s="573"/>
+      <c r="A16" s="563"/>
+      <c r="B16" s="559"/>
+      <c r="C16" s="559"/>
+      <c r="D16" s="560"/>
+      <c r="E16" s="479"/>
+      <c r="F16" s="480"/>
+      <c r="G16" s="496"/>
+      <c r="H16" s="506"/>
+      <c r="I16" s="573"/>
+      <c r="J16" s="559"/>
+      <c r="K16" s="574"/>
     </row>
     <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
-      <c r="B17" s="435"/>
-      <c r="C17" s="435"/>
-      <c r="D17" s="555"/>
+      <c r="B17" s="326"/>
+      <c r="C17" s="326"/>
+      <c r="D17" s="561"/>
       <c r="E17" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="523"/>
-      <c r="H17" s="502"/>
-      <c r="I17" s="574"/>
-      <c r="J17" s="435"/>
-      <c r="K17" s="436"/>
+      <c r="G17" s="497"/>
+      <c r="H17" s="507"/>
+      <c r="I17" s="575"/>
+      <c r="J17" s="326"/>
+      <c r="K17" s="327"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="540"/>
-      <c r="B18" s="541"/>
-      <c r="C18" s="541"/>
-      <c r="D18" s="542"/>
+      <c r="A18" s="544"/>
+      <c r="B18" s="545"/>
+      <c r="C18" s="545"/>
+      <c r="D18" s="546"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="32"/>
       <c r="H18" s="31"/>
-      <c r="I18" s="537"/>
-      <c r="J18" s="538"/>
-      <c r="K18" s="539"/>
+      <c r="I18" s="550"/>
+      <c r="J18" s="551"/>
+      <c r="K18" s="552"/>
     </row>
     <row r="19" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="534"/>
-      <c r="B19" s="535"/>
-      <c r="C19" s="535"/>
-      <c r="D19" s="536"/>
+      <c r="A19" s="547"/>
+      <c r="B19" s="548"/>
+      <c r="C19" s="548"/>
+      <c r="D19" s="549"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="32"/>
@@ -13541,10 +13541,10 @@
       <c r="K19" s="35"/>
     </row>
     <row r="20" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="534"/>
-      <c r="B20" s="535"/>
-      <c r="C20" s="535"/>
-      <c r="D20" s="536"/>
+      <c r="A20" s="547"/>
+      <c r="B20" s="548"/>
+      <c r="C20" s="548"/>
+      <c r="D20" s="549"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="32"/>
@@ -13554,10 +13554,10 @@
       <c r="K20" s="35"/>
     </row>
     <row r="21" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="534"/>
-      <c r="B21" s="535"/>
-      <c r="C21" s="535"/>
-      <c r="D21" s="536"/>
+      <c r="A21" s="547"/>
+      <c r="B21" s="548"/>
+      <c r="C21" s="548"/>
+      <c r="D21" s="549"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
       <c r="G21" s="32"/>
@@ -13567,10 +13567,10 @@
       <c r="K21" s="35"/>
     </row>
     <row r="22" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="534"/>
-      <c r="B22" s="535"/>
-      <c r="C22" s="535"/>
-      <c r="D22" s="536"/>
+      <c r="A22" s="547"/>
+      <c r="B22" s="548"/>
+      <c r="C22" s="548"/>
+      <c r="D22" s="549"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
       <c r="G22" s="32"/>
@@ -13580,10 +13580,10 @@
       <c r="K22" s="35"/>
     </row>
     <row r="23" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="534"/>
-      <c r="B23" s="535"/>
-      <c r="C23" s="535"/>
-      <c r="D23" s="536"/>
+      <c r="A23" s="547"/>
+      <c r="B23" s="548"/>
+      <c r="C23" s="548"/>
+      <c r="D23" s="549"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="32"/>
@@ -13593,10 +13593,10 @@
       <c r="K23" s="35"/>
     </row>
     <row r="24" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="534"/>
-      <c r="B24" s="535"/>
-      <c r="C24" s="535"/>
-      <c r="D24" s="536"/>
+      <c r="A24" s="547"/>
+      <c r="B24" s="548"/>
+      <c r="C24" s="548"/>
+      <c r="D24" s="549"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
       <c r="G24" s="32"/>
@@ -13606,10 +13606,10 @@
       <c r="K24" s="35"/>
     </row>
     <row r="25" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="534"/>
-      <c r="B25" s="535"/>
-      <c r="C25" s="535"/>
-      <c r="D25" s="536"/>
+      <c r="A25" s="547"/>
+      <c r="B25" s="548"/>
+      <c r="C25" s="548"/>
+      <c r="D25" s="549"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="32"/>
@@ -13619,43 +13619,43 @@
       <c r="K25" s="35"/>
     </row>
     <row r="26" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="540"/>
-      <c r="B26" s="541"/>
-      <c r="C26" s="541"/>
-      <c r="D26" s="542"/>
+      <c r="A26" s="544"/>
+      <c r="B26" s="545"/>
+      <c r="C26" s="545"/>
+      <c r="D26" s="546"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
       <c r="G26" s="32"/>
       <c r="H26" s="31"/>
-      <c r="I26" s="537"/>
-      <c r="J26" s="538"/>
-      <c r="K26" s="539"/>
+      <c r="I26" s="550"/>
+      <c r="J26" s="551"/>
+      <c r="K26" s="552"/>
     </row>
     <row r="27" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="540"/>
-      <c r="B27" s="541"/>
-      <c r="C27" s="541"/>
-      <c r="D27" s="542"/>
+      <c r="A27" s="544"/>
+      <c r="B27" s="545"/>
+      <c r="C27" s="545"/>
+      <c r="D27" s="546"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="32"/>
       <c r="H27" s="31"/>
-      <c r="I27" s="537"/>
-      <c r="J27" s="538"/>
-      <c r="K27" s="539"/>
+      <c r="I27" s="550"/>
+      <c r="J27" s="551"/>
+      <c r="K27" s="552"/>
     </row>
     <row r="28" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="540"/>
-      <c r="B28" s="541"/>
-      <c r="C28" s="541"/>
-      <c r="D28" s="542"/>
+      <c r="A28" s="544"/>
+      <c r="B28" s="545"/>
+      <c r="C28" s="545"/>
+      <c r="D28" s="546"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="32"/>
       <c r="H28" s="31"/>
-      <c r="I28" s="537"/>
-      <c r="J28" s="538"/>
-      <c r="K28" s="539"/>
+      <c r="I28" s="550"/>
+      <c r="J28" s="551"/>
+      <c r="K28" s="552"/>
     </row>
     <row r="29" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="201"/>
@@ -13736,86 +13736,86 @@
       <c r="K34" s="35"/>
     </row>
     <row r="35" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="540"/>
-      <c r="B35" s="541"/>
-      <c r="C35" s="541"/>
-      <c r="D35" s="542"/>
+      <c r="A35" s="544"/>
+      <c r="B35" s="545"/>
+      <c r="C35" s="545"/>
+      <c r="D35" s="546"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
       <c r="G35" s="32"/>
       <c r="H35" s="31"/>
-      <c r="I35" s="537"/>
-      <c r="J35" s="538"/>
-      <c r="K35" s="539"/>
+      <c r="I35" s="550"/>
+      <c r="J35" s="551"/>
+      <c r="K35" s="552"/>
     </row>
     <row r="36" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="540"/>
-      <c r="B36" s="541"/>
-      <c r="C36" s="541"/>
-      <c r="D36" s="542"/>
+      <c r="A36" s="544"/>
+      <c r="B36" s="545"/>
+      <c r="C36" s="545"/>
+      <c r="D36" s="546"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
       <c r="G36" s="32"/>
       <c r="H36" s="31"/>
-      <c r="I36" s="537"/>
-      <c r="J36" s="538"/>
-      <c r="K36" s="539"/>
+      <c r="I36" s="550"/>
+      <c r="J36" s="551"/>
+      <c r="K36" s="552"/>
     </row>
     <row r="37" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="540"/>
-      <c r="B37" s="541"/>
-      <c r="C37" s="541"/>
-      <c r="D37" s="542"/>
+      <c r="A37" s="544"/>
+      <c r="B37" s="545"/>
+      <c r="C37" s="545"/>
+      <c r="D37" s="546"/>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
       <c r="G37" s="32"/>
       <c r="H37" s="31"/>
-      <c r="I37" s="537"/>
-      <c r="J37" s="538"/>
-      <c r="K37" s="539"/>
+      <c r="I37" s="550"/>
+      <c r="J37" s="551"/>
+      <c r="K37" s="552"/>
     </row>
     <row r="38" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="543"/>
-      <c r="B38" s="544"/>
-      <c r="C38" s="544"/>
-      <c r="D38" s="545"/>
+      <c r="A38" s="587"/>
+      <c r="B38" s="588"/>
+      <c r="C38" s="588"/>
+      <c r="D38" s="589"/>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
       <c r="G38" s="36"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="546"/>
-      <c r="J38" s="547"/>
-      <c r="K38" s="548"/>
+      <c r="I38" s="590"/>
+      <c r="J38" s="591"/>
+      <c r="K38" s="592"/>
     </row>
     <row r="39" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="451" t="s">
+      <c r="A39" s="275" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="452"/>
-      <c r="C39" s="452"/>
-      <c r="D39" s="452"/>
-      <c r="E39" s="452"/>
-      <c r="F39" s="452"/>
-      <c r="G39" s="452"/>
-      <c r="H39" s="452"/>
-      <c r="I39" s="452"/>
-      <c r="J39" s="452"/>
-      <c r="K39" s="453"/>
+      <c r="B39" s="276"/>
+      <c r="C39" s="276"/>
+      <c r="D39" s="276"/>
+      <c r="E39" s="276"/>
+      <c r="F39" s="276"/>
+      <c r="G39" s="276"/>
+      <c r="H39" s="276"/>
+      <c r="I39" s="276"/>
+      <c r="J39" s="276"/>
+      <c r="K39" s="277"/>
     </row>
     <row r="40" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="584" t="s">
+      <c r="A40" s="553" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="585"/>
-      <c r="C40" s="585"/>
-      <c r="D40" s="585"/>
-      <c r="E40" s="585"/>
-      <c r="F40" s="585"/>
-      <c r="G40" s="585"/>
-      <c r="H40" s="585"/>
-      <c r="I40" s="585"/>
-      <c r="J40" s="585"/>
-      <c r="K40" s="586"/>
+      <c r="B40" s="554"/>
+      <c r="C40" s="554"/>
+      <c r="D40" s="554"/>
+      <c r="E40" s="554"/>
+      <c r="F40" s="554"/>
+      <c r="G40" s="554"/>
+      <c r="H40" s="554"/>
+      <c r="I40" s="554"/>
+      <c r="J40" s="554"/>
+      <c r="K40" s="555"/>
     </row>
     <row r="41" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="145" t="s">
@@ -13827,143 +13827,143 @@
       <c r="C41" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="588" t="s">
+      <c r="D41" s="534" t="s">
         <v>365</v>
       </c>
-      <c r="E41" s="588"/>
-      <c r="F41" s="588"/>
-      <c r="G41" s="588"/>
-      <c r="H41" s="589"/>
+      <c r="E41" s="534"/>
+      <c r="F41" s="534"/>
+      <c r="G41" s="534"/>
+      <c r="H41" s="535"/>
       <c r="I41" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="588" t="s">
+      <c r="J41" s="534" t="s">
         <v>86</v>
       </c>
-      <c r="K41" s="591"/>
+      <c r="K41" s="536"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="580"/>
-      <c r="B42" s="581"/>
-      <c r="C42" s="582"/>
-      <c r="D42" s="583"/>
-      <c r="E42" s="583"/>
-      <c r="F42" s="583"/>
-      <c r="G42" s="583"/>
-      <c r="H42" s="581"/>
-      <c r="I42" s="582"/>
-      <c r="J42" s="583"/>
-      <c r="K42" s="590"/>
+      <c r="A42" s="529"/>
+      <c r="B42" s="530"/>
+      <c r="C42" s="531"/>
+      <c r="D42" s="532"/>
+      <c r="E42" s="532"/>
+      <c r="F42" s="532"/>
+      <c r="G42" s="532"/>
+      <c r="H42" s="530"/>
+      <c r="I42" s="531"/>
+      <c r="J42" s="532"/>
+      <c r="K42" s="533"/>
     </row>
     <row r="43" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="580"/>
-      <c r="B43" s="581"/>
-      <c r="C43" s="582"/>
-      <c r="D43" s="583"/>
-      <c r="E43" s="583"/>
-      <c r="F43" s="583"/>
-      <c r="G43" s="583"/>
-      <c r="H43" s="581"/>
-      <c r="I43" s="582"/>
-      <c r="J43" s="583"/>
-      <c r="K43" s="590"/>
+      <c r="A43" s="529"/>
+      <c r="B43" s="530"/>
+      <c r="C43" s="531"/>
+      <c r="D43" s="532"/>
+      <c r="E43" s="532"/>
+      <c r="F43" s="532"/>
+      <c r="G43" s="532"/>
+      <c r="H43" s="530"/>
+      <c r="I43" s="531"/>
+      <c r="J43" s="532"/>
+      <c r="K43" s="533"/>
     </row>
     <row r="44" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="580"/>
-      <c r="B44" s="581"/>
-      <c r="C44" s="582"/>
-      <c r="D44" s="583"/>
-      <c r="E44" s="583"/>
-      <c r="F44" s="583"/>
-      <c r="G44" s="583"/>
-      <c r="H44" s="581"/>
-      <c r="I44" s="582"/>
-      <c r="J44" s="583"/>
-      <c r="K44" s="590"/>
+      <c r="A44" s="529"/>
+      <c r="B44" s="530"/>
+      <c r="C44" s="531"/>
+      <c r="D44" s="532"/>
+      <c r="E44" s="532"/>
+      <c r="F44" s="532"/>
+      <c r="G44" s="532"/>
+      <c r="H44" s="530"/>
+      <c r="I44" s="531"/>
+      <c r="J44" s="532"/>
+      <c r="K44" s="533"/>
     </row>
     <row r="45" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="580"/>
-      <c r="B45" s="581"/>
-      <c r="C45" s="582"/>
-      <c r="D45" s="583"/>
-      <c r="E45" s="583"/>
-      <c r="F45" s="583"/>
-      <c r="G45" s="583"/>
-      <c r="H45" s="581"/>
-      <c r="I45" s="582"/>
-      <c r="J45" s="583"/>
-      <c r="K45" s="590"/>
+      <c r="A45" s="529"/>
+      <c r="B45" s="530"/>
+      <c r="C45" s="531"/>
+      <c r="D45" s="532"/>
+      <c r="E45" s="532"/>
+      <c r="F45" s="532"/>
+      <c r="G45" s="532"/>
+      <c r="H45" s="530"/>
+      <c r="I45" s="531"/>
+      <c r="J45" s="532"/>
+      <c r="K45" s="533"/>
     </row>
     <row r="46" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="580"/>
-      <c r="B46" s="581"/>
-      <c r="C46" s="582"/>
-      <c r="D46" s="583"/>
-      <c r="E46" s="583"/>
-      <c r="F46" s="583"/>
-      <c r="G46" s="583"/>
-      <c r="H46" s="581"/>
-      <c r="I46" s="582"/>
-      <c r="J46" s="583"/>
-      <c r="K46" s="590"/>
+      <c r="A46" s="529"/>
+      <c r="B46" s="530"/>
+      <c r="C46" s="531"/>
+      <c r="D46" s="532"/>
+      <c r="E46" s="532"/>
+      <c r="F46" s="532"/>
+      <c r="G46" s="532"/>
+      <c r="H46" s="530"/>
+      <c r="I46" s="531"/>
+      <c r="J46" s="532"/>
+      <c r="K46" s="533"/>
     </row>
     <row r="47" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="580"/>
-      <c r="B47" s="581"/>
-      <c r="C47" s="582"/>
-      <c r="D47" s="583"/>
-      <c r="E47" s="583"/>
-      <c r="F47" s="583"/>
-      <c r="G47" s="583"/>
-      <c r="H47" s="581"/>
-      <c r="I47" s="582"/>
-      <c r="J47" s="583"/>
-      <c r="K47" s="590"/>
+      <c r="A47" s="529"/>
+      <c r="B47" s="530"/>
+      <c r="C47" s="531"/>
+      <c r="D47" s="532"/>
+      <c r="E47" s="532"/>
+      <c r="F47" s="532"/>
+      <c r="G47" s="532"/>
+      <c r="H47" s="530"/>
+      <c r="I47" s="531"/>
+      <c r="J47" s="532"/>
+      <c r="K47" s="533"/>
     </row>
     <row r="48" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="580"/>
-      <c r="B48" s="581"/>
-      <c r="C48" s="582"/>
-      <c r="D48" s="583"/>
-      <c r="E48" s="583"/>
-      <c r="F48" s="583"/>
-      <c r="G48" s="583"/>
-      <c r="H48" s="581"/>
-      <c r="I48" s="582"/>
-      <c r="J48" s="583"/>
-      <c r="K48" s="590"/>
+      <c r="A48" s="529"/>
+      <c r="B48" s="530"/>
+      <c r="C48" s="531"/>
+      <c r="D48" s="532"/>
+      <c r="E48" s="532"/>
+      <c r="F48" s="532"/>
+      <c r="G48" s="532"/>
+      <c r="H48" s="530"/>
+      <c r="I48" s="531"/>
+      <c r="J48" s="532"/>
+      <c r="K48" s="533"/>
     </row>
     <row r="49" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="451" t="s">
+      <c r="A49" s="275" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="452"/>
-      <c r="C49" s="452"/>
-      <c r="D49" s="452"/>
-      <c r="E49" s="452"/>
-      <c r="F49" s="452"/>
-      <c r="G49" s="452"/>
-      <c r="H49" s="452"/>
-      <c r="I49" s="452"/>
-      <c r="J49" s="452"/>
-      <c r="K49" s="490"/>
+      <c r="B49" s="276"/>
+      <c r="C49" s="276"/>
+      <c r="D49" s="276"/>
+      <c r="E49" s="276"/>
+      <c r="F49" s="276"/>
+      <c r="G49" s="276"/>
+      <c r="H49" s="276"/>
+      <c r="I49" s="276"/>
+      <c r="J49" s="276"/>
+      <c r="K49" s="514"/>
     </row>
     <row r="50" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="448" t="s">
+      <c r="A50" s="272" t="s">
         <v>392</v>
       </c>
-      <c r="B50" s="450"/>
-      <c r="C50" s="504"/>
-      <c r="D50" s="505"/>
-      <c r="E50" s="505"/>
-      <c r="F50" s="506"/>
-      <c r="G50" s="592" t="s">
+      <c r="B50" s="274"/>
+      <c r="C50" s="471"/>
+      <c r="D50" s="472"/>
+      <c r="E50" s="472"/>
+      <c r="F50" s="473"/>
+      <c r="G50" s="527" t="s">
         <v>393</v>
       </c>
-      <c r="H50" s="593"/>
-      <c r="I50" s="504"/>
-      <c r="J50" s="505"/>
-      <c r="K50" s="506"/>
+      <c r="H50" s="528"/>
+      <c r="I50" s="471"/>
+      <c r="J50" s="472"/>
+      <c r="K50" s="473"/>
       <c r="L50" s="252"/>
       <c r="M50" s="252"/>
     </row>
@@ -13984,6 +13984,73 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="83">
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B15:D17"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="H3:K5"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="I15:K17"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="I44:K44"/>
     <mergeCell ref="G50:H50"/>
     <mergeCell ref="C50:F50"/>
     <mergeCell ref="I50:K50"/>
@@ -14000,73 +14067,6 @@
     <mergeCell ref="I46:K46"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="I47:K47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B15:D17"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="H3:K5"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="I15:K17"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A36:D36"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14104,35 +14104,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="616"/>
-      <c r="B1" s="617"/>
-      <c r="C1" s="617"/>
-      <c r="D1" s="617"/>
-      <c r="E1" s="617"/>
-      <c r="F1" s="617"/>
-      <c r="G1" s="617"/>
-      <c r="H1" s="617"/>
-      <c r="I1" s="617"/>
-      <c r="J1" s="617"/>
-      <c r="K1" s="617"/>
-      <c r="L1" s="617"/>
-      <c r="M1" s="618"/>
+      <c r="A1" s="710"/>
+      <c r="B1" s="711"/>
+      <c r="C1" s="711"/>
+      <c r="D1" s="711"/>
+      <c r="E1" s="711"/>
+      <c r="F1" s="711"/>
+      <c r="G1" s="711"/>
+      <c r="H1" s="711"/>
+      <c r="I1" s="711"/>
+      <c r="J1" s="711"/>
+      <c r="K1" s="711"/>
+      <c r="L1" s="711"/>
+      <c r="M1" s="712"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="640" t="s">
+      <c r="A2" s="688" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="641"/>
-      <c r="C2" s="621" t="s">
+      <c r="B2" s="689"/>
+      <c r="C2" s="715" t="s">
         <v>347</v>
       </c>
-      <c r="D2" s="621"/>
-      <c r="E2" s="621"/>
-      <c r="F2" s="622"/>
+      <c r="D2" s="715"/>
+      <c r="E2" s="715"/>
+      <c r="F2" s="716"/>
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
-      <c r="I2" s="619"/>
-      <c r="J2" s="619"/>
+      <c r="I2" s="713"/>
+      <c r="J2" s="713"/>
       <c r="K2" s="42"/>
       <c r="L2" s="42"/>
       <c r="M2" s="43"/>
@@ -14140,16 +14140,16 @@
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="625" t="s">
+      <c r="C3" s="704" t="s">
         <v>343</v>
       </c>
-      <c r="D3" s="625"/>
-      <c r="E3" s="625"/>
-      <c r="F3" s="626"/>
+      <c r="D3" s="704"/>
+      <c r="E3" s="704"/>
+      <c r="F3" s="705"/>
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="620"/>
+      <c r="I3" s="714"/>
+      <c r="J3" s="714"/>
       <c r="K3" s="47"/>
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
@@ -14157,45 +14157,45 @@
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="45"/>
-      <c r="C4" s="625" t="s">
+      <c r="C4" s="704" t="s">
         <v>348</v>
       </c>
-      <c r="D4" s="625"/>
-      <c r="E4" s="625"/>
-      <c r="F4" s="626"/>
+      <c r="D4" s="704"/>
+      <c r="E4" s="704"/>
+      <c r="F4" s="705"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="45"/>
-      <c r="C5" s="625"/>
-      <c r="D5" s="625"/>
-      <c r="E5" s="625"/>
-      <c r="F5" s="626"/>
-      <c r="G5" s="613"/>
-      <c r="H5" s="613"/>
-      <c r="I5" s="613"/>
-      <c r="J5" s="613"/>
-      <c r="K5" s="613"/>
-      <c r="L5" s="613"/>
+      <c r="C5" s="704"/>
+      <c r="D5" s="704"/>
+      <c r="E5" s="704"/>
+      <c r="F5" s="705"/>
+      <c r="G5" s="608"/>
+      <c r="H5" s="608"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="608"/>
+      <c r="K5" s="608"/>
+      <c r="L5" s="608"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="45"/>
-      <c r="C6" s="625" t="s">
+      <c r="C6" s="704" t="s">
         <v>344</v>
       </c>
-      <c r="D6" s="625"/>
-      <c r="E6" s="625"/>
-      <c r="F6" s="626"/>
-      <c r="G6" s="598"/>
-      <c r="H6" s="599"/>
-      <c r="I6" s="599"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="599"/>
-      <c r="L6" s="599"/>
-      <c r="M6" s="600"/>
+      <c r="D6" s="704"/>
+      <c r="E6" s="704"/>
+      <c r="F6" s="705"/>
+      <c r="G6" s="623"/>
+      <c r="H6" s="624"/>
+      <c r="I6" s="624"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="624"/>
+      <c r="L6" s="624"/>
+      <c r="M6" s="625"/>
     </row>
     <row r="7" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
@@ -14213,19 +14213,19 @@
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="45"/>
-      <c r="C8" s="625" t="s">
+      <c r="C8" s="704" t="s">
         <v>366</v>
       </c>
-      <c r="D8" s="625"/>
-      <c r="E8" s="625"/>
-      <c r="F8" s="626"/>
-      <c r="G8" s="598"/>
-      <c r="H8" s="599"/>
-      <c r="I8" s="599"/>
-      <c r="J8" s="599"/>
-      <c r="K8" s="599"/>
-      <c r="L8" s="599"/>
-      <c r="M8" s="600"/>
+      <c r="D8" s="704"/>
+      <c r="E8" s="704"/>
+      <c r="F8" s="705"/>
+      <c r="G8" s="623"/>
+      <c r="H8" s="624"/>
+      <c r="I8" s="624"/>
+      <c r="J8" s="624"/>
+      <c r="K8" s="624"/>
+      <c r="L8" s="624"/>
+      <c r="M8" s="625"/>
     </row>
     <row r="9" spans="1:13" ht="3.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
@@ -14239,114 +14239,114 @@
     <row r="10" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="45"/>
-      <c r="C10" s="625"/>
-      <c r="D10" s="625"/>
-      <c r="E10" s="625"/>
-      <c r="F10" s="626"/>
-      <c r="G10" s="613" t="s">
+      <c r="C10" s="704"/>
+      <c r="D10" s="704"/>
+      <c r="E10" s="704"/>
+      <c r="F10" s="705"/>
+      <c r="G10" s="608" t="s">
         <v>329</v>
       </c>
-      <c r="H10" s="613"/>
-      <c r="I10" s="613"/>
-      <c r="J10" s="613"/>
-      <c r="K10" s="613"/>
-      <c r="L10" s="613"/>
+      <c r="H10" s="608"/>
+      <c r="I10" s="608"/>
+      <c r="J10" s="608"/>
+      <c r="K10" s="608"/>
+      <c r="L10" s="608"/>
       <c r="M10" s="95"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="45"/>
-      <c r="C11" s="625"/>
-      <c r="D11" s="625"/>
-      <c r="E11" s="625"/>
-      <c r="F11" s="626"/>
+      <c r="C11" s="704"/>
+      <c r="D11" s="704"/>
+      <c r="E11" s="704"/>
+      <c r="F11" s="705"/>
       <c r="G11" s="151"/>
-      <c r="H11" s="645"/>
-      <c r="I11" s="645"/>
-      <c r="J11" s="645"/>
-      <c r="K11" s="645"/>
-      <c r="L11" s="645"/>
+      <c r="H11" s="709"/>
+      <c r="I11" s="709"/>
+      <c r="J11" s="709"/>
+      <c r="K11" s="709"/>
+      <c r="L11" s="709"/>
       <c r="M11" s="95"/>
     </row>
     <row r="12" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50"/>
       <c r="B12" s="51"/>
-      <c r="C12" s="642"/>
-      <c r="D12" s="642"/>
-      <c r="E12" s="642"/>
-      <c r="F12" s="643"/>
+      <c r="C12" s="706"/>
+      <c r="D12" s="706"/>
+      <c r="E12" s="706"/>
+      <c r="F12" s="707"/>
       <c r="G12" s="152"/>
       <c r="H12" s="152"/>
-      <c r="I12" s="644"/>
-      <c r="J12" s="644"/>
-      <c r="K12" s="644"/>
-      <c r="L12" s="644"/>
+      <c r="I12" s="708"/>
+      <c r="J12" s="708"/>
+      <c r="K12" s="708"/>
+      <c r="L12" s="708"/>
       <c r="M12" s="134"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="609" t="s">
+      <c r="A13" s="727" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="610"/>
-      <c r="C13" s="611" t="s">
+      <c r="B13" s="728"/>
+      <c r="C13" s="723" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="611"/>
-      <c r="E13" s="553"/>
-      <c r="F13" s="554"/>
-      <c r="G13" s="594"/>
-      <c r="H13" s="595"/>
-      <c r="I13" s="595"/>
-      <c r="J13" s="595"/>
-      <c r="K13" s="595"/>
-      <c r="L13" s="595"/>
-      <c r="M13" s="596"/>
+      <c r="D13" s="723"/>
+      <c r="E13" s="559"/>
+      <c r="F13" s="560"/>
+      <c r="G13" s="612"/>
+      <c r="H13" s="613"/>
+      <c r="I13" s="613"/>
+      <c r="J13" s="613"/>
+      <c r="K13" s="613"/>
+      <c r="L13" s="613"/>
+      <c r="M13" s="614"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="66"/>
       <c r="B14" s="67"/>
-      <c r="C14" s="611"/>
-      <c r="D14" s="611"/>
-      <c r="E14" s="553"/>
-      <c r="F14" s="554"/>
-      <c r="G14" s="612" t="s">
+      <c r="C14" s="723"/>
+      <c r="D14" s="723"/>
+      <c r="E14" s="559"/>
+      <c r="F14" s="560"/>
+      <c r="G14" s="607" t="s">
         <v>329</v>
       </c>
-      <c r="H14" s="613"/>
-      <c r="I14" s="613"/>
-      <c r="J14" s="613"/>
-      <c r="K14" s="613"/>
-      <c r="L14" s="613"/>
+      <c r="H14" s="608"/>
+      <c r="I14" s="608"/>
+      <c r="J14" s="608"/>
+      <c r="K14" s="608"/>
+      <c r="L14" s="608"/>
       <c r="M14" s="133"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="66"/>
       <c r="B15" s="67"/>
-      <c r="C15" s="611"/>
-      <c r="D15" s="611"/>
-      <c r="E15" s="553"/>
-      <c r="F15" s="554"/>
+      <c r="C15" s="723"/>
+      <c r="D15" s="723"/>
+      <c r="E15" s="559"/>
+      <c r="F15" s="560"/>
       <c r="G15" s="46"/>
-      <c r="H15" s="615"/>
-      <c r="I15" s="615"/>
-      <c r="J15" s="615"/>
-      <c r="K15" s="615"/>
-      <c r="L15" s="615"/>
+      <c r="H15" s="729"/>
+      <c r="I15" s="729"/>
+      <c r="J15" s="729"/>
+      <c r="K15" s="729"/>
+      <c r="L15" s="729"/>
       <c r="M15" s="133"/>
     </row>
     <row r="16" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="54"/>
-      <c r="C16" s="553"/>
-      <c r="D16" s="553"/>
-      <c r="E16" s="553"/>
-      <c r="F16" s="554"/>
+      <c r="C16" s="559"/>
+      <c r="D16" s="559"/>
+      <c r="E16" s="559"/>
+      <c r="F16" s="560"/>
       <c r="G16" s="130"/>
       <c r="H16" s="257"/>
-      <c r="I16" s="614"/>
-      <c r="J16" s="614"/>
-      <c r="K16" s="614"/>
-      <c r="L16" s="614"/>
+      <c r="I16" s="720"/>
+      <c r="J16" s="720"/>
+      <c r="K16" s="720"/>
+      <c r="L16" s="720"/>
       <c r="M16" s="131"/>
     </row>
     <row r="17" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14367,211 +14367,211 @@
     <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55"/>
       <c r="B18" s="56"/>
-      <c r="C18" s="737" t="s">
+      <c r="C18" s="602" t="s">
         <v>391</v>
       </c>
-      <c r="D18" s="737"/>
-      <c r="E18" s="738"/>
-      <c r="F18" s="739"/>
-      <c r="G18" s="601"/>
-      <c r="H18" s="602"/>
-      <c r="I18" s="602"/>
-      <c r="J18" s="602"/>
-      <c r="K18" s="602"/>
-      <c r="L18" s="602"/>
-      <c r="M18" s="603"/>
+      <c r="D18" s="602"/>
+      <c r="E18" s="603"/>
+      <c r="F18" s="604"/>
+      <c r="G18" s="731"/>
+      <c r="H18" s="732"/>
+      <c r="I18" s="732"/>
+      <c r="J18" s="732"/>
+      <c r="K18" s="732"/>
+      <c r="L18" s="732"/>
+      <c r="M18" s="733"/>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="55"/>
       <c r="B19" s="56"/>
-      <c r="C19" s="737"/>
-      <c r="D19" s="737"/>
-      <c r="E19" s="738"/>
-      <c r="F19" s="739"/>
-      <c r="G19" s="612" t="s">
+      <c r="C19" s="602"/>
+      <c r="D19" s="602"/>
+      <c r="E19" s="603"/>
+      <c r="F19" s="604"/>
+      <c r="G19" s="607" t="s">
         <v>329</v>
       </c>
-      <c r="H19" s="613"/>
-      <c r="I19" s="613"/>
-      <c r="J19" s="613"/>
-      <c r="K19" s="613"/>
-      <c r="L19" s="613"/>
+      <c r="H19" s="608"/>
+      <c r="I19" s="608"/>
+      <c r="J19" s="608"/>
+      <c r="K19" s="608"/>
+      <c r="L19" s="608"/>
       <c r="M19" s="61"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="55"/>
       <c r="B20" s="56"/>
-      <c r="C20" s="737"/>
-      <c r="D20" s="737"/>
-      <c r="E20" s="738"/>
-      <c r="F20" s="739"/>
+      <c r="C20" s="602"/>
+      <c r="D20" s="602"/>
+      <c r="E20" s="603"/>
+      <c r="F20" s="604"/>
       <c r="G20" s="60"/>
-      <c r="H20" s="606" t="s">
+      <c r="H20" s="736" t="s">
         <v>330</v>
       </c>
-      <c r="I20" s="606"/>
+      <c r="I20" s="736"/>
       <c r="J20" s="266"/>
-      <c r="K20" s="604"/>
-      <c r="L20" s="604"/>
+      <c r="K20" s="734"/>
+      <c r="L20" s="734"/>
       <c r="M20" s="61"/>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="55"/>
       <c r="B21" s="56"/>
-      <c r="C21" s="737"/>
-      <c r="D21" s="737"/>
-      <c r="E21" s="738"/>
-      <c r="F21" s="739"/>
-      <c r="G21" s="607" t="s">
+      <c r="C21" s="602"/>
+      <c r="D21" s="602"/>
+      <c r="E21" s="603"/>
+      <c r="F21" s="604"/>
+      <c r="G21" s="737" t="s">
         <v>332</v>
       </c>
-      <c r="H21" s="608"/>
-      <c r="I21" s="608"/>
+      <c r="H21" s="738"/>
+      <c r="I21" s="738"/>
       <c r="J21" s="266"/>
-      <c r="K21" s="605"/>
-      <c r="L21" s="605"/>
+      <c r="K21" s="735"/>
+      <c r="L21" s="735"/>
       <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="63"/>
-      <c r="C22" s="740"/>
-      <c r="D22" s="740"/>
-      <c r="E22" s="740"/>
-      <c r="F22" s="741"/>
+      <c r="C22" s="605"/>
+      <c r="D22" s="605"/>
+      <c r="E22" s="605"/>
+      <c r="F22" s="606"/>
       <c r="G22" s="130" t="s">
         <v>331</v>
       </c>
       <c r="H22" s="257"/>
-      <c r="I22" s="742"/>
-      <c r="J22" s="742"/>
-      <c r="K22" s="742"/>
+      <c r="I22" s="609"/>
+      <c r="J22" s="609"/>
+      <c r="K22" s="609"/>
       <c r="L22" s="135"/>
       <c r="M22" s="131"/>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="685" t="s">
+      <c r="A23" s="593" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="686"/>
-      <c r="C23" s="636" t="s">
+      <c r="B23" s="594"/>
+      <c r="C23" s="610" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="636"/>
-      <c r="E23" s="636"/>
-      <c r="F23" s="637"/>
-      <c r="G23" s="594"/>
-      <c r="H23" s="595"/>
-      <c r="I23" s="595"/>
-      <c r="J23" s="595"/>
-      <c r="K23" s="595"/>
-      <c r="L23" s="595"/>
-      <c r="M23" s="596"/>
+      <c r="D23" s="610"/>
+      <c r="E23" s="610"/>
+      <c r="F23" s="611"/>
+      <c r="G23" s="612"/>
+      <c r="H23" s="613"/>
+      <c r="I23" s="613"/>
+      <c r="J23" s="613"/>
+      <c r="K23" s="613"/>
+      <c r="L23" s="613"/>
+      <c r="M23" s="614"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
       <c r="B24" s="54"/>
-      <c r="C24" s="628"/>
-      <c r="D24" s="628"/>
-      <c r="E24" s="628"/>
-      <c r="F24" s="627"/>
-      <c r="G24" s="612" t="s">
+      <c r="C24" s="595"/>
+      <c r="D24" s="595"/>
+      <c r="E24" s="595"/>
+      <c r="F24" s="596"/>
+      <c r="G24" s="607" t="s">
         <v>329</v>
       </c>
-      <c r="H24" s="613"/>
-      <c r="I24" s="613"/>
-      <c r="J24" s="613"/>
-      <c r="K24" s="613"/>
-      <c r="L24" s="613"/>
+      <c r="H24" s="608"/>
+      <c r="I24" s="608"/>
+      <c r="J24" s="608"/>
+      <c r="K24" s="608"/>
+      <c r="L24" s="608"/>
       <c r="M24" s="129"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
       <c r="B25" s="54"/>
-      <c r="C25" s="628"/>
-      <c r="D25" s="628"/>
-      <c r="E25" s="628"/>
-      <c r="F25" s="627"/>
+      <c r="C25" s="595"/>
+      <c r="D25" s="595"/>
+      <c r="E25" s="595"/>
+      <c r="F25" s="596"/>
       <c r="G25" s="128"/>
-      <c r="H25" s="597"/>
-      <c r="I25" s="597"/>
-      <c r="J25" s="597"/>
-      <c r="K25" s="597"/>
-      <c r="L25" s="597"/>
+      <c r="H25" s="730"/>
+      <c r="I25" s="730"/>
+      <c r="J25" s="730"/>
+      <c r="K25" s="730"/>
+      <c r="L25" s="730"/>
       <c r="M25" s="129"/>
     </row>
     <row r="26" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="64"/>
       <c r="B26" s="65"/>
-      <c r="C26" s="638"/>
-      <c r="D26" s="638"/>
-      <c r="E26" s="638"/>
-      <c r="F26" s="639"/>
+      <c r="C26" s="597"/>
+      <c r="D26" s="597"/>
+      <c r="E26" s="597"/>
+      <c r="F26" s="598"/>
       <c r="G26" s="130"/>
       <c r="H26" s="257"/>
-      <c r="I26" s="614"/>
-      <c r="J26" s="614"/>
-      <c r="K26" s="614"/>
-      <c r="L26" s="614"/>
+      <c r="I26" s="720"/>
+      <c r="J26" s="720"/>
+      <c r="K26" s="720"/>
+      <c r="L26" s="720"/>
       <c r="M26" s="131"/>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="685" t="s">
+      <c r="A27" s="593" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="686"/>
-      <c r="C27" s="636" t="s">
+      <c r="B27" s="594"/>
+      <c r="C27" s="610" t="s">
         <v>359</v>
       </c>
-      <c r="D27" s="636"/>
-      <c r="E27" s="636"/>
-      <c r="F27" s="637"/>
-      <c r="G27" s="594"/>
-      <c r="H27" s="595"/>
-      <c r="I27" s="595"/>
-      <c r="J27" s="595"/>
-      <c r="K27" s="595"/>
-      <c r="L27" s="595"/>
-      <c r="M27" s="596"/>
+      <c r="D27" s="610"/>
+      <c r="E27" s="610"/>
+      <c r="F27" s="611"/>
+      <c r="G27" s="612"/>
+      <c r="H27" s="613"/>
+      <c r="I27" s="613"/>
+      <c r="J27" s="613"/>
+      <c r="K27" s="613"/>
+      <c r="L27" s="613"/>
+      <c r="M27" s="614"/>
     </row>
     <row r="28" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53"/>
       <c r="B28" s="54"/>
-      <c r="C28" s="628"/>
-      <c r="D28" s="628"/>
-      <c r="E28" s="628"/>
-      <c r="F28" s="627"/>
-      <c r="G28" s="612" t="s">
+      <c r="C28" s="595"/>
+      <c r="D28" s="595"/>
+      <c r="E28" s="595"/>
+      <c r="F28" s="596"/>
+      <c r="G28" s="607" t="s">
         <v>329</v>
       </c>
-      <c r="H28" s="613"/>
-      <c r="I28" s="613"/>
-      <c r="J28" s="613"/>
-      <c r="K28" s="613"/>
-      <c r="L28" s="613"/>
+      <c r="H28" s="608"/>
+      <c r="I28" s="608"/>
+      <c r="J28" s="608"/>
+      <c r="K28" s="608"/>
+      <c r="L28" s="608"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
       <c r="B29" s="54"/>
-      <c r="C29" s="628"/>
-      <c r="D29" s="628"/>
-      <c r="E29" s="628"/>
-      <c r="F29" s="627"/>
-      <c r="H29" s="681"/>
-      <c r="I29" s="681"/>
-      <c r="J29" s="681"/>
-      <c r="K29" s="681"/>
-      <c r="L29" s="681"/>
+      <c r="C29" s="595"/>
+      <c r="D29" s="595"/>
+      <c r="E29" s="595"/>
+      <c r="F29" s="596"/>
+      <c r="H29" s="599"/>
+      <c r="I29" s="599"/>
+      <c r="J29" s="599"/>
+      <c r="K29" s="599"/>
+      <c r="L29" s="599"/>
       <c r="M29" s="129"/>
     </row>
     <row r="30" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="64"/>
       <c r="B30" s="65"/>
-      <c r="C30" s="638"/>
-      <c r="D30" s="638"/>
-      <c r="E30" s="638"/>
-      <c r="F30" s="639"/>
+      <c r="C30" s="597"/>
+      <c r="D30" s="597"/>
+      <c r="E30" s="597"/>
+      <c r="F30" s="598"/>
       <c r="G30" s="148"/>
       <c r="H30" s="258"/>
       <c r="I30" s="188"/>
@@ -14581,39 +14581,39 @@
       <c r="M30" s="131"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="685" t="s">
+      <c r="A31" s="593" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="686"/>
-      <c r="C31" s="636" t="s">
+      <c r="B31" s="594"/>
+      <c r="C31" s="610" t="s">
         <v>355</v>
       </c>
-      <c r="D31" s="636"/>
-      <c r="E31" s="636"/>
-      <c r="F31" s="637"/>
-      <c r="G31" s="594"/>
-      <c r="H31" s="595"/>
-      <c r="I31" s="595"/>
-      <c r="J31" s="595"/>
-      <c r="K31" s="595"/>
-      <c r="L31" s="595"/>
-      <c r="M31" s="596"/>
+      <c r="D31" s="610"/>
+      <c r="E31" s="610"/>
+      <c r="F31" s="611"/>
+      <c r="G31" s="612"/>
+      <c r="H31" s="613"/>
+      <c r="I31" s="613"/>
+      <c r="J31" s="613"/>
+      <c r="K31" s="613"/>
+      <c r="L31" s="613"/>
+      <c r="M31" s="614"/>
     </row>
     <row r="32" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
       <c r="B32" s="54"/>
-      <c r="C32" s="628"/>
-      <c r="D32" s="628"/>
-      <c r="E32" s="628"/>
-      <c r="F32" s="627"/>
-      <c r="G32" s="679" t="s">
+      <c r="C32" s="595"/>
+      <c r="D32" s="595"/>
+      <c r="E32" s="595"/>
+      <c r="F32" s="596"/>
+      <c r="G32" s="600" t="s">
         <v>356</v>
       </c>
-      <c r="H32" s="680"/>
-      <c r="I32" s="680"/>
-      <c r="J32" s="680"/>
-      <c r="K32" s="681"/>
-      <c r="L32" s="681"/>
+      <c r="H32" s="601"/>
+      <c r="I32" s="601"/>
+      <c r="J32" s="601"/>
+      <c r="K32" s="599"/>
+      <c r="L32" s="599"/>
       <c r="M32" s="129"/>
     </row>
     <row r="33" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14634,44 +14634,44 @@
     <row r="34" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53"/>
       <c r="B34" s="54"/>
-      <c r="C34" s="628" t="s">
+      <c r="C34" s="595" t="s">
         <v>357</v>
       </c>
-      <c r="D34" s="628"/>
-      <c r="E34" s="628"/>
-      <c r="F34" s="627"/>
-      <c r="G34" s="682"/>
-      <c r="H34" s="683"/>
-      <c r="I34" s="683"/>
-      <c r="J34" s="683"/>
-      <c r="K34" s="683"/>
-      <c r="L34" s="683"/>
-      <c r="M34" s="684"/>
+      <c r="D34" s="595"/>
+      <c r="E34" s="595"/>
+      <c r="F34" s="596"/>
+      <c r="G34" s="739"/>
+      <c r="H34" s="740"/>
+      <c r="I34" s="740"/>
+      <c r="J34" s="740"/>
+      <c r="K34" s="740"/>
+      <c r="L34" s="740"/>
+      <c r="M34" s="741"/>
     </row>
     <row r="35" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
       <c r="B35" s="54"/>
-      <c r="C35" s="628"/>
-      <c r="D35" s="628"/>
-      <c r="E35" s="628"/>
-      <c r="F35" s="627"/>
-      <c r="G35" s="679" t="s">
+      <c r="C35" s="595"/>
+      <c r="D35" s="595"/>
+      <c r="E35" s="595"/>
+      <c r="F35" s="596"/>
+      <c r="G35" s="600" t="s">
         <v>356</v>
       </c>
-      <c r="H35" s="680"/>
-      <c r="I35" s="680"/>
-      <c r="J35" s="680"/>
-      <c r="K35" s="681"/>
-      <c r="L35" s="681"/>
+      <c r="H35" s="601"/>
+      <c r="I35" s="601"/>
+      <c r="J35" s="601"/>
+      <c r="K35" s="599"/>
+      <c r="L35" s="599"/>
       <c r="M35" s="129"/>
     </row>
     <row r="36" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="64"/>
       <c r="B36" s="65"/>
-      <c r="C36" s="638"/>
-      <c r="D36" s="638"/>
-      <c r="E36" s="638"/>
-      <c r="F36" s="639"/>
+      <c r="C36" s="597"/>
+      <c r="D36" s="597"/>
+      <c r="E36" s="597"/>
+      <c r="F36" s="598"/>
       <c r="G36" s="132"/>
       <c r="H36" s="75"/>
       <c r="I36" s="123"/>
@@ -14680,82 +14680,82 @@
       <c r="M36" s="131"/>
     </row>
     <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="685" t="s">
+      <c r="A37" s="593" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="686"/>
-      <c r="C37" s="631" t="s">
+      <c r="B37" s="594"/>
+      <c r="C37" s="721" t="s">
         <v>349</v>
       </c>
-      <c r="D37" s="631"/>
-      <c r="E37" s="631"/>
-      <c r="F37" s="632"/>
-      <c r="G37" s="594"/>
-      <c r="H37" s="595"/>
-      <c r="I37" s="595"/>
-      <c r="J37" s="595"/>
-      <c r="K37" s="595"/>
-      <c r="L37" s="595"/>
-      <c r="M37" s="596"/>
+      <c r="D37" s="721"/>
+      <c r="E37" s="721"/>
+      <c r="F37" s="722"/>
+      <c r="G37" s="612"/>
+      <c r="H37" s="613"/>
+      <c r="I37" s="613"/>
+      <c r="J37" s="613"/>
+      <c r="K37" s="613"/>
+      <c r="L37" s="613"/>
+      <c r="M37" s="614"/>
     </row>
     <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53"/>
       <c r="B38" s="54"/>
-      <c r="C38" s="611"/>
-      <c r="D38" s="611"/>
-      <c r="E38" s="611"/>
-      <c r="F38" s="633"/>
-      <c r="G38" s="612" t="s">
+      <c r="C38" s="723"/>
+      <c r="D38" s="723"/>
+      <c r="E38" s="723"/>
+      <c r="F38" s="724"/>
+      <c r="G38" s="607" t="s">
         <v>340</v>
       </c>
-      <c r="H38" s="613"/>
-      <c r="I38" s="613"/>
-      <c r="J38" s="613"/>
-      <c r="K38" s="613"/>
-      <c r="L38" s="613"/>
-      <c r="M38" s="736"/>
+      <c r="H38" s="608"/>
+      <c r="I38" s="608"/>
+      <c r="J38" s="608"/>
+      <c r="K38" s="608"/>
+      <c r="L38" s="608"/>
+      <c r="M38" s="622"/>
     </row>
     <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53"/>
       <c r="B39" s="54"/>
-      <c r="C39" s="611"/>
-      <c r="D39" s="611"/>
-      <c r="E39" s="611"/>
-      <c r="F39" s="633"/>
+      <c r="C39" s="723"/>
+      <c r="D39" s="723"/>
+      <c r="E39" s="723"/>
+      <c r="F39" s="724"/>
       <c r="G39" s="128"/>
-      <c r="H39" s="597"/>
-      <c r="I39" s="597"/>
-      <c r="J39" s="597"/>
-      <c r="K39" s="597"/>
-      <c r="L39" s="597"/>
+      <c r="H39" s="730"/>
+      <c r="I39" s="730"/>
+      <c r="J39" s="730"/>
+      <c r="K39" s="730"/>
+      <c r="L39" s="730"/>
       <c r="M39" s="129"/>
     </row>
     <row r="40" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="64"/>
       <c r="B40" s="65"/>
-      <c r="C40" s="634"/>
-      <c r="D40" s="634"/>
-      <c r="E40" s="634"/>
-      <c r="F40" s="635"/>
+      <c r="C40" s="725"/>
+      <c r="D40" s="725"/>
+      <c r="E40" s="725"/>
+      <c r="F40" s="726"/>
       <c r="G40" s="130"/>
       <c r="H40" s="257"/>
-      <c r="I40" s="614"/>
-      <c r="J40" s="614"/>
-      <c r="K40" s="614"/>
-      <c r="L40" s="614"/>
+      <c r="I40" s="720"/>
+      <c r="J40" s="720"/>
+      <c r="K40" s="720"/>
+      <c r="L40" s="720"/>
       <c r="M40" s="131"/>
     </row>
     <row r="41" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="629" t="s">
+      <c r="A41" s="718" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="630"/>
-      <c r="C41" s="628" t="s">
+      <c r="B41" s="719"/>
+      <c r="C41" s="595" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="628"/>
-      <c r="E41" s="628"/>
-      <c r="F41" s="627"/>
+      <c r="D41" s="595"/>
+      <c r="E41" s="595"/>
+      <c r="F41" s="596"/>
       <c r="G41" s="52"/>
       <c r="H41" s="52"/>
       <c r="I41" s="70"/>
@@ -14767,10 +14767,10 @@
     <row r="42" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="68"/>
       <c r="B42" s="69"/>
-      <c r="C42" s="628"/>
-      <c r="D42" s="628"/>
-      <c r="E42" s="628"/>
-      <c r="F42" s="627"/>
+      <c r="C42" s="595"/>
+      <c r="D42" s="595"/>
+      <c r="E42" s="595"/>
+      <c r="F42" s="596"/>
       <c r="G42" s="73"/>
       <c r="H42" s="73"/>
       <c r="I42" s="73"/>
@@ -14784,27 +14784,27 @@
         <v>80</v>
       </c>
       <c r="B43" s="69"/>
-      <c r="C43" s="628" t="s">
+      <c r="C43" s="595" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="628"/>
-      <c r="E43" s="628"/>
-      <c r="F43" s="627"/>
-      <c r="G43" s="598"/>
-      <c r="H43" s="599"/>
-      <c r="I43" s="599"/>
-      <c r="J43" s="599"/>
-      <c r="K43" s="599"/>
-      <c r="L43" s="599"/>
-      <c r="M43" s="600"/>
+      <c r="D43" s="595"/>
+      <c r="E43" s="595"/>
+      <c r="F43" s="596"/>
+      <c r="G43" s="623"/>
+      <c r="H43" s="624"/>
+      <c r="I43" s="624"/>
+      <c r="J43" s="624"/>
+      <c r="K43" s="624"/>
+      <c r="L43" s="624"/>
+      <c r="M43" s="625"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="68"/>
       <c r="B44" s="69"/>
-      <c r="C44" s="628"/>
-      <c r="D44" s="628"/>
-      <c r="E44" s="628"/>
-      <c r="F44" s="627"/>
+      <c r="C44" s="595"/>
+      <c r="D44" s="595"/>
+      <c r="E44" s="595"/>
+      <c r="F44" s="596"/>
       <c r="G44" s="198" t="s">
         <v>327</v>
       </c>
@@ -14820,27 +14820,27 @@
         <v>81</v>
       </c>
       <c r="B45" s="69"/>
-      <c r="C45" s="627" t="s">
+      <c r="C45" s="596" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="627"/>
-      <c r="E45" s="627"/>
-      <c r="F45" s="627"/>
-      <c r="G45" s="598"/>
-      <c r="H45" s="599"/>
-      <c r="I45" s="599"/>
-      <c r="J45" s="599"/>
-      <c r="K45" s="599"/>
-      <c r="L45" s="599"/>
-      <c r="M45" s="600"/>
+      <c r="D45" s="596"/>
+      <c r="E45" s="596"/>
+      <c r="F45" s="596"/>
+      <c r="G45" s="623"/>
+      <c r="H45" s="624"/>
+      <c r="I45" s="624"/>
+      <c r="J45" s="624"/>
+      <c r="K45" s="624"/>
+      <c r="L45" s="624"/>
+      <c r="M45" s="625"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="68"/>
       <c r="B46" s="69"/>
-      <c r="C46" s="627"/>
-      <c r="D46" s="627"/>
-      <c r="E46" s="627"/>
-      <c r="F46" s="627"/>
+      <c r="C46" s="596"/>
+      <c r="D46" s="596"/>
+      <c r="E46" s="596"/>
+      <c r="F46" s="596"/>
       <c r="G46" s="199" t="s">
         <v>328</v>
       </c>
@@ -14857,27 +14857,27 @@
         <v>83</v>
       </c>
       <c r="B47" s="69"/>
-      <c r="C47" s="628" t="s">
+      <c r="C47" s="595" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="628"/>
+      <c r="D47" s="595"/>
       <c r="E47" s="120"/>
       <c r="F47" s="121"/>
-      <c r="G47" s="598"/>
-      <c r="H47" s="599"/>
-      <c r="I47" s="599"/>
-      <c r="J47" s="599"/>
-      <c r="K47" s="599"/>
-      <c r="L47" s="599"/>
-      <c r="M47" s="600"/>
+      <c r="G47" s="623"/>
+      <c r="H47" s="624"/>
+      <c r="I47" s="624"/>
+      <c r="J47" s="624"/>
+      <c r="K47" s="624"/>
+      <c r="L47" s="624"/>
+      <c r="M47" s="625"/>
     </row>
     <row r="48" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="658"/>
-      <c r="B48" s="659"/>
-      <c r="C48" s="659"/>
-      <c r="D48" s="659"/>
-      <c r="E48" s="659"/>
-      <c r="F48" s="660"/>
+      <c r="A48" s="681"/>
+      <c r="B48" s="682"/>
+      <c r="C48" s="682"/>
+      <c r="D48" s="682"/>
+      <c r="E48" s="682"/>
+      <c r="F48" s="683"/>
       <c r="G48" s="200" t="s">
         <v>328</v>
       </c>
@@ -14890,12 +14890,12 @@
       <c r="N48" s="75"/>
     </row>
     <row r="49" spans="1:14" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="661"/>
-      <c r="B49" s="662"/>
-      <c r="C49" s="662"/>
-      <c r="D49" s="662"/>
-      <c r="E49" s="662"/>
-      <c r="F49" s="663"/>
+      <c r="A49" s="684"/>
+      <c r="B49" s="685"/>
+      <c r="C49" s="685"/>
+      <c r="D49" s="685"/>
+      <c r="E49" s="685"/>
+      <c r="F49" s="686"/>
       <c r="G49" s="122"/>
       <c r="H49" s="118"/>
       <c r="I49" s="118"/>
@@ -14906,10 +14906,10 @@
       <c r="N49" s="75"/>
     </row>
     <row r="50" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="734" t="s">
+      <c r="A50" s="620" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="735"/>
+      <c r="B50" s="621"/>
       <c r="C50" s="196" t="s">
         <v>383</v>
       </c>
@@ -14919,127 +14919,127 @@
       <c r="G50" s="196"/>
       <c r="H50" s="196"/>
       <c r="I50" s="197"/>
-      <c r="J50" s="646"/>
-      <c r="K50" s="647"/>
-      <c r="L50" s="647"/>
-      <c r="M50" s="648"/>
+      <c r="J50" s="668"/>
+      <c r="K50" s="669"/>
+      <c r="L50" s="669"/>
+      <c r="M50" s="670"/>
     </row>
     <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="655" t="s">
+      <c r="A51" s="678" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="656"/>
-      <c r="C51" s="656"/>
-      <c r="D51" s="656"/>
-      <c r="E51" s="657"/>
+      <c r="B51" s="679"/>
+      <c r="C51" s="679"/>
+      <c r="D51" s="679"/>
+      <c r="E51" s="680"/>
       <c r="F51" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="664" t="s">
+      <c r="G51" s="687" t="s">
         <v>77</v>
       </c>
-      <c r="H51" s="588"/>
-      <c r="I51" s="591"/>
-      <c r="J51" s="649"/>
-      <c r="K51" s="650"/>
-      <c r="L51" s="650"/>
-      <c r="M51" s="651"/>
+      <c r="H51" s="534"/>
+      <c r="I51" s="536"/>
+      <c r="J51" s="671"/>
+      <c r="K51" s="672"/>
+      <c r="L51" s="672"/>
+      <c r="M51" s="673"/>
     </row>
     <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="672"/>
-      <c r="B52" s="673"/>
-      <c r="C52" s="675"/>
-      <c r="D52" s="675"/>
-      <c r="E52" s="676"/>
+      <c r="A52" s="697"/>
+      <c r="B52" s="698"/>
+      <c r="C52" s="700"/>
+      <c r="D52" s="700"/>
+      <c r="E52" s="701"/>
       <c r="F52" s="76"/>
-      <c r="G52" s="665"/>
-      <c r="H52" s="666"/>
-      <c r="I52" s="667"/>
-      <c r="J52" s="649"/>
-      <c r="K52" s="650"/>
-      <c r="L52" s="650"/>
-      <c r="M52" s="651"/>
+      <c r="G52" s="690"/>
+      <c r="H52" s="691"/>
+      <c r="I52" s="692"/>
+      <c r="J52" s="671"/>
+      <c r="K52" s="672"/>
+      <c r="L52" s="672"/>
+      <c r="M52" s="673"/>
     </row>
     <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="672"/>
-      <c r="B53" s="673"/>
-      <c r="C53" s="673"/>
-      <c r="D53" s="673"/>
-      <c r="E53" s="674"/>
+      <c r="A53" s="697"/>
+      <c r="B53" s="698"/>
+      <c r="C53" s="698"/>
+      <c r="D53" s="698"/>
+      <c r="E53" s="699"/>
       <c r="F53" s="76"/>
-      <c r="G53" s="665"/>
-      <c r="H53" s="666"/>
-      <c r="I53" s="667"/>
-      <c r="J53" s="649"/>
-      <c r="K53" s="650"/>
-      <c r="L53" s="650"/>
-      <c r="M53" s="651"/>
+      <c r="G53" s="690"/>
+      <c r="H53" s="691"/>
+      <c r="I53" s="692"/>
+      <c r="J53" s="671"/>
+      <c r="K53" s="672"/>
+      <c r="L53" s="672"/>
+      <c r="M53" s="673"/>
     </row>
     <row r="54" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="668"/>
-      <c r="B54" s="669"/>
-      <c r="C54" s="670"/>
-      <c r="D54" s="670"/>
-      <c r="E54" s="671"/>
+      <c r="A54" s="693"/>
+      <c r="B54" s="694"/>
+      <c r="C54" s="695"/>
+      <c r="D54" s="695"/>
+      <c r="E54" s="696"/>
       <c r="F54" s="208"/>
-      <c r="G54" s="652"/>
-      <c r="H54" s="653"/>
-      <c r="I54" s="654"/>
-      <c r="J54" s="649"/>
-      <c r="K54" s="650"/>
-      <c r="L54" s="650"/>
-      <c r="M54" s="651"/>
+      <c r="G54" s="675"/>
+      <c r="H54" s="676"/>
+      <c r="I54" s="677"/>
+      <c r="J54" s="671"/>
+      <c r="K54" s="672"/>
+      <c r="L54" s="672"/>
+      <c r="M54" s="673"/>
     </row>
     <row r="55" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="640" t="s">
+      <c r="A55" s="688" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="641"/>
-      <c r="C55" s="677" t="s">
+      <c r="B55" s="689"/>
+      <c r="C55" s="702" t="s">
         <v>400</v>
       </c>
-      <c r="D55" s="677"/>
-      <c r="E55" s="677"/>
-      <c r="F55" s="677"/>
-      <c r="G55" s="677"/>
-      <c r="H55" s="677"/>
+      <c r="D55" s="702"/>
+      <c r="E55" s="702"/>
+      <c r="F55" s="702"/>
+      <c r="G55" s="702"/>
+      <c r="H55" s="702"/>
       <c r="I55" s="262"/>
-      <c r="J55" s="650"/>
-      <c r="K55" s="650"/>
-      <c r="L55" s="650"/>
-      <c r="M55" s="651"/>
+      <c r="J55" s="672"/>
+      <c r="K55" s="672"/>
+      <c r="L55" s="672"/>
+      <c r="M55" s="673"/>
     </row>
     <row r="56" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="77"/>
       <c r="B56" s="78"/>
-      <c r="C56" s="678"/>
-      <c r="D56" s="678"/>
-      <c r="E56" s="678"/>
-      <c r="F56" s="678"/>
-      <c r="G56" s="678"/>
-      <c r="H56" s="678"/>
+      <c r="C56" s="703"/>
+      <c r="D56" s="703"/>
+      <c r="E56" s="703"/>
+      <c r="F56" s="703"/>
+      <c r="G56" s="703"/>
+      <c r="H56" s="703"/>
       <c r="I56" s="263"/>
       <c r="J56" s="207"/>
-      <c r="K56" s="623" t="s">
+      <c r="K56" s="674" t="s">
         <v>75</v>
       </c>
-      <c r="L56" s="623"/>
+      <c r="L56" s="674"/>
       <c r="M56" s="186"/>
     </row>
     <row r="57" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="77"/>
       <c r="B57" s="78"/>
-      <c r="C57" s="678"/>
-      <c r="D57" s="678"/>
-      <c r="E57" s="678"/>
-      <c r="F57" s="678"/>
-      <c r="G57" s="678"/>
-      <c r="H57" s="678"/>
+      <c r="C57" s="703"/>
+      <c r="D57" s="703"/>
+      <c r="E57" s="703"/>
+      <c r="F57" s="703"/>
+      <c r="G57" s="703"/>
+      <c r="H57" s="703"/>
       <c r="I57" s="263"/>
-      <c r="J57" s="623"/>
-      <c r="K57" s="623"/>
-      <c r="L57" s="623"/>
-      <c r="M57" s="624"/>
+      <c r="J57" s="674"/>
+      <c r="K57" s="674"/>
+      <c r="L57" s="674"/>
+      <c r="M57" s="717"/>
     </row>
     <row r="58" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="184"/>
@@ -15051,8 +15051,8 @@
       <c r="G58" s="264"/>
       <c r="H58" s="264"/>
       <c r="I58" s="265"/>
-      <c r="K58" s="708"/>
-      <c r="L58" s="709"/>
+      <c r="K58" s="646"/>
+      <c r="L58" s="647"/>
       <c r="M58" s="2"/>
     </row>
     <row r="59" spans="1:14" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15064,102 +15064,102 @@
       <c r="G59" s="47"/>
       <c r="H59" s="47"/>
       <c r="I59" s="47"/>
-      <c r="K59" s="710"/>
-      <c r="L59" s="711"/>
+      <c r="K59" s="648"/>
+      <c r="L59" s="649"/>
       <c r="M59" s="2"/>
     </row>
     <row r="60" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="79"/>
-      <c r="B60" s="727" t="s">
+      <c r="B60" s="665" t="s">
         <v>399</v>
       </c>
-      <c r="C60" s="728"/>
-      <c r="D60" s="729"/>
-      <c r="F60" s="718"/>
-      <c r="G60" s="719"/>
-      <c r="H60" s="719"/>
-      <c r="I60" s="720"/>
-      <c r="K60" s="710"/>
-      <c r="L60" s="711"/>
+      <c r="C60" s="666"/>
+      <c r="D60" s="667"/>
+      <c r="F60" s="656"/>
+      <c r="G60" s="657"/>
+      <c r="H60" s="657"/>
+      <c r="I60" s="658"/>
+      <c r="K60" s="648"/>
+      <c r="L60" s="649"/>
       <c r="M60" s="80"/>
     </row>
     <row r="61" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="79"/>
-      <c r="B61" s="714" t="s">
+      <c r="B61" s="652" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="715"/>
+      <c r="C61" s="653"/>
       <c r="D61" s="136"/>
-      <c r="F61" s="721"/>
-      <c r="G61" s="722"/>
-      <c r="H61" s="722"/>
-      <c r="I61" s="723"/>
-      <c r="K61" s="710"/>
-      <c r="L61" s="711"/>
+      <c r="F61" s="659"/>
+      <c r="G61" s="660"/>
+      <c r="H61" s="660"/>
+      <c r="I61" s="661"/>
+      <c r="K61" s="648"/>
+      <c r="L61" s="649"/>
       <c r="M61" s="80"/>
     </row>
     <row r="62" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="79"/>
-      <c r="B62" s="702" t="s">
+      <c r="B62" s="641" t="s">
         <v>390</v>
       </c>
-      <c r="C62" s="703"/>
-      <c r="D62" s="706"/>
-      <c r="F62" s="724"/>
-      <c r="G62" s="725"/>
-      <c r="H62" s="725"/>
-      <c r="I62" s="726"/>
-      <c r="K62" s="710"/>
-      <c r="L62" s="711"/>
+      <c r="C62" s="642"/>
+      <c r="D62" s="615"/>
+      <c r="F62" s="662"/>
+      <c r="G62" s="663"/>
+      <c r="H62" s="663"/>
+      <c r="I62" s="664"/>
+      <c r="K62" s="648"/>
+      <c r="L62" s="649"/>
       <c r="M62" s="80"/>
     </row>
     <row r="63" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="79"/>
-      <c r="B63" s="716"/>
-      <c r="C63" s="717"/>
-      <c r="D63" s="730"/>
-      <c r="F63" s="731" t="s">
+      <c r="B63" s="654"/>
+      <c r="C63" s="655"/>
+      <c r="D63" s="616"/>
+      <c r="F63" s="617" t="s">
         <v>94</v>
       </c>
-      <c r="G63" s="732"/>
-      <c r="H63" s="732"/>
-      <c r="I63" s="733"/>
-      <c r="K63" s="710"/>
-      <c r="L63" s="711"/>
+      <c r="G63" s="618"/>
+      <c r="H63" s="618"/>
+      <c r="I63" s="619"/>
+      <c r="K63" s="648"/>
+      <c r="L63" s="649"/>
       <c r="M63" s="80"/>
     </row>
     <row r="64" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="79"/>
-      <c r="B64" s="702" t="s">
+      <c r="B64" s="641" t="s">
         <v>389</v>
       </c>
-      <c r="C64" s="703"/>
-      <c r="D64" s="706"/>
+      <c r="C64" s="642"/>
+      <c r="D64" s="615"/>
       <c r="F64" s="81"/>
       <c r="G64" s="188"/>
       <c r="H64" s="188"/>
       <c r="I64" s="189"/>
       <c r="J64" s="82"/>
-      <c r="K64" s="712"/>
-      <c r="L64" s="713"/>
+      <c r="K64" s="650"/>
+      <c r="L64" s="651"/>
       <c r="M64" s="80"/>
     </row>
     <row r="65" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="79"/>
-      <c r="B65" s="704"/>
-      <c r="C65" s="705"/>
-      <c r="D65" s="707"/>
-      <c r="F65" s="699" t="s">
+      <c r="B65" s="643"/>
+      <c r="C65" s="644"/>
+      <c r="D65" s="645"/>
+      <c r="F65" s="638" t="s">
         <v>95</v>
       </c>
-      <c r="G65" s="700"/>
-      <c r="H65" s="700"/>
-      <c r="I65" s="701"/>
+      <c r="G65" s="639"/>
+      <c r="H65" s="639"/>
+      <c r="I65" s="640"/>
       <c r="J65" s="82"/>
-      <c r="K65" s="697" t="s">
+      <c r="K65" s="636" t="s">
         <v>97</v>
       </c>
-      <c r="L65" s="698"/>
+      <c r="L65" s="637"/>
       <c r="M65" s="80"/>
     </row>
     <row r="66" spans="1:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15178,32 +15178,32 @@
       <c r="M66" s="88"/>
     </row>
     <row r="67" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="694" t="s">
+      <c r="A67" s="633" t="s">
         <v>341</v>
       </c>
-      <c r="B67" s="695"/>
-      <c r="C67" s="695"/>
-      <c r="D67" s="695"/>
-      <c r="E67" s="695"/>
-      <c r="F67" s="695"/>
-      <c r="G67" s="695"/>
-      <c r="H67" s="695"/>
-      <c r="I67" s="695"/>
-      <c r="J67" s="695"/>
-      <c r="K67" s="695"/>
-      <c r="L67" s="695"/>
-      <c r="M67" s="696"/>
+      <c r="B67" s="634"/>
+      <c r="C67" s="634"/>
+      <c r="D67" s="634"/>
+      <c r="E67" s="634"/>
+      <c r="F67" s="634"/>
+      <c r="G67" s="634"/>
+      <c r="H67" s="634"/>
+      <c r="I67" s="634"/>
+      <c r="J67" s="634"/>
+      <c r="K67" s="634"/>
+      <c r="L67" s="634"/>
+      <c r="M67" s="635"/>
     </row>
     <row r="68" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="79"/>
       <c r="B68" s="82"/>
       <c r="C68" s="89"/>
       <c r="D68" s="89"/>
-      <c r="E68" s="691"/>
-      <c r="F68" s="692"/>
-      <c r="G68" s="692"/>
-      <c r="H68" s="692"/>
-      <c r="I68" s="693"/>
+      <c r="E68" s="630"/>
+      <c r="F68" s="631"/>
+      <c r="G68" s="631"/>
+      <c r="H68" s="631"/>
+      <c r="I68" s="632"/>
       <c r="J68" s="137"/>
       <c r="K68" s="137"/>
       <c r="M68" s="80"/>
@@ -15213,13 +15213,13 @@
       <c r="B69" s="82"/>
       <c r="C69" s="247"/>
       <c r="D69" s="247"/>
-      <c r="E69" s="688" t="s">
+      <c r="E69" s="627" t="s">
         <v>96</v>
       </c>
-      <c r="F69" s="689"/>
-      <c r="G69" s="689"/>
-      <c r="H69" s="689"/>
-      <c r="I69" s="690"/>
+      <c r="F69" s="628"/>
+      <c r="G69" s="628"/>
+      <c r="H69" s="628"/>
+      <c r="I69" s="629"/>
       <c r="J69" s="139"/>
       <c r="K69" s="138"/>
       <c r="L69" s="90"/>
@@ -15241,21 +15241,21 @@
       <c r="M70" s="93"/>
     </row>
     <row r="71" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="687" t="s">
+      <c r="A71" s="626" t="s">
         <v>381</v>
       </c>
-      <c r="B71" s="687"/>
-      <c r="C71" s="687"/>
-      <c r="D71" s="687"/>
-      <c r="E71" s="687"/>
-      <c r="F71" s="687"/>
-      <c r="G71" s="687"/>
-      <c r="H71" s="687"/>
-      <c r="I71" s="687"/>
-      <c r="J71" s="687"/>
-      <c r="K71" s="687"/>
-      <c r="L71" s="687"/>
-      <c r="M71" s="687"/>
+      <c r="B71" s="626"/>
+      <c r="C71" s="626"/>
+      <c r="D71" s="626"/>
+      <c r="E71" s="626"/>
+      <c r="F71" s="626"/>
+      <c r="G71" s="626"/>
+      <c r="H71" s="626"/>
+      <c r="I71" s="626"/>
+      <c r="J71" s="626"/>
+      <c r="K71" s="626"/>
+      <c r="L71" s="626"/>
+      <c r="M71" s="626"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -15268,24 +15268,59 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="97">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C34:F36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="C18:F22"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="C23:F26"/>
-    <mergeCell ref="G27:M27"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G45:M45"/>
+    <mergeCell ref="G47:M47"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="G31:M31"/>
+    <mergeCell ref="G34:M34"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C45:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="C37:F40"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="C43:F44"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="C27:F30"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="C55:H57"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F16"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="G43:M43"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="C31:F32"/>
@@ -15302,6 +15337,12 @@
     <mergeCell ref="B62:C63"/>
     <mergeCell ref="F60:I62"/>
     <mergeCell ref="B60:D60"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G45:M45"/>
     <mergeCell ref="J50:M55"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="G54:I54"/>
@@ -15312,59 +15353,18 @@
     <mergeCell ref="G52:I52"/>
     <mergeCell ref="A54:E54"/>
     <mergeCell ref="G53:I53"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="C55:H57"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C45:F46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="C37:F40"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="C43:F44"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="C27:F30"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F16"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="G43:M43"/>
-    <mergeCell ref="G47:M47"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="G23:M23"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="G31:M31"/>
-    <mergeCell ref="G34:M34"/>
+    <mergeCell ref="C18:F22"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="C23:F26"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C34:F36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="G32:J32"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/public/report/macro_enabled_cs_form_no_2122.xlsx
+++ b/public/report/macro_enabled_cs_form_no_2122.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\personal-info-management-system\public\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9F32BB-FA43-48F3-8CC0-F3B55B7A4420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726A687F-8FF6-4E2F-A167-B781A14A58B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C1" sheetId="1" r:id="rId1"/>
@@ -3457,37 +3457,8 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3498,6 +3469,56 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3506,76 +3527,47 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3590,331 +3582,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3923,12 +3632,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3945,6 +3648,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3975,6 +3692,9 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="24" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3987,6 +3707,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3999,92 +3731,480 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="43" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -4113,18 +4233,9 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4152,22 +4263,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4180,15 +4275,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4197,140 +4283,47 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4345,36 +4338,30 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4382,12 +4369,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4409,6 +4405,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4432,398 +4440,114 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4841,9 +4565,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4872,62 +4611,323 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6833,7 +6833,7 @@
   </sheetPr>
   <dimension ref="A1:R264"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A48" zoomScale="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A18" zoomScale="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="G56" sqref="G56:I56"/>
     </sheetView>
   </sheetViews>
@@ -6859,20 +6859,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="347"/>
-      <c r="B1" s="348"/>
-      <c r="C1" s="348"/>
-      <c r="D1" s="348"/>
-      <c r="E1" s="348"/>
-      <c r="F1" s="348"/>
-      <c r="G1" s="348"/>
-      <c r="H1" s="348"/>
-      <c r="I1" s="348"/>
-      <c r="J1" s="348"/>
-      <c r="K1" s="348"/>
-      <c r="L1" s="348"/>
-      <c r="M1" s="348"/>
-      <c r="N1" s="349"/>
+      <c r="A1" s="372"/>
+      <c r="B1" s="373"/>
+      <c r="C1" s="373"/>
+      <c r="D1" s="373"/>
+      <c r="E1" s="373"/>
+      <c r="F1" s="373"/>
+      <c r="G1" s="373"/>
+      <c r="H1" s="373"/>
+      <c r="I1" s="373"/>
+      <c r="J1" s="373"/>
+      <c r="K1" s="373"/>
+      <c r="L1" s="373"/>
+      <c r="M1" s="373"/>
+      <c r="N1" s="374"/>
     </row>
     <row r="2" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="167"/>
@@ -6902,58 +6902,58 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="350" t="s">
+      <c r="A3" s="375" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="351"/>
-      <c r="C3" s="351"/>
-      <c r="D3" s="351"/>
-      <c r="E3" s="351"/>
-      <c r="F3" s="351"/>
-      <c r="G3" s="351"/>
-      <c r="H3" s="351"/>
-      <c r="I3" s="351"/>
-      <c r="J3" s="351"/>
-      <c r="K3" s="351"/>
-      <c r="L3" s="351"/>
-      <c r="M3" s="351"/>
-      <c r="N3" s="352"/>
+      <c r="B3" s="376"/>
+      <c r="C3" s="376"/>
+      <c r="D3" s="376"/>
+      <c r="E3" s="376"/>
+      <c r="F3" s="376"/>
+      <c r="G3" s="376"/>
+      <c r="H3" s="376"/>
+      <c r="I3" s="376"/>
+      <c r="J3" s="376"/>
+      <c r="K3" s="376"/>
+      <c r="L3" s="376"/>
+      <c r="M3" s="376"/>
+      <c r="N3" s="377"/>
     </row>
     <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="382" t="s">
+      <c r="A4" s="410" t="s">
         <v>401</v>
       </c>
-      <c r="B4" s="383"/>
-      <c r="C4" s="383"/>
-      <c r="D4" s="383"/>
-      <c r="E4" s="383"/>
-      <c r="F4" s="383"/>
-      <c r="G4" s="383"/>
-      <c r="H4" s="383"/>
-      <c r="I4" s="383"/>
-      <c r="J4" s="383"/>
-      <c r="K4" s="383"/>
-      <c r="L4" s="383"/>
-      <c r="M4" s="383"/>
-      <c r="N4" s="384"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="411"/>
+      <c r="D4" s="411"/>
+      <c r="E4" s="411"/>
+      <c r="F4" s="411"/>
+      <c r="G4" s="411"/>
+      <c r="H4" s="411"/>
+      <c r="I4" s="411"/>
+      <c r="J4" s="411"/>
+      <c r="K4" s="411"/>
+      <c r="L4" s="411"/>
+      <c r="M4" s="411"/>
+      <c r="N4" s="412"/>
     </row>
     <row r="5" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="413" t="s">
+      <c r="A5" s="321" t="s">
         <v>386</v>
       </c>
-      <c r="B5" s="414"/>
-      <c r="C5" s="414"/>
-      <c r="D5" s="414"/>
-      <c r="E5" s="414"/>
-      <c r="F5" s="414"/>
-      <c r="G5" s="414"/>
-      <c r="H5" s="414"/>
-      <c r="I5" s="414"/>
-      <c r="J5" s="414"/>
-      <c r="K5" s="414"/>
-      <c r="L5" s="414"/>
-      <c r="M5" s="414"/>
-      <c r="N5" s="415"/>
+      <c r="B5" s="322"/>
+      <c r="C5" s="322"/>
+      <c r="D5" s="322"/>
+      <c r="E5" s="322"/>
+      <c r="F5" s="322"/>
+      <c r="G5" s="322"/>
+      <c r="H5" s="322"/>
+      <c r="I5" s="322"/>
+      <c r="J5" s="322"/>
+      <c r="K5" s="322"/>
+      <c r="L5" s="322"/>
+      <c r="M5" s="322"/>
+      <c r="N5" s="323"/>
     </row>
     <row r="6" spans="1:18" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="204"/>
@@ -6987,63 +6987,63 @@
       <c r="K7" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="356" t="s">
+      <c r="L7" s="381" t="s">
         <v>358</v>
       </c>
-      <c r="M7" s="357"/>
-      <c r="N7" s="358"/>
+      <c r="M7" s="382"/>
+      <c r="N7" s="383"/>
     </row>
     <row r="8" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="171"/>
       <c r="N8" s="163"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="353" t="s">
+      <c r="A9" s="378" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="354"/>
-      <c r="C9" s="354"/>
-      <c r="D9" s="354"/>
-      <c r="E9" s="354"/>
-      <c r="F9" s="354"/>
-      <c r="G9" s="354"/>
-      <c r="H9" s="354"/>
-      <c r="I9" s="354"/>
-      <c r="J9" s="354"/>
-      <c r="K9" s="354"/>
-      <c r="L9" s="354"/>
-      <c r="M9" s="354"/>
-      <c r="N9" s="355"/>
+      <c r="B9" s="379"/>
+      <c r="C9" s="379"/>
+      <c r="D9" s="379"/>
+      <c r="E9" s="379"/>
+      <c r="F9" s="379"/>
+      <c r="G9" s="379"/>
+      <c r="H9" s="379"/>
+      <c r="I9" s="379"/>
+      <c r="J9" s="379"/>
+      <c r="K9" s="379"/>
+      <c r="L9" s="379"/>
+      <c r="M9" s="379"/>
+      <c r="N9" s="380"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="372" t="s">
+      <c r="B10" s="396" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="373"/>
-      <c r="D10" s="367"/>
-      <c r="E10" s="367"/>
-      <c r="F10" s="367"/>
-      <c r="G10" s="367"/>
-      <c r="H10" s="367"/>
-      <c r="I10" s="367"/>
-      <c r="J10" s="367"/>
-      <c r="K10" s="367"/>
-      <c r="L10" s="367"/>
-      <c r="M10" s="367"/>
-      <c r="N10" s="368"/>
+      <c r="C10" s="347"/>
+      <c r="D10" s="392"/>
+      <c r="E10" s="392"/>
+      <c r="F10" s="392"/>
+      <c r="G10" s="392"/>
+      <c r="H10" s="392"/>
+      <c r="I10" s="392"/>
+      <c r="J10" s="392"/>
+      <c r="K10" s="392"/>
+      <c r="L10" s="392"/>
+      <c r="M10" s="392"/>
+      <c r="N10" s="393"/>
       <c r="P10" s="99" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="172"/>
-      <c r="B11" s="374" t="s">
+      <c r="B11" s="397" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="375"/>
+      <c r="C11" s="398"/>
       <c r="D11" s="212"/>
       <c r="E11" s="213"/>
       <c r="F11" s="213"/>
@@ -7052,11 +7052,11 @@
       <c r="I11" s="213"/>
       <c r="J11" s="213"/>
       <c r="K11" s="213"/>
-      <c r="L11" s="437" t="s">
+      <c r="L11" s="348" t="s">
         <v>403</v>
       </c>
-      <c r="M11" s="438"/>
-      <c r="N11" s="439"/>
+      <c r="M11" s="349"/>
+      <c r="N11" s="350"/>
       <c r="P11" s="100" t="s">
         <v>52</v>
       </c>
@@ -7066,10 +7066,10 @@
     </row>
     <row r="12" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="173"/>
-      <c r="B12" s="376" t="s">
+      <c r="B12" s="399" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="377"/>
+      <c r="C12" s="400"/>
       <c r="D12" s="209"/>
       <c r="E12" s="210"/>
       <c r="F12" s="210"/>
@@ -7092,23 +7092,23 @@
       <c r="A13" s="246" t="s">
         <v>369</v>
       </c>
-      <c r="B13" s="436" t="s">
+      <c r="B13" s="346" t="s">
         <v>394</v>
       </c>
-      <c r="C13" s="373"/>
-      <c r="D13" s="452"/>
-      <c r="E13" s="452"/>
-      <c r="F13" s="453"/>
+      <c r="C13" s="347"/>
+      <c r="D13" s="278"/>
+      <c r="E13" s="278"/>
+      <c r="F13" s="279"/>
       <c r="G13" s="106" t="s">
         <v>372</v>
       </c>
       <c r="H13" s="149"/>
       <c r="I13" s="149"/>
-      <c r="J13" s="461"/>
-      <c r="K13" s="462"/>
-      <c r="L13" s="462"/>
-      <c r="M13" s="462"/>
-      <c r="N13" s="463"/>
+      <c r="J13" s="292"/>
+      <c r="K13" s="293"/>
+      <c r="L13" s="293"/>
+      <c r="M13" s="293"/>
+      <c r="N13" s="294"/>
       <c r="P13" s="100" t="s">
         <v>53</v>
       </c>
@@ -7126,11 +7126,11 @@
       <c r="G14" s="154"/>
       <c r="H14" s="162"/>
       <c r="I14" s="162"/>
-      <c r="J14" s="464"/>
-      <c r="K14" s="465"/>
-      <c r="L14" s="465"/>
-      <c r="M14" s="465"/>
-      <c r="N14" s="466"/>
+      <c r="J14" s="295"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
+      <c r="M14" s="296"/>
+      <c r="N14" s="297"/>
       <c r="P14" s="100"/>
       <c r="Q14" s="3"/>
     </row>
@@ -7142,19 +7142,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="101"/>
-      <c r="D15" s="410"/>
-      <c r="E15" s="410"/>
-      <c r="F15" s="411"/>
-      <c r="G15" s="457" t="s">
+      <c r="D15" s="317"/>
+      <c r="E15" s="317"/>
+      <c r="F15" s="318"/>
+      <c r="G15" s="283" t="s">
         <v>387</v>
       </c>
-      <c r="H15" s="458"/>
-      <c r="I15" s="458"/>
-      <c r="J15" s="467"/>
-      <c r="K15" s="468"/>
-      <c r="L15" s="468"/>
-      <c r="M15" s="468"/>
-      <c r="N15" s="469"/>
+      <c r="H15" s="284"/>
+      <c r="I15" s="284"/>
+      <c r="J15" s="298"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
+      <c r="M15" s="299"/>
+      <c r="N15" s="300"/>
       <c r="P15" s="100" t="s">
         <v>118</v>
       </c>
@@ -7171,13 +7171,13 @@
       </c>
       <c r="C16" s="102"/>
       <c r="D16" s="267"/>
-      <c r="E16" s="412"/>
-      <c r="F16" s="459"/>
-      <c r="G16" s="454" t="s">
+      <c r="E16" s="287"/>
+      <c r="F16" s="288"/>
+      <c r="G16" s="280" t="s">
         <v>324</v>
       </c>
-      <c r="H16" s="455"/>
-      <c r="I16" s="456"/>
+      <c r="H16" s="281"/>
+      <c r="I16" s="282"/>
       <c r="N16" s="163"/>
       <c r="P16" s="100" t="s">
         <v>119</v>
@@ -7187,49 +7187,49 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="427">
+      <c r="A17" s="337">
         <v>6</v>
       </c>
-      <c r="B17" s="432" t="s">
+      <c r="B17" s="342" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="433"/>
-      <c r="D17" s="385"/>
-      <c r="E17" s="386"/>
-      <c r="F17" s="387"/>
+      <c r="C17" s="343"/>
+      <c r="D17" s="413"/>
+      <c r="E17" s="414"/>
+      <c r="F17" s="415"/>
       <c r="G17" s="107" t="s">
         <v>373</v>
       </c>
       <c r="H17" s="108"/>
-      <c r="I17" s="328"/>
-      <c r="J17" s="329"/>
-      <c r="K17" s="329"/>
-      <c r="L17" s="329"/>
-      <c r="M17" s="329"/>
-      <c r="N17" s="330"/>
+      <c r="I17" s="301"/>
+      <c r="J17" s="285"/>
+      <c r="K17" s="285"/>
+      <c r="L17" s="285"/>
+      <c r="M17" s="285"/>
+      <c r="N17" s="286"/>
       <c r="Q17" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="428"/>
-      <c r="B18" s="434"/>
-      <c r="C18" s="435"/>
-      <c r="D18" s="388"/>
-      <c r="E18" s="389"/>
-      <c r="F18" s="390"/>
+      <c r="A18" s="338"/>
+      <c r="B18" s="344"/>
+      <c r="C18" s="345"/>
+      <c r="D18" s="351"/>
+      <c r="E18" s="352"/>
+      <c r="F18" s="353"/>
       <c r="G18" s="156"/>
       <c r="H18" s="109"/>
-      <c r="I18" s="451" t="s">
+      <c r="I18" s="275" t="s">
         <v>354</v>
       </c>
-      <c r="J18" s="416"/>
-      <c r="K18" s="416"/>
-      <c r="L18" s="416" t="s">
+      <c r="J18" s="276"/>
+      <c r="K18" s="276"/>
+      <c r="L18" s="276" t="s">
         <v>353</v>
       </c>
-      <c r="M18" s="416"/>
-      <c r="N18" s="417"/>
+      <c r="M18" s="276"/>
+      <c r="N18" s="277"/>
       <c r="Q18" s="3" t="s">
         <v>126</v>
       </c>
@@ -7243,100 +7243,100 @@
       <c r="F19" s="270"/>
       <c r="G19" s="156"/>
       <c r="H19" s="109"/>
-      <c r="I19" s="418"/>
-      <c r="J19" s="419"/>
-      <c r="K19" s="419"/>
-      <c r="L19" s="422"/>
-      <c r="M19" s="419"/>
-      <c r="N19" s="423"/>
+      <c r="I19" s="324"/>
+      <c r="J19" s="325"/>
+      <c r="K19" s="325"/>
+      <c r="L19" s="328"/>
+      <c r="M19" s="325"/>
+      <c r="N19" s="329"/>
       <c r="Q19" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="428"/>
+      <c r="A20" s="338"/>
       <c r="B20" s="228"/>
       <c r="C20" s="143"/>
-      <c r="D20" s="388"/>
-      <c r="E20" s="389"/>
-      <c r="F20" s="390"/>
+      <c r="D20" s="351"/>
+      <c r="E20" s="352"/>
+      <c r="F20" s="353"/>
       <c r="G20" s="154"/>
       <c r="H20" s="162"/>
-      <c r="I20" s="420"/>
-      <c r="J20" s="421"/>
-      <c r="K20" s="421"/>
-      <c r="L20" s="421"/>
-      <c r="M20" s="421"/>
-      <c r="N20" s="424"/>
+      <c r="I20" s="326"/>
+      <c r="J20" s="327"/>
+      <c r="K20" s="327"/>
+      <c r="L20" s="327"/>
+      <c r="M20" s="327"/>
+      <c r="N20" s="330"/>
       <c r="Q20" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="429"/>
+      <c r="A21" s="339"/>
       <c r="B21" s="229"/>
       <c r="C21" s="141"/>
-      <c r="D21" s="440"/>
-      <c r="E21" s="441"/>
-      <c r="F21" s="442"/>
+      <c r="D21" s="354"/>
+      <c r="E21" s="355"/>
+      <c r="F21" s="356"/>
       <c r="G21" s="154"/>
       <c r="H21" s="162"/>
-      <c r="I21" s="425" t="s">
+      <c r="I21" s="331" t="s">
         <v>350</v>
       </c>
-      <c r="J21" s="426"/>
-      <c r="K21" s="426"/>
-      <c r="L21" s="325" t="s">
+      <c r="J21" s="332"/>
+      <c r="K21" s="332"/>
+      <c r="L21" s="436" t="s">
         <v>351</v>
       </c>
-      <c r="M21" s="326"/>
-      <c r="N21" s="327"/>
+      <c r="M21" s="437"/>
+      <c r="N21" s="438"/>
       <c r="Q21" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="430" t="s">
+      <c r="A22" s="340" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="401" t="s">
+      <c r="B22" s="315" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="402"/>
-      <c r="D22" s="394"/>
-      <c r="E22" s="371"/>
-      <c r="F22" s="395"/>
+      <c r="C22" s="316"/>
+      <c r="D22" s="360"/>
+      <c r="E22" s="335"/>
+      <c r="F22" s="361"/>
       <c r="G22" s="154"/>
       <c r="H22" s="162"/>
-      <c r="I22" s="328"/>
-      <c r="J22" s="329"/>
-      <c r="K22" s="329"/>
-      <c r="L22" s="329"/>
-      <c r="M22" s="329"/>
-      <c r="N22" s="330"/>
+      <c r="I22" s="301"/>
+      <c r="J22" s="285"/>
+      <c r="K22" s="285"/>
+      <c r="L22" s="285"/>
+      <c r="M22" s="285"/>
+      <c r="N22" s="286"/>
       <c r="Q22" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="431"/>
-      <c r="B23" s="403"/>
-      <c r="C23" s="404"/>
-      <c r="D23" s="396"/>
-      <c r="E23" s="397"/>
-      <c r="F23" s="398"/>
+      <c r="A23" s="341"/>
+      <c r="B23" s="364"/>
+      <c r="C23" s="365"/>
+      <c r="D23" s="362"/>
+      <c r="E23" s="336"/>
+      <c r="F23" s="363"/>
       <c r="G23" s="154"/>
       <c r="H23" s="162"/>
-      <c r="I23" s="333" t="s">
+      <c r="I23" s="441" t="s">
         <v>361</v>
       </c>
-      <c r="J23" s="334"/>
-      <c r="K23" s="334"/>
-      <c r="L23" s="331" t="s">
+      <c r="J23" s="442"/>
+      <c r="K23" s="442"/>
+      <c r="L23" s="439" t="s">
         <v>352</v>
       </c>
-      <c r="M23" s="331"/>
-      <c r="N23" s="332"/>
+      <c r="M23" s="439"/>
+      <c r="N23" s="440"/>
       <c r="Q23" s="3" t="s">
         <v>131</v>
       </c>
@@ -7345,132 +7345,132 @@
       <c r="A24" s="172" t="s">
         <v>333</v>
       </c>
-      <c r="B24" s="405" t="s">
+      <c r="B24" s="366" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="379"/>
-      <c r="D24" s="412"/>
-      <c r="E24" s="412"/>
-      <c r="F24" s="412"/>
-      <c r="G24" s="340" t="s">
+      <c r="C24" s="367"/>
+      <c r="D24" s="287"/>
+      <c r="E24" s="287"/>
+      <c r="F24" s="287"/>
+      <c r="G24" s="401" t="s">
         <v>326</v>
       </c>
-      <c r="H24" s="318"/>
-      <c r="I24" s="341"/>
-      <c r="J24" s="342"/>
-      <c r="K24" s="342"/>
-      <c r="L24" s="342"/>
-      <c r="M24" s="342"/>
-      <c r="N24" s="343"/>
+      <c r="H24" s="402"/>
+      <c r="I24" s="302"/>
+      <c r="J24" s="303"/>
+      <c r="K24" s="303"/>
+      <c r="L24" s="303"/>
+      <c r="M24" s="303"/>
+      <c r="N24" s="304"/>
       <c r="Q24" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="399" t="s">
+      <c r="A25" s="333" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="401" t="s">
+      <c r="B25" s="315" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="402"/>
-      <c r="D25" s="371"/>
-      <c r="E25" s="371"/>
-      <c r="F25" s="371"/>
+      <c r="C25" s="316"/>
+      <c r="D25" s="335"/>
+      <c r="E25" s="335"/>
+      <c r="F25" s="335"/>
       <c r="G25" s="114" t="s">
         <v>374</v>
       </c>
       <c r="H25" s="103"/>
-      <c r="I25" s="344"/>
-      <c r="J25" s="338"/>
-      <c r="K25" s="338"/>
-      <c r="L25" s="338"/>
-      <c r="M25" s="338"/>
-      <c r="N25" s="339"/>
+      <c r="I25" s="319"/>
+      <c r="J25" s="320"/>
+      <c r="K25" s="320"/>
+      <c r="L25" s="320"/>
+      <c r="M25" s="320"/>
+      <c r="N25" s="446"/>
       <c r="Q25" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="400"/>
-      <c r="B26" s="403"/>
-      <c r="C26" s="404"/>
-      <c r="D26" s="397"/>
-      <c r="E26" s="397"/>
-      <c r="F26" s="397"/>
+      <c r="A26" s="334"/>
+      <c r="B26" s="364"/>
+      <c r="C26" s="365"/>
+      <c r="D26" s="336"/>
+      <c r="E26" s="336"/>
+      <c r="F26" s="336"/>
       <c r="G26" s="154"/>
       <c r="H26" s="162"/>
-      <c r="I26" s="451" t="s">
+      <c r="I26" s="275" t="s">
         <v>354</v>
       </c>
-      <c r="J26" s="416"/>
-      <c r="K26" s="416"/>
-      <c r="L26" s="416" t="s">
+      <c r="J26" s="276"/>
+      <c r="K26" s="276"/>
+      <c r="L26" s="276" t="s">
         <v>353</v>
       </c>
-      <c r="M26" s="416"/>
-      <c r="N26" s="417"/>
+      <c r="M26" s="276"/>
+      <c r="N26" s="277"/>
       <c r="Q26" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="399" t="s">
+      <c r="A27" s="333" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="401" t="s">
+      <c r="B27" s="315" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="402"/>
-      <c r="D27" s="371"/>
-      <c r="E27" s="371"/>
-      <c r="F27" s="371"/>
+      <c r="C27" s="316"/>
+      <c r="D27" s="335"/>
+      <c r="E27" s="335"/>
+      <c r="F27" s="335"/>
       <c r="G27" s="156"/>
       <c r="H27" s="109"/>
-      <c r="I27" s="344"/>
-      <c r="J27" s="338"/>
-      <c r="K27" s="338"/>
-      <c r="L27" s="338"/>
-      <c r="M27" s="338"/>
-      <c r="N27" s="339"/>
+      <c r="I27" s="319"/>
+      <c r="J27" s="320"/>
+      <c r="K27" s="320"/>
+      <c r="L27" s="320"/>
+      <c r="M27" s="320"/>
+      <c r="N27" s="446"/>
       <c r="Q27" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="400"/>
-      <c r="B28" s="403"/>
-      <c r="C28" s="404"/>
-      <c r="D28" s="397"/>
-      <c r="E28" s="397"/>
-      <c r="F28" s="397"/>
+      <c r="A28" s="334"/>
+      <c r="B28" s="364"/>
+      <c r="C28" s="365"/>
+      <c r="D28" s="336"/>
+      <c r="E28" s="336"/>
+      <c r="F28" s="336"/>
       <c r="G28" s="156"/>
       <c r="H28" s="109"/>
-      <c r="I28" s="406" t="s">
+      <c r="I28" s="368" t="s">
         <v>350</v>
       </c>
-      <c r="J28" s="407"/>
-      <c r="K28" s="407"/>
-      <c r="L28" s="408" t="s">
+      <c r="J28" s="369"/>
+      <c r="K28" s="369"/>
+      <c r="L28" s="370" t="s">
         <v>351</v>
       </c>
-      <c r="M28" s="407"/>
-      <c r="N28" s="409"/>
+      <c r="M28" s="369"/>
+      <c r="N28" s="371"/>
       <c r="Q28" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="399" t="s">
+      <c r="A29" s="333" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="401" t="s">
+      <c r="B29" s="315" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="402"/>
-      <c r="D29" s="371"/>
-      <c r="E29" s="371"/>
-      <c r="F29" s="371"/>
+      <c r="C29" s="316"/>
+      <c r="D29" s="335"/>
+      <c r="E29" s="335"/>
+      <c r="F29" s="335"/>
       <c r="G29" s="156"/>
       <c r="H29" s="165"/>
       <c r="I29" s="158"/>
@@ -7484,24 +7484,24 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="400"/>
-      <c r="B30" s="403"/>
-      <c r="C30" s="404"/>
-      <c r="D30" s="397"/>
-      <c r="E30" s="397"/>
-      <c r="F30" s="397"/>
+      <c r="A30" s="334"/>
+      <c r="B30" s="364"/>
+      <c r="C30" s="365"/>
+      <c r="D30" s="336"/>
+      <c r="E30" s="336"/>
+      <c r="F30" s="336"/>
       <c r="G30" s="156"/>
       <c r="H30" s="165"/>
-      <c r="I30" s="335" t="s">
+      <c r="I30" s="443" t="s">
         <v>361</v>
       </c>
-      <c r="J30" s="335"/>
-      <c r="K30" s="335"/>
-      <c r="L30" s="335" t="s">
+      <c r="J30" s="443"/>
+      <c r="K30" s="443"/>
+      <c r="L30" s="443" t="s">
         <v>352</v>
       </c>
-      <c r="M30" s="335"/>
-      <c r="N30" s="336"/>
+      <c r="M30" s="443"/>
+      <c r="N30" s="444"/>
       <c r="Q30" s="3" t="s">
         <v>138</v>
       </c>
@@ -7514,19 +7514,19 @@
         <v>60</v>
       </c>
       <c r="C31" s="102"/>
-      <c r="D31" s="450"/>
-      <c r="E31" s="450"/>
-      <c r="F31" s="450"/>
-      <c r="G31" s="340" t="s">
+      <c r="D31" s="274"/>
+      <c r="E31" s="274"/>
+      <c r="F31" s="274"/>
+      <c r="G31" s="401" t="s">
         <v>326</v>
       </c>
-      <c r="H31" s="318"/>
-      <c r="I31" s="333"/>
-      <c r="J31" s="334"/>
-      <c r="K31" s="334"/>
-      <c r="L31" s="325"/>
-      <c r="M31" s="325"/>
-      <c r="N31" s="337"/>
+      <c r="H31" s="402"/>
+      <c r="I31" s="441"/>
+      <c r="J31" s="442"/>
+      <c r="K31" s="442"/>
+      <c r="L31" s="436"/>
+      <c r="M31" s="436"/>
+      <c r="N31" s="445"/>
       <c r="Q31" s="3" t="s">
         <v>139</v>
       </c>
@@ -7539,42 +7539,42 @@
         <v>84</v>
       </c>
       <c r="C32" s="102"/>
-      <c r="D32" s="412"/>
-      <c r="E32" s="412"/>
-      <c r="F32" s="412"/>
+      <c r="D32" s="287"/>
+      <c r="E32" s="287"/>
+      <c r="F32" s="287"/>
       <c r="G32" s="153" t="s">
         <v>375</v>
       </c>
       <c r="H32" s="157"/>
-      <c r="I32" s="341"/>
-      <c r="J32" s="342"/>
-      <c r="K32" s="342"/>
-      <c r="L32" s="342"/>
-      <c r="M32" s="342"/>
-      <c r="N32" s="343"/>
+      <c r="I32" s="302"/>
+      <c r="J32" s="303"/>
+      <c r="K32" s="303"/>
+      <c r="L32" s="303"/>
+      <c r="M32" s="303"/>
+      <c r="N32" s="304"/>
       <c r="Q32" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="378" t="s">
+      <c r="A33" s="404" t="s">
         <v>370</v>
       </c>
-      <c r="B33" s="379"/>
-      <c r="C33" s="380"/>
-      <c r="D33" s="381"/>
-      <c r="E33" s="381"/>
-      <c r="F33" s="381"/>
+      <c r="B33" s="367"/>
+      <c r="C33" s="405"/>
+      <c r="D33" s="406"/>
+      <c r="E33" s="406"/>
+      <c r="F33" s="406"/>
       <c r="G33" s="211" t="s">
         <v>376</v>
       </c>
       <c r="H33" s="155"/>
-      <c r="I33" s="341"/>
-      <c r="J33" s="342"/>
-      <c r="K33" s="342"/>
-      <c r="L33" s="342"/>
-      <c r="M33" s="342"/>
-      <c r="N33" s="343"/>
+      <c r="I33" s="302"/>
+      <c r="J33" s="303"/>
+      <c r="K33" s="303"/>
+      <c r="L33" s="303"/>
+      <c r="M33" s="303"/>
+      <c r="N33" s="304"/>
       <c r="Q33" s="3" t="s">
         <v>141</v>
       </c>
@@ -7585,19 +7585,19 @@
       </c>
       <c r="B34" s="230"/>
       <c r="C34" s="160"/>
-      <c r="D34" s="371"/>
-      <c r="E34" s="371"/>
-      <c r="F34" s="371"/>
+      <c r="D34" s="335"/>
+      <c r="E34" s="335"/>
+      <c r="F34" s="335"/>
       <c r="G34" s="114" t="s">
         <v>377</v>
       </c>
       <c r="H34" s="103"/>
-      <c r="I34" s="391"/>
-      <c r="J34" s="392"/>
-      <c r="K34" s="392"/>
-      <c r="L34" s="392"/>
-      <c r="M34" s="392"/>
-      <c r="N34" s="393"/>
+      <c r="I34" s="357"/>
+      <c r="J34" s="358"/>
+      <c r="K34" s="358"/>
+      <c r="L34" s="358"/>
+      <c r="M34" s="358"/>
+      <c r="N34" s="359"/>
       <c r="Q34" s="3" t="s">
         <v>142</v>
       </c>
@@ -7631,21 +7631,21 @@
         <v>74</v>
       </c>
       <c r="C36" s="235"/>
-      <c r="D36" s="460"/>
-      <c r="E36" s="460"/>
-      <c r="F36" s="460"/>
-      <c r="G36" s="460"/>
-      <c r="H36" s="460"/>
-      <c r="I36" s="345" t="s">
+      <c r="D36" s="291"/>
+      <c r="E36" s="291"/>
+      <c r="F36" s="291"/>
+      <c r="G36" s="291"/>
+      <c r="H36" s="291"/>
+      <c r="I36" s="447" t="s">
         <v>379</v>
       </c>
-      <c r="J36" s="345"/>
-      <c r="K36" s="345"/>
-      <c r="L36" s="346"/>
-      <c r="M36" s="361" t="s">
+      <c r="J36" s="447"/>
+      <c r="K36" s="447"/>
+      <c r="L36" s="448"/>
+      <c r="M36" s="386" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="362"/>
+      <c r="N36" s="387"/>
       <c r="Q36" s="3" t="s">
         <v>144</v>
       </c>
@@ -7656,19 +7656,19 @@
         <v>67</v>
       </c>
       <c r="C37" s="165"/>
-      <c r="D37" s="285"/>
-      <c r="E37" s="286"/>
-      <c r="F37" s="287"/>
-      <c r="G37" s="297" t="s">
+      <c r="D37" s="407"/>
+      <c r="E37" s="408"/>
+      <c r="F37" s="409"/>
+      <c r="G37" s="403" t="s">
         <v>382</v>
       </c>
-      <c r="H37" s="297"/>
-      <c r="I37" s="283"/>
-      <c r="J37" s="283"/>
-      <c r="K37" s="283"/>
-      <c r="L37" s="284"/>
-      <c r="M37" s="281"/>
-      <c r="N37" s="282"/>
+      <c r="H37" s="403"/>
+      <c r="I37" s="289"/>
+      <c r="J37" s="289"/>
+      <c r="K37" s="289"/>
+      <c r="L37" s="290"/>
+      <c r="M37" s="272"/>
+      <c r="N37" s="273"/>
       <c r="Q37" s="3" t="s">
         <v>145</v>
       </c>
@@ -7679,17 +7679,17 @@
         <v>68</v>
       </c>
       <c r="C38" s="225"/>
-      <c r="D38" s="285"/>
-      <c r="E38" s="286"/>
-      <c r="F38" s="286"/>
-      <c r="G38" s="286"/>
-      <c r="H38" s="287"/>
-      <c r="I38" s="283"/>
-      <c r="J38" s="283"/>
-      <c r="K38" s="283"/>
-      <c r="L38" s="284"/>
-      <c r="M38" s="281"/>
-      <c r="N38" s="282"/>
+      <c r="D38" s="407"/>
+      <c r="E38" s="408"/>
+      <c r="F38" s="408"/>
+      <c r="G38" s="408"/>
+      <c r="H38" s="409"/>
+      <c r="I38" s="289"/>
+      <c r="J38" s="289"/>
+      <c r="K38" s="289"/>
+      <c r="L38" s="290"/>
+      <c r="M38" s="272"/>
+      <c r="N38" s="273"/>
       <c r="Q38" s="3" t="s">
         <v>146</v>
       </c>
@@ -7700,17 +7700,17 @@
         <v>18</v>
       </c>
       <c r="C39" s="102"/>
-      <c r="D39" s="295"/>
-      <c r="E39" s="295"/>
-      <c r="F39" s="295"/>
-      <c r="G39" s="295"/>
-      <c r="H39" s="295"/>
-      <c r="I39" s="283"/>
-      <c r="J39" s="283"/>
-      <c r="K39" s="283"/>
-      <c r="L39" s="284"/>
-      <c r="M39" s="281"/>
-      <c r="N39" s="282"/>
+      <c r="D39" s="271"/>
+      <c r="E39" s="271"/>
+      <c r="F39" s="271"/>
+      <c r="G39" s="271"/>
+      <c r="H39" s="271"/>
+      <c r="I39" s="289"/>
+      <c r="J39" s="289"/>
+      <c r="K39" s="289"/>
+      <c r="L39" s="290"/>
+      <c r="M39" s="272"/>
+      <c r="N39" s="273"/>
       <c r="Q39" s="3" t="s">
         <v>147</v>
       </c>
@@ -7721,17 +7721,17 @@
         <v>368</v>
       </c>
       <c r="C40" s="102"/>
-      <c r="D40" s="295"/>
-      <c r="E40" s="295"/>
-      <c r="F40" s="295"/>
-      <c r="G40" s="295"/>
-      <c r="H40" s="295"/>
-      <c r="I40" s="283"/>
-      <c r="J40" s="283"/>
-      <c r="K40" s="283"/>
-      <c r="L40" s="284"/>
-      <c r="M40" s="281"/>
-      <c r="N40" s="282"/>
+      <c r="D40" s="271"/>
+      <c r="E40" s="271"/>
+      <c r="F40" s="271"/>
+      <c r="G40" s="271"/>
+      <c r="H40" s="271"/>
+      <c r="I40" s="289"/>
+      <c r="J40" s="289"/>
+      <c r="K40" s="289"/>
+      <c r="L40" s="290"/>
+      <c r="M40" s="272"/>
+      <c r="N40" s="273"/>
       <c r="Q40" s="3" t="s">
         <v>148</v>
       </c>
@@ -7742,17 +7742,17 @@
         <v>19</v>
       </c>
       <c r="C41" s="102"/>
-      <c r="D41" s="295"/>
-      <c r="E41" s="295"/>
-      <c r="F41" s="295"/>
-      <c r="G41" s="295"/>
-      <c r="H41" s="295"/>
-      <c r="I41" s="283"/>
-      <c r="J41" s="283"/>
-      <c r="K41" s="283"/>
-      <c r="L41" s="284"/>
-      <c r="M41" s="281"/>
-      <c r="N41" s="282"/>
+      <c r="D41" s="271"/>
+      <c r="E41" s="271"/>
+      <c r="F41" s="271"/>
+      <c r="G41" s="271"/>
+      <c r="H41" s="271"/>
+      <c r="I41" s="289"/>
+      <c r="J41" s="289"/>
+      <c r="K41" s="289"/>
+      <c r="L41" s="290"/>
+      <c r="M41" s="272"/>
+      <c r="N41" s="273"/>
       <c r="Q41" s="3" t="s">
         <v>149</v>
       </c>
@@ -7763,17 +7763,17 @@
         <v>36</v>
       </c>
       <c r="C42" s="142"/>
-      <c r="D42" s="295"/>
-      <c r="E42" s="295"/>
-      <c r="F42" s="295"/>
-      <c r="G42" s="295"/>
-      <c r="H42" s="295"/>
-      <c r="I42" s="283"/>
-      <c r="J42" s="283"/>
-      <c r="K42" s="283"/>
-      <c r="L42" s="284"/>
-      <c r="M42" s="281"/>
-      <c r="N42" s="282"/>
+      <c r="D42" s="271"/>
+      <c r="E42" s="271"/>
+      <c r="F42" s="271"/>
+      <c r="G42" s="271"/>
+      <c r="H42" s="271"/>
+      <c r="I42" s="289"/>
+      <c r="J42" s="289"/>
+      <c r="K42" s="289"/>
+      <c r="L42" s="290"/>
+      <c r="M42" s="272"/>
+      <c r="N42" s="273"/>
       <c r="Q42" s="3" t="s">
         <v>150</v>
       </c>
@@ -7786,17 +7786,17 @@
         <v>72</v>
       </c>
       <c r="C43" s="108"/>
-      <c r="D43" s="295"/>
-      <c r="E43" s="295"/>
-      <c r="F43" s="295"/>
-      <c r="G43" s="295"/>
-      <c r="H43" s="295"/>
-      <c r="I43" s="283"/>
-      <c r="J43" s="283"/>
-      <c r="K43" s="283"/>
-      <c r="L43" s="284"/>
-      <c r="M43" s="281"/>
-      <c r="N43" s="282"/>
+      <c r="D43" s="271"/>
+      <c r="E43" s="271"/>
+      <c r="F43" s="271"/>
+      <c r="G43" s="271"/>
+      <c r="H43" s="271"/>
+      <c r="I43" s="289"/>
+      <c r="J43" s="289"/>
+      <c r="K43" s="289"/>
+      <c r="L43" s="290"/>
+      <c r="M43" s="272"/>
+      <c r="N43" s="273"/>
       <c r="Q43" s="3" t="s">
         <v>151</v>
       </c>
@@ -7807,19 +7807,19 @@
         <v>2</v>
       </c>
       <c r="C44" s="162"/>
-      <c r="D44" s="285"/>
-      <c r="E44" s="286"/>
-      <c r="F44" s="287"/>
-      <c r="G44" s="297" t="s">
+      <c r="D44" s="407"/>
+      <c r="E44" s="408"/>
+      <c r="F44" s="409"/>
+      <c r="G44" s="403" t="s">
         <v>402</v>
       </c>
-      <c r="H44" s="297"/>
-      <c r="I44" s="283"/>
-      <c r="J44" s="283"/>
-      <c r="K44" s="283"/>
-      <c r="L44" s="284"/>
-      <c r="M44" s="281"/>
-      <c r="N44" s="282"/>
+      <c r="H44" s="403"/>
+      <c r="I44" s="289"/>
+      <c r="J44" s="289"/>
+      <c r="K44" s="289"/>
+      <c r="L44" s="290"/>
+      <c r="M44" s="272"/>
+      <c r="N44" s="273"/>
       <c r="Q44" s="3" t="s">
         <v>152</v>
       </c>
@@ -7830,17 +7830,17 @@
         <v>3</v>
       </c>
       <c r="C45" s="218"/>
-      <c r="D45" s="285"/>
-      <c r="E45" s="286"/>
-      <c r="F45" s="286"/>
-      <c r="G45" s="286"/>
-      <c r="H45" s="287"/>
-      <c r="I45" s="283"/>
-      <c r="J45" s="283"/>
-      <c r="K45" s="283"/>
-      <c r="L45" s="284"/>
-      <c r="M45" s="281"/>
-      <c r="N45" s="282"/>
+      <c r="D45" s="407"/>
+      <c r="E45" s="408"/>
+      <c r="F45" s="408"/>
+      <c r="G45" s="408"/>
+      <c r="H45" s="409"/>
+      <c r="I45" s="289"/>
+      <c r="J45" s="289"/>
+      <c r="K45" s="289"/>
+      <c r="L45" s="290"/>
+      <c r="M45" s="272"/>
+      <c r="N45" s="273"/>
       <c r="Q45" s="3" t="s">
         <v>153</v>
       </c>
@@ -7849,21 +7849,21 @@
       <c r="A46" s="154" t="s">
         <v>335</v>
       </c>
-      <c r="B46" s="401" t="s">
+      <c r="B46" s="315" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="401"/>
-      <c r="D46" s="401"/>
-      <c r="E46" s="401"/>
-      <c r="F46" s="401"/>
-      <c r="G46" s="401"/>
-      <c r="H46" s="402"/>
-      <c r="I46" s="283"/>
-      <c r="J46" s="283"/>
-      <c r="K46" s="283"/>
-      <c r="L46" s="284"/>
-      <c r="M46" s="281"/>
-      <c r="N46" s="282"/>
+      <c r="C46" s="315"/>
+      <c r="D46" s="315"/>
+      <c r="E46" s="315"/>
+      <c r="F46" s="315"/>
+      <c r="G46" s="315"/>
+      <c r="H46" s="316"/>
+      <c r="I46" s="289"/>
+      <c r="J46" s="289"/>
+      <c r="K46" s="289"/>
+      <c r="L46" s="290"/>
+      <c r="M46" s="272"/>
+      <c r="N46" s="273"/>
       <c r="Q46" s="3" t="s">
         <v>154</v>
       </c>
@@ -7874,17 +7874,17 @@
         <v>1</v>
       </c>
       <c r="C47" s="162"/>
-      <c r="D47" s="296"/>
-      <c r="E47" s="296"/>
-      <c r="F47" s="296"/>
-      <c r="G47" s="296"/>
-      <c r="H47" s="296"/>
-      <c r="I47" s="283"/>
-      <c r="J47" s="283"/>
-      <c r="K47" s="283"/>
-      <c r="L47" s="284"/>
-      <c r="M47" s="281"/>
-      <c r="N47" s="282"/>
+      <c r="D47" s="469"/>
+      <c r="E47" s="469"/>
+      <c r="F47" s="469"/>
+      <c r="G47" s="469"/>
+      <c r="H47" s="469"/>
+      <c r="I47" s="289"/>
+      <c r="J47" s="289"/>
+      <c r="K47" s="289"/>
+      <c r="L47" s="290"/>
+      <c r="M47" s="272"/>
+      <c r="N47" s="273"/>
       <c r="Q47" s="3" t="s">
         <v>155</v>
       </c>
@@ -7895,17 +7895,17 @@
         <v>2</v>
       </c>
       <c r="C48" s="162"/>
-      <c r="D48" s="296"/>
-      <c r="E48" s="296"/>
-      <c r="F48" s="296"/>
-      <c r="G48" s="296"/>
-      <c r="H48" s="296"/>
-      <c r="I48" s="283"/>
-      <c r="J48" s="283"/>
-      <c r="K48" s="283"/>
-      <c r="L48" s="284"/>
-      <c r="M48" s="281"/>
-      <c r="N48" s="282"/>
+      <c r="D48" s="469"/>
+      <c r="E48" s="469"/>
+      <c r="F48" s="469"/>
+      <c r="G48" s="469"/>
+      <c r="H48" s="469"/>
+      <c r="I48" s="289"/>
+      <c r="J48" s="289"/>
+      <c r="K48" s="289"/>
+      <c r="L48" s="290"/>
+      <c r="M48" s="272"/>
+      <c r="N48" s="273"/>
       <c r="Q48" s="3" t="s">
         <v>156</v>
       </c>
@@ -7916,19 +7916,19 @@
         <v>3</v>
       </c>
       <c r="C49" s="220"/>
-      <c r="D49" s="445"/>
-      <c r="E49" s="445"/>
-      <c r="F49" s="445"/>
-      <c r="G49" s="445"/>
-      <c r="H49" s="445"/>
-      <c r="I49" s="443" t="s">
+      <c r="D49" s="310"/>
+      <c r="E49" s="310"/>
+      <c r="F49" s="310"/>
+      <c r="G49" s="310"/>
+      <c r="H49" s="310"/>
+      <c r="I49" s="308" t="s">
         <v>63</v>
       </c>
-      <c r="J49" s="443"/>
-      <c r="K49" s="443"/>
-      <c r="L49" s="443"/>
-      <c r="M49" s="443"/>
-      <c r="N49" s="444"/>
+      <c r="J49" s="308"/>
+      <c r="K49" s="308"/>
+      <c r="L49" s="308"/>
+      <c r="M49" s="308"/>
+      <c r="N49" s="309"/>
       <c r="Q49" s="3" t="s">
         <v>157</v>
       </c>
@@ -7944,47 +7944,47 @@
       <c r="F50" s="105"/>
       <c r="G50" s="105"/>
       <c r="H50" s="105"/>
-      <c r="I50" s="369" t="s">
+      <c r="I50" s="394" t="s">
         <v>113</v>
       </c>
-      <c r="J50" s="369"/>
-      <c r="K50" s="369"/>
-      <c r="L50" s="369"/>
-      <c r="M50" s="369"/>
-      <c r="N50" s="370"/>
+      <c r="J50" s="394"/>
+      <c r="K50" s="394"/>
+      <c r="L50" s="394"/>
+      <c r="M50" s="394"/>
+      <c r="N50" s="395"/>
       <c r="Q50" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="363" t="s">
+      <c r="A51" s="388" t="s">
         <v>336</v>
       </c>
-      <c r="B51" s="313" t="s">
+      <c r="B51" s="419" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="313"/>
-      <c r="D51" s="298" t="s">
+      <c r="C51" s="419"/>
+      <c r="D51" s="422" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="299"/>
-      <c r="F51" s="316"/>
-      <c r="G51" s="298" t="s">
+      <c r="E51" s="423"/>
+      <c r="F51" s="424"/>
+      <c r="G51" s="422" t="s">
         <v>385</v>
       </c>
-      <c r="H51" s="299"/>
-      <c r="I51" s="300"/>
-      <c r="J51" s="446" t="s">
+      <c r="H51" s="423"/>
+      <c r="I51" s="470"/>
+      <c r="J51" s="311" t="s">
         <v>325</v>
       </c>
-      <c r="K51" s="447"/>
-      <c r="L51" s="293" t="s">
+      <c r="K51" s="312"/>
+      <c r="L51" s="464" t="s">
         <v>115</v>
       </c>
-      <c r="M51" s="365" t="s">
+      <c r="M51" s="390" t="s">
         <v>114</v>
       </c>
-      <c r="N51" s="359" t="s">
+      <c r="N51" s="384" t="s">
         <v>76</v>
       </c>
       <c r="Q51" s="3" t="s">
@@ -7992,43 +7992,43 @@
       </c>
     </row>
     <row r="52" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="364"/>
-      <c r="B52" s="314"/>
-      <c r="C52" s="314"/>
-      <c r="D52" s="301"/>
-      <c r="E52" s="302"/>
-      <c r="F52" s="317"/>
-      <c r="G52" s="301"/>
-      <c r="H52" s="302"/>
-      <c r="I52" s="303"/>
-      <c r="J52" s="448"/>
-      <c r="K52" s="449"/>
-      <c r="L52" s="293"/>
-      <c r="M52" s="365"/>
-      <c r="N52" s="359"/>
+      <c r="A52" s="389"/>
+      <c r="B52" s="420"/>
+      <c r="C52" s="420"/>
+      <c r="D52" s="425"/>
+      <c r="E52" s="426"/>
+      <c r="F52" s="427"/>
+      <c r="G52" s="425"/>
+      <c r="H52" s="426"/>
+      <c r="I52" s="471"/>
+      <c r="J52" s="313"/>
+      <c r="K52" s="314"/>
+      <c r="L52" s="464"/>
+      <c r="M52" s="390"/>
+      <c r="N52" s="384"/>
       <c r="Q52" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="233"/>
-      <c r="B53" s="315"/>
-      <c r="C53" s="315"/>
-      <c r="D53" s="304"/>
-      <c r="E53" s="305"/>
-      <c r="F53" s="318"/>
-      <c r="G53" s="304"/>
-      <c r="H53" s="305"/>
-      <c r="I53" s="306"/>
+      <c r="B53" s="421"/>
+      <c r="C53" s="421"/>
+      <c r="D53" s="428"/>
+      <c r="E53" s="429"/>
+      <c r="F53" s="402"/>
+      <c r="G53" s="428"/>
+      <c r="H53" s="429"/>
+      <c r="I53" s="472"/>
       <c r="J53" s="110" t="s">
         <v>26</v>
       </c>
       <c r="K53" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="L53" s="294"/>
-      <c r="M53" s="366"/>
-      <c r="N53" s="360"/>
+      <c r="L53" s="465"/>
+      <c r="M53" s="391"/>
+      <c r="N53" s="385"/>
       <c r="O53" s="112"/>
       <c r="P53" s="112"/>
       <c r="Q53" s="3" t="s">
@@ -8041,12 +8041,12 @@
         <v>23</v>
       </c>
       <c r="C54" s="239"/>
-      <c r="D54" s="319"/>
-      <c r="E54" s="320"/>
-      <c r="F54" s="321"/>
-      <c r="G54" s="742"/>
-      <c r="H54" s="743"/>
-      <c r="I54" s="744"/>
+      <c r="D54" s="430"/>
+      <c r="E54" s="431"/>
+      <c r="F54" s="432"/>
+      <c r="G54" s="466"/>
+      <c r="H54" s="467"/>
+      <c r="I54" s="468"/>
       <c r="J54" s="26"/>
       <c r="K54" s="232"/>
       <c r="L54" s="166"/>
@@ -8062,12 +8062,12 @@
         <v>24</v>
       </c>
       <c r="C55" s="239"/>
-      <c r="D55" s="319"/>
-      <c r="E55" s="320"/>
-      <c r="F55" s="321"/>
-      <c r="G55" s="742"/>
-      <c r="H55" s="743"/>
-      <c r="I55" s="744"/>
+      <c r="D55" s="430"/>
+      <c r="E55" s="431"/>
+      <c r="F55" s="432"/>
+      <c r="G55" s="466"/>
+      <c r="H55" s="467"/>
+      <c r="I55" s="468"/>
       <c r="J55" s="26"/>
       <c r="K55" s="27"/>
       <c r="L55" s="242"/>
@@ -8083,12 +8083,12 @@
         <v>58</v>
       </c>
       <c r="C56" s="239"/>
-      <c r="D56" s="319"/>
-      <c r="E56" s="320"/>
-      <c r="F56" s="321"/>
-      <c r="G56" s="307"/>
-      <c r="H56" s="308"/>
-      <c r="I56" s="309"/>
+      <c r="D56" s="430"/>
+      <c r="E56" s="431"/>
+      <c r="F56" s="432"/>
+      <c r="G56" s="305"/>
+      <c r="H56" s="306"/>
+      <c r="I56" s="307"/>
       <c r="J56" s="26"/>
       <c r="K56" s="27"/>
       <c r="L56" s="166"/>
@@ -8104,12 +8104,12 @@
         <v>71</v>
       </c>
       <c r="C57" s="239"/>
-      <c r="D57" s="319"/>
-      <c r="E57" s="320"/>
-      <c r="F57" s="321"/>
-      <c r="G57" s="307"/>
-      <c r="H57" s="308"/>
-      <c r="I57" s="309"/>
+      <c r="D57" s="430"/>
+      <c r="E57" s="431"/>
+      <c r="F57" s="432"/>
+      <c r="G57" s="305"/>
+      <c r="H57" s="306"/>
+      <c r="I57" s="307"/>
       <c r="J57" s="26"/>
       <c r="K57" s="27"/>
       <c r="L57" s="166"/>
@@ -8125,12 +8125,12 @@
         <v>25</v>
       </c>
       <c r="C58" s="241"/>
-      <c r="D58" s="322"/>
-      <c r="E58" s="323"/>
-      <c r="F58" s="324"/>
-      <c r="G58" s="310"/>
-      <c r="H58" s="311"/>
-      <c r="I58" s="312"/>
+      <c r="D58" s="433"/>
+      <c r="E58" s="434"/>
+      <c r="F58" s="435"/>
+      <c r="G58" s="416"/>
+      <c r="H58" s="417"/>
+      <c r="I58" s="418"/>
       <c r="J58" s="236"/>
       <c r="K58" s="237"/>
       <c r="L58" s="20"/>
@@ -8141,66 +8141,66 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="275" t="s">
+      <c r="A59" s="453" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="276"/>
-      <c r="C59" s="276"/>
-      <c r="D59" s="276"/>
-      <c r="E59" s="276"/>
-      <c r="F59" s="276"/>
-      <c r="G59" s="276"/>
-      <c r="H59" s="276"/>
-      <c r="I59" s="276"/>
-      <c r="J59" s="276"/>
-      <c r="K59" s="276"/>
-      <c r="L59" s="276"/>
-      <c r="M59" s="276"/>
-      <c r="N59" s="277"/>
+      <c r="B59" s="454"/>
+      <c r="C59" s="454"/>
+      <c r="D59" s="454"/>
+      <c r="E59" s="454"/>
+      <c r="F59" s="454"/>
+      <c r="G59" s="454"/>
+      <c r="H59" s="454"/>
+      <c r="I59" s="454"/>
+      <c r="J59" s="454"/>
+      <c r="K59" s="454"/>
+      <c r="L59" s="454"/>
+      <c r="M59" s="454"/>
+      <c r="N59" s="455"/>
       <c r="Q59" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="272" t="s">
+      <c r="A60" s="450" t="s">
         <v>392</v>
       </c>
-      <c r="B60" s="273"/>
-      <c r="C60" s="274"/>
-      <c r="D60" s="288"/>
-      <c r="E60" s="289"/>
-      <c r="F60" s="289"/>
-      <c r="G60" s="289"/>
-      <c r="H60" s="289"/>
-      <c r="I60" s="290"/>
-      <c r="J60" s="291" t="s">
+      <c r="B60" s="451"/>
+      <c r="C60" s="452"/>
+      <c r="D60" s="459"/>
+      <c r="E60" s="460"/>
+      <c r="F60" s="460"/>
+      <c r="G60" s="460"/>
+      <c r="H60" s="460"/>
+      <c r="I60" s="461"/>
+      <c r="J60" s="462" t="s">
         <v>393</v>
       </c>
-      <c r="K60" s="292"/>
-      <c r="L60" s="278"/>
-      <c r="M60" s="279"/>
-      <c r="N60" s="280"/>
+      <c r="K60" s="463"/>
+      <c r="L60" s="456"/>
+      <c r="M60" s="457"/>
+      <c r="N60" s="458"/>
       <c r="Q60" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="147" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="271" t="s">
+      <c r="A61" s="449" t="s">
         <v>395</v>
       </c>
-      <c r="B61" s="271"/>
-      <c r="C61" s="271"/>
-      <c r="D61" s="271"/>
-      <c r="E61" s="271"/>
-      <c r="F61" s="271"/>
-      <c r="G61" s="271"/>
-      <c r="H61" s="271"/>
-      <c r="I61" s="271"/>
-      <c r="J61" s="271"/>
-      <c r="K61" s="271"/>
-      <c r="L61" s="271"/>
-      <c r="M61" s="271"/>
-      <c r="N61" s="271"/>
+      <c r="B61" s="449"/>
+      <c r="C61" s="449"/>
+      <c r="D61" s="449"/>
+      <c r="E61" s="449"/>
+      <c r="F61" s="449"/>
+      <c r="G61" s="449"/>
+      <c r="H61" s="449"/>
+      <c r="I61" s="449"/>
+      <c r="J61" s="449"/>
+      <c r="K61" s="449"/>
+      <c r="L61" s="449"/>
+      <c r="M61" s="449"/>
+      <c r="N61" s="449"/>
       <c r="Q61" s="253" t="s">
         <v>396</v>
       </c>
@@ -11927,6 +11927,122 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="140">
+    <mergeCell ref="A61:N61"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A59:N59"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G51:I53"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B51:C53"/>
+    <mergeCell ref="D51:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="N51:N53"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="D17:F18"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="D22:F23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="I19:K20"/>
+    <mergeCell ref="L19:N20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D25:F26"/>
+    <mergeCell ref="D27:F28"/>
+    <mergeCell ref="D29:F30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="D20:F21"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="B46:H46"/>
     <mergeCell ref="D42:H42"/>
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="M38:N38"/>
@@ -11951,122 +12067,6 @@
     <mergeCell ref="J13:N15"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I24:N24"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="I19:K20"/>
-    <mergeCell ref="L19:N20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D25:F26"/>
-    <mergeCell ref="D27:F28"/>
-    <mergeCell ref="D29:F30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="D20:F21"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="D22:F23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="D17:F18"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B51:C53"/>
-    <mergeCell ref="D51:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="A61:N61"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A59:N59"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G51:I53"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G56:I56"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -12311,76 +12311,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="474"/>
-      <c r="B1" s="475"/>
-      <c r="C1" s="475"/>
-      <c r="D1" s="475"/>
-      <c r="E1" s="475"/>
-      <c r="F1" s="475"/>
-      <c r="G1" s="475"/>
-      <c r="H1" s="475"/>
-      <c r="I1" s="475"/>
-      <c r="J1" s="475"/>
-      <c r="K1" s="475"/>
-      <c r="L1" s="475"/>
-      <c r="M1" s="476"/>
+      <c r="A1" s="509"/>
+      <c r="B1" s="510"/>
+      <c r="C1" s="510"/>
+      <c r="D1" s="510"/>
+      <c r="E1" s="510"/>
+      <c r="F1" s="510"/>
+      <c r="G1" s="510"/>
+      <c r="H1" s="510"/>
+      <c r="I1" s="510"/>
+      <c r="J1" s="510"/>
+      <c r="K1" s="510"/>
+      <c r="L1" s="510"/>
+      <c r="M1" s="511"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="487" t="s">
+      <c r="A2" s="519" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="488"/>
-      <c r="F2" s="488"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
-      <c r="I2" s="488"/>
-      <c r="J2" s="488"/>
-      <c r="K2" s="488"/>
-      <c r="L2" s="488"/>
-      <c r="M2" s="489"/>
+      <c r="B2" s="520"/>
+      <c r="C2" s="520"/>
+      <c r="D2" s="520"/>
+      <c r="E2" s="520"/>
+      <c r="F2" s="520"/>
+      <c r="G2" s="520"/>
+      <c r="H2" s="520"/>
+      <c r="I2" s="520"/>
+      <c r="J2" s="520"/>
+      <c r="K2" s="520"/>
+      <c r="L2" s="520"/>
+      <c r="M2" s="521"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="144" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="477" t="s">
+      <c r="B3" s="512" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="477"/>
-      <c r="D3" s="477"/>
-      <c r="E3" s="478"/>
-      <c r="F3" s="485" t="s">
+      <c r="C3" s="512"/>
+      <c r="D3" s="512"/>
+      <c r="E3" s="513"/>
+      <c r="F3" s="517" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="481" t="s">
+      <c r="G3" s="514" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="478"/>
-      <c r="I3" s="481" t="s">
+      <c r="H3" s="513"/>
+      <c r="I3" s="514" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="477"/>
-      <c r="K3" s="478"/>
-      <c r="L3" s="483" t="s">
+      <c r="J3" s="512"/>
+      <c r="K3" s="513"/>
+      <c r="L3" s="515" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="484"/>
+      <c r="M3" s="516"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="479"/>
-      <c r="C4" s="479"/>
-      <c r="D4" s="479"/>
-      <c r="E4" s="480"/>
-      <c r="F4" s="486"/>
-      <c r="G4" s="482"/>
-      <c r="H4" s="480"/>
-      <c r="I4" s="482"/>
-      <c r="J4" s="479"/>
-      <c r="K4" s="480"/>
+      <c r="B4" s="488"/>
+      <c r="C4" s="488"/>
+      <c r="D4" s="488"/>
+      <c r="E4" s="489"/>
+      <c r="F4" s="518"/>
+      <c r="G4" s="500"/>
+      <c r="H4" s="489"/>
+      <c r="I4" s="500"/>
+      <c r="J4" s="488"/>
+      <c r="K4" s="489"/>
       <c r="L4" s="5" t="s">
         <v>91</v>
       </c>
@@ -12389,143 +12389,143 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="494"/>
-      <c r="B5" s="495"/>
-      <c r="C5" s="495"/>
-      <c r="D5" s="495"/>
-      <c r="E5" s="495"/>
+      <c r="A5" s="498"/>
+      <c r="B5" s="473"/>
+      <c r="C5" s="473"/>
+      <c r="D5" s="473"/>
+      <c r="E5" s="473"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="492"/>
-      <c r="H5" s="492"/>
-      <c r="I5" s="493"/>
-      <c r="J5" s="493"/>
-      <c r="K5" s="493"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="497"/>
+      <c r="I5" s="501"/>
+      <c r="J5" s="501"/>
+      <c r="K5" s="501"/>
       <c r="L5" s="9"/>
       <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="494"/>
-      <c r="B6" s="495"/>
-      <c r="C6" s="495"/>
-      <c r="D6" s="495"/>
-      <c r="E6" s="495"/>
+      <c r="A6" s="498"/>
+      <c r="B6" s="473"/>
+      <c r="C6" s="473"/>
+      <c r="D6" s="473"/>
+      <c r="E6" s="473"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="503"/>
-      <c r="H6" s="504"/>
-      <c r="I6" s="493"/>
-      <c r="J6" s="493"/>
-      <c r="K6" s="493"/>
+      <c r="G6" s="528"/>
+      <c r="H6" s="529"/>
+      <c r="I6" s="501"/>
+      <c r="J6" s="501"/>
+      <c r="K6" s="501"/>
       <c r="L6" s="9"/>
       <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="494"/>
-      <c r="B7" s="495"/>
-      <c r="C7" s="495"/>
-      <c r="D7" s="495"/>
-      <c r="E7" s="495"/>
+      <c r="A7" s="498"/>
+      <c r="B7" s="473"/>
+      <c r="C7" s="473"/>
+      <c r="D7" s="473"/>
+      <c r="E7" s="473"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="492"/>
-      <c r="H7" s="492"/>
-      <c r="I7" s="493"/>
-      <c r="J7" s="493"/>
-      <c r="K7" s="493"/>
+      <c r="G7" s="497"/>
+      <c r="H7" s="497"/>
+      <c r="I7" s="501"/>
+      <c r="J7" s="501"/>
+      <c r="K7" s="501"/>
       <c r="L7" s="9"/>
       <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="494"/>
-      <c r="B8" s="495"/>
-      <c r="C8" s="495"/>
-      <c r="D8" s="495"/>
-      <c r="E8" s="495"/>
+      <c r="A8" s="498"/>
+      <c r="B8" s="473"/>
+      <c r="C8" s="473"/>
+      <c r="D8" s="473"/>
+      <c r="E8" s="473"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="492"/>
-      <c r="H8" s="492"/>
-      <c r="I8" s="493"/>
-      <c r="J8" s="493"/>
-      <c r="K8" s="493"/>
+      <c r="G8" s="497"/>
+      <c r="H8" s="497"/>
+      <c r="I8" s="501"/>
+      <c r="J8" s="501"/>
+      <c r="K8" s="501"/>
       <c r="L8" s="9"/>
       <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="494"/>
-      <c r="B9" s="495"/>
-      <c r="C9" s="495"/>
-      <c r="D9" s="495"/>
-      <c r="E9" s="495"/>
+      <c r="A9" s="498"/>
+      <c r="B9" s="473"/>
+      <c r="C9" s="473"/>
+      <c r="D9" s="473"/>
+      <c r="E9" s="473"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="492"/>
-      <c r="H9" s="492"/>
-      <c r="I9" s="493"/>
-      <c r="J9" s="493"/>
-      <c r="K9" s="493"/>
+      <c r="G9" s="497"/>
+      <c r="H9" s="497"/>
+      <c r="I9" s="501"/>
+      <c r="J9" s="501"/>
+      <c r="K9" s="501"/>
       <c r="L9" s="9"/>
       <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="494"/>
-      <c r="B10" s="495"/>
-      <c r="C10" s="495"/>
-      <c r="D10" s="495"/>
-      <c r="E10" s="495"/>
+      <c r="A10" s="498"/>
+      <c r="B10" s="473"/>
+      <c r="C10" s="473"/>
+      <c r="D10" s="473"/>
+      <c r="E10" s="473"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="492"/>
-      <c r="H10" s="492"/>
-      <c r="I10" s="493"/>
-      <c r="J10" s="493"/>
-      <c r="K10" s="493"/>
+      <c r="G10" s="497"/>
+      <c r="H10" s="497"/>
+      <c r="I10" s="501"/>
+      <c r="J10" s="501"/>
+      <c r="K10" s="501"/>
       <c r="L10" s="9"/>
       <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="510"/>
-      <c r="B11" s="511"/>
-      <c r="C11" s="511"/>
-      <c r="D11" s="511"/>
-      <c r="E11" s="511"/>
+      <c r="A11" s="485"/>
+      <c r="B11" s="480"/>
+      <c r="C11" s="480"/>
+      <c r="D11" s="480"/>
+      <c r="E11" s="480"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="518"/>
-      <c r="H11" s="518"/>
-      <c r="I11" s="505"/>
-      <c r="J11" s="505"/>
-      <c r="K11" s="505"/>
+      <c r="G11" s="496"/>
+      <c r="H11" s="496"/>
+      <c r="I11" s="502"/>
+      <c r="J11" s="502"/>
+      <c r="K11" s="502"/>
       <c r="L11" s="11"/>
       <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="512" t="s">
+      <c r="A12" s="490" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="513"/>
-      <c r="C12" s="513"/>
-      <c r="D12" s="513"/>
-      <c r="E12" s="513"/>
-      <c r="F12" s="513"/>
-      <c r="G12" s="513"/>
-      <c r="H12" s="513"/>
-      <c r="I12" s="513"/>
-      <c r="J12" s="513"/>
-      <c r="K12" s="513"/>
-      <c r="L12" s="513"/>
-      <c r="M12" s="514"/>
+      <c r="B12" s="491"/>
+      <c r="C12" s="491"/>
+      <c r="D12" s="491"/>
+      <c r="E12" s="491"/>
+      <c r="F12" s="491"/>
+      <c r="G12" s="491"/>
+      <c r="H12" s="491"/>
+      <c r="I12" s="491"/>
+      <c r="J12" s="491"/>
+      <c r="K12" s="491"/>
+      <c r="L12" s="491"/>
+      <c r="M12" s="492"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="515" t="s">
+      <c r="A13" s="493" t="s">
         <v>384</v>
       </c>
-      <c r="B13" s="516"/>
-      <c r="C13" s="516"/>
-      <c r="D13" s="516"/>
-      <c r="E13" s="516"/>
-      <c r="F13" s="516"/>
-      <c r="G13" s="516"/>
-      <c r="H13" s="516"/>
-      <c r="I13" s="516"/>
-      <c r="J13" s="516"/>
-      <c r="K13" s="516"/>
-      <c r="L13" s="516"/>
-      <c r="M13" s="517"/>
+      <c r="B13" s="494"/>
+      <c r="C13" s="494"/>
+      <c r="D13" s="494"/>
+      <c r="E13" s="494"/>
+      <c r="F13" s="494"/>
+      <c r="G13" s="494"/>
+      <c r="H13" s="494"/>
+      <c r="I13" s="494"/>
+      <c r="J13" s="494"/>
+      <c r="K13" s="494"/>
+      <c r="L13" s="494"/>
+      <c r="M13" s="495"/>
     </row>
     <row r="14" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="217" t="s">
@@ -12548,515 +12548,515 @@
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="501" t="s">
+      <c r="B15" s="486" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="502"/>
-      <c r="D15" s="500" t="s">
+      <c r="C15" s="487"/>
+      <c r="D15" s="499" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="501"/>
-      <c r="F15" s="502"/>
-      <c r="G15" s="500" t="s">
+      <c r="E15" s="486"/>
+      <c r="F15" s="487"/>
+      <c r="G15" s="499" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="501"/>
-      <c r="I15" s="502"/>
-      <c r="J15" s="506" t="s">
+      <c r="H15" s="486"/>
+      <c r="I15" s="487"/>
+      <c r="J15" s="503" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="496" t="s">
+      <c r="K15" s="524" t="s">
         <v>346</v>
       </c>
-      <c r="L15" s="521" t="s">
+      <c r="L15" s="478" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="490" t="s">
+      <c r="M15" s="522" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="479"/>
-      <c r="C16" s="480"/>
-      <c r="D16" s="500"/>
-      <c r="E16" s="501"/>
-      <c r="F16" s="502"/>
-      <c r="G16" s="500"/>
-      <c r="H16" s="501"/>
-      <c r="I16" s="502"/>
-      <c r="J16" s="506"/>
-      <c r="K16" s="496"/>
-      <c r="L16" s="521"/>
-      <c r="M16" s="490"/>
+      <c r="B16" s="488"/>
+      <c r="C16" s="489"/>
+      <c r="D16" s="499"/>
+      <c r="E16" s="486"/>
+      <c r="F16" s="487"/>
+      <c r="G16" s="499"/>
+      <c r="H16" s="486"/>
+      <c r="I16" s="487"/>
+      <c r="J16" s="503"/>
+      <c r="K16" s="524"/>
+      <c r="L16" s="478"/>
+      <c r="M16" s="522"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="498" t="s">
+      <c r="A17" s="526" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="499"/>
+      <c r="B17" s="527"/>
       <c r="C17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="482"/>
-      <c r="E17" s="479"/>
-      <c r="F17" s="480"/>
-      <c r="G17" s="482"/>
-      <c r="H17" s="479"/>
-      <c r="I17" s="480"/>
-      <c r="J17" s="507"/>
-      <c r="K17" s="497"/>
-      <c r="L17" s="522"/>
-      <c r="M17" s="491"/>
+      <c r="D17" s="500"/>
+      <c r="E17" s="488"/>
+      <c r="F17" s="489"/>
+      <c r="G17" s="500"/>
+      <c r="H17" s="488"/>
+      <c r="I17" s="489"/>
+      <c r="J17" s="504"/>
+      <c r="K17" s="525"/>
+      <c r="L17" s="479"/>
+      <c r="M17" s="523"/>
     </row>
     <row r="18" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="508"/>
-      <c r="B18" s="509"/>
+      <c r="A18" s="474"/>
+      <c r="B18" s="475"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="495"/>
-      <c r="E18" s="495"/>
-      <c r="F18" s="495"/>
-      <c r="G18" s="495"/>
-      <c r="H18" s="495"/>
-      <c r="I18" s="495"/>
+      <c r="D18" s="473"/>
+      <c r="E18" s="473"/>
+      <c r="F18" s="473"/>
+      <c r="G18" s="473"/>
+      <c r="H18" s="473"/>
+      <c r="I18" s="473"/>
       <c r="J18" s="14"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="508"/>
-      <c r="B19" s="509"/>
+      <c r="A19" s="474"/>
+      <c r="B19" s="475"/>
       <c r="C19" s="24"/>
-      <c r="D19" s="495"/>
-      <c r="E19" s="495"/>
-      <c r="F19" s="495"/>
-      <c r="G19" s="495"/>
-      <c r="H19" s="495"/>
-      <c r="I19" s="495"/>
+      <c r="D19" s="473"/>
+      <c r="E19" s="473"/>
+      <c r="F19" s="473"/>
+      <c r="G19" s="473"/>
+      <c r="H19" s="473"/>
+      <c r="I19" s="473"/>
       <c r="J19" s="14"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="508"/>
-      <c r="B20" s="509"/>
+      <c r="A20" s="474"/>
+      <c r="B20" s="475"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="495"/>
-      <c r="E20" s="495"/>
-      <c r="F20" s="495"/>
-      <c r="G20" s="495"/>
-      <c r="H20" s="495"/>
-      <c r="I20" s="495"/>
+      <c r="D20" s="473"/>
+      <c r="E20" s="473"/>
+      <c r="F20" s="473"/>
+      <c r="G20" s="473"/>
+      <c r="H20" s="473"/>
+      <c r="I20" s="473"/>
       <c r="J20" s="14"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="508"/>
-      <c r="B21" s="509"/>
+      <c r="A21" s="474"/>
+      <c r="B21" s="475"/>
       <c r="C21" s="24"/>
-      <c r="D21" s="495"/>
-      <c r="E21" s="495"/>
-      <c r="F21" s="495"/>
-      <c r="G21" s="495"/>
-      <c r="H21" s="495"/>
-      <c r="I21" s="495"/>
+      <c r="D21" s="473"/>
+      <c r="E21" s="473"/>
+      <c r="F21" s="473"/>
+      <c r="G21" s="473"/>
+      <c r="H21" s="473"/>
+      <c r="I21" s="473"/>
       <c r="J21" s="14"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="508"/>
-      <c r="B22" s="509"/>
+      <c r="A22" s="474"/>
+      <c r="B22" s="475"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="495"/>
-      <c r="E22" s="495"/>
-      <c r="F22" s="495"/>
-      <c r="G22" s="495"/>
-      <c r="H22" s="495"/>
-      <c r="I22" s="495"/>
+      <c r="D22" s="473"/>
+      <c r="E22" s="473"/>
+      <c r="F22" s="473"/>
+      <c r="G22" s="473"/>
+      <c r="H22" s="473"/>
+      <c r="I22" s="473"/>
       <c r="J22" s="14"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="508"/>
-      <c r="B23" s="509"/>
+      <c r="A23" s="474"/>
+      <c r="B23" s="475"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="495"/>
-      <c r="E23" s="495"/>
-      <c r="F23" s="495"/>
-      <c r="G23" s="495"/>
-      <c r="H23" s="495"/>
-      <c r="I23" s="495"/>
+      <c r="D23" s="473"/>
+      <c r="E23" s="473"/>
+      <c r="F23" s="473"/>
+      <c r="G23" s="473"/>
+      <c r="H23" s="473"/>
+      <c r="I23" s="473"/>
       <c r="J23" s="14"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="508"/>
-      <c r="B24" s="509"/>
+      <c r="A24" s="474"/>
+      <c r="B24" s="475"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="495"/>
-      <c r="E24" s="495"/>
-      <c r="F24" s="495"/>
-      <c r="G24" s="495"/>
-      <c r="H24" s="495"/>
-      <c r="I24" s="495"/>
+      <c r="D24" s="473"/>
+      <c r="E24" s="473"/>
+      <c r="F24" s="473"/>
+      <c r="G24" s="473"/>
+      <c r="H24" s="473"/>
+      <c r="I24" s="473"/>
       <c r="J24" s="14"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="508"/>
-      <c r="B25" s="509"/>
+      <c r="A25" s="474"/>
+      <c r="B25" s="475"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="495"/>
-      <c r="E25" s="495"/>
-      <c r="F25" s="495"/>
-      <c r="G25" s="495"/>
-      <c r="H25" s="495"/>
-      <c r="I25" s="495"/>
+      <c r="D25" s="473"/>
+      <c r="E25" s="473"/>
+      <c r="F25" s="473"/>
+      <c r="G25" s="473"/>
+      <c r="H25" s="473"/>
+      <c r="I25" s="473"/>
       <c r="J25" s="14"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="508"/>
-      <c r="B26" s="509"/>
+      <c r="A26" s="474"/>
+      <c r="B26" s="475"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="495"/>
-      <c r="E26" s="495"/>
-      <c r="F26" s="495"/>
-      <c r="G26" s="495"/>
-      <c r="H26" s="495"/>
-      <c r="I26" s="495"/>
+      <c r="D26" s="473"/>
+      <c r="E26" s="473"/>
+      <c r="F26" s="473"/>
+      <c r="G26" s="473"/>
+      <c r="H26" s="473"/>
+      <c r="I26" s="473"/>
       <c r="J26" s="14"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="508"/>
-      <c r="B27" s="509"/>
+      <c r="A27" s="474"/>
+      <c r="B27" s="475"/>
       <c r="C27" s="24"/>
-      <c r="D27" s="495"/>
-      <c r="E27" s="495"/>
-      <c r="F27" s="495"/>
-      <c r="G27" s="495"/>
-      <c r="H27" s="495"/>
-      <c r="I27" s="495"/>
+      <c r="D27" s="473"/>
+      <c r="E27" s="473"/>
+      <c r="F27" s="473"/>
+      <c r="G27" s="473"/>
+      <c r="H27" s="473"/>
+      <c r="I27" s="473"/>
       <c r="J27" s="14"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="10"/>
     </row>
     <row r="28" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="508"/>
-      <c r="B28" s="509"/>
+      <c r="A28" s="474"/>
+      <c r="B28" s="475"/>
       <c r="C28" s="24"/>
-      <c r="D28" s="495"/>
-      <c r="E28" s="495"/>
-      <c r="F28" s="495"/>
-      <c r="G28" s="495"/>
-      <c r="H28" s="495"/>
-      <c r="I28" s="495"/>
+      <c r="D28" s="473"/>
+      <c r="E28" s="473"/>
+      <c r="F28" s="473"/>
+      <c r="G28" s="473"/>
+      <c r="H28" s="473"/>
+      <c r="I28" s="473"/>
       <c r="J28" s="14"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="10"/>
     </row>
     <row r="29" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="508"/>
-      <c r="B29" s="509"/>
+      <c r="A29" s="474"/>
+      <c r="B29" s="475"/>
       <c r="C29" s="24"/>
-      <c r="D29" s="495"/>
-      <c r="E29" s="495"/>
-      <c r="F29" s="495"/>
-      <c r="G29" s="495"/>
-      <c r="H29" s="495"/>
-      <c r="I29" s="495"/>
+      <c r="D29" s="473"/>
+      <c r="E29" s="473"/>
+      <c r="F29" s="473"/>
+      <c r="G29" s="473"/>
+      <c r="H29" s="473"/>
+      <c r="I29" s="473"/>
       <c r="J29" s="14"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="10"/>
     </row>
     <row r="30" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="508"/>
-      <c r="B30" s="509"/>
+      <c r="A30" s="474"/>
+      <c r="B30" s="475"/>
       <c r="C30" s="24"/>
-      <c r="D30" s="495"/>
-      <c r="E30" s="495"/>
-      <c r="F30" s="495"/>
-      <c r="G30" s="495"/>
-      <c r="H30" s="495"/>
-      <c r="I30" s="495"/>
+      <c r="D30" s="473"/>
+      <c r="E30" s="473"/>
+      <c r="F30" s="473"/>
+      <c r="G30" s="473"/>
+      <c r="H30" s="473"/>
+      <c r="I30" s="473"/>
       <c r="J30" s="14"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="508"/>
-      <c r="B31" s="509"/>
+      <c r="A31" s="474"/>
+      <c r="B31" s="475"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="495"/>
-      <c r="E31" s="495"/>
-      <c r="F31" s="495"/>
-      <c r="G31" s="495"/>
-      <c r="H31" s="495"/>
-      <c r="I31" s="495"/>
+      <c r="D31" s="473"/>
+      <c r="E31" s="473"/>
+      <c r="F31" s="473"/>
+      <c r="G31" s="473"/>
+      <c r="H31" s="473"/>
+      <c r="I31" s="473"/>
       <c r="J31" s="14"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="10"/>
     </row>
     <row r="32" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="508"/>
-      <c r="B32" s="509"/>
+      <c r="A32" s="474"/>
+      <c r="B32" s="475"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="495"/>
-      <c r="E32" s="495"/>
-      <c r="F32" s="495"/>
-      <c r="G32" s="495"/>
-      <c r="H32" s="495"/>
-      <c r="I32" s="495"/>
+      <c r="D32" s="473"/>
+      <c r="E32" s="473"/>
+      <c r="F32" s="473"/>
+      <c r="G32" s="473"/>
+      <c r="H32" s="473"/>
+      <c r="I32" s="473"/>
       <c r="J32" s="14"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="10"/>
     </row>
     <row r="33" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="508"/>
-      <c r="B33" s="509"/>
+      <c r="A33" s="474"/>
+      <c r="B33" s="475"/>
       <c r="C33" s="24"/>
-      <c r="D33" s="495"/>
-      <c r="E33" s="495"/>
-      <c r="F33" s="495"/>
-      <c r="G33" s="495"/>
-      <c r="H33" s="495"/>
-      <c r="I33" s="495"/>
+      <c r="D33" s="473"/>
+      <c r="E33" s="473"/>
+      <c r="F33" s="473"/>
+      <c r="G33" s="473"/>
+      <c r="H33" s="473"/>
+      <c r="I33" s="473"/>
       <c r="J33" s="14"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="10"/>
     </row>
     <row r="34" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="508"/>
-      <c r="B34" s="509"/>
+      <c r="A34" s="474"/>
+      <c r="B34" s="475"/>
       <c r="C34" s="24"/>
-      <c r="D34" s="495"/>
-      <c r="E34" s="495"/>
-      <c r="F34" s="495"/>
-      <c r="G34" s="495"/>
-      <c r="H34" s="495"/>
-      <c r="I34" s="495"/>
+      <c r="D34" s="473"/>
+      <c r="E34" s="473"/>
+      <c r="F34" s="473"/>
+      <c r="G34" s="473"/>
+      <c r="H34" s="473"/>
+      <c r="I34" s="473"/>
       <c r="J34" s="14"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="10"/>
     </row>
     <row r="35" spans="1:14" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="508"/>
-      <c r="B35" s="509"/>
+      <c r="A35" s="474"/>
+      <c r="B35" s="475"/>
       <c r="C35" s="24"/>
-      <c r="D35" s="495"/>
-      <c r="E35" s="495"/>
-      <c r="F35" s="495"/>
-      <c r="G35" s="495"/>
-      <c r="H35" s="495"/>
-      <c r="I35" s="495"/>
+      <c r="D35" s="473"/>
+      <c r="E35" s="473"/>
+      <c r="F35" s="473"/>
+      <c r="G35" s="473"/>
+      <c r="H35" s="473"/>
+      <c r="I35" s="473"/>
       <c r="J35" s="14"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="10"/>
     </row>
     <row r="36" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="508"/>
-      <c r="B36" s="509"/>
+      <c r="A36" s="474"/>
+      <c r="B36" s="475"/>
       <c r="C36" s="24"/>
-      <c r="D36" s="495"/>
-      <c r="E36" s="495"/>
-      <c r="F36" s="495"/>
-      <c r="G36" s="495"/>
-      <c r="H36" s="495"/>
-      <c r="I36" s="495"/>
+      <c r="D36" s="473"/>
+      <c r="E36" s="473"/>
+      <c r="F36" s="473"/>
+      <c r="G36" s="473"/>
+      <c r="H36" s="473"/>
+      <c r="I36" s="473"/>
       <c r="J36" s="14"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="10"/>
     </row>
     <row r="37" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="508"/>
-      <c r="B37" s="509"/>
+      <c r="A37" s="474"/>
+      <c r="B37" s="475"/>
       <c r="C37" s="24"/>
-      <c r="D37" s="495"/>
-      <c r="E37" s="495"/>
-      <c r="F37" s="495"/>
-      <c r="G37" s="495"/>
-      <c r="H37" s="495"/>
-      <c r="I37" s="495"/>
+      <c r="D37" s="473"/>
+      <c r="E37" s="473"/>
+      <c r="F37" s="473"/>
+      <c r="G37" s="473"/>
+      <c r="H37" s="473"/>
+      <c r="I37" s="473"/>
       <c r="J37" s="14"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="508"/>
-      <c r="B38" s="509"/>
+      <c r="A38" s="474"/>
+      <c r="B38" s="475"/>
       <c r="C38" s="24"/>
-      <c r="D38" s="495"/>
-      <c r="E38" s="495"/>
-      <c r="F38" s="495"/>
-      <c r="G38" s="495"/>
-      <c r="H38" s="495"/>
-      <c r="I38" s="495"/>
+      <c r="D38" s="473"/>
+      <c r="E38" s="473"/>
+      <c r="F38" s="473"/>
+      <c r="G38" s="473"/>
+      <c r="H38" s="473"/>
+      <c r="I38" s="473"/>
       <c r="J38" s="14"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="10"/>
     </row>
     <row r="39" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="508"/>
-      <c r="B39" s="509"/>
+      <c r="A39" s="474"/>
+      <c r="B39" s="475"/>
       <c r="C39" s="24"/>
-      <c r="D39" s="495"/>
-      <c r="E39" s="495"/>
-      <c r="F39" s="495"/>
-      <c r="G39" s="495"/>
-      <c r="H39" s="495"/>
-      <c r="I39" s="495"/>
+      <c r="D39" s="473"/>
+      <c r="E39" s="473"/>
+      <c r="F39" s="473"/>
+      <c r="G39" s="473"/>
+      <c r="H39" s="473"/>
+      <c r="I39" s="473"/>
       <c r="J39" s="14"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="10"/>
     </row>
     <row r="40" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="508"/>
-      <c r="B40" s="509"/>
+      <c r="A40" s="474"/>
+      <c r="B40" s="475"/>
       <c r="C40" s="24"/>
-      <c r="D40" s="495"/>
-      <c r="E40" s="495"/>
-      <c r="F40" s="495"/>
-      <c r="G40" s="495"/>
-      <c r="H40" s="495"/>
-      <c r="I40" s="495"/>
+      <c r="D40" s="473"/>
+      <c r="E40" s="473"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="473"/>
+      <c r="H40" s="473"/>
+      <c r="I40" s="473"/>
       <c r="J40" s="14"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="10"/>
     </row>
     <row r="41" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="508"/>
-      <c r="B41" s="509"/>
+      <c r="A41" s="474"/>
+      <c r="B41" s="475"/>
       <c r="C41" s="24"/>
-      <c r="D41" s="495"/>
-      <c r="E41" s="495"/>
-      <c r="F41" s="495"/>
-      <c r="G41" s="495"/>
-      <c r="H41" s="495"/>
-      <c r="I41" s="495"/>
+      <c r="D41" s="473"/>
+      <c r="E41" s="473"/>
+      <c r="F41" s="473"/>
+      <c r="G41" s="473"/>
+      <c r="H41" s="473"/>
+      <c r="I41" s="473"/>
       <c r="J41" s="14"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="10"/>
     </row>
     <row r="42" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="508"/>
-      <c r="B42" s="509"/>
+      <c r="A42" s="474"/>
+      <c r="B42" s="475"/>
       <c r="C42" s="24"/>
-      <c r="D42" s="495"/>
-      <c r="E42" s="495"/>
-      <c r="F42" s="495"/>
-      <c r="G42" s="495"/>
-      <c r="H42" s="495"/>
-      <c r="I42" s="495"/>
+      <c r="D42" s="473"/>
+      <c r="E42" s="473"/>
+      <c r="F42" s="473"/>
+      <c r="G42" s="473"/>
+      <c r="H42" s="473"/>
+      <c r="I42" s="473"/>
       <c r="J42" s="14"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="10"/>
     </row>
     <row r="43" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="508"/>
-      <c r="B43" s="509"/>
+      <c r="A43" s="474"/>
+      <c r="B43" s="475"/>
       <c r="C43" s="24"/>
-      <c r="D43" s="495"/>
-      <c r="E43" s="495"/>
-      <c r="F43" s="495"/>
-      <c r="G43" s="495"/>
-      <c r="H43" s="495"/>
-      <c r="I43" s="495"/>
+      <c r="D43" s="473"/>
+      <c r="E43" s="473"/>
+      <c r="F43" s="473"/>
+      <c r="G43" s="473"/>
+      <c r="H43" s="473"/>
+      <c r="I43" s="473"/>
       <c r="J43" s="14"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="10"/>
     </row>
     <row r="44" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="508"/>
-      <c r="B44" s="509"/>
+      <c r="A44" s="474"/>
+      <c r="B44" s="475"/>
       <c r="C44" s="24"/>
-      <c r="D44" s="495"/>
-      <c r="E44" s="495"/>
-      <c r="F44" s="495"/>
-      <c r="G44" s="495"/>
-      <c r="H44" s="495"/>
-      <c r="I44" s="495"/>
+      <c r="D44" s="473"/>
+      <c r="E44" s="473"/>
+      <c r="F44" s="473"/>
+      <c r="G44" s="473"/>
+      <c r="H44" s="473"/>
+      <c r="I44" s="473"/>
       <c r="J44" s="14"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="10"/>
     </row>
     <row r="45" spans="1:14" s="13" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="519"/>
-      <c r="B45" s="520"/>
+      <c r="A45" s="476"/>
+      <c r="B45" s="477"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="511"/>
-      <c r="E45" s="511"/>
-      <c r="F45" s="511"/>
-      <c r="G45" s="511"/>
-      <c r="H45" s="511"/>
-      <c r="I45" s="511"/>
+      <c r="D45" s="480"/>
+      <c r="E45" s="480"/>
+      <c r="F45" s="480"/>
+      <c r="G45" s="480"/>
+      <c r="H45" s="480"/>
+      <c r="I45" s="480"/>
       <c r="J45" s="15"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="12"/>
     </row>
     <row r="46" spans="1:14" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="523" t="s">
+      <c r="A46" s="481" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="524"/>
-      <c r="C46" s="524"/>
-      <c r="D46" s="524"/>
-      <c r="E46" s="524"/>
-      <c r="F46" s="524"/>
-      <c r="G46" s="524"/>
-      <c r="H46" s="524"/>
-      <c r="I46" s="524"/>
-      <c r="J46" s="524"/>
-      <c r="K46" s="525"/>
-      <c r="L46" s="525"/>
-      <c r="M46" s="526"/>
+      <c r="B46" s="482"/>
+      <c r="C46" s="482"/>
+      <c r="D46" s="482"/>
+      <c r="E46" s="482"/>
+      <c r="F46" s="482"/>
+      <c r="G46" s="482"/>
+      <c r="H46" s="482"/>
+      <c r="I46" s="482"/>
+      <c r="J46" s="482"/>
+      <c r="K46" s="483"/>
+      <c r="L46" s="483"/>
+      <c r="M46" s="484"/>
     </row>
     <row r="47" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="272" t="s">
+      <c r="A47" s="450" t="s">
         <v>392</v>
       </c>
-      <c r="B47" s="273"/>
-      <c r="C47" s="274"/>
-      <c r="D47" s="471"/>
-      <c r="E47" s="472"/>
-      <c r="F47" s="472"/>
-      <c r="G47" s="472"/>
-      <c r="H47" s="473"/>
+      <c r="B47" s="451"/>
+      <c r="C47" s="452"/>
+      <c r="D47" s="506"/>
+      <c r="E47" s="507"/>
+      <c r="F47" s="507"/>
+      <c r="G47" s="507"/>
+      <c r="H47" s="508"/>
       <c r="I47" s="248" t="s">
         <v>393</v>
       </c>
@@ -13067,21 +13067,21 @@
       <c r="N47" s="251"/>
     </row>
     <row r="48" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="470" t="s">
+      <c r="A48" s="505" t="s">
         <v>397</v>
       </c>
-      <c r="B48" s="470"/>
-      <c r="C48" s="470"/>
-      <c r="D48" s="470"/>
-      <c r="E48" s="470"/>
-      <c r="F48" s="470"/>
-      <c r="G48" s="470"/>
-      <c r="H48" s="470"/>
-      <c r="I48" s="470"/>
-      <c r="J48" s="470"/>
-      <c r="K48" s="470"/>
-      <c r="L48" s="470"/>
-      <c r="M48" s="470"/>
+      <c r="B48" s="505"/>
+      <c r="C48" s="505"/>
+      <c r="D48" s="505"/>
+      <c r="E48" s="505"/>
+      <c r="F48" s="505"/>
+      <c r="G48" s="505"/>
+      <c r="H48" s="505"/>
+      <c r="I48" s="505"/>
+      <c r="J48" s="505"/>
+      <c r="K48" s="505"/>
+      <c r="L48" s="505"/>
+      <c r="M48" s="505"/>
       <c r="N48" s="254"/>
     </row>
   </sheetData>
@@ -13095,6 +13095,108 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="126">
+    <mergeCell ref="A48:M48"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D15:F17"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="G15:I17"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:F37"/>
@@ -13119,108 +13221,6 @@
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="G15:I17"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="A48:M48"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:K4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D15:F17"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -13237,8 +13237,8 @@
   </sheetPr>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13258,280 +13258,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="556"/>
-      <c r="B1" s="557"/>
-      <c r="C1" s="557"/>
-      <c r="D1" s="557"/>
-      <c r="E1" s="557"/>
-      <c r="F1" s="557"/>
-      <c r="G1" s="557"/>
-      <c r="H1" s="557"/>
-      <c r="I1" s="557"/>
-      <c r="J1" s="557"/>
-      <c r="K1" s="558"/>
+      <c r="A1" s="552"/>
+      <c r="B1" s="553"/>
+      <c r="C1" s="553"/>
+      <c r="D1" s="553"/>
+      <c r="E1" s="553"/>
+      <c r="F1" s="553"/>
+      <c r="G1" s="553"/>
+      <c r="H1" s="553"/>
+      <c r="I1" s="553"/>
+      <c r="J1" s="553"/>
+      <c r="K1" s="554"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="576" t="s">
+      <c r="A2" s="577" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="577"/>
-      <c r="C2" s="577"/>
-      <c r="D2" s="577"/>
-      <c r="E2" s="577"/>
-      <c r="F2" s="577"/>
-      <c r="G2" s="577"/>
-      <c r="H2" s="577"/>
-      <c r="I2" s="577"/>
-      <c r="J2" s="577"/>
-      <c r="K2" s="578"/>
+      <c r="B2" s="578"/>
+      <c r="C2" s="578"/>
+      <c r="D2" s="578"/>
+      <c r="E2" s="578"/>
+      <c r="F2" s="578"/>
+      <c r="G2" s="578"/>
+      <c r="H2" s="578"/>
+      <c r="I2" s="578"/>
+      <c r="J2" s="578"/>
+      <c r="K2" s="579"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="562" t="s">
+      <c r="A3" s="561" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="564" t="s">
+      <c r="B3" s="562" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="477" t="s">
+      <c r="C3" s="562"/>
+      <c r="D3" s="563"/>
+      <c r="E3" s="512" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="478"/>
-      <c r="G3" s="540" t="s">
+      <c r="F3" s="513"/>
+      <c r="G3" s="589" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="481" t="s">
+      <c r="H3" s="514" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="571"/>
-      <c r="J3" s="571"/>
-      <c r="K3" s="572"/>
+      <c r="I3" s="572"/>
+      <c r="J3" s="572"/>
+      <c r="K3" s="573"/>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="563"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="566"/>
-      <c r="D4" s="567"/>
-      <c r="E4" s="479"/>
-      <c r="F4" s="480"/>
-      <c r="G4" s="496"/>
-      <c r="H4" s="573"/>
-      <c r="I4" s="559"/>
-      <c r="J4" s="559"/>
-      <c r="K4" s="574"/>
+      <c r="A4" s="551"/>
+      <c r="B4" s="564"/>
+      <c r="C4" s="564"/>
+      <c r="D4" s="565"/>
+      <c r="E4" s="488"/>
+      <c r="F4" s="489"/>
+      <c r="G4" s="524"/>
+      <c r="H4" s="574"/>
+      <c r="I4" s="555"/>
+      <c r="J4" s="555"/>
+      <c r="K4" s="575"/>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
-      <c r="B5" s="579"/>
-      <c r="C5" s="579"/>
-      <c r="D5" s="580"/>
+      <c r="B5" s="580"/>
+      <c r="C5" s="580"/>
+      <c r="D5" s="581"/>
       <c r="E5" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="497"/>
-      <c r="H5" s="575"/>
-      <c r="I5" s="326"/>
-      <c r="J5" s="326"/>
-      <c r="K5" s="327"/>
+      <c r="G5" s="525"/>
+      <c r="H5" s="576"/>
+      <c r="I5" s="437"/>
+      <c r="J5" s="437"/>
+      <c r="K5" s="438"/>
     </row>
     <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="537"/>
-      <c r="B6" s="538"/>
-      <c r="C6" s="538"/>
-      <c r="D6" s="539"/>
+      <c r="A6" s="569"/>
+      <c r="B6" s="570"/>
+      <c r="C6" s="570"/>
+      <c r="D6" s="571"/>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="541"/>
-      <c r="I6" s="542"/>
-      <c r="J6" s="542"/>
-      <c r="K6" s="543"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="559"/>
+      <c r="J6" s="559"/>
+      <c r="K6" s="560"/>
     </row>
     <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="537"/>
-      <c r="B7" s="538"/>
-      <c r="C7" s="538"/>
-      <c r="D7" s="539"/>
+      <c r="A7" s="569"/>
+      <c r="B7" s="570"/>
+      <c r="C7" s="570"/>
+      <c r="D7" s="571"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
       <c r="G7" s="39"/>
-      <c r="H7" s="541"/>
-      <c r="I7" s="542"/>
-      <c r="J7" s="542"/>
-      <c r="K7" s="543"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="559"/>
+      <c r="J7" s="559"/>
+      <c r="K7" s="560"/>
     </row>
     <row r="8" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="537"/>
-      <c r="B8" s="538"/>
-      <c r="C8" s="538"/>
-      <c r="D8" s="539"/>
+      <c r="A8" s="569"/>
+      <c r="B8" s="570"/>
+      <c r="C8" s="570"/>
+      <c r="D8" s="571"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
       <c r="G8" s="39"/>
-      <c r="H8" s="541"/>
-      <c r="I8" s="542"/>
-      <c r="J8" s="542"/>
-      <c r="K8" s="543"/>
+      <c r="H8" s="558"/>
+      <c r="I8" s="559"/>
+      <c r="J8" s="559"/>
+      <c r="K8" s="560"/>
     </row>
     <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="537"/>
-      <c r="B9" s="538"/>
-      <c r="C9" s="538"/>
-      <c r="D9" s="539"/>
+      <c r="A9" s="569"/>
+      <c r="B9" s="570"/>
+      <c r="C9" s="570"/>
+      <c r="D9" s="571"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="39"/>
-      <c r="H9" s="541"/>
-      <c r="I9" s="542"/>
-      <c r="J9" s="542"/>
-      <c r="K9" s="543"/>
+      <c r="H9" s="558"/>
+      <c r="I9" s="559"/>
+      <c r="J9" s="559"/>
+      <c r="K9" s="560"/>
     </row>
     <row r="10" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="537"/>
-      <c r="B10" s="538"/>
-      <c r="C10" s="538"/>
-      <c r="D10" s="539"/>
+      <c r="A10" s="569"/>
+      <c r="B10" s="570"/>
+      <c r="C10" s="570"/>
+      <c r="D10" s="571"/>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
       <c r="G10" s="39"/>
-      <c r="H10" s="541"/>
-      <c r="I10" s="542"/>
-      <c r="J10" s="542"/>
-      <c r="K10" s="543"/>
+      <c r="H10" s="558"/>
+      <c r="I10" s="559"/>
+      <c r="J10" s="559"/>
+      <c r="K10" s="560"/>
     </row>
     <row r="11" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="537"/>
-      <c r="B11" s="538"/>
-      <c r="C11" s="538"/>
-      <c r="D11" s="539"/>
+      <c r="A11" s="569"/>
+      <c r="B11" s="570"/>
+      <c r="C11" s="570"/>
+      <c r="D11" s="571"/>
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
       <c r="G11" s="39"/>
-      <c r="H11" s="541"/>
-      <c r="I11" s="542"/>
-      <c r="J11" s="542"/>
-      <c r="K11" s="543"/>
+      <c r="H11" s="558"/>
+      <c r="I11" s="559"/>
+      <c r="J11" s="559"/>
+      <c r="K11" s="560"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="568"/>
-      <c r="B12" s="569"/>
-      <c r="C12" s="569"/>
-      <c r="D12" s="570"/>
+      <c r="A12" s="566"/>
+      <c r="B12" s="567"/>
+      <c r="C12" s="567"/>
+      <c r="D12" s="568"/>
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
       <c r="G12" s="40"/>
-      <c r="H12" s="581"/>
-      <c r="I12" s="582"/>
-      <c r="J12" s="582"/>
-      <c r="K12" s="583"/>
+      <c r="H12" s="530"/>
+      <c r="I12" s="531"/>
+      <c r="J12" s="531"/>
+      <c r="K12" s="532"/>
     </row>
     <row r="13" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="512" t="s">
+      <c r="A13" s="490" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="513"/>
-      <c r="C13" s="513"/>
-      <c r="D13" s="513"/>
-      <c r="E13" s="513"/>
-      <c r="F13" s="513"/>
-      <c r="G13" s="513"/>
-      <c r="H13" s="513"/>
-      <c r="I13" s="513"/>
-      <c r="J13" s="513"/>
-      <c r="K13" s="514"/>
+      <c r="B13" s="491"/>
+      <c r="C13" s="491"/>
+      <c r="D13" s="491"/>
+      <c r="E13" s="491"/>
+      <c r="F13" s="491"/>
+      <c r="G13" s="491"/>
+      <c r="H13" s="491"/>
+      <c r="I13" s="491"/>
+      <c r="J13" s="491"/>
+      <c r="K13" s="492"/>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="584" t="s">
+      <c r="A14" s="533" t="s">
         <v>342</v>
       </c>
-      <c r="B14" s="585"/>
-      <c r="C14" s="585"/>
-      <c r="D14" s="585"/>
-      <c r="E14" s="585"/>
-      <c r="F14" s="585"/>
-      <c r="G14" s="585"/>
-      <c r="H14" s="585"/>
-      <c r="I14" s="585"/>
-      <c r="J14" s="585"/>
-      <c r="K14" s="586"/>
+      <c r="B14" s="534"/>
+      <c r="C14" s="534"/>
+      <c r="D14" s="534"/>
+      <c r="E14" s="534"/>
+      <c r="F14" s="534"/>
+      <c r="G14" s="534"/>
+      <c r="H14" s="534"/>
+      <c r="I14" s="534"/>
+      <c r="J14" s="534"/>
+      <c r="K14" s="535"/>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="563" t="s">
+      <c r="A15" s="551" t="s">
         <v>362</v>
       </c>
-      <c r="B15" s="501" t="s">
+      <c r="B15" s="486" t="s">
         <v>364</v>
       </c>
-      <c r="C15" s="559"/>
-      <c r="D15" s="560"/>
-      <c r="E15" s="501" t="s">
+      <c r="C15" s="555"/>
+      <c r="D15" s="556"/>
+      <c r="E15" s="486" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="502"/>
-      <c r="G15" s="496" t="s">
+      <c r="F15" s="487"/>
+      <c r="G15" s="524" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="506" t="s">
+      <c r="H15" s="503" t="s">
         <v>339</v>
       </c>
-      <c r="I15" s="500" t="s">
+      <c r="I15" s="499" t="s">
         <v>360</v>
       </c>
-      <c r="J15" s="559"/>
-      <c r="K15" s="574"/>
+      <c r="J15" s="555"/>
+      <c r="K15" s="575"/>
     </row>
     <row r="16" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="563"/>
-      <c r="B16" s="559"/>
-      <c r="C16" s="559"/>
-      <c r="D16" s="560"/>
-      <c r="E16" s="479"/>
-      <c r="F16" s="480"/>
-      <c r="G16" s="496"/>
-      <c r="H16" s="506"/>
-      <c r="I16" s="573"/>
-      <c r="J16" s="559"/>
-      <c r="K16" s="574"/>
+      <c r="A16" s="551"/>
+      <c r="B16" s="555"/>
+      <c r="C16" s="555"/>
+      <c r="D16" s="556"/>
+      <c r="E16" s="488"/>
+      <c r="F16" s="489"/>
+      <c r="G16" s="524"/>
+      <c r="H16" s="503"/>
+      <c r="I16" s="574"/>
+      <c r="J16" s="555"/>
+      <c r="K16" s="575"/>
     </row>
     <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
-      <c r="B17" s="326"/>
-      <c r="C17" s="326"/>
-      <c r="D17" s="561"/>
+      <c r="B17" s="437"/>
+      <c r="C17" s="437"/>
+      <c r="D17" s="557"/>
       <c r="E17" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="497"/>
-      <c r="H17" s="507"/>
-      <c r="I17" s="575"/>
-      <c r="J17" s="326"/>
-      <c r="K17" s="327"/>
+      <c r="G17" s="525"/>
+      <c r="H17" s="504"/>
+      <c r="I17" s="576"/>
+      <c r="J17" s="437"/>
+      <c r="K17" s="438"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="544"/>
-      <c r="B18" s="545"/>
-      <c r="C18" s="545"/>
-      <c r="D18" s="546"/>
+      <c r="A18" s="542"/>
+      <c r="B18" s="543"/>
+      <c r="C18" s="543"/>
+      <c r="D18" s="544"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="32"/>
       <c r="H18" s="31"/>
-      <c r="I18" s="550"/>
-      <c r="J18" s="551"/>
-      <c r="K18" s="552"/>
+      <c r="I18" s="539"/>
+      <c r="J18" s="540"/>
+      <c r="K18" s="541"/>
     </row>
     <row r="19" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="547"/>
-      <c r="B19" s="548"/>
-      <c r="C19" s="548"/>
-      <c r="D19" s="549"/>
+      <c r="A19" s="542"/>
+      <c r="B19" s="543"/>
+      <c r="C19" s="543"/>
+      <c r="D19" s="544"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="32"/>
@@ -13541,10 +13541,10 @@
       <c r="K19" s="35"/>
     </row>
     <row r="20" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="547"/>
-      <c r="B20" s="548"/>
-      <c r="C20" s="548"/>
-      <c r="D20" s="549"/>
+      <c r="A20" s="536"/>
+      <c r="B20" s="537"/>
+      <c r="C20" s="537"/>
+      <c r="D20" s="538"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="32"/>
@@ -13554,10 +13554,10 @@
       <c r="K20" s="35"/>
     </row>
     <row r="21" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="547"/>
-      <c r="B21" s="548"/>
-      <c r="C21" s="548"/>
-      <c r="D21" s="549"/>
+      <c r="A21" s="536"/>
+      <c r="B21" s="537"/>
+      <c r="C21" s="537"/>
+      <c r="D21" s="538"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
       <c r="G21" s="32"/>
@@ -13567,10 +13567,10 @@
       <c r="K21" s="35"/>
     </row>
     <row r="22" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="547"/>
-      <c r="B22" s="548"/>
-      <c r="C22" s="548"/>
-      <c r="D22" s="549"/>
+      <c r="A22" s="536"/>
+      <c r="B22" s="537"/>
+      <c r="C22" s="537"/>
+      <c r="D22" s="538"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
       <c r="G22" s="32"/>
@@ -13580,10 +13580,10 @@
       <c r="K22" s="35"/>
     </row>
     <row r="23" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="547"/>
-      <c r="B23" s="548"/>
-      <c r="C23" s="548"/>
-      <c r="D23" s="549"/>
+      <c r="A23" s="536"/>
+      <c r="B23" s="537"/>
+      <c r="C23" s="537"/>
+      <c r="D23" s="538"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="32"/>
@@ -13593,10 +13593,10 @@
       <c r="K23" s="35"/>
     </row>
     <row r="24" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="547"/>
-      <c r="B24" s="548"/>
-      <c r="C24" s="548"/>
-      <c r="D24" s="549"/>
+      <c r="A24" s="536"/>
+      <c r="B24" s="537"/>
+      <c r="C24" s="537"/>
+      <c r="D24" s="538"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
       <c r="G24" s="32"/>
@@ -13606,10 +13606,10 @@
       <c r="K24" s="35"/>
     </row>
     <row r="25" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="547"/>
-      <c r="B25" s="548"/>
-      <c r="C25" s="548"/>
-      <c r="D25" s="549"/>
+      <c r="A25" s="536"/>
+      <c r="B25" s="537"/>
+      <c r="C25" s="537"/>
+      <c r="D25" s="538"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="32"/>
@@ -13619,43 +13619,43 @@
       <c r="K25" s="35"/>
     </row>
     <row r="26" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="544"/>
-      <c r="B26" s="545"/>
-      <c r="C26" s="545"/>
-      <c r="D26" s="546"/>
+      <c r="A26" s="542"/>
+      <c r="B26" s="543"/>
+      <c r="C26" s="543"/>
+      <c r="D26" s="544"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
       <c r="G26" s="32"/>
       <c r="H26" s="31"/>
-      <c r="I26" s="550"/>
-      <c r="J26" s="551"/>
-      <c r="K26" s="552"/>
+      <c r="I26" s="539"/>
+      <c r="J26" s="540"/>
+      <c r="K26" s="541"/>
     </row>
     <row r="27" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="544"/>
-      <c r="B27" s="545"/>
-      <c r="C27" s="545"/>
-      <c r="D27" s="546"/>
+      <c r="A27" s="542"/>
+      <c r="B27" s="543"/>
+      <c r="C27" s="543"/>
+      <c r="D27" s="544"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="32"/>
       <c r="H27" s="31"/>
-      <c r="I27" s="550"/>
-      <c r="J27" s="551"/>
-      <c r="K27" s="552"/>
+      <c r="I27" s="539"/>
+      <c r="J27" s="540"/>
+      <c r="K27" s="541"/>
     </row>
     <row r="28" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="544"/>
-      <c r="B28" s="545"/>
-      <c r="C28" s="545"/>
-      <c r="D28" s="546"/>
+      <c r="A28" s="542"/>
+      <c r="B28" s="543"/>
+      <c r="C28" s="543"/>
+      <c r="D28" s="544"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="32"/>
       <c r="H28" s="31"/>
-      <c r="I28" s="550"/>
-      <c r="J28" s="551"/>
-      <c r="K28" s="552"/>
+      <c r="I28" s="539"/>
+      <c r="J28" s="540"/>
+      <c r="K28" s="541"/>
     </row>
     <row r="29" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="201"/>
@@ -13736,86 +13736,86 @@
       <c r="K34" s="35"/>
     </row>
     <row r="35" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="544"/>
-      <c r="B35" s="545"/>
-      <c r="C35" s="545"/>
-      <c r="D35" s="546"/>
+      <c r="A35" s="542"/>
+      <c r="B35" s="543"/>
+      <c r="C35" s="543"/>
+      <c r="D35" s="544"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
       <c r="G35" s="32"/>
       <c r="H35" s="31"/>
-      <c r="I35" s="550"/>
-      <c r="J35" s="551"/>
-      <c r="K35" s="552"/>
+      <c r="I35" s="539"/>
+      <c r="J35" s="540"/>
+      <c r="K35" s="541"/>
     </row>
     <row r="36" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="544"/>
-      <c r="B36" s="545"/>
-      <c r="C36" s="545"/>
-      <c r="D36" s="546"/>
+      <c r="A36" s="542"/>
+      <c r="B36" s="543"/>
+      <c r="C36" s="543"/>
+      <c r="D36" s="544"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
       <c r="G36" s="32"/>
       <c r="H36" s="31"/>
-      <c r="I36" s="550"/>
-      <c r="J36" s="551"/>
-      <c r="K36" s="552"/>
+      <c r="I36" s="539"/>
+      <c r="J36" s="540"/>
+      <c r="K36" s="541"/>
     </row>
     <row r="37" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="544"/>
-      <c r="B37" s="545"/>
-      <c r="C37" s="545"/>
-      <c r="D37" s="546"/>
+      <c r="A37" s="542"/>
+      <c r="B37" s="543"/>
+      <c r="C37" s="543"/>
+      <c r="D37" s="544"/>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
       <c r="G37" s="32"/>
       <c r="H37" s="31"/>
-      <c r="I37" s="550"/>
-      <c r="J37" s="551"/>
-      <c r="K37" s="552"/>
+      <c r="I37" s="539"/>
+      <c r="J37" s="540"/>
+      <c r="K37" s="541"/>
     </row>
     <row r="38" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="587"/>
-      <c r="B38" s="588"/>
-      <c r="C38" s="588"/>
-      <c r="D38" s="589"/>
+      <c r="A38" s="545"/>
+      <c r="B38" s="546"/>
+      <c r="C38" s="546"/>
+      <c r="D38" s="547"/>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
       <c r="G38" s="36"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="590"/>
-      <c r="J38" s="591"/>
-      <c r="K38" s="592"/>
+      <c r="I38" s="548"/>
+      <c r="J38" s="549"/>
+      <c r="K38" s="550"/>
     </row>
     <row r="39" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="275" t="s">
+      <c r="A39" s="453" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="276"/>
-      <c r="C39" s="276"/>
-      <c r="D39" s="276"/>
-      <c r="E39" s="276"/>
-      <c r="F39" s="276"/>
-      <c r="G39" s="276"/>
-      <c r="H39" s="276"/>
-      <c r="I39" s="276"/>
-      <c r="J39" s="276"/>
-      <c r="K39" s="277"/>
+      <c r="B39" s="454"/>
+      <c r="C39" s="454"/>
+      <c r="D39" s="454"/>
+      <c r="E39" s="454"/>
+      <c r="F39" s="454"/>
+      <c r="G39" s="454"/>
+      <c r="H39" s="454"/>
+      <c r="I39" s="454"/>
+      <c r="J39" s="454"/>
+      <c r="K39" s="455"/>
     </row>
     <row r="40" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="553" t="s">
+      <c r="A40" s="586" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="554"/>
-      <c r="C40" s="554"/>
-      <c r="D40" s="554"/>
-      <c r="E40" s="554"/>
-      <c r="F40" s="554"/>
-      <c r="G40" s="554"/>
-      <c r="H40" s="554"/>
-      <c r="I40" s="554"/>
-      <c r="J40" s="554"/>
-      <c r="K40" s="555"/>
+      <c r="B40" s="587"/>
+      <c r="C40" s="587"/>
+      <c r="D40" s="587"/>
+      <c r="E40" s="587"/>
+      <c r="F40" s="587"/>
+      <c r="G40" s="587"/>
+      <c r="H40" s="587"/>
+      <c r="I40" s="587"/>
+      <c r="J40" s="587"/>
+      <c r="K40" s="588"/>
     </row>
     <row r="41" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="145" t="s">
@@ -13827,143 +13827,143 @@
       <c r="C41" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="534" t="s">
+      <c r="D41" s="590" t="s">
         <v>365</v>
       </c>
-      <c r="E41" s="534"/>
-      <c r="F41" s="534"/>
-      <c r="G41" s="534"/>
-      <c r="H41" s="535"/>
+      <c r="E41" s="590"/>
+      <c r="F41" s="590"/>
+      <c r="G41" s="590"/>
+      <c r="H41" s="591"/>
       <c r="I41" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="534" t="s">
+      <c r="J41" s="590" t="s">
         <v>86</v>
       </c>
-      <c r="K41" s="536"/>
+      <c r="K41" s="593"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="529"/>
-      <c r="B42" s="530"/>
-      <c r="C42" s="531"/>
-      <c r="D42" s="532"/>
-      <c r="E42" s="532"/>
-      <c r="F42" s="532"/>
-      <c r="G42" s="532"/>
-      <c r="H42" s="530"/>
-      <c r="I42" s="531"/>
-      <c r="J42" s="532"/>
-      <c r="K42" s="533"/>
+      <c r="A42" s="582"/>
+      <c r="B42" s="583"/>
+      <c r="C42" s="584"/>
+      <c r="D42" s="585"/>
+      <c r="E42" s="585"/>
+      <c r="F42" s="585"/>
+      <c r="G42" s="585"/>
+      <c r="H42" s="583"/>
+      <c r="I42" s="584"/>
+      <c r="J42" s="585"/>
+      <c r="K42" s="592"/>
     </row>
     <row r="43" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="529"/>
-      <c r="B43" s="530"/>
-      <c r="C43" s="531"/>
-      <c r="D43" s="532"/>
-      <c r="E43" s="532"/>
-      <c r="F43" s="532"/>
-      <c r="G43" s="532"/>
-      <c r="H43" s="530"/>
-      <c r="I43" s="531"/>
-      <c r="J43" s="532"/>
-      <c r="K43" s="533"/>
+      <c r="A43" s="582"/>
+      <c r="B43" s="583"/>
+      <c r="C43" s="584"/>
+      <c r="D43" s="585"/>
+      <c r="E43" s="585"/>
+      <c r="F43" s="585"/>
+      <c r="G43" s="585"/>
+      <c r="H43" s="583"/>
+      <c r="I43" s="584"/>
+      <c r="J43" s="585"/>
+      <c r="K43" s="592"/>
     </row>
     <row r="44" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="529"/>
-      <c r="B44" s="530"/>
-      <c r="C44" s="531"/>
-      <c r="D44" s="532"/>
-      <c r="E44" s="532"/>
-      <c r="F44" s="532"/>
-      <c r="G44" s="532"/>
-      <c r="H44" s="530"/>
-      <c r="I44" s="531"/>
-      <c r="J44" s="532"/>
-      <c r="K44" s="533"/>
+      <c r="A44" s="582"/>
+      <c r="B44" s="583"/>
+      <c r="C44" s="584"/>
+      <c r="D44" s="585"/>
+      <c r="E44" s="585"/>
+      <c r="F44" s="585"/>
+      <c r="G44" s="585"/>
+      <c r="H44" s="583"/>
+      <c r="I44" s="584"/>
+      <c r="J44" s="585"/>
+      <c r="K44" s="592"/>
     </row>
     <row r="45" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="529"/>
-      <c r="B45" s="530"/>
-      <c r="C45" s="531"/>
-      <c r="D45" s="532"/>
-      <c r="E45" s="532"/>
-      <c r="F45" s="532"/>
-      <c r="G45" s="532"/>
-      <c r="H45" s="530"/>
-      <c r="I45" s="531"/>
-      <c r="J45" s="532"/>
-      <c r="K45" s="533"/>
+      <c r="A45" s="582"/>
+      <c r="B45" s="583"/>
+      <c r="C45" s="584"/>
+      <c r="D45" s="585"/>
+      <c r="E45" s="585"/>
+      <c r="F45" s="585"/>
+      <c r="G45" s="585"/>
+      <c r="H45" s="583"/>
+      <c r="I45" s="584"/>
+      <c r="J45" s="585"/>
+      <c r="K45" s="592"/>
     </row>
     <row r="46" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="529"/>
-      <c r="B46" s="530"/>
-      <c r="C46" s="531"/>
-      <c r="D46" s="532"/>
-      <c r="E46" s="532"/>
-      <c r="F46" s="532"/>
-      <c r="G46" s="532"/>
-      <c r="H46" s="530"/>
-      <c r="I46" s="531"/>
-      <c r="J46" s="532"/>
-      <c r="K46" s="533"/>
+      <c r="A46" s="582"/>
+      <c r="B46" s="583"/>
+      <c r="C46" s="584"/>
+      <c r="D46" s="585"/>
+      <c r="E46" s="585"/>
+      <c r="F46" s="585"/>
+      <c r="G46" s="585"/>
+      <c r="H46" s="583"/>
+      <c r="I46" s="584"/>
+      <c r="J46" s="585"/>
+      <c r="K46" s="592"/>
     </row>
     <row r="47" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="529"/>
-      <c r="B47" s="530"/>
-      <c r="C47" s="531"/>
-      <c r="D47" s="532"/>
-      <c r="E47" s="532"/>
-      <c r="F47" s="532"/>
-      <c r="G47" s="532"/>
-      <c r="H47" s="530"/>
-      <c r="I47" s="531"/>
-      <c r="J47" s="532"/>
-      <c r="K47" s="533"/>
+      <c r="A47" s="582"/>
+      <c r="B47" s="583"/>
+      <c r="C47" s="584"/>
+      <c r="D47" s="585"/>
+      <c r="E47" s="585"/>
+      <c r="F47" s="585"/>
+      <c r="G47" s="585"/>
+      <c r="H47" s="583"/>
+      <c r="I47" s="584"/>
+      <c r="J47" s="585"/>
+      <c r="K47" s="592"/>
     </row>
     <row r="48" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="529"/>
-      <c r="B48" s="530"/>
-      <c r="C48" s="531"/>
-      <c r="D48" s="532"/>
-      <c r="E48" s="532"/>
-      <c r="F48" s="532"/>
-      <c r="G48" s="532"/>
-      <c r="H48" s="530"/>
-      <c r="I48" s="531"/>
-      <c r="J48" s="532"/>
-      <c r="K48" s="533"/>
+      <c r="A48" s="582"/>
+      <c r="B48" s="583"/>
+      <c r="C48" s="584"/>
+      <c r="D48" s="585"/>
+      <c r="E48" s="585"/>
+      <c r="F48" s="585"/>
+      <c r="G48" s="585"/>
+      <c r="H48" s="583"/>
+      <c r="I48" s="584"/>
+      <c r="J48" s="585"/>
+      <c r="K48" s="592"/>
     </row>
     <row r="49" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="275" t="s">
+      <c r="A49" s="453" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="276"/>
-      <c r="C49" s="276"/>
-      <c r="D49" s="276"/>
-      <c r="E49" s="276"/>
-      <c r="F49" s="276"/>
-      <c r="G49" s="276"/>
-      <c r="H49" s="276"/>
-      <c r="I49" s="276"/>
-      <c r="J49" s="276"/>
-      <c r="K49" s="514"/>
+      <c r="B49" s="454"/>
+      <c r="C49" s="454"/>
+      <c r="D49" s="454"/>
+      <c r="E49" s="454"/>
+      <c r="F49" s="454"/>
+      <c r="G49" s="454"/>
+      <c r="H49" s="454"/>
+      <c r="I49" s="454"/>
+      <c r="J49" s="454"/>
+      <c r="K49" s="492"/>
     </row>
     <row r="50" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="272" t="s">
+      <c r="A50" s="450" t="s">
         <v>392</v>
       </c>
-      <c r="B50" s="274"/>
-      <c r="C50" s="471"/>
-      <c r="D50" s="472"/>
-      <c r="E50" s="472"/>
-      <c r="F50" s="473"/>
-      <c r="G50" s="527" t="s">
+      <c r="B50" s="452"/>
+      <c r="C50" s="506"/>
+      <c r="D50" s="507"/>
+      <c r="E50" s="507"/>
+      <c r="F50" s="508"/>
+      <c r="G50" s="594" t="s">
         <v>393</v>
       </c>
-      <c r="H50" s="528"/>
-      <c r="I50" s="471"/>
-      <c r="J50" s="472"/>
-      <c r="K50" s="473"/>
+      <c r="H50" s="595"/>
+      <c r="I50" s="506"/>
+      <c r="J50" s="507"/>
+      <c r="K50" s="508"/>
       <c r="L50" s="252"/>
       <c r="M50" s="252"/>
     </row>
@@ -13984,6 +13984,73 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="83">
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B15:D17"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="H3:K5"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="I15:K17"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="A39:K39"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="A14:K14"/>
@@ -14000,73 +14067,6 @@
     <mergeCell ref="I38:K38"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B15:D17"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="H3:K5"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="I15:K17"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="I47:K47"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14083,7 +14083,7 @@
   </sheetPr>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A44" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="A52" sqref="A52:E52"/>
     </sheetView>
   </sheetViews>
@@ -14104,35 +14104,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="710"/>
-      <c r="B1" s="711"/>
-      <c r="C1" s="711"/>
-      <c r="D1" s="711"/>
-      <c r="E1" s="711"/>
-      <c r="F1" s="711"/>
-      <c r="G1" s="711"/>
-      <c r="H1" s="711"/>
-      <c r="I1" s="711"/>
-      <c r="J1" s="711"/>
-      <c r="K1" s="711"/>
-      <c r="L1" s="711"/>
-      <c r="M1" s="712"/>
+      <c r="A1" s="617"/>
+      <c r="B1" s="618"/>
+      <c r="C1" s="618"/>
+      <c r="D1" s="618"/>
+      <c r="E1" s="618"/>
+      <c r="F1" s="618"/>
+      <c r="G1" s="618"/>
+      <c r="H1" s="618"/>
+      <c r="I1" s="618"/>
+      <c r="J1" s="618"/>
+      <c r="K1" s="618"/>
+      <c r="L1" s="618"/>
+      <c r="M1" s="619"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="688" t="s">
+      <c r="A2" s="643" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="689"/>
-      <c r="C2" s="715" t="s">
+      <c r="B2" s="644"/>
+      <c r="C2" s="622" t="s">
         <v>347</v>
       </c>
-      <c r="D2" s="715"/>
-      <c r="E2" s="715"/>
-      <c r="F2" s="716"/>
+      <c r="D2" s="622"/>
+      <c r="E2" s="622"/>
+      <c r="F2" s="623"/>
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
-      <c r="I2" s="713"/>
-      <c r="J2" s="713"/>
+      <c r="I2" s="620"/>
+      <c r="J2" s="620"/>
       <c r="K2" s="42"/>
       <c r="L2" s="42"/>
       <c r="M2" s="43"/>
@@ -14140,16 +14140,16 @@
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="704" t="s">
+      <c r="C3" s="626" t="s">
         <v>343</v>
       </c>
-      <c r="D3" s="704"/>
-      <c r="E3" s="704"/>
-      <c r="F3" s="705"/>
+      <c r="D3" s="626"/>
+      <c r="E3" s="626"/>
+      <c r="F3" s="627"/>
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
-      <c r="I3" s="714"/>
-      <c r="J3" s="714"/>
+      <c r="I3" s="621"/>
+      <c r="J3" s="621"/>
       <c r="K3" s="47"/>
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
@@ -14157,45 +14157,45 @@
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="45"/>
-      <c r="C4" s="704" t="s">
+      <c r="C4" s="626" t="s">
         <v>348</v>
       </c>
-      <c r="D4" s="704"/>
-      <c r="E4" s="704"/>
-      <c r="F4" s="705"/>
+      <c r="D4" s="626"/>
+      <c r="E4" s="626"/>
+      <c r="F4" s="627"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="45"/>
-      <c r="C5" s="704"/>
-      <c r="D5" s="704"/>
-      <c r="E5" s="704"/>
-      <c r="F5" s="705"/>
-      <c r="G5" s="608"/>
-      <c r="H5" s="608"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="608"/>
-      <c r="K5" s="608"/>
-      <c r="L5" s="608"/>
+      <c r="C5" s="626"/>
+      <c r="D5" s="626"/>
+      <c r="E5" s="626"/>
+      <c r="F5" s="627"/>
+      <c r="G5" s="654"/>
+      <c r="H5" s="654"/>
+      <c r="I5" s="654"/>
+      <c r="J5" s="654"/>
+      <c r="K5" s="654"/>
+      <c r="L5" s="654"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="45"/>
-      <c r="C6" s="704" t="s">
+      <c r="C6" s="626" t="s">
         <v>344</v>
       </c>
-      <c r="D6" s="704"/>
-      <c r="E6" s="704"/>
-      <c r="F6" s="705"/>
-      <c r="G6" s="623"/>
-      <c r="H6" s="624"/>
-      <c r="I6" s="624"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="624"/>
-      <c r="M6" s="625"/>
+      <c r="D6" s="626"/>
+      <c r="E6" s="626"/>
+      <c r="F6" s="627"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="597"/>
+      <c r="J6" s="597"/>
+      <c r="K6" s="597"/>
+      <c r="L6" s="597"/>
+      <c r="M6" s="598"/>
     </row>
     <row r="7" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
@@ -14213,19 +14213,19 @@
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="45"/>
-      <c r="C8" s="704" t="s">
+      <c r="C8" s="626" t="s">
         <v>366</v>
       </c>
-      <c r="D8" s="704"/>
-      <c r="E8" s="704"/>
-      <c r="F8" s="705"/>
-      <c r="G8" s="623"/>
-      <c r="H8" s="624"/>
-      <c r="I8" s="624"/>
-      <c r="J8" s="624"/>
-      <c r="K8" s="624"/>
-      <c r="L8" s="624"/>
-      <c r="M8" s="625"/>
+      <c r="D8" s="626"/>
+      <c r="E8" s="626"/>
+      <c r="F8" s="627"/>
+      <c r="G8" s="596"/>
+      <c r="H8" s="597"/>
+      <c r="I8" s="597"/>
+      <c r="J8" s="597"/>
+      <c r="K8" s="597"/>
+      <c r="L8" s="597"/>
+      <c r="M8" s="598"/>
     </row>
     <row r="9" spans="1:13" ht="3.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
@@ -14239,114 +14239,114 @@
     <row r="10" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="45"/>
-      <c r="C10" s="704"/>
-      <c r="D10" s="704"/>
-      <c r="E10" s="704"/>
-      <c r="F10" s="705"/>
-      <c r="G10" s="608" t="s">
+      <c r="C10" s="626"/>
+      <c r="D10" s="626"/>
+      <c r="E10" s="626"/>
+      <c r="F10" s="627"/>
+      <c r="G10" s="654" t="s">
         <v>329</v>
       </c>
-      <c r="H10" s="608"/>
-      <c r="I10" s="608"/>
-      <c r="J10" s="608"/>
-      <c r="K10" s="608"/>
-      <c r="L10" s="608"/>
+      <c r="H10" s="654"/>
+      <c r="I10" s="654"/>
+      <c r="J10" s="654"/>
+      <c r="K10" s="654"/>
+      <c r="L10" s="654"/>
       <c r="M10" s="95"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="45"/>
-      <c r="C11" s="704"/>
-      <c r="D11" s="704"/>
-      <c r="E11" s="704"/>
-      <c r="F11" s="705"/>
+      <c r="C11" s="626"/>
+      <c r="D11" s="626"/>
+      <c r="E11" s="626"/>
+      <c r="F11" s="627"/>
       <c r="G11" s="151"/>
-      <c r="H11" s="709"/>
-      <c r="I11" s="709"/>
-      <c r="J11" s="709"/>
-      <c r="K11" s="709"/>
-      <c r="L11" s="709"/>
+      <c r="H11" s="646"/>
+      <c r="I11" s="646"/>
+      <c r="J11" s="646"/>
+      <c r="K11" s="646"/>
+      <c r="L11" s="646"/>
       <c r="M11" s="95"/>
     </row>
     <row r="12" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50"/>
       <c r="B12" s="51"/>
-      <c r="C12" s="706"/>
-      <c r="D12" s="706"/>
-      <c r="E12" s="706"/>
-      <c r="F12" s="707"/>
+      <c r="C12" s="655"/>
+      <c r="D12" s="655"/>
+      <c r="E12" s="655"/>
+      <c r="F12" s="656"/>
       <c r="G12" s="152"/>
       <c r="H12" s="152"/>
-      <c r="I12" s="708"/>
-      <c r="J12" s="708"/>
-      <c r="K12" s="708"/>
-      <c r="L12" s="708"/>
+      <c r="I12" s="645"/>
+      <c r="J12" s="645"/>
+      <c r="K12" s="645"/>
+      <c r="L12" s="645"/>
       <c r="M12" s="134"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="727" t="s">
+      <c r="A13" s="657" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="728"/>
-      <c r="C13" s="723" t="s">
+      <c r="B13" s="658"/>
+      <c r="C13" s="635" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="723"/>
-      <c r="E13" s="559"/>
-      <c r="F13" s="560"/>
-      <c r="G13" s="612"/>
-      <c r="H13" s="613"/>
-      <c r="I13" s="613"/>
-      <c r="J13" s="613"/>
-      <c r="K13" s="613"/>
-      <c r="L13" s="613"/>
-      <c r="M13" s="614"/>
+      <c r="D13" s="635"/>
+      <c r="E13" s="555"/>
+      <c r="F13" s="556"/>
+      <c r="G13" s="604"/>
+      <c r="H13" s="605"/>
+      <c r="I13" s="605"/>
+      <c r="J13" s="605"/>
+      <c r="K13" s="605"/>
+      <c r="L13" s="605"/>
+      <c r="M13" s="606"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="66"/>
       <c r="B14" s="67"/>
-      <c r="C14" s="723"/>
-      <c r="D14" s="723"/>
-      <c r="E14" s="559"/>
-      <c r="F14" s="560"/>
-      <c r="G14" s="607" t="s">
+      <c r="C14" s="635"/>
+      <c r="D14" s="635"/>
+      <c r="E14" s="555"/>
+      <c r="F14" s="556"/>
+      <c r="G14" s="659" t="s">
         <v>329</v>
       </c>
-      <c r="H14" s="608"/>
-      <c r="I14" s="608"/>
-      <c r="J14" s="608"/>
-      <c r="K14" s="608"/>
-      <c r="L14" s="608"/>
+      <c r="H14" s="654"/>
+      <c r="I14" s="654"/>
+      <c r="J14" s="654"/>
+      <c r="K14" s="654"/>
+      <c r="L14" s="654"/>
       <c r="M14" s="133"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="66"/>
       <c r="B15" s="67"/>
-      <c r="C15" s="723"/>
-      <c r="D15" s="723"/>
-      <c r="E15" s="559"/>
-      <c r="F15" s="560"/>
+      <c r="C15" s="635"/>
+      <c r="D15" s="635"/>
+      <c r="E15" s="555"/>
+      <c r="F15" s="556"/>
       <c r="G15" s="46"/>
-      <c r="H15" s="729"/>
-      <c r="I15" s="729"/>
-      <c r="J15" s="729"/>
-      <c r="K15" s="729"/>
-      <c r="L15" s="729"/>
+      <c r="H15" s="660"/>
+      <c r="I15" s="660"/>
+      <c r="J15" s="660"/>
+      <c r="K15" s="660"/>
+      <c r="L15" s="660"/>
       <c r="M15" s="133"/>
     </row>
     <row r="16" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="54"/>
-      <c r="C16" s="559"/>
-      <c r="D16" s="559"/>
-      <c r="E16" s="559"/>
-      <c r="F16" s="560"/>
+      <c r="C16" s="555"/>
+      <c r="D16" s="555"/>
+      <c r="E16" s="555"/>
+      <c r="F16" s="556"/>
       <c r="G16" s="130"/>
       <c r="H16" s="257"/>
-      <c r="I16" s="720"/>
-      <c r="J16" s="720"/>
-      <c r="K16" s="720"/>
-      <c r="L16" s="720"/>
+      <c r="I16" s="632"/>
+      <c r="J16" s="632"/>
+      <c r="K16" s="632"/>
+      <c r="L16" s="632"/>
       <c r="M16" s="131"/>
     </row>
     <row r="17" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14367,211 +14367,211 @@
     <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55"/>
       <c r="B18" s="56"/>
-      <c r="C18" s="602" t="s">
+      <c r="C18" s="739" t="s">
         <v>391</v>
       </c>
-      <c r="D18" s="602"/>
-      <c r="E18" s="603"/>
-      <c r="F18" s="604"/>
-      <c r="G18" s="731"/>
-      <c r="H18" s="732"/>
-      <c r="I18" s="732"/>
-      <c r="J18" s="732"/>
-      <c r="K18" s="732"/>
-      <c r="L18" s="732"/>
-      <c r="M18" s="733"/>
+      <c r="D18" s="739"/>
+      <c r="E18" s="740"/>
+      <c r="F18" s="741"/>
+      <c r="G18" s="599"/>
+      <c r="H18" s="600"/>
+      <c r="I18" s="600"/>
+      <c r="J18" s="600"/>
+      <c r="K18" s="600"/>
+      <c r="L18" s="600"/>
+      <c r="M18" s="601"/>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="55"/>
       <c r="B19" s="56"/>
-      <c r="C19" s="602"/>
-      <c r="D19" s="602"/>
-      <c r="E19" s="603"/>
-      <c r="F19" s="604"/>
-      <c r="G19" s="607" t="s">
+      <c r="C19" s="739"/>
+      <c r="D19" s="739"/>
+      <c r="E19" s="740"/>
+      <c r="F19" s="741"/>
+      <c r="G19" s="659" t="s">
         <v>329</v>
       </c>
-      <c r="H19" s="608"/>
-      <c r="I19" s="608"/>
-      <c r="J19" s="608"/>
-      <c r="K19" s="608"/>
-      <c r="L19" s="608"/>
+      <c r="H19" s="654"/>
+      <c r="I19" s="654"/>
+      <c r="J19" s="654"/>
+      <c r="K19" s="654"/>
+      <c r="L19" s="654"/>
       <c r="M19" s="61"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="55"/>
       <c r="B20" s="56"/>
-      <c r="C20" s="602"/>
-      <c r="D20" s="602"/>
-      <c r="E20" s="603"/>
-      <c r="F20" s="604"/>
+      <c r="C20" s="739"/>
+      <c r="D20" s="739"/>
+      <c r="E20" s="740"/>
+      <c r="F20" s="741"/>
       <c r="G20" s="60"/>
-      <c r="H20" s="736" t="s">
+      <c r="H20" s="608" t="s">
         <v>330</v>
       </c>
-      <c r="I20" s="736"/>
+      <c r="I20" s="608"/>
       <c r="J20" s="266"/>
-      <c r="K20" s="734"/>
-      <c r="L20" s="734"/>
+      <c r="K20" s="602"/>
+      <c r="L20" s="602"/>
       <c r="M20" s="61"/>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="55"/>
       <c r="B21" s="56"/>
-      <c r="C21" s="602"/>
-      <c r="D21" s="602"/>
-      <c r="E21" s="603"/>
-      <c r="F21" s="604"/>
-      <c r="G21" s="737" t="s">
+      <c r="C21" s="739"/>
+      <c r="D21" s="739"/>
+      <c r="E21" s="740"/>
+      <c r="F21" s="741"/>
+      <c r="G21" s="609" t="s">
         <v>332</v>
       </c>
-      <c r="H21" s="738"/>
-      <c r="I21" s="738"/>
+      <c r="H21" s="610"/>
+      <c r="I21" s="610"/>
       <c r="J21" s="266"/>
-      <c r="K21" s="735"/>
-      <c r="L21" s="735"/>
+      <c r="K21" s="603"/>
+      <c r="L21" s="603"/>
       <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="63"/>
-      <c r="C22" s="605"/>
-      <c r="D22" s="605"/>
-      <c r="E22" s="605"/>
-      <c r="F22" s="606"/>
+      <c r="C22" s="742"/>
+      <c r="D22" s="742"/>
+      <c r="E22" s="742"/>
+      <c r="F22" s="743"/>
       <c r="G22" s="130" t="s">
         <v>331</v>
       </c>
       <c r="H22" s="257"/>
-      <c r="I22" s="609"/>
-      <c r="J22" s="609"/>
-      <c r="K22" s="609"/>
+      <c r="I22" s="744"/>
+      <c r="J22" s="744"/>
+      <c r="K22" s="744"/>
       <c r="L22" s="135"/>
       <c r="M22" s="131"/>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="593" t="s">
+      <c r="A23" s="661" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="594"/>
-      <c r="C23" s="610" t="s">
+      <c r="B23" s="662"/>
+      <c r="C23" s="639" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="610"/>
-      <c r="E23" s="610"/>
-      <c r="F23" s="611"/>
-      <c r="G23" s="612"/>
-      <c r="H23" s="613"/>
-      <c r="I23" s="613"/>
-      <c r="J23" s="613"/>
-      <c r="K23" s="613"/>
-      <c r="L23" s="613"/>
-      <c r="M23" s="614"/>
+      <c r="D23" s="639"/>
+      <c r="E23" s="639"/>
+      <c r="F23" s="640"/>
+      <c r="G23" s="604"/>
+      <c r="H23" s="605"/>
+      <c r="I23" s="605"/>
+      <c r="J23" s="605"/>
+      <c r="K23" s="605"/>
+      <c r="L23" s="605"/>
+      <c r="M23" s="606"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
       <c r="B24" s="54"/>
-      <c r="C24" s="595"/>
-      <c r="D24" s="595"/>
-      <c r="E24" s="595"/>
-      <c r="F24" s="596"/>
-      <c r="G24" s="607" t="s">
+      <c r="C24" s="629"/>
+      <c r="D24" s="629"/>
+      <c r="E24" s="629"/>
+      <c r="F24" s="628"/>
+      <c r="G24" s="659" t="s">
         <v>329</v>
       </c>
-      <c r="H24" s="608"/>
-      <c r="I24" s="608"/>
-      <c r="J24" s="608"/>
-      <c r="K24" s="608"/>
-      <c r="L24" s="608"/>
+      <c r="H24" s="654"/>
+      <c r="I24" s="654"/>
+      <c r="J24" s="654"/>
+      <c r="K24" s="654"/>
+      <c r="L24" s="654"/>
       <c r="M24" s="129"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
       <c r="B25" s="54"/>
-      <c r="C25" s="595"/>
-      <c r="D25" s="595"/>
-      <c r="E25" s="595"/>
-      <c r="F25" s="596"/>
+      <c r="C25" s="629"/>
+      <c r="D25" s="629"/>
+      <c r="E25" s="629"/>
+      <c r="F25" s="628"/>
       <c r="G25" s="128"/>
-      <c r="H25" s="730"/>
-      <c r="I25" s="730"/>
-      <c r="J25" s="730"/>
-      <c r="K25" s="730"/>
-      <c r="L25" s="730"/>
+      <c r="H25" s="607"/>
+      <c r="I25" s="607"/>
+      <c r="J25" s="607"/>
+      <c r="K25" s="607"/>
+      <c r="L25" s="607"/>
       <c r="M25" s="129"/>
     </row>
     <row r="26" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="64"/>
       <c r="B26" s="65"/>
-      <c r="C26" s="597"/>
-      <c r="D26" s="597"/>
-      <c r="E26" s="597"/>
-      <c r="F26" s="598"/>
+      <c r="C26" s="641"/>
+      <c r="D26" s="641"/>
+      <c r="E26" s="641"/>
+      <c r="F26" s="642"/>
       <c r="G26" s="130"/>
       <c r="H26" s="257"/>
-      <c r="I26" s="720"/>
-      <c r="J26" s="720"/>
-      <c r="K26" s="720"/>
-      <c r="L26" s="720"/>
+      <c r="I26" s="632"/>
+      <c r="J26" s="632"/>
+      <c r="K26" s="632"/>
+      <c r="L26" s="632"/>
       <c r="M26" s="131"/>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="593" t="s">
+      <c r="A27" s="661" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="594"/>
-      <c r="C27" s="610" t="s">
+      <c r="B27" s="662"/>
+      <c r="C27" s="639" t="s">
         <v>359</v>
       </c>
-      <c r="D27" s="610"/>
-      <c r="E27" s="610"/>
-      <c r="F27" s="611"/>
-      <c r="G27" s="612"/>
-      <c r="H27" s="613"/>
-      <c r="I27" s="613"/>
-      <c r="J27" s="613"/>
-      <c r="K27" s="613"/>
-      <c r="L27" s="613"/>
-      <c r="M27" s="614"/>
+      <c r="D27" s="639"/>
+      <c r="E27" s="639"/>
+      <c r="F27" s="640"/>
+      <c r="G27" s="604"/>
+      <c r="H27" s="605"/>
+      <c r="I27" s="605"/>
+      <c r="J27" s="605"/>
+      <c r="K27" s="605"/>
+      <c r="L27" s="605"/>
+      <c r="M27" s="606"/>
     </row>
     <row r="28" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53"/>
       <c r="B28" s="54"/>
-      <c r="C28" s="595"/>
-      <c r="D28" s="595"/>
-      <c r="E28" s="595"/>
-      <c r="F28" s="596"/>
-      <c r="G28" s="607" t="s">
+      <c r="C28" s="629"/>
+      <c r="D28" s="629"/>
+      <c r="E28" s="629"/>
+      <c r="F28" s="628"/>
+      <c r="G28" s="659" t="s">
         <v>329</v>
       </c>
-      <c r="H28" s="608"/>
-      <c r="I28" s="608"/>
-      <c r="J28" s="608"/>
-      <c r="K28" s="608"/>
-      <c r="L28" s="608"/>
+      <c r="H28" s="654"/>
+      <c r="I28" s="654"/>
+      <c r="J28" s="654"/>
+      <c r="K28" s="654"/>
+      <c r="L28" s="654"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
       <c r="B29" s="54"/>
-      <c r="C29" s="595"/>
-      <c r="D29" s="595"/>
-      <c r="E29" s="595"/>
-      <c r="F29" s="596"/>
-      <c r="H29" s="599"/>
-      <c r="I29" s="599"/>
-      <c r="J29" s="599"/>
-      <c r="K29" s="599"/>
-      <c r="L29" s="599"/>
+      <c r="C29" s="629"/>
+      <c r="D29" s="629"/>
+      <c r="E29" s="629"/>
+      <c r="F29" s="628"/>
+      <c r="H29" s="613"/>
+      <c r="I29" s="613"/>
+      <c r="J29" s="613"/>
+      <c r="K29" s="613"/>
+      <c r="L29" s="613"/>
       <c r="M29" s="129"/>
     </row>
     <row r="30" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="64"/>
       <c r="B30" s="65"/>
-      <c r="C30" s="597"/>
-      <c r="D30" s="597"/>
-      <c r="E30" s="597"/>
-      <c r="F30" s="598"/>
+      <c r="C30" s="641"/>
+      <c r="D30" s="641"/>
+      <c r="E30" s="641"/>
+      <c r="F30" s="642"/>
       <c r="G30" s="148"/>
       <c r="H30" s="258"/>
       <c r="I30" s="188"/>
@@ -14581,39 +14581,39 @@
       <c r="M30" s="131"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="593" t="s">
+      <c r="A31" s="661" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="594"/>
-      <c r="C31" s="610" t="s">
+      <c r="B31" s="662"/>
+      <c r="C31" s="639" t="s">
         <v>355</v>
       </c>
-      <c r="D31" s="610"/>
-      <c r="E31" s="610"/>
-      <c r="F31" s="611"/>
-      <c r="G31" s="612"/>
-      <c r="H31" s="613"/>
-      <c r="I31" s="613"/>
-      <c r="J31" s="613"/>
-      <c r="K31" s="613"/>
-      <c r="L31" s="613"/>
-      <c r="M31" s="614"/>
+      <c r="D31" s="639"/>
+      <c r="E31" s="639"/>
+      <c r="F31" s="640"/>
+      <c r="G31" s="604"/>
+      <c r="H31" s="605"/>
+      <c r="I31" s="605"/>
+      <c r="J31" s="605"/>
+      <c r="K31" s="605"/>
+      <c r="L31" s="605"/>
+      <c r="M31" s="606"/>
     </row>
     <row r="32" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
       <c r="B32" s="54"/>
-      <c r="C32" s="595"/>
-      <c r="D32" s="595"/>
-      <c r="E32" s="595"/>
-      <c r="F32" s="596"/>
-      <c r="G32" s="600" t="s">
+      <c r="C32" s="629"/>
+      <c r="D32" s="629"/>
+      <c r="E32" s="629"/>
+      <c r="F32" s="628"/>
+      <c r="G32" s="611" t="s">
         <v>356</v>
       </c>
-      <c r="H32" s="601"/>
-      <c r="I32" s="601"/>
-      <c r="J32" s="601"/>
-      <c r="K32" s="599"/>
-      <c r="L32" s="599"/>
+      <c r="H32" s="612"/>
+      <c r="I32" s="612"/>
+      <c r="J32" s="612"/>
+      <c r="K32" s="613"/>
+      <c r="L32" s="613"/>
       <c r="M32" s="129"/>
     </row>
     <row r="33" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14634,44 +14634,44 @@
     <row r="34" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53"/>
       <c r="B34" s="54"/>
-      <c r="C34" s="595" t="s">
+      <c r="C34" s="629" t="s">
         <v>357</v>
       </c>
-      <c r="D34" s="595"/>
-      <c r="E34" s="595"/>
-      <c r="F34" s="596"/>
-      <c r="G34" s="739"/>
-      <c r="H34" s="740"/>
-      <c r="I34" s="740"/>
-      <c r="J34" s="740"/>
-      <c r="K34" s="740"/>
-      <c r="L34" s="740"/>
-      <c r="M34" s="741"/>
+      <c r="D34" s="629"/>
+      <c r="E34" s="629"/>
+      <c r="F34" s="628"/>
+      <c r="G34" s="614"/>
+      <c r="H34" s="615"/>
+      <c r="I34" s="615"/>
+      <c r="J34" s="615"/>
+      <c r="K34" s="615"/>
+      <c r="L34" s="615"/>
+      <c r="M34" s="616"/>
     </row>
     <row r="35" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
       <c r="B35" s="54"/>
-      <c r="C35" s="595"/>
-      <c r="D35" s="595"/>
-      <c r="E35" s="595"/>
-      <c r="F35" s="596"/>
-      <c r="G35" s="600" t="s">
+      <c r="C35" s="629"/>
+      <c r="D35" s="629"/>
+      <c r="E35" s="629"/>
+      <c r="F35" s="628"/>
+      <c r="G35" s="611" t="s">
         <v>356</v>
       </c>
-      <c r="H35" s="601"/>
-      <c r="I35" s="601"/>
-      <c r="J35" s="601"/>
-      <c r="K35" s="599"/>
-      <c r="L35" s="599"/>
+      <c r="H35" s="612"/>
+      <c r="I35" s="612"/>
+      <c r="J35" s="612"/>
+      <c r="K35" s="613"/>
+      <c r="L35" s="613"/>
       <c r="M35" s="129"/>
     </row>
     <row r="36" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="64"/>
       <c r="B36" s="65"/>
-      <c r="C36" s="597"/>
-      <c r="D36" s="597"/>
-      <c r="E36" s="597"/>
-      <c r="F36" s="598"/>
+      <c r="C36" s="641"/>
+      <c r="D36" s="641"/>
+      <c r="E36" s="641"/>
+      <c r="F36" s="642"/>
       <c r="G36" s="132"/>
       <c r="H36" s="75"/>
       <c r="I36" s="123"/>
@@ -14680,82 +14680,82 @@
       <c r="M36" s="131"/>
     </row>
     <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="593" t="s">
+      <c r="A37" s="661" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="594"/>
-      <c r="C37" s="721" t="s">
+      <c r="B37" s="662"/>
+      <c r="C37" s="633" t="s">
         <v>349</v>
       </c>
-      <c r="D37" s="721"/>
-      <c r="E37" s="721"/>
-      <c r="F37" s="722"/>
-      <c r="G37" s="612"/>
-      <c r="H37" s="613"/>
-      <c r="I37" s="613"/>
-      <c r="J37" s="613"/>
-      <c r="K37" s="613"/>
-      <c r="L37" s="613"/>
-      <c r="M37" s="614"/>
+      <c r="D37" s="633"/>
+      <c r="E37" s="633"/>
+      <c r="F37" s="634"/>
+      <c r="G37" s="604"/>
+      <c r="H37" s="605"/>
+      <c r="I37" s="605"/>
+      <c r="J37" s="605"/>
+      <c r="K37" s="605"/>
+      <c r="L37" s="605"/>
+      <c r="M37" s="606"/>
     </row>
     <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53"/>
       <c r="B38" s="54"/>
-      <c r="C38" s="723"/>
-      <c r="D38" s="723"/>
-      <c r="E38" s="723"/>
-      <c r="F38" s="724"/>
-      <c r="G38" s="607" t="s">
+      <c r="C38" s="635"/>
+      <c r="D38" s="635"/>
+      <c r="E38" s="635"/>
+      <c r="F38" s="636"/>
+      <c r="G38" s="659" t="s">
         <v>340</v>
       </c>
-      <c r="H38" s="608"/>
-      <c r="I38" s="608"/>
-      <c r="J38" s="608"/>
-      <c r="K38" s="608"/>
-      <c r="L38" s="608"/>
-      <c r="M38" s="622"/>
+      <c r="H38" s="654"/>
+      <c r="I38" s="654"/>
+      <c r="J38" s="654"/>
+      <c r="K38" s="654"/>
+      <c r="L38" s="654"/>
+      <c r="M38" s="712"/>
     </row>
     <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53"/>
       <c r="B39" s="54"/>
-      <c r="C39" s="723"/>
-      <c r="D39" s="723"/>
-      <c r="E39" s="723"/>
-      <c r="F39" s="724"/>
+      <c r="C39" s="635"/>
+      <c r="D39" s="635"/>
+      <c r="E39" s="635"/>
+      <c r="F39" s="636"/>
       <c r="G39" s="128"/>
-      <c r="H39" s="730"/>
-      <c r="I39" s="730"/>
-      <c r="J39" s="730"/>
-      <c r="K39" s="730"/>
-      <c r="L39" s="730"/>
+      <c r="H39" s="607"/>
+      <c r="I39" s="607"/>
+      <c r="J39" s="607"/>
+      <c r="K39" s="607"/>
+      <c r="L39" s="607"/>
       <c r="M39" s="129"/>
     </row>
     <row r="40" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="64"/>
       <c r="B40" s="65"/>
-      <c r="C40" s="725"/>
-      <c r="D40" s="725"/>
-      <c r="E40" s="725"/>
-      <c r="F40" s="726"/>
+      <c r="C40" s="637"/>
+      <c r="D40" s="637"/>
+      <c r="E40" s="637"/>
+      <c r="F40" s="638"/>
       <c r="G40" s="130"/>
       <c r="H40" s="257"/>
-      <c r="I40" s="720"/>
-      <c r="J40" s="720"/>
-      <c r="K40" s="720"/>
-      <c r="L40" s="720"/>
+      <c r="I40" s="632"/>
+      <c r="J40" s="632"/>
+      <c r="K40" s="632"/>
+      <c r="L40" s="632"/>
       <c r="M40" s="131"/>
     </row>
     <row r="41" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="718" t="s">
+      <c r="A41" s="630" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="719"/>
-      <c r="C41" s="595" t="s">
+      <c r="B41" s="631"/>
+      <c r="C41" s="629" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="595"/>
-      <c r="E41" s="595"/>
-      <c r="F41" s="596"/>
+      <c r="D41" s="629"/>
+      <c r="E41" s="629"/>
+      <c r="F41" s="628"/>
       <c r="G41" s="52"/>
       <c r="H41" s="52"/>
       <c r="I41" s="70"/>
@@ -14767,10 +14767,10 @@
     <row r="42" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="68"/>
       <c r="B42" s="69"/>
-      <c r="C42" s="595"/>
-      <c r="D42" s="595"/>
-      <c r="E42" s="595"/>
-      <c r="F42" s="596"/>
+      <c r="C42" s="629"/>
+      <c r="D42" s="629"/>
+      <c r="E42" s="629"/>
+      <c r="F42" s="628"/>
       <c r="G42" s="73"/>
       <c r="H42" s="73"/>
       <c r="I42" s="73"/>
@@ -14784,27 +14784,27 @@
         <v>80</v>
       </c>
       <c r="B43" s="69"/>
-      <c r="C43" s="595" t="s">
+      <c r="C43" s="629" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="595"/>
-      <c r="E43" s="595"/>
-      <c r="F43" s="596"/>
-      <c r="G43" s="623"/>
-      <c r="H43" s="624"/>
-      <c r="I43" s="624"/>
-      <c r="J43" s="624"/>
-      <c r="K43" s="624"/>
-      <c r="L43" s="624"/>
-      <c r="M43" s="625"/>
+      <c r="D43" s="629"/>
+      <c r="E43" s="629"/>
+      <c r="F43" s="628"/>
+      <c r="G43" s="596"/>
+      <c r="H43" s="597"/>
+      <c r="I43" s="597"/>
+      <c r="J43" s="597"/>
+      <c r="K43" s="597"/>
+      <c r="L43" s="597"/>
+      <c r="M43" s="598"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="68"/>
       <c r="B44" s="69"/>
-      <c r="C44" s="595"/>
-      <c r="D44" s="595"/>
-      <c r="E44" s="595"/>
-      <c r="F44" s="596"/>
+      <c r="C44" s="629"/>
+      <c r="D44" s="629"/>
+      <c r="E44" s="629"/>
+      <c r="F44" s="628"/>
       <c r="G44" s="198" t="s">
         <v>327</v>
       </c>
@@ -14820,27 +14820,27 @@
         <v>81</v>
       </c>
       <c r="B45" s="69"/>
-      <c r="C45" s="596" t="s">
+      <c r="C45" s="628" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="596"/>
-      <c r="E45" s="596"/>
-      <c r="F45" s="596"/>
-      <c r="G45" s="623"/>
-      <c r="H45" s="624"/>
-      <c r="I45" s="624"/>
-      <c r="J45" s="624"/>
-      <c r="K45" s="624"/>
-      <c r="L45" s="624"/>
-      <c r="M45" s="625"/>
+      <c r="D45" s="628"/>
+      <c r="E45" s="628"/>
+      <c r="F45" s="628"/>
+      <c r="G45" s="596"/>
+      <c r="H45" s="597"/>
+      <c r="I45" s="597"/>
+      <c r="J45" s="597"/>
+      <c r="K45" s="597"/>
+      <c r="L45" s="597"/>
+      <c r="M45" s="598"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="68"/>
       <c r="B46" s="69"/>
-      <c r="C46" s="596"/>
-      <c r="D46" s="596"/>
-      <c r="E46" s="596"/>
-      <c r="F46" s="596"/>
+      <c r="C46" s="628"/>
+      <c r="D46" s="628"/>
+      <c r="E46" s="628"/>
+      <c r="F46" s="628"/>
       <c r="G46" s="199" t="s">
         <v>328</v>
       </c>
@@ -14857,27 +14857,27 @@
         <v>83</v>
       </c>
       <c r="B47" s="69"/>
-      <c r="C47" s="595" t="s">
+      <c r="C47" s="629" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="595"/>
+      <c r="D47" s="629"/>
       <c r="E47" s="120"/>
       <c r="F47" s="121"/>
-      <c r="G47" s="623"/>
-      <c r="H47" s="624"/>
-      <c r="I47" s="624"/>
-      <c r="J47" s="624"/>
-      <c r="K47" s="624"/>
-      <c r="L47" s="624"/>
-      <c r="M47" s="625"/>
+      <c r="G47" s="596"/>
+      <c r="H47" s="597"/>
+      <c r="I47" s="597"/>
+      <c r="J47" s="597"/>
+      <c r="K47" s="597"/>
+      <c r="L47" s="597"/>
+      <c r="M47" s="598"/>
     </row>
     <row r="48" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="681"/>
-      <c r="B48" s="682"/>
-      <c r="C48" s="682"/>
-      <c r="D48" s="682"/>
-      <c r="E48" s="682"/>
-      <c r="F48" s="683"/>
+      <c r="A48" s="725"/>
+      <c r="B48" s="726"/>
+      <c r="C48" s="726"/>
+      <c r="D48" s="726"/>
+      <c r="E48" s="726"/>
+      <c r="F48" s="727"/>
       <c r="G48" s="200" t="s">
         <v>328</v>
       </c>
@@ -14890,12 +14890,12 @@
       <c r="N48" s="75"/>
     </row>
     <row r="49" spans="1:14" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="684"/>
-      <c r="B49" s="685"/>
-      <c r="C49" s="685"/>
-      <c r="D49" s="685"/>
-      <c r="E49" s="685"/>
-      <c r="F49" s="686"/>
+      <c r="A49" s="728"/>
+      <c r="B49" s="729"/>
+      <c r="C49" s="729"/>
+      <c r="D49" s="729"/>
+      <c r="E49" s="729"/>
+      <c r="F49" s="730"/>
       <c r="G49" s="122"/>
       <c r="H49" s="118"/>
       <c r="I49" s="118"/>
@@ -14906,10 +14906,10 @@
       <c r="N49" s="75"/>
     </row>
     <row r="50" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="620" t="s">
+      <c r="A50" s="710" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="621"/>
+      <c r="B50" s="711"/>
       <c r="C50" s="196" t="s">
         <v>383</v>
       </c>
@@ -14919,127 +14919,127 @@
       <c r="G50" s="196"/>
       <c r="H50" s="196"/>
       <c r="I50" s="197"/>
-      <c r="J50" s="668"/>
-      <c r="K50" s="669"/>
-      <c r="L50" s="669"/>
-      <c r="M50" s="670"/>
+      <c r="J50" s="713"/>
+      <c r="K50" s="714"/>
+      <c r="L50" s="714"/>
+      <c r="M50" s="715"/>
     </row>
     <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="678" t="s">
+      <c r="A51" s="722" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="679"/>
-      <c r="C51" s="679"/>
-      <c r="D51" s="679"/>
-      <c r="E51" s="680"/>
+      <c r="B51" s="723"/>
+      <c r="C51" s="723"/>
+      <c r="D51" s="723"/>
+      <c r="E51" s="724"/>
       <c r="F51" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="687" t="s">
+      <c r="G51" s="731" t="s">
         <v>77</v>
       </c>
-      <c r="H51" s="534"/>
-      <c r="I51" s="536"/>
-      <c r="J51" s="671"/>
-      <c r="K51" s="672"/>
-      <c r="L51" s="672"/>
-      <c r="M51" s="673"/>
+      <c r="H51" s="590"/>
+      <c r="I51" s="593"/>
+      <c r="J51" s="716"/>
+      <c r="K51" s="717"/>
+      <c r="L51" s="717"/>
+      <c r="M51" s="718"/>
     </row>
     <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="697"/>
-      <c r="B52" s="698"/>
-      <c r="C52" s="700"/>
-      <c r="D52" s="700"/>
-      <c r="E52" s="701"/>
+      <c r="A52" s="647"/>
+      <c r="B52" s="648"/>
+      <c r="C52" s="650"/>
+      <c r="D52" s="650"/>
+      <c r="E52" s="651"/>
       <c r="F52" s="76"/>
-      <c r="G52" s="690"/>
-      <c r="H52" s="691"/>
-      <c r="I52" s="692"/>
-      <c r="J52" s="671"/>
-      <c r="K52" s="672"/>
-      <c r="L52" s="672"/>
-      <c r="M52" s="673"/>
+      <c r="G52" s="732"/>
+      <c r="H52" s="733"/>
+      <c r="I52" s="734"/>
+      <c r="J52" s="716"/>
+      <c r="K52" s="717"/>
+      <c r="L52" s="717"/>
+      <c r="M52" s="718"/>
     </row>
     <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="697"/>
-      <c r="B53" s="698"/>
-      <c r="C53" s="698"/>
-      <c r="D53" s="698"/>
-      <c r="E53" s="699"/>
+      <c r="A53" s="647"/>
+      <c r="B53" s="648"/>
+      <c r="C53" s="648"/>
+      <c r="D53" s="648"/>
+      <c r="E53" s="649"/>
       <c r="F53" s="76"/>
-      <c r="G53" s="690"/>
-      <c r="H53" s="691"/>
-      <c r="I53" s="692"/>
-      <c r="J53" s="671"/>
-      <c r="K53" s="672"/>
-      <c r="L53" s="672"/>
-      <c r="M53" s="673"/>
+      <c r="G53" s="732"/>
+      <c r="H53" s="733"/>
+      <c r="I53" s="734"/>
+      <c r="J53" s="716"/>
+      <c r="K53" s="717"/>
+      <c r="L53" s="717"/>
+      <c r="M53" s="718"/>
     </row>
     <row r="54" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="693"/>
-      <c r="B54" s="694"/>
-      <c r="C54" s="695"/>
-      <c r="D54" s="695"/>
-      <c r="E54" s="696"/>
+      <c r="A54" s="735"/>
+      <c r="B54" s="736"/>
+      <c r="C54" s="737"/>
+      <c r="D54" s="737"/>
+      <c r="E54" s="738"/>
       <c r="F54" s="208"/>
-      <c r="G54" s="675"/>
-      <c r="H54" s="676"/>
-      <c r="I54" s="677"/>
-      <c r="J54" s="671"/>
-      <c r="K54" s="672"/>
-      <c r="L54" s="672"/>
-      <c r="M54" s="673"/>
+      <c r="G54" s="719"/>
+      <c r="H54" s="720"/>
+      <c r="I54" s="721"/>
+      <c r="J54" s="716"/>
+      <c r="K54" s="717"/>
+      <c r="L54" s="717"/>
+      <c r="M54" s="718"/>
     </row>
     <row r="55" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="688" t="s">
+      <c r="A55" s="643" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="689"/>
-      <c r="C55" s="702" t="s">
+      <c r="B55" s="644"/>
+      <c r="C55" s="652" t="s">
         <v>400</v>
       </c>
-      <c r="D55" s="702"/>
-      <c r="E55" s="702"/>
-      <c r="F55" s="702"/>
-      <c r="G55" s="702"/>
-      <c r="H55" s="702"/>
+      <c r="D55" s="652"/>
+      <c r="E55" s="652"/>
+      <c r="F55" s="652"/>
+      <c r="G55" s="652"/>
+      <c r="H55" s="652"/>
       <c r="I55" s="262"/>
-      <c r="J55" s="672"/>
-      <c r="K55" s="672"/>
-      <c r="L55" s="672"/>
-      <c r="M55" s="673"/>
+      <c r="J55" s="717"/>
+      <c r="K55" s="717"/>
+      <c r="L55" s="717"/>
+      <c r="M55" s="718"/>
     </row>
     <row r="56" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="77"/>
       <c r="B56" s="78"/>
-      <c r="C56" s="703"/>
-      <c r="D56" s="703"/>
-      <c r="E56" s="703"/>
-      <c r="F56" s="703"/>
-      <c r="G56" s="703"/>
-      <c r="H56" s="703"/>
+      <c r="C56" s="653"/>
+      <c r="D56" s="653"/>
+      <c r="E56" s="653"/>
+      <c r="F56" s="653"/>
+      <c r="G56" s="653"/>
+      <c r="H56" s="653"/>
       <c r="I56" s="263"/>
       <c r="J56" s="207"/>
-      <c r="K56" s="674" t="s">
+      <c r="K56" s="624" t="s">
         <v>75</v>
       </c>
-      <c r="L56" s="674"/>
+      <c r="L56" s="624"/>
       <c r="M56" s="186"/>
     </row>
     <row r="57" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="77"/>
       <c r="B57" s="78"/>
-      <c r="C57" s="703"/>
-      <c r="D57" s="703"/>
-      <c r="E57" s="703"/>
-      <c r="F57" s="703"/>
-      <c r="G57" s="703"/>
-      <c r="H57" s="703"/>
+      <c r="C57" s="653"/>
+      <c r="D57" s="653"/>
+      <c r="E57" s="653"/>
+      <c r="F57" s="653"/>
+      <c r="G57" s="653"/>
+      <c r="H57" s="653"/>
       <c r="I57" s="263"/>
-      <c r="J57" s="674"/>
-      <c r="K57" s="674"/>
-      <c r="L57" s="674"/>
-      <c r="M57" s="717"/>
+      <c r="J57" s="624"/>
+      <c r="K57" s="624"/>
+      <c r="L57" s="624"/>
+      <c r="M57" s="625"/>
     </row>
     <row r="58" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="184"/>
@@ -15051,8 +15051,8 @@
       <c r="G58" s="264"/>
       <c r="H58" s="264"/>
       <c r="I58" s="265"/>
-      <c r="K58" s="646"/>
-      <c r="L58" s="647"/>
+      <c r="K58" s="684"/>
+      <c r="L58" s="685"/>
       <c r="M58" s="2"/>
     </row>
     <row r="59" spans="1:14" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15064,102 +15064,102 @@
       <c r="G59" s="47"/>
       <c r="H59" s="47"/>
       <c r="I59" s="47"/>
-      <c r="K59" s="648"/>
-      <c r="L59" s="649"/>
+      <c r="K59" s="686"/>
+      <c r="L59" s="687"/>
       <c r="M59" s="2"/>
     </row>
     <row r="60" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="79"/>
-      <c r="B60" s="665" t="s">
+      <c r="B60" s="703" t="s">
         <v>399</v>
       </c>
-      <c r="C60" s="666"/>
-      <c r="D60" s="667"/>
-      <c r="F60" s="656"/>
-      <c r="G60" s="657"/>
-      <c r="H60" s="657"/>
-      <c r="I60" s="658"/>
-      <c r="K60" s="648"/>
-      <c r="L60" s="649"/>
+      <c r="C60" s="704"/>
+      <c r="D60" s="705"/>
+      <c r="F60" s="694"/>
+      <c r="G60" s="695"/>
+      <c r="H60" s="695"/>
+      <c r="I60" s="696"/>
+      <c r="K60" s="686"/>
+      <c r="L60" s="687"/>
       <c r="M60" s="80"/>
     </row>
     <row r="61" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="79"/>
-      <c r="B61" s="652" t="s">
+      <c r="B61" s="690" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="653"/>
+      <c r="C61" s="691"/>
       <c r="D61" s="136"/>
-      <c r="F61" s="659"/>
-      <c r="G61" s="660"/>
-      <c r="H61" s="660"/>
-      <c r="I61" s="661"/>
-      <c r="K61" s="648"/>
-      <c r="L61" s="649"/>
+      <c r="F61" s="697"/>
+      <c r="G61" s="698"/>
+      <c r="H61" s="698"/>
+      <c r="I61" s="699"/>
+      <c r="K61" s="686"/>
+      <c r="L61" s="687"/>
       <c r="M61" s="80"/>
     </row>
     <row r="62" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="79"/>
-      <c r="B62" s="641" t="s">
+      <c r="B62" s="678" t="s">
         <v>390</v>
       </c>
-      <c r="C62" s="642"/>
-      <c r="D62" s="615"/>
-      <c r="F62" s="662"/>
-      <c r="G62" s="663"/>
-      <c r="H62" s="663"/>
-      <c r="I62" s="664"/>
-      <c r="K62" s="648"/>
-      <c r="L62" s="649"/>
+      <c r="C62" s="679"/>
+      <c r="D62" s="682"/>
+      <c r="F62" s="700"/>
+      <c r="G62" s="701"/>
+      <c r="H62" s="701"/>
+      <c r="I62" s="702"/>
+      <c r="K62" s="686"/>
+      <c r="L62" s="687"/>
       <c r="M62" s="80"/>
     </row>
     <row r="63" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="79"/>
-      <c r="B63" s="654"/>
-      <c r="C63" s="655"/>
-      <c r="D63" s="616"/>
-      <c r="F63" s="617" t="s">
+      <c r="B63" s="692"/>
+      <c r="C63" s="693"/>
+      <c r="D63" s="706"/>
+      <c r="F63" s="707" t="s">
         <v>94</v>
       </c>
-      <c r="G63" s="618"/>
-      <c r="H63" s="618"/>
-      <c r="I63" s="619"/>
-      <c r="K63" s="648"/>
-      <c r="L63" s="649"/>
+      <c r="G63" s="708"/>
+      <c r="H63" s="708"/>
+      <c r="I63" s="709"/>
+      <c r="K63" s="686"/>
+      <c r="L63" s="687"/>
       <c r="M63" s="80"/>
     </row>
     <row r="64" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="79"/>
-      <c r="B64" s="641" t="s">
+      <c r="B64" s="678" t="s">
         <v>389</v>
       </c>
-      <c r="C64" s="642"/>
-      <c r="D64" s="615"/>
+      <c r="C64" s="679"/>
+      <c r="D64" s="682"/>
       <c r="F64" s="81"/>
       <c r="G64" s="188"/>
       <c r="H64" s="188"/>
       <c r="I64" s="189"/>
       <c r="J64" s="82"/>
-      <c r="K64" s="650"/>
-      <c r="L64" s="651"/>
+      <c r="K64" s="688"/>
+      <c r="L64" s="689"/>
       <c r="M64" s="80"/>
     </row>
     <row r="65" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="79"/>
-      <c r="B65" s="643"/>
-      <c r="C65" s="644"/>
-      <c r="D65" s="645"/>
-      <c r="F65" s="638" t="s">
+      <c r="B65" s="680"/>
+      <c r="C65" s="681"/>
+      <c r="D65" s="683"/>
+      <c r="F65" s="675" t="s">
         <v>95</v>
       </c>
-      <c r="G65" s="639"/>
-      <c r="H65" s="639"/>
-      <c r="I65" s="640"/>
+      <c r="G65" s="676"/>
+      <c r="H65" s="676"/>
+      <c r="I65" s="677"/>
       <c r="J65" s="82"/>
-      <c r="K65" s="636" t="s">
+      <c r="K65" s="673" t="s">
         <v>97</v>
       </c>
-      <c r="L65" s="637"/>
+      <c r="L65" s="674"/>
       <c r="M65" s="80"/>
     </row>
     <row r="66" spans="1:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15178,32 +15178,32 @@
       <c r="M66" s="88"/>
     </row>
     <row r="67" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="633" t="s">
+      <c r="A67" s="670" t="s">
         <v>341</v>
       </c>
-      <c r="B67" s="634"/>
-      <c r="C67" s="634"/>
-      <c r="D67" s="634"/>
-      <c r="E67" s="634"/>
-      <c r="F67" s="634"/>
-      <c r="G67" s="634"/>
-      <c r="H67" s="634"/>
-      <c r="I67" s="634"/>
-      <c r="J67" s="634"/>
-      <c r="K67" s="634"/>
-      <c r="L67" s="634"/>
-      <c r="M67" s="635"/>
+      <c r="B67" s="671"/>
+      <c r="C67" s="671"/>
+      <c r="D67" s="671"/>
+      <c r="E67" s="671"/>
+      <c r="F67" s="671"/>
+      <c r="G67" s="671"/>
+      <c r="H67" s="671"/>
+      <c r="I67" s="671"/>
+      <c r="J67" s="671"/>
+      <c r="K67" s="671"/>
+      <c r="L67" s="671"/>
+      <c r="M67" s="672"/>
     </row>
     <row r="68" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="79"/>
       <c r="B68" s="82"/>
       <c r="C68" s="89"/>
       <c r="D68" s="89"/>
-      <c r="E68" s="630"/>
-      <c r="F68" s="631"/>
-      <c r="G68" s="631"/>
-      <c r="H68" s="631"/>
-      <c r="I68" s="632"/>
+      <c r="E68" s="667"/>
+      <c r="F68" s="668"/>
+      <c r="G68" s="668"/>
+      <c r="H68" s="668"/>
+      <c r="I68" s="669"/>
       <c r="J68" s="137"/>
       <c r="K68" s="137"/>
       <c r="M68" s="80"/>
@@ -15213,13 +15213,13 @@
       <c r="B69" s="82"/>
       <c r="C69" s="247"/>
       <c r="D69" s="247"/>
-      <c r="E69" s="627" t="s">
+      <c r="E69" s="664" t="s">
         <v>96</v>
       </c>
-      <c r="F69" s="628"/>
-      <c r="G69" s="628"/>
-      <c r="H69" s="628"/>
-      <c r="I69" s="629"/>
+      <c r="F69" s="665"/>
+      <c r="G69" s="665"/>
+      <c r="H69" s="665"/>
+      <c r="I69" s="666"/>
       <c r="J69" s="139"/>
       <c r="K69" s="138"/>
       <c r="L69" s="90"/>
@@ -15241,21 +15241,21 @@
       <c r="M70" s="93"/>
     </row>
     <row r="71" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="626" t="s">
+      <c r="A71" s="663" t="s">
         <v>381</v>
       </c>
-      <c r="B71" s="626"/>
-      <c r="C71" s="626"/>
-      <c r="D71" s="626"/>
-      <c r="E71" s="626"/>
-      <c r="F71" s="626"/>
-      <c r="G71" s="626"/>
-      <c r="H71" s="626"/>
-      <c r="I71" s="626"/>
-      <c r="J71" s="626"/>
-      <c r="K71" s="626"/>
-      <c r="L71" s="626"/>
-      <c r="M71" s="626"/>
+      <c r="B71" s="663"/>
+      <c r="C71" s="663"/>
+      <c r="D71" s="663"/>
+      <c r="E71" s="663"/>
+      <c r="F71" s="663"/>
+      <c r="G71" s="663"/>
+      <c r="H71" s="663"/>
+      <c r="I71" s="663"/>
+      <c r="J71" s="663"/>
+      <c r="K71" s="663"/>
+      <c r="L71" s="663"/>
+      <c r="M71" s="663"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -15268,18 +15268,75 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="97">
-    <mergeCell ref="G47:M47"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="G23:M23"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="G31:M31"/>
-    <mergeCell ref="G34:M34"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C34:F36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="C18:F22"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="C23:F26"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G45:M45"/>
+    <mergeCell ref="J50:M55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A48:F49"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="C31:F32"/>
+    <mergeCell ref="A71:M71"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="A67:M67"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="K58:L64"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="F60:I62"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="C55:H57"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F16"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="G43:M43"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="H11:L11"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
@@ -15296,75 +15353,18 @@
     <mergeCell ref="I26:L26"/>
     <mergeCell ref="C27:F30"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="C55:H57"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F16"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="G43:M43"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="C31:F32"/>
-    <mergeCell ref="A71:M71"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="A67:M67"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="K58:L64"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C63"/>
-    <mergeCell ref="F60:I62"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="J50:M55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A48:F49"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="C18:F22"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="C23:F26"/>
-    <mergeCell ref="G27:M27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C34:F36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G47:M47"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="G31:M31"/>
+    <mergeCell ref="G34:M34"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/public/report/macro_enabled_cs_form_no_2122.xlsx
+++ b/public/report/macro_enabled_cs_form_no_2122.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\personal-info-management-system\public\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726A687F-8FF6-4E2F-A167-B781A14A58B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15696EF-EA9C-4A5C-9449-CE4C8C2231FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -2627,7 +2627,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="745">
+  <cellXfs count="742">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -3457,181 +3457,490 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3648,20 +3957,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3692,9 +3987,6 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="24" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3707,18 +3999,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3731,377 +4011,214 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="31" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4110,6 +4227,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="31" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4124,10 +4271,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4140,180 +4283,78 @@
     <xf numFmtId="49" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="41" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4326,42 +4367,14 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4369,21 +4382,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4405,18 +4409,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4440,52 +4432,140 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4496,58 +4576,273 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4565,43 +4860,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -4611,323 +4884,38 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6859,20 +6847,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="372"/>
-      <c r="B1" s="373"/>
-      <c r="C1" s="373"/>
-      <c r="D1" s="373"/>
-      <c r="E1" s="373"/>
-      <c r="F1" s="373"/>
-      <c r="G1" s="373"/>
-      <c r="H1" s="373"/>
-      <c r="I1" s="373"/>
-      <c r="J1" s="373"/>
-      <c r="K1" s="373"/>
-      <c r="L1" s="373"/>
-      <c r="M1" s="373"/>
-      <c r="N1" s="374"/>
+      <c r="A1" s="350"/>
+      <c r="B1" s="351"/>
+      <c r="C1" s="351"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="351"/>
+      <c r="F1" s="351"/>
+      <c r="G1" s="351"/>
+      <c r="H1" s="351"/>
+      <c r="I1" s="351"/>
+      <c r="J1" s="351"/>
+      <c r="K1" s="351"/>
+      <c r="L1" s="351"/>
+      <c r="M1" s="351"/>
+      <c r="N1" s="352"/>
     </row>
     <row r="2" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="167"/>
@@ -6902,58 +6890,58 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="375" t="s">
+      <c r="A3" s="353" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="376"/>
-      <c r="C3" s="376"/>
-      <c r="D3" s="376"/>
-      <c r="E3" s="376"/>
-      <c r="F3" s="376"/>
-      <c r="G3" s="376"/>
-      <c r="H3" s="376"/>
-      <c r="I3" s="376"/>
-      <c r="J3" s="376"/>
-      <c r="K3" s="376"/>
-      <c r="L3" s="376"/>
-      <c r="M3" s="376"/>
-      <c r="N3" s="377"/>
+      <c r="B3" s="354"/>
+      <c r="C3" s="354"/>
+      <c r="D3" s="354"/>
+      <c r="E3" s="354"/>
+      <c r="F3" s="354"/>
+      <c r="G3" s="354"/>
+      <c r="H3" s="354"/>
+      <c r="I3" s="354"/>
+      <c r="J3" s="354"/>
+      <c r="K3" s="354"/>
+      <c r="L3" s="354"/>
+      <c r="M3" s="354"/>
+      <c r="N3" s="355"/>
     </row>
     <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="410" t="s">
+      <c r="A4" s="385" t="s">
         <v>401</v>
       </c>
-      <c r="B4" s="411"/>
-      <c r="C4" s="411"/>
-      <c r="D4" s="411"/>
-      <c r="E4" s="411"/>
-      <c r="F4" s="411"/>
-      <c r="G4" s="411"/>
-      <c r="H4" s="411"/>
-      <c r="I4" s="411"/>
-      <c r="J4" s="411"/>
-      <c r="K4" s="411"/>
-      <c r="L4" s="411"/>
-      <c r="M4" s="411"/>
-      <c r="N4" s="412"/>
+      <c r="B4" s="386"/>
+      <c r="C4" s="386"/>
+      <c r="D4" s="386"/>
+      <c r="E4" s="386"/>
+      <c r="F4" s="386"/>
+      <c r="G4" s="386"/>
+      <c r="H4" s="386"/>
+      <c r="I4" s="386"/>
+      <c r="J4" s="386"/>
+      <c r="K4" s="386"/>
+      <c r="L4" s="386"/>
+      <c r="M4" s="386"/>
+      <c r="N4" s="387"/>
     </row>
     <row r="5" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="321" t="s">
+      <c r="A5" s="416" t="s">
         <v>386</v>
       </c>
-      <c r="B5" s="322"/>
-      <c r="C5" s="322"/>
-      <c r="D5" s="322"/>
-      <c r="E5" s="322"/>
-      <c r="F5" s="322"/>
-      <c r="G5" s="322"/>
-      <c r="H5" s="322"/>
-      <c r="I5" s="322"/>
-      <c r="J5" s="322"/>
-      <c r="K5" s="322"/>
-      <c r="L5" s="322"/>
-      <c r="M5" s="322"/>
-      <c r="N5" s="323"/>
+      <c r="B5" s="417"/>
+      <c r="C5" s="417"/>
+      <c r="D5" s="417"/>
+      <c r="E5" s="417"/>
+      <c r="F5" s="417"/>
+      <c r="G5" s="417"/>
+      <c r="H5" s="417"/>
+      <c r="I5" s="417"/>
+      <c r="J5" s="417"/>
+      <c r="K5" s="417"/>
+      <c r="L5" s="417"/>
+      <c r="M5" s="417"/>
+      <c r="N5" s="418"/>
     </row>
     <row r="6" spans="1:18" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="204"/>
@@ -6987,63 +6975,63 @@
       <c r="K7" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="381" t="s">
+      <c r="L7" s="359" t="s">
         <v>358</v>
       </c>
-      <c r="M7" s="382"/>
-      <c r="N7" s="383"/>
+      <c r="M7" s="360"/>
+      <c r="N7" s="361"/>
     </row>
     <row r="8" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="171"/>
       <c r="N8" s="163"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="378" t="s">
+      <c r="A9" s="356" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="379"/>
-      <c r="C9" s="379"/>
-      <c r="D9" s="379"/>
-      <c r="E9" s="379"/>
-      <c r="F9" s="379"/>
-      <c r="G9" s="379"/>
-      <c r="H9" s="379"/>
-      <c r="I9" s="379"/>
-      <c r="J9" s="379"/>
-      <c r="K9" s="379"/>
-      <c r="L9" s="379"/>
-      <c r="M9" s="379"/>
-      <c r="N9" s="380"/>
+      <c r="B9" s="357"/>
+      <c r="C9" s="357"/>
+      <c r="D9" s="357"/>
+      <c r="E9" s="357"/>
+      <c r="F9" s="357"/>
+      <c r="G9" s="357"/>
+      <c r="H9" s="357"/>
+      <c r="I9" s="357"/>
+      <c r="J9" s="357"/>
+      <c r="K9" s="357"/>
+      <c r="L9" s="357"/>
+      <c r="M9" s="357"/>
+      <c r="N9" s="358"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="396" t="s">
+      <c r="B10" s="375" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="347"/>
-      <c r="D10" s="392"/>
-      <c r="E10" s="392"/>
-      <c r="F10" s="392"/>
-      <c r="G10" s="392"/>
-      <c r="H10" s="392"/>
-      <c r="I10" s="392"/>
-      <c r="J10" s="392"/>
-      <c r="K10" s="392"/>
-      <c r="L10" s="392"/>
-      <c r="M10" s="392"/>
-      <c r="N10" s="393"/>
+      <c r="C10" s="376"/>
+      <c r="D10" s="370"/>
+      <c r="E10" s="370"/>
+      <c r="F10" s="370"/>
+      <c r="G10" s="370"/>
+      <c r="H10" s="370"/>
+      <c r="I10" s="370"/>
+      <c r="J10" s="370"/>
+      <c r="K10" s="370"/>
+      <c r="L10" s="370"/>
+      <c r="M10" s="370"/>
+      <c r="N10" s="371"/>
       <c r="P10" s="99" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="172"/>
-      <c r="B11" s="397" t="s">
+      <c r="B11" s="377" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="398"/>
+      <c r="C11" s="378"/>
       <c r="D11" s="212"/>
       <c r="E11" s="213"/>
       <c r="F11" s="213"/>
@@ -7052,11 +7040,11 @@
       <c r="I11" s="213"/>
       <c r="J11" s="213"/>
       <c r="K11" s="213"/>
-      <c r="L11" s="348" t="s">
+      <c r="L11" s="440" t="s">
         <v>403</v>
       </c>
-      <c r="M11" s="349"/>
-      <c r="N11" s="350"/>
+      <c r="M11" s="441"/>
+      <c r="N11" s="442"/>
       <c r="P11" s="100" t="s">
         <v>52</v>
       </c>
@@ -7066,10 +7054,10 @@
     </row>
     <row r="12" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="173"/>
-      <c r="B12" s="399" t="s">
+      <c r="B12" s="379" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="400"/>
+      <c r="C12" s="380"/>
       <c r="D12" s="209"/>
       <c r="E12" s="210"/>
       <c r="F12" s="210"/>
@@ -7092,23 +7080,23 @@
       <c r="A13" s="246" t="s">
         <v>369</v>
       </c>
-      <c r="B13" s="346" t="s">
+      <c r="B13" s="439" t="s">
         <v>394</v>
       </c>
-      <c r="C13" s="347"/>
-      <c r="D13" s="278"/>
-      <c r="E13" s="278"/>
-      <c r="F13" s="279"/>
+      <c r="C13" s="376"/>
+      <c r="D13" s="455"/>
+      <c r="E13" s="455"/>
+      <c r="F13" s="456"/>
       <c r="G13" s="106" t="s">
         <v>372</v>
       </c>
       <c r="H13" s="149"/>
       <c r="I13" s="149"/>
-      <c r="J13" s="292"/>
-      <c r="K13" s="293"/>
-      <c r="L13" s="293"/>
-      <c r="M13" s="293"/>
-      <c r="N13" s="294"/>
+      <c r="J13" s="464"/>
+      <c r="K13" s="465"/>
+      <c r="L13" s="465"/>
+      <c r="M13" s="465"/>
+      <c r="N13" s="466"/>
       <c r="P13" s="100" t="s">
         <v>53</v>
       </c>
@@ -7126,11 +7114,11 @@
       <c r="G14" s="154"/>
       <c r="H14" s="162"/>
       <c r="I14" s="162"/>
-      <c r="J14" s="295"/>
-      <c r="K14" s="296"/>
-      <c r="L14" s="296"/>
-      <c r="M14" s="296"/>
-      <c r="N14" s="297"/>
+      <c r="J14" s="467"/>
+      <c r="K14" s="468"/>
+      <c r="L14" s="468"/>
+      <c r="M14" s="468"/>
+      <c r="N14" s="469"/>
       <c r="P14" s="100"/>
       <c r="Q14" s="3"/>
     </row>
@@ -7142,19 +7130,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="101"/>
-      <c r="D15" s="317"/>
-      <c r="E15" s="317"/>
-      <c r="F15" s="318"/>
-      <c r="G15" s="283" t="s">
+      <c r="D15" s="413"/>
+      <c r="E15" s="413"/>
+      <c r="F15" s="414"/>
+      <c r="G15" s="460" t="s">
         <v>387</v>
       </c>
-      <c r="H15" s="284"/>
-      <c r="I15" s="284"/>
-      <c r="J15" s="298"/>
-      <c r="K15" s="299"/>
-      <c r="L15" s="299"/>
-      <c r="M15" s="299"/>
-      <c r="N15" s="300"/>
+      <c r="H15" s="461"/>
+      <c r="I15" s="461"/>
+      <c r="J15" s="470"/>
+      <c r="K15" s="471"/>
+      <c r="L15" s="471"/>
+      <c r="M15" s="471"/>
+      <c r="N15" s="472"/>
       <c r="P15" s="100" t="s">
         <v>118</v>
       </c>
@@ -7171,13 +7159,13 @@
       </c>
       <c r="C16" s="102"/>
       <c r="D16" s="267"/>
-      <c r="E16" s="287"/>
-      <c r="F16" s="288"/>
-      <c r="G16" s="280" t="s">
+      <c r="E16" s="415"/>
+      <c r="F16" s="462"/>
+      <c r="G16" s="457" t="s">
         <v>324</v>
       </c>
-      <c r="H16" s="281"/>
-      <c r="I16" s="282"/>
+      <c r="H16" s="458"/>
+      <c r="I16" s="459"/>
       <c r="N16" s="163"/>
       <c r="P16" s="100" t="s">
         <v>119</v>
@@ -7187,49 +7175,49 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="337">
+      <c r="A17" s="430">
         <v>6</v>
       </c>
-      <c r="B17" s="342" t="s">
+      <c r="B17" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="343"/>
-      <c r="D17" s="413"/>
-      <c r="E17" s="414"/>
-      <c r="F17" s="415"/>
+      <c r="C17" s="436"/>
+      <c r="D17" s="388"/>
+      <c r="E17" s="389"/>
+      <c r="F17" s="390"/>
       <c r="G17" s="107" t="s">
         <v>373</v>
       </c>
       <c r="H17" s="108"/>
-      <c r="I17" s="301"/>
-      <c r="J17" s="285"/>
-      <c r="K17" s="285"/>
-      <c r="L17" s="285"/>
-      <c r="M17" s="285"/>
-      <c r="N17" s="286"/>
+      <c r="I17" s="331"/>
+      <c r="J17" s="332"/>
+      <c r="K17" s="332"/>
+      <c r="L17" s="332"/>
+      <c r="M17" s="332"/>
+      <c r="N17" s="333"/>
       <c r="Q17" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="338"/>
-      <c r="B18" s="344"/>
-      <c r="C18" s="345"/>
-      <c r="D18" s="351"/>
-      <c r="E18" s="352"/>
-      <c r="F18" s="353"/>
+      <c r="A18" s="431"/>
+      <c r="B18" s="437"/>
+      <c r="C18" s="438"/>
+      <c r="D18" s="391"/>
+      <c r="E18" s="392"/>
+      <c r="F18" s="393"/>
       <c r="G18" s="156"/>
       <c r="H18" s="109"/>
-      <c r="I18" s="275" t="s">
+      <c r="I18" s="454" t="s">
         <v>354</v>
       </c>
-      <c r="J18" s="276"/>
-      <c r="K18" s="276"/>
-      <c r="L18" s="276" t="s">
+      <c r="J18" s="419"/>
+      <c r="K18" s="419"/>
+      <c r="L18" s="419" t="s">
         <v>353</v>
       </c>
-      <c r="M18" s="276"/>
-      <c r="N18" s="277"/>
+      <c r="M18" s="419"/>
+      <c r="N18" s="420"/>
       <c r="Q18" s="3" t="s">
         <v>126</v>
       </c>
@@ -7243,100 +7231,100 @@
       <c r="F19" s="270"/>
       <c r="G19" s="156"/>
       <c r="H19" s="109"/>
-      <c r="I19" s="324"/>
-      <c r="J19" s="325"/>
-      <c r="K19" s="325"/>
-      <c r="L19" s="328"/>
-      <c r="M19" s="325"/>
-      <c r="N19" s="329"/>
+      <c r="I19" s="421"/>
+      <c r="J19" s="422"/>
+      <c r="K19" s="422"/>
+      <c r="L19" s="425"/>
+      <c r="M19" s="422"/>
+      <c r="N19" s="426"/>
       <c r="Q19" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="338"/>
+      <c r="A20" s="431"/>
       <c r="B20" s="228"/>
       <c r="C20" s="143"/>
-      <c r="D20" s="351"/>
-      <c r="E20" s="352"/>
-      <c r="F20" s="353"/>
+      <c r="D20" s="391"/>
+      <c r="E20" s="392"/>
+      <c r="F20" s="393"/>
       <c r="G20" s="154"/>
       <c r="H20" s="162"/>
-      <c r="I20" s="326"/>
-      <c r="J20" s="327"/>
-      <c r="K20" s="327"/>
-      <c r="L20" s="327"/>
-      <c r="M20" s="327"/>
-      <c r="N20" s="330"/>
+      <c r="I20" s="423"/>
+      <c r="J20" s="424"/>
+      <c r="K20" s="424"/>
+      <c r="L20" s="424"/>
+      <c r="M20" s="424"/>
+      <c r="N20" s="427"/>
       <c r="Q20" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="339"/>
+      <c r="A21" s="432"/>
       <c r="B21" s="229"/>
       <c r="C21" s="141"/>
-      <c r="D21" s="354"/>
-      <c r="E21" s="355"/>
-      <c r="F21" s="356"/>
+      <c r="D21" s="443"/>
+      <c r="E21" s="444"/>
+      <c r="F21" s="445"/>
       <c r="G21" s="154"/>
       <c r="H21" s="162"/>
-      <c r="I21" s="331" t="s">
+      <c r="I21" s="428" t="s">
         <v>350</v>
       </c>
-      <c r="J21" s="332"/>
-      <c r="K21" s="332"/>
-      <c r="L21" s="436" t="s">
+      <c r="J21" s="429"/>
+      <c r="K21" s="429"/>
+      <c r="L21" s="328" t="s">
         <v>351</v>
       </c>
-      <c r="M21" s="437"/>
-      <c r="N21" s="438"/>
+      <c r="M21" s="329"/>
+      <c r="N21" s="330"/>
       <c r="Q21" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="340" t="s">
+      <c r="A22" s="433" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="315" t="s">
+      <c r="B22" s="404" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="316"/>
-      <c r="D22" s="360"/>
-      <c r="E22" s="335"/>
-      <c r="F22" s="361"/>
+      <c r="C22" s="405"/>
+      <c r="D22" s="397"/>
+      <c r="E22" s="374"/>
+      <c r="F22" s="398"/>
       <c r="G22" s="154"/>
       <c r="H22" s="162"/>
-      <c r="I22" s="301"/>
-      <c r="J22" s="285"/>
-      <c r="K22" s="285"/>
-      <c r="L22" s="285"/>
-      <c r="M22" s="285"/>
-      <c r="N22" s="286"/>
+      <c r="I22" s="331"/>
+      <c r="J22" s="332"/>
+      <c r="K22" s="332"/>
+      <c r="L22" s="332"/>
+      <c r="M22" s="332"/>
+      <c r="N22" s="333"/>
       <c r="Q22" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="341"/>
-      <c r="B23" s="364"/>
-      <c r="C23" s="365"/>
-      <c r="D23" s="362"/>
-      <c r="E23" s="336"/>
-      <c r="F23" s="363"/>
+      <c r="A23" s="434"/>
+      <c r="B23" s="406"/>
+      <c r="C23" s="407"/>
+      <c r="D23" s="399"/>
+      <c r="E23" s="400"/>
+      <c r="F23" s="401"/>
       <c r="G23" s="154"/>
       <c r="H23" s="162"/>
-      <c r="I23" s="441" t="s">
+      <c r="I23" s="336" t="s">
         <v>361</v>
       </c>
-      <c r="J23" s="442"/>
-      <c r="K23" s="442"/>
-      <c r="L23" s="439" t="s">
+      <c r="J23" s="337"/>
+      <c r="K23" s="337"/>
+      <c r="L23" s="334" t="s">
         <v>352</v>
       </c>
-      <c r="M23" s="439"/>
-      <c r="N23" s="440"/>
+      <c r="M23" s="334"/>
+      <c r="N23" s="335"/>
       <c r="Q23" s="3" t="s">
         <v>131</v>
       </c>
@@ -7345,132 +7333,132 @@
       <c r="A24" s="172" t="s">
         <v>333</v>
       </c>
-      <c r="B24" s="366" t="s">
+      <c r="B24" s="408" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="367"/>
-      <c r="D24" s="287"/>
-      <c r="E24" s="287"/>
-      <c r="F24" s="287"/>
-      <c r="G24" s="401" t="s">
+      <c r="C24" s="382"/>
+      <c r="D24" s="415"/>
+      <c r="E24" s="415"/>
+      <c r="F24" s="415"/>
+      <c r="G24" s="343" t="s">
         <v>326</v>
       </c>
-      <c r="H24" s="402"/>
-      <c r="I24" s="302"/>
-      <c r="J24" s="303"/>
-      <c r="K24" s="303"/>
-      <c r="L24" s="303"/>
-      <c r="M24" s="303"/>
-      <c r="N24" s="304"/>
+      <c r="H24" s="321"/>
+      <c r="I24" s="344"/>
+      <c r="J24" s="345"/>
+      <c r="K24" s="345"/>
+      <c r="L24" s="345"/>
+      <c r="M24" s="345"/>
+      <c r="N24" s="346"/>
       <c r="Q24" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="333" t="s">
+      <c r="A25" s="402" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="315" t="s">
+      <c r="B25" s="404" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="316"/>
-      <c r="D25" s="335"/>
-      <c r="E25" s="335"/>
-      <c r="F25" s="335"/>
+      <c r="C25" s="405"/>
+      <c r="D25" s="374"/>
+      <c r="E25" s="374"/>
+      <c r="F25" s="374"/>
       <c r="G25" s="114" t="s">
         <v>374</v>
       </c>
       <c r="H25" s="103"/>
-      <c r="I25" s="319"/>
-      <c r="J25" s="320"/>
-      <c r="K25" s="320"/>
-      <c r="L25" s="320"/>
-      <c r="M25" s="320"/>
-      <c r="N25" s="446"/>
+      <c r="I25" s="347"/>
+      <c r="J25" s="341"/>
+      <c r="K25" s="341"/>
+      <c r="L25" s="341"/>
+      <c r="M25" s="341"/>
+      <c r="N25" s="342"/>
       <c r="Q25" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="334"/>
-      <c r="B26" s="364"/>
-      <c r="C26" s="365"/>
-      <c r="D26" s="336"/>
-      <c r="E26" s="336"/>
-      <c r="F26" s="336"/>
+      <c r="A26" s="403"/>
+      <c r="B26" s="406"/>
+      <c r="C26" s="407"/>
+      <c r="D26" s="400"/>
+      <c r="E26" s="400"/>
+      <c r="F26" s="400"/>
       <c r="G26" s="154"/>
       <c r="H26" s="162"/>
-      <c r="I26" s="275" t="s">
+      <c r="I26" s="454" t="s">
         <v>354</v>
       </c>
-      <c r="J26" s="276"/>
-      <c r="K26" s="276"/>
-      <c r="L26" s="276" t="s">
+      <c r="J26" s="419"/>
+      <c r="K26" s="419"/>
+      <c r="L26" s="419" t="s">
         <v>353</v>
       </c>
-      <c r="M26" s="276"/>
-      <c r="N26" s="277"/>
+      <c r="M26" s="419"/>
+      <c r="N26" s="420"/>
       <c r="Q26" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="333" t="s">
+      <c r="A27" s="402" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="315" t="s">
+      <c r="B27" s="404" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="316"/>
-      <c r="D27" s="335"/>
-      <c r="E27" s="335"/>
-      <c r="F27" s="335"/>
+      <c r="C27" s="405"/>
+      <c r="D27" s="374"/>
+      <c r="E27" s="374"/>
+      <c r="F27" s="374"/>
       <c r="G27" s="156"/>
       <c r="H27" s="109"/>
-      <c r="I27" s="319"/>
-      <c r="J27" s="320"/>
-      <c r="K27" s="320"/>
-      <c r="L27" s="320"/>
-      <c r="M27" s="320"/>
-      <c r="N27" s="446"/>
+      <c r="I27" s="347"/>
+      <c r="J27" s="341"/>
+      <c r="K27" s="341"/>
+      <c r="L27" s="341"/>
+      <c r="M27" s="341"/>
+      <c r="N27" s="342"/>
       <c r="Q27" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="334"/>
-      <c r="B28" s="364"/>
-      <c r="C28" s="365"/>
-      <c r="D28" s="336"/>
-      <c r="E28" s="336"/>
-      <c r="F28" s="336"/>
+      <c r="A28" s="403"/>
+      <c r="B28" s="406"/>
+      <c r="C28" s="407"/>
+      <c r="D28" s="400"/>
+      <c r="E28" s="400"/>
+      <c r="F28" s="400"/>
       <c r="G28" s="156"/>
       <c r="H28" s="109"/>
-      <c r="I28" s="368" t="s">
+      <c r="I28" s="409" t="s">
         <v>350</v>
       </c>
-      <c r="J28" s="369"/>
-      <c r="K28" s="369"/>
-      <c r="L28" s="370" t="s">
+      <c r="J28" s="410"/>
+      <c r="K28" s="410"/>
+      <c r="L28" s="411" t="s">
         <v>351</v>
       </c>
-      <c r="M28" s="369"/>
-      <c r="N28" s="371"/>
+      <c r="M28" s="410"/>
+      <c r="N28" s="412"/>
       <c r="Q28" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="333" t="s">
+      <c r="A29" s="402" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="315" t="s">
+      <c r="B29" s="404" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="316"/>
-      <c r="D29" s="335"/>
-      <c r="E29" s="335"/>
-      <c r="F29" s="335"/>
+      <c r="C29" s="405"/>
+      <c r="D29" s="374"/>
+      <c r="E29" s="374"/>
+      <c r="F29" s="374"/>
       <c r="G29" s="156"/>
       <c r="H29" s="165"/>
       <c r="I29" s="158"/>
@@ -7484,24 +7472,24 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="334"/>
-      <c r="B30" s="364"/>
-      <c r="C30" s="365"/>
-      <c r="D30" s="336"/>
-      <c r="E30" s="336"/>
-      <c r="F30" s="336"/>
+      <c r="A30" s="403"/>
+      <c r="B30" s="406"/>
+      <c r="C30" s="407"/>
+      <c r="D30" s="400"/>
+      <c r="E30" s="400"/>
+      <c r="F30" s="400"/>
       <c r="G30" s="156"/>
       <c r="H30" s="165"/>
-      <c r="I30" s="443" t="s">
+      <c r="I30" s="338" t="s">
         <v>361</v>
       </c>
-      <c r="J30" s="443"/>
-      <c r="K30" s="443"/>
-      <c r="L30" s="443" t="s">
+      <c r="J30" s="338"/>
+      <c r="K30" s="338"/>
+      <c r="L30" s="338" t="s">
         <v>352</v>
       </c>
-      <c r="M30" s="443"/>
-      <c r="N30" s="444"/>
+      <c r="M30" s="338"/>
+      <c r="N30" s="339"/>
       <c r="Q30" s="3" t="s">
         <v>138</v>
       </c>
@@ -7514,19 +7502,19 @@
         <v>60</v>
       </c>
       <c r="C31" s="102"/>
-      <c r="D31" s="274"/>
-      <c r="E31" s="274"/>
-      <c r="F31" s="274"/>
-      <c r="G31" s="401" t="s">
+      <c r="D31" s="453"/>
+      <c r="E31" s="453"/>
+      <c r="F31" s="453"/>
+      <c r="G31" s="343" t="s">
         <v>326</v>
       </c>
-      <c r="H31" s="402"/>
-      <c r="I31" s="441"/>
-      <c r="J31" s="442"/>
-      <c r="K31" s="442"/>
-      <c r="L31" s="436"/>
-      <c r="M31" s="436"/>
-      <c r="N31" s="445"/>
+      <c r="H31" s="321"/>
+      <c r="I31" s="336"/>
+      <c r="J31" s="337"/>
+      <c r="K31" s="337"/>
+      <c r="L31" s="328"/>
+      <c r="M31" s="328"/>
+      <c r="N31" s="340"/>
       <c r="Q31" s="3" t="s">
         <v>139</v>
       </c>
@@ -7539,42 +7527,42 @@
         <v>84</v>
       </c>
       <c r="C32" s="102"/>
-      <c r="D32" s="287"/>
-      <c r="E32" s="287"/>
-      <c r="F32" s="287"/>
+      <c r="D32" s="415"/>
+      <c r="E32" s="415"/>
+      <c r="F32" s="415"/>
       <c r="G32" s="153" t="s">
         <v>375</v>
       </c>
       <c r="H32" s="157"/>
-      <c r="I32" s="302"/>
-      <c r="J32" s="303"/>
-      <c r="K32" s="303"/>
-      <c r="L32" s="303"/>
-      <c r="M32" s="303"/>
-      <c r="N32" s="304"/>
+      <c r="I32" s="344"/>
+      <c r="J32" s="345"/>
+      <c r="K32" s="345"/>
+      <c r="L32" s="345"/>
+      <c r="M32" s="345"/>
+      <c r="N32" s="346"/>
       <c r="Q32" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="404" t="s">
+      <c r="A33" s="381" t="s">
         <v>370</v>
       </c>
-      <c r="B33" s="367"/>
-      <c r="C33" s="405"/>
-      <c r="D33" s="406"/>
-      <c r="E33" s="406"/>
-      <c r="F33" s="406"/>
+      <c r="B33" s="382"/>
+      <c r="C33" s="383"/>
+      <c r="D33" s="384"/>
+      <c r="E33" s="384"/>
+      <c r="F33" s="384"/>
       <c r="G33" s="211" t="s">
         <v>376</v>
       </c>
       <c r="H33" s="155"/>
-      <c r="I33" s="302"/>
-      <c r="J33" s="303"/>
-      <c r="K33" s="303"/>
-      <c r="L33" s="303"/>
-      <c r="M33" s="303"/>
-      <c r="N33" s="304"/>
+      <c r="I33" s="344"/>
+      <c r="J33" s="345"/>
+      <c r="K33" s="345"/>
+      <c r="L33" s="345"/>
+      <c r="M33" s="345"/>
+      <c r="N33" s="346"/>
       <c r="Q33" s="3" t="s">
         <v>141</v>
       </c>
@@ -7585,19 +7573,19 @@
       </c>
       <c r="B34" s="230"/>
       <c r="C34" s="160"/>
-      <c r="D34" s="335"/>
-      <c r="E34" s="335"/>
-      <c r="F34" s="335"/>
+      <c r="D34" s="374"/>
+      <c r="E34" s="374"/>
+      <c r="F34" s="374"/>
       <c r="G34" s="114" t="s">
         <v>377</v>
       </c>
       <c r="H34" s="103"/>
-      <c r="I34" s="357"/>
-      <c r="J34" s="358"/>
-      <c r="K34" s="358"/>
-      <c r="L34" s="358"/>
-      <c r="M34" s="358"/>
-      <c r="N34" s="359"/>
+      <c r="I34" s="394"/>
+      <c r="J34" s="395"/>
+      <c r="K34" s="395"/>
+      <c r="L34" s="395"/>
+      <c r="M34" s="395"/>
+      <c r="N34" s="396"/>
       <c r="Q34" s="3" t="s">
         <v>142</v>
       </c>
@@ -7631,21 +7619,21 @@
         <v>74</v>
       </c>
       <c r="C36" s="235"/>
-      <c r="D36" s="291"/>
-      <c r="E36" s="291"/>
-      <c r="F36" s="291"/>
-      <c r="G36" s="291"/>
-      <c r="H36" s="291"/>
-      <c r="I36" s="447" t="s">
+      <c r="D36" s="463"/>
+      <c r="E36" s="463"/>
+      <c r="F36" s="463"/>
+      <c r="G36" s="463"/>
+      <c r="H36" s="463"/>
+      <c r="I36" s="348" t="s">
         <v>379</v>
       </c>
-      <c r="J36" s="447"/>
-      <c r="K36" s="447"/>
-      <c r="L36" s="448"/>
-      <c r="M36" s="386" t="s">
+      <c r="J36" s="348"/>
+      <c r="K36" s="348"/>
+      <c r="L36" s="349"/>
+      <c r="M36" s="364" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="387"/>
+      <c r="N36" s="365"/>
       <c r="Q36" s="3" t="s">
         <v>144</v>
       </c>
@@ -7656,19 +7644,19 @@
         <v>67</v>
       </c>
       <c r="C37" s="165"/>
-      <c r="D37" s="407"/>
-      <c r="E37" s="408"/>
-      <c r="F37" s="409"/>
-      <c r="G37" s="403" t="s">
+      <c r="D37" s="285"/>
+      <c r="E37" s="286"/>
+      <c r="F37" s="287"/>
+      <c r="G37" s="300" t="s">
         <v>382</v>
       </c>
-      <c r="H37" s="403"/>
-      <c r="I37" s="289"/>
-      <c r="J37" s="289"/>
-      <c r="K37" s="289"/>
-      <c r="L37" s="290"/>
-      <c r="M37" s="272"/>
-      <c r="N37" s="273"/>
+      <c r="H37" s="300"/>
+      <c r="I37" s="283"/>
+      <c r="J37" s="283"/>
+      <c r="K37" s="283"/>
+      <c r="L37" s="284"/>
+      <c r="M37" s="281"/>
+      <c r="N37" s="282"/>
       <c r="Q37" s="3" t="s">
         <v>145</v>
       </c>
@@ -7679,17 +7667,17 @@
         <v>68</v>
       </c>
       <c r="C38" s="225"/>
-      <c r="D38" s="407"/>
-      <c r="E38" s="408"/>
-      <c r="F38" s="408"/>
-      <c r="G38" s="408"/>
-      <c r="H38" s="409"/>
-      <c r="I38" s="289"/>
-      <c r="J38" s="289"/>
-      <c r="K38" s="289"/>
-      <c r="L38" s="290"/>
-      <c r="M38" s="272"/>
-      <c r="N38" s="273"/>
+      <c r="D38" s="285"/>
+      <c r="E38" s="286"/>
+      <c r="F38" s="286"/>
+      <c r="G38" s="286"/>
+      <c r="H38" s="287"/>
+      <c r="I38" s="283"/>
+      <c r="J38" s="283"/>
+      <c r="K38" s="283"/>
+      <c r="L38" s="284"/>
+      <c r="M38" s="281"/>
+      <c r="N38" s="282"/>
       <c r="Q38" s="3" t="s">
         <v>146</v>
       </c>
@@ -7700,17 +7688,17 @@
         <v>18</v>
       </c>
       <c r="C39" s="102"/>
-      <c r="D39" s="271"/>
-      <c r="E39" s="271"/>
-      <c r="F39" s="271"/>
-      <c r="G39" s="271"/>
-      <c r="H39" s="271"/>
-      <c r="I39" s="289"/>
-      <c r="J39" s="289"/>
-      <c r="K39" s="289"/>
-      <c r="L39" s="290"/>
-      <c r="M39" s="272"/>
-      <c r="N39" s="273"/>
+      <c r="D39" s="298"/>
+      <c r="E39" s="298"/>
+      <c r="F39" s="298"/>
+      <c r="G39" s="298"/>
+      <c r="H39" s="298"/>
+      <c r="I39" s="283"/>
+      <c r="J39" s="283"/>
+      <c r="K39" s="283"/>
+      <c r="L39" s="284"/>
+      <c r="M39" s="281"/>
+      <c r="N39" s="282"/>
       <c r="Q39" s="3" t="s">
         <v>147</v>
       </c>
@@ -7721,17 +7709,17 @@
         <v>368</v>
       </c>
       <c r="C40" s="102"/>
-      <c r="D40" s="271"/>
-      <c r="E40" s="271"/>
-      <c r="F40" s="271"/>
-      <c r="G40" s="271"/>
-      <c r="H40" s="271"/>
-      <c r="I40" s="289"/>
-      <c r="J40" s="289"/>
-      <c r="K40" s="289"/>
-      <c r="L40" s="290"/>
-      <c r="M40" s="272"/>
-      <c r="N40" s="273"/>
+      <c r="D40" s="298"/>
+      <c r="E40" s="298"/>
+      <c r="F40" s="298"/>
+      <c r="G40" s="298"/>
+      <c r="H40" s="298"/>
+      <c r="I40" s="283"/>
+      <c r="J40" s="283"/>
+      <c r="K40" s="283"/>
+      <c r="L40" s="284"/>
+      <c r="M40" s="281"/>
+      <c r="N40" s="282"/>
       <c r="Q40" s="3" t="s">
         <v>148</v>
       </c>
@@ -7742,17 +7730,17 @@
         <v>19</v>
       </c>
       <c r="C41" s="102"/>
-      <c r="D41" s="271"/>
-      <c r="E41" s="271"/>
-      <c r="F41" s="271"/>
-      <c r="G41" s="271"/>
-      <c r="H41" s="271"/>
-      <c r="I41" s="289"/>
-      <c r="J41" s="289"/>
-      <c r="K41" s="289"/>
-      <c r="L41" s="290"/>
-      <c r="M41" s="272"/>
-      <c r="N41" s="273"/>
+      <c r="D41" s="298"/>
+      <c r="E41" s="298"/>
+      <c r="F41" s="298"/>
+      <c r="G41" s="298"/>
+      <c r="H41" s="298"/>
+      <c r="I41" s="283"/>
+      <c r="J41" s="283"/>
+      <c r="K41" s="283"/>
+      <c r="L41" s="284"/>
+      <c r="M41" s="281"/>
+      <c r="N41" s="282"/>
       <c r="Q41" s="3" t="s">
         <v>149</v>
       </c>
@@ -7763,17 +7751,17 @@
         <v>36</v>
       </c>
       <c r="C42" s="142"/>
-      <c r="D42" s="271"/>
-      <c r="E42" s="271"/>
-      <c r="F42" s="271"/>
-      <c r="G42" s="271"/>
-      <c r="H42" s="271"/>
-      <c r="I42" s="289"/>
-      <c r="J42" s="289"/>
-      <c r="K42" s="289"/>
-      <c r="L42" s="290"/>
-      <c r="M42" s="272"/>
-      <c r="N42" s="273"/>
+      <c r="D42" s="298"/>
+      <c r="E42" s="298"/>
+      <c r="F42" s="298"/>
+      <c r="G42" s="298"/>
+      <c r="H42" s="298"/>
+      <c r="I42" s="283"/>
+      <c r="J42" s="283"/>
+      <c r="K42" s="283"/>
+      <c r="L42" s="284"/>
+      <c r="M42" s="281"/>
+      <c r="N42" s="282"/>
       <c r="Q42" s="3" t="s">
         <v>150</v>
       </c>
@@ -7786,17 +7774,17 @@
         <v>72</v>
       </c>
       <c r="C43" s="108"/>
-      <c r="D43" s="271"/>
-      <c r="E43" s="271"/>
-      <c r="F43" s="271"/>
-      <c r="G43" s="271"/>
-      <c r="H43" s="271"/>
-      <c r="I43" s="289"/>
-      <c r="J43" s="289"/>
-      <c r="K43" s="289"/>
-      <c r="L43" s="290"/>
-      <c r="M43" s="272"/>
-      <c r="N43" s="273"/>
+      <c r="D43" s="298"/>
+      <c r="E43" s="298"/>
+      <c r="F43" s="298"/>
+      <c r="G43" s="298"/>
+      <c r="H43" s="298"/>
+      <c r="I43" s="283"/>
+      <c r="J43" s="283"/>
+      <c r="K43" s="283"/>
+      <c r="L43" s="284"/>
+      <c r="M43" s="281"/>
+      <c r="N43" s="282"/>
       <c r="Q43" s="3" t="s">
         <v>151</v>
       </c>
@@ -7807,19 +7795,19 @@
         <v>2</v>
       </c>
       <c r="C44" s="162"/>
-      <c r="D44" s="407"/>
-      <c r="E44" s="408"/>
-      <c r="F44" s="409"/>
-      <c r="G44" s="403" t="s">
+      <c r="D44" s="285"/>
+      <c r="E44" s="286"/>
+      <c r="F44" s="287"/>
+      <c r="G44" s="300" t="s">
         <v>402</v>
       </c>
-      <c r="H44" s="403"/>
-      <c r="I44" s="289"/>
-      <c r="J44" s="289"/>
-      <c r="K44" s="289"/>
-      <c r="L44" s="290"/>
-      <c r="M44" s="272"/>
-      <c r="N44" s="273"/>
+      <c r="H44" s="300"/>
+      <c r="I44" s="283"/>
+      <c r="J44" s="283"/>
+      <c r="K44" s="283"/>
+      <c r="L44" s="284"/>
+      <c r="M44" s="281"/>
+      <c r="N44" s="282"/>
       <c r="Q44" s="3" t="s">
         <v>152</v>
       </c>
@@ -7830,17 +7818,17 @@
         <v>3</v>
       </c>
       <c r="C45" s="218"/>
-      <c r="D45" s="407"/>
-      <c r="E45" s="408"/>
-      <c r="F45" s="408"/>
-      <c r="G45" s="408"/>
-      <c r="H45" s="409"/>
-      <c r="I45" s="289"/>
-      <c r="J45" s="289"/>
-      <c r="K45" s="289"/>
-      <c r="L45" s="290"/>
-      <c r="M45" s="272"/>
-      <c r="N45" s="273"/>
+      <c r="D45" s="285"/>
+      <c r="E45" s="286"/>
+      <c r="F45" s="286"/>
+      <c r="G45" s="286"/>
+      <c r="H45" s="287"/>
+      <c r="I45" s="283"/>
+      <c r="J45" s="283"/>
+      <c r="K45" s="283"/>
+      <c r="L45" s="284"/>
+      <c r="M45" s="281"/>
+      <c r="N45" s="282"/>
       <c r="Q45" s="3" t="s">
         <v>153</v>
       </c>
@@ -7849,21 +7837,21 @@
       <c r="A46" s="154" t="s">
         <v>335</v>
       </c>
-      <c r="B46" s="315" t="s">
+      <c r="B46" s="404" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="315"/>
-      <c r="D46" s="315"/>
-      <c r="E46" s="315"/>
-      <c r="F46" s="315"/>
-      <c r="G46" s="315"/>
-      <c r="H46" s="316"/>
-      <c r="I46" s="289"/>
-      <c r="J46" s="289"/>
-      <c r="K46" s="289"/>
-      <c r="L46" s="290"/>
-      <c r="M46" s="272"/>
-      <c r="N46" s="273"/>
+      <c r="C46" s="404"/>
+      <c r="D46" s="404"/>
+      <c r="E46" s="404"/>
+      <c r="F46" s="404"/>
+      <c r="G46" s="404"/>
+      <c r="H46" s="405"/>
+      <c r="I46" s="283"/>
+      <c r="J46" s="283"/>
+      <c r="K46" s="283"/>
+      <c r="L46" s="284"/>
+      <c r="M46" s="281"/>
+      <c r="N46" s="282"/>
       <c r="Q46" s="3" t="s">
         <v>154</v>
       </c>
@@ -7874,17 +7862,17 @@
         <v>1</v>
       </c>
       <c r="C47" s="162"/>
-      <c r="D47" s="469"/>
-      <c r="E47" s="469"/>
-      <c r="F47" s="469"/>
-      <c r="G47" s="469"/>
-      <c r="H47" s="469"/>
-      <c r="I47" s="289"/>
-      <c r="J47" s="289"/>
-      <c r="K47" s="289"/>
-      <c r="L47" s="290"/>
-      <c r="M47" s="272"/>
-      <c r="N47" s="273"/>
+      <c r="D47" s="299"/>
+      <c r="E47" s="299"/>
+      <c r="F47" s="299"/>
+      <c r="G47" s="299"/>
+      <c r="H47" s="299"/>
+      <c r="I47" s="283"/>
+      <c r="J47" s="283"/>
+      <c r="K47" s="283"/>
+      <c r="L47" s="284"/>
+      <c r="M47" s="281"/>
+      <c r="N47" s="282"/>
       <c r="Q47" s="3" t="s">
         <v>155</v>
       </c>
@@ -7895,17 +7883,17 @@
         <v>2</v>
       </c>
       <c r="C48" s="162"/>
-      <c r="D48" s="469"/>
-      <c r="E48" s="469"/>
-      <c r="F48" s="469"/>
-      <c r="G48" s="469"/>
-      <c r="H48" s="469"/>
-      <c r="I48" s="289"/>
-      <c r="J48" s="289"/>
-      <c r="K48" s="289"/>
-      <c r="L48" s="290"/>
-      <c r="M48" s="272"/>
-      <c r="N48" s="273"/>
+      <c r="D48" s="299"/>
+      <c r="E48" s="299"/>
+      <c r="F48" s="299"/>
+      <c r="G48" s="299"/>
+      <c r="H48" s="299"/>
+      <c r="I48" s="283"/>
+      <c r="J48" s="283"/>
+      <c r="K48" s="283"/>
+      <c r="L48" s="284"/>
+      <c r="M48" s="281"/>
+      <c r="N48" s="282"/>
       <c r="Q48" s="3" t="s">
         <v>156</v>
       </c>
@@ -7916,19 +7904,19 @@
         <v>3</v>
       </c>
       <c r="C49" s="220"/>
-      <c r="D49" s="310"/>
-      <c r="E49" s="310"/>
-      <c r="F49" s="310"/>
-      <c r="G49" s="310"/>
-      <c r="H49" s="310"/>
-      <c r="I49" s="308" t="s">
+      <c r="D49" s="448"/>
+      <c r="E49" s="448"/>
+      <c r="F49" s="448"/>
+      <c r="G49" s="448"/>
+      <c r="H49" s="448"/>
+      <c r="I49" s="446" t="s">
         <v>63</v>
       </c>
-      <c r="J49" s="308"/>
-      <c r="K49" s="308"/>
-      <c r="L49" s="308"/>
-      <c r="M49" s="308"/>
-      <c r="N49" s="309"/>
+      <c r="J49" s="446"/>
+      <c r="K49" s="446"/>
+      <c r="L49" s="446"/>
+      <c r="M49" s="446"/>
+      <c r="N49" s="447"/>
       <c r="Q49" s="3" t="s">
         <v>157</v>
       </c>
@@ -7944,47 +7932,47 @@
       <c r="F50" s="105"/>
       <c r="G50" s="105"/>
       <c r="H50" s="105"/>
-      <c r="I50" s="394" t="s">
+      <c r="I50" s="372" t="s">
         <v>113</v>
       </c>
-      <c r="J50" s="394"/>
-      <c r="K50" s="394"/>
-      <c r="L50" s="394"/>
-      <c r="M50" s="394"/>
-      <c r="N50" s="395"/>
+      <c r="J50" s="372"/>
+      <c r="K50" s="372"/>
+      <c r="L50" s="372"/>
+      <c r="M50" s="372"/>
+      <c r="N50" s="373"/>
       <c r="Q50" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="388" t="s">
+      <c r="A51" s="366" t="s">
         <v>336</v>
       </c>
-      <c r="B51" s="419" t="s">
+      <c r="B51" s="316" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="419"/>
-      <c r="D51" s="422" t="s">
+      <c r="C51" s="316"/>
+      <c r="D51" s="301" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="423"/>
-      <c r="F51" s="424"/>
-      <c r="G51" s="422" t="s">
+      <c r="E51" s="302"/>
+      <c r="F51" s="319"/>
+      <c r="G51" s="301" t="s">
         <v>385</v>
       </c>
-      <c r="H51" s="423"/>
-      <c r="I51" s="470"/>
-      <c r="J51" s="311" t="s">
+      <c r="H51" s="302"/>
+      <c r="I51" s="303"/>
+      <c r="J51" s="449" t="s">
         <v>325</v>
       </c>
-      <c r="K51" s="312"/>
-      <c r="L51" s="464" t="s">
+      <c r="K51" s="450"/>
+      <c r="L51" s="293" t="s">
         <v>115</v>
       </c>
-      <c r="M51" s="390" t="s">
+      <c r="M51" s="368" t="s">
         <v>114</v>
       </c>
-      <c r="N51" s="384" t="s">
+      <c r="N51" s="362" t="s">
         <v>76</v>
       </c>
       <c r="Q51" s="3" t="s">
@@ -7992,43 +7980,43 @@
       </c>
     </row>
     <row r="52" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="389"/>
-      <c r="B52" s="420"/>
-      <c r="C52" s="420"/>
-      <c r="D52" s="425"/>
-      <c r="E52" s="426"/>
-      <c r="F52" s="427"/>
-      <c r="G52" s="425"/>
-      <c r="H52" s="426"/>
-      <c r="I52" s="471"/>
-      <c r="J52" s="313"/>
-      <c r="K52" s="314"/>
-      <c r="L52" s="464"/>
-      <c r="M52" s="390"/>
-      <c r="N52" s="384"/>
+      <c r="A52" s="367"/>
+      <c r="B52" s="317"/>
+      <c r="C52" s="317"/>
+      <c r="D52" s="304"/>
+      <c r="E52" s="305"/>
+      <c r="F52" s="320"/>
+      <c r="G52" s="304"/>
+      <c r="H52" s="305"/>
+      <c r="I52" s="306"/>
+      <c r="J52" s="451"/>
+      <c r="K52" s="452"/>
+      <c r="L52" s="293"/>
+      <c r="M52" s="368"/>
+      <c r="N52" s="362"/>
       <c r="Q52" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="233"/>
-      <c r="B53" s="421"/>
-      <c r="C53" s="421"/>
-      <c r="D53" s="428"/>
-      <c r="E53" s="429"/>
-      <c r="F53" s="402"/>
-      <c r="G53" s="428"/>
-      <c r="H53" s="429"/>
-      <c r="I53" s="472"/>
+      <c r="B53" s="318"/>
+      <c r="C53" s="318"/>
+      <c r="D53" s="307"/>
+      <c r="E53" s="308"/>
+      <c r="F53" s="321"/>
+      <c r="G53" s="307"/>
+      <c r="H53" s="308"/>
+      <c r="I53" s="309"/>
       <c r="J53" s="110" t="s">
         <v>26</v>
       </c>
       <c r="K53" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="L53" s="465"/>
-      <c r="M53" s="391"/>
-      <c r="N53" s="385"/>
+      <c r="L53" s="294"/>
+      <c r="M53" s="369"/>
+      <c r="N53" s="363"/>
       <c r="O53" s="112"/>
       <c r="P53" s="112"/>
       <c r="Q53" s="3" t="s">
@@ -8041,12 +8029,12 @@
         <v>23</v>
       </c>
       <c r="C54" s="239"/>
-      <c r="D54" s="430"/>
-      <c r="E54" s="431"/>
-      <c r="F54" s="432"/>
-      <c r="G54" s="466"/>
-      <c r="H54" s="467"/>
-      <c r="I54" s="468"/>
+      <c r="D54" s="322"/>
+      <c r="E54" s="323"/>
+      <c r="F54" s="324"/>
+      <c r="G54" s="295"/>
+      <c r="H54" s="296"/>
+      <c r="I54" s="297"/>
       <c r="J54" s="26"/>
       <c r="K54" s="232"/>
       <c r="L54" s="166"/>
@@ -8062,12 +8050,12 @@
         <v>24</v>
       </c>
       <c r="C55" s="239"/>
-      <c r="D55" s="430"/>
-      <c r="E55" s="431"/>
-      <c r="F55" s="432"/>
-      <c r="G55" s="466"/>
-      <c r="H55" s="467"/>
-      <c r="I55" s="468"/>
+      <c r="D55" s="322"/>
+      <c r="E55" s="323"/>
+      <c r="F55" s="324"/>
+      <c r="G55" s="295"/>
+      <c r="H55" s="296"/>
+      <c r="I55" s="297"/>
       <c r="J55" s="26"/>
       <c r="K55" s="27"/>
       <c r="L55" s="242"/>
@@ -8083,12 +8071,12 @@
         <v>58</v>
       </c>
       <c r="C56" s="239"/>
-      <c r="D56" s="430"/>
-      <c r="E56" s="431"/>
-      <c r="F56" s="432"/>
-      <c r="G56" s="305"/>
-      <c r="H56" s="306"/>
-      <c r="I56" s="307"/>
+      <c r="D56" s="322"/>
+      <c r="E56" s="323"/>
+      <c r="F56" s="324"/>
+      <c r="G56" s="310"/>
+      <c r="H56" s="311"/>
+      <c r="I56" s="312"/>
       <c r="J56" s="26"/>
       <c r="K56" s="27"/>
       <c r="L56" s="166"/>
@@ -8104,12 +8092,12 @@
         <v>71</v>
       </c>
       <c r="C57" s="239"/>
-      <c r="D57" s="430"/>
-      <c r="E57" s="431"/>
-      <c r="F57" s="432"/>
-      <c r="G57" s="305"/>
-      <c r="H57" s="306"/>
-      <c r="I57" s="307"/>
+      <c r="D57" s="322"/>
+      <c r="E57" s="323"/>
+      <c r="F57" s="324"/>
+      <c r="G57" s="310"/>
+      <c r="H57" s="311"/>
+      <c r="I57" s="312"/>
       <c r="J57" s="26"/>
       <c r="K57" s="27"/>
       <c r="L57" s="166"/>
@@ -8125,12 +8113,12 @@
         <v>25</v>
       </c>
       <c r="C58" s="241"/>
-      <c r="D58" s="433"/>
-      <c r="E58" s="434"/>
-      <c r="F58" s="435"/>
-      <c r="G58" s="416"/>
-      <c r="H58" s="417"/>
-      <c r="I58" s="418"/>
+      <c r="D58" s="325"/>
+      <c r="E58" s="326"/>
+      <c r="F58" s="327"/>
+      <c r="G58" s="313"/>
+      <c r="H58" s="314"/>
+      <c r="I58" s="315"/>
       <c r="J58" s="236"/>
       <c r="K58" s="237"/>
       <c r="L58" s="20"/>
@@ -8141,66 +8129,66 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="453" t="s">
+      <c r="A59" s="275" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="454"/>
-      <c r="C59" s="454"/>
-      <c r="D59" s="454"/>
-      <c r="E59" s="454"/>
-      <c r="F59" s="454"/>
-      <c r="G59" s="454"/>
-      <c r="H59" s="454"/>
-      <c r="I59" s="454"/>
-      <c r="J59" s="454"/>
-      <c r="K59" s="454"/>
-      <c r="L59" s="454"/>
-      <c r="M59" s="454"/>
-      <c r="N59" s="455"/>
+      <c r="B59" s="276"/>
+      <c r="C59" s="276"/>
+      <c r="D59" s="276"/>
+      <c r="E59" s="276"/>
+      <c r="F59" s="276"/>
+      <c r="G59" s="276"/>
+      <c r="H59" s="276"/>
+      <c r="I59" s="276"/>
+      <c r="J59" s="276"/>
+      <c r="K59" s="276"/>
+      <c r="L59" s="276"/>
+      <c r="M59" s="276"/>
+      <c r="N59" s="277"/>
       <c r="Q59" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="450" t="s">
+      <c r="A60" s="272" t="s">
         <v>392</v>
       </c>
-      <c r="B60" s="451"/>
-      <c r="C60" s="452"/>
-      <c r="D60" s="459"/>
-      <c r="E60" s="460"/>
-      <c r="F60" s="460"/>
-      <c r="G60" s="460"/>
-      <c r="H60" s="460"/>
-      <c r="I60" s="461"/>
-      <c r="J60" s="462" t="s">
+      <c r="B60" s="273"/>
+      <c r="C60" s="274"/>
+      <c r="D60" s="288"/>
+      <c r="E60" s="289"/>
+      <c r="F60" s="289"/>
+      <c r="G60" s="289"/>
+      <c r="H60" s="289"/>
+      <c r="I60" s="290"/>
+      <c r="J60" s="291" t="s">
         <v>393</v>
       </c>
-      <c r="K60" s="463"/>
-      <c r="L60" s="456"/>
-      <c r="M60" s="457"/>
-      <c r="N60" s="458"/>
+      <c r="K60" s="292"/>
+      <c r="L60" s="278"/>
+      <c r="M60" s="279"/>
+      <c r="N60" s="280"/>
       <c r="Q60" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="147" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="449" t="s">
+      <c r="A61" s="271" t="s">
         <v>395</v>
       </c>
-      <c r="B61" s="449"/>
-      <c r="C61" s="449"/>
-      <c r="D61" s="449"/>
-      <c r="E61" s="449"/>
-      <c r="F61" s="449"/>
-      <c r="G61" s="449"/>
-      <c r="H61" s="449"/>
-      <c r="I61" s="449"/>
-      <c r="J61" s="449"/>
-      <c r="K61" s="449"/>
-      <c r="L61" s="449"/>
-      <c r="M61" s="449"/>
-      <c r="N61" s="449"/>
+      <c r="B61" s="271"/>
+      <c r="C61" s="271"/>
+      <c r="D61" s="271"/>
+      <c r="E61" s="271"/>
+      <c r="F61" s="271"/>
+      <c r="G61" s="271"/>
+      <c r="H61" s="271"/>
+      <c r="I61" s="271"/>
+      <c r="J61" s="271"/>
+      <c r="K61" s="271"/>
+      <c r="L61" s="271"/>
+      <c r="M61" s="271"/>
+      <c r="N61" s="271"/>
       <c r="Q61" s="253" t="s">
         <v>396</v>
       </c>
@@ -11927,6 +11915,122 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="140">
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="J13:N15"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="I19:K20"/>
+    <mergeCell ref="L19:N20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D25:F26"/>
+    <mergeCell ref="D27:F28"/>
+    <mergeCell ref="D29:F30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="D20:F21"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="D22:F23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="N51:N53"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="D17:F18"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B51:C53"/>
+    <mergeCell ref="D51:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="I36:L36"/>
     <mergeCell ref="A61:N61"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A59:N59"/>
@@ -11951,122 +12055,6 @@
     <mergeCell ref="G51:I53"/>
     <mergeCell ref="G55:I55"/>
     <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B51:C53"/>
-    <mergeCell ref="D51:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="D17:F18"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="D22:F23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="I19:K20"/>
-    <mergeCell ref="L19:N20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D25:F26"/>
-    <mergeCell ref="D27:F28"/>
-    <mergeCell ref="D29:F30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="D20:F21"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="J13:N15"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I24:N24"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -12311,76 +12299,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="509"/>
-      <c r="B1" s="510"/>
-      <c r="C1" s="510"/>
-      <c r="D1" s="510"/>
-      <c r="E1" s="510"/>
-      <c r="F1" s="510"/>
-      <c r="G1" s="510"/>
-      <c r="H1" s="510"/>
-      <c r="I1" s="510"/>
-      <c r="J1" s="510"/>
-      <c r="K1" s="510"/>
-      <c r="L1" s="510"/>
-      <c r="M1" s="511"/>
+      <c r="A1" s="477"/>
+      <c r="B1" s="478"/>
+      <c r="C1" s="478"/>
+      <c r="D1" s="478"/>
+      <c r="E1" s="478"/>
+      <c r="F1" s="478"/>
+      <c r="G1" s="478"/>
+      <c r="H1" s="478"/>
+      <c r="I1" s="478"/>
+      <c r="J1" s="478"/>
+      <c r="K1" s="478"/>
+      <c r="L1" s="478"/>
+      <c r="M1" s="479"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="519" t="s">
+      <c r="A2" s="490" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="520"/>
-      <c r="C2" s="520"/>
-      <c r="D2" s="520"/>
-      <c r="E2" s="520"/>
-      <c r="F2" s="520"/>
-      <c r="G2" s="520"/>
-      <c r="H2" s="520"/>
-      <c r="I2" s="520"/>
-      <c r="J2" s="520"/>
-      <c r="K2" s="520"/>
-      <c r="L2" s="520"/>
-      <c r="M2" s="521"/>
+      <c r="B2" s="491"/>
+      <c r="C2" s="491"/>
+      <c r="D2" s="491"/>
+      <c r="E2" s="491"/>
+      <c r="F2" s="491"/>
+      <c r="G2" s="491"/>
+      <c r="H2" s="491"/>
+      <c r="I2" s="491"/>
+      <c r="J2" s="491"/>
+      <c r="K2" s="491"/>
+      <c r="L2" s="491"/>
+      <c r="M2" s="492"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="144" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="512" t="s">
+      <c r="B3" s="480" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="512"/>
-      <c r="D3" s="512"/>
-      <c r="E3" s="513"/>
-      <c r="F3" s="517" t="s">
+      <c r="C3" s="480"/>
+      <c r="D3" s="480"/>
+      <c r="E3" s="481"/>
+      <c r="F3" s="488" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="514" t="s">
+      <c r="G3" s="484" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="513"/>
-      <c r="I3" s="514" t="s">
+      <c r="H3" s="481"/>
+      <c r="I3" s="484" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="512"/>
-      <c r="K3" s="513"/>
-      <c r="L3" s="515" t="s">
+      <c r="J3" s="480"/>
+      <c r="K3" s="481"/>
+      <c r="L3" s="486" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="516"/>
+      <c r="M3" s="487"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="488"/>
-      <c r="C4" s="488"/>
-      <c r="D4" s="488"/>
-      <c r="E4" s="489"/>
-      <c r="F4" s="518"/>
-      <c r="G4" s="500"/>
-      <c r="H4" s="489"/>
-      <c r="I4" s="500"/>
-      <c r="J4" s="488"/>
-      <c r="K4" s="489"/>
+      <c r="B4" s="482"/>
+      <c r="C4" s="482"/>
+      <c r="D4" s="482"/>
+      <c r="E4" s="483"/>
+      <c r="F4" s="489"/>
+      <c r="G4" s="485"/>
+      <c r="H4" s="483"/>
+      <c r="I4" s="485"/>
+      <c r="J4" s="482"/>
+      <c r="K4" s="483"/>
       <c r="L4" s="5" t="s">
         <v>91</v>
       </c>
@@ -12389,143 +12377,143 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="498"/>
-      <c r="B5" s="473"/>
-      <c r="C5" s="473"/>
-      <c r="D5" s="473"/>
-      <c r="E5" s="473"/>
+      <c r="A5" s="497"/>
+      <c r="B5" s="498"/>
+      <c r="C5" s="498"/>
+      <c r="D5" s="498"/>
+      <c r="E5" s="498"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="497"/>
-      <c r="I5" s="501"/>
-      <c r="J5" s="501"/>
-      <c r="K5" s="501"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="496"/>
+      <c r="J5" s="496"/>
+      <c r="K5" s="496"/>
       <c r="L5" s="9"/>
       <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="498"/>
-      <c r="B6" s="473"/>
-      <c r="C6" s="473"/>
-      <c r="D6" s="473"/>
-      <c r="E6" s="473"/>
+      <c r="A6" s="497"/>
+      <c r="B6" s="498"/>
+      <c r="C6" s="498"/>
+      <c r="D6" s="498"/>
+      <c r="E6" s="498"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="528"/>
-      <c r="H6" s="529"/>
-      <c r="I6" s="501"/>
-      <c r="J6" s="501"/>
-      <c r="K6" s="501"/>
+      <c r="G6" s="506"/>
+      <c r="H6" s="507"/>
+      <c r="I6" s="496"/>
+      <c r="J6" s="496"/>
+      <c r="K6" s="496"/>
       <c r="L6" s="9"/>
       <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="498"/>
-      <c r="B7" s="473"/>
-      <c r="C7" s="473"/>
-      <c r="D7" s="473"/>
-      <c r="E7" s="473"/>
+      <c r="A7" s="497"/>
+      <c r="B7" s="498"/>
+      <c r="C7" s="498"/>
+      <c r="D7" s="498"/>
+      <c r="E7" s="498"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="497"/>
-      <c r="H7" s="497"/>
-      <c r="I7" s="501"/>
-      <c r="J7" s="501"/>
-      <c r="K7" s="501"/>
+      <c r="G7" s="495"/>
+      <c r="H7" s="495"/>
+      <c r="I7" s="496"/>
+      <c r="J7" s="496"/>
+      <c r="K7" s="496"/>
       <c r="L7" s="9"/>
       <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="498"/>
-      <c r="B8" s="473"/>
-      <c r="C8" s="473"/>
-      <c r="D8" s="473"/>
-      <c r="E8" s="473"/>
+      <c r="A8" s="497"/>
+      <c r="B8" s="498"/>
+      <c r="C8" s="498"/>
+      <c r="D8" s="498"/>
+      <c r="E8" s="498"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="497"/>
-      <c r="H8" s="497"/>
-      <c r="I8" s="501"/>
-      <c r="J8" s="501"/>
-      <c r="K8" s="501"/>
+      <c r="G8" s="495"/>
+      <c r="H8" s="495"/>
+      <c r="I8" s="496"/>
+      <c r="J8" s="496"/>
+      <c r="K8" s="496"/>
       <c r="L8" s="9"/>
       <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="498"/>
-      <c r="B9" s="473"/>
-      <c r="C9" s="473"/>
-      <c r="D9" s="473"/>
-      <c r="E9" s="473"/>
+      <c r="A9" s="497"/>
+      <c r="B9" s="498"/>
+      <c r="C9" s="498"/>
+      <c r="D9" s="498"/>
+      <c r="E9" s="498"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="497"/>
-      <c r="H9" s="497"/>
-      <c r="I9" s="501"/>
-      <c r="J9" s="501"/>
-      <c r="K9" s="501"/>
+      <c r="G9" s="495"/>
+      <c r="H9" s="495"/>
+      <c r="I9" s="496"/>
+      <c r="J9" s="496"/>
+      <c r="K9" s="496"/>
       <c r="L9" s="9"/>
       <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="498"/>
-      <c r="B10" s="473"/>
-      <c r="C10" s="473"/>
-      <c r="D10" s="473"/>
-      <c r="E10" s="473"/>
+      <c r="A10" s="497"/>
+      <c r="B10" s="498"/>
+      <c r="C10" s="498"/>
+      <c r="D10" s="498"/>
+      <c r="E10" s="498"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="497"/>
-      <c r="H10" s="497"/>
-      <c r="I10" s="501"/>
-      <c r="J10" s="501"/>
-      <c r="K10" s="501"/>
+      <c r="G10" s="495"/>
+      <c r="H10" s="495"/>
+      <c r="I10" s="496"/>
+      <c r="J10" s="496"/>
+      <c r="K10" s="496"/>
       <c r="L10" s="9"/>
       <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="485"/>
-      <c r="B11" s="480"/>
-      <c r="C11" s="480"/>
-      <c r="D11" s="480"/>
-      <c r="E11" s="480"/>
+      <c r="A11" s="513"/>
+      <c r="B11" s="514"/>
+      <c r="C11" s="514"/>
+      <c r="D11" s="514"/>
+      <c r="E11" s="514"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="496"/>
-      <c r="H11" s="496"/>
-      <c r="I11" s="502"/>
-      <c r="J11" s="502"/>
-      <c r="K11" s="502"/>
+      <c r="G11" s="521"/>
+      <c r="H11" s="521"/>
+      <c r="I11" s="508"/>
+      <c r="J11" s="508"/>
+      <c r="K11" s="508"/>
       <c r="L11" s="11"/>
       <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="490" t="s">
+      <c r="A12" s="515" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="491"/>
-      <c r="C12" s="491"/>
-      <c r="D12" s="491"/>
-      <c r="E12" s="491"/>
-      <c r="F12" s="491"/>
-      <c r="G12" s="491"/>
-      <c r="H12" s="491"/>
-      <c r="I12" s="491"/>
-      <c r="J12" s="491"/>
-      <c r="K12" s="491"/>
-      <c r="L12" s="491"/>
-      <c r="M12" s="492"/>
+      <c r="B12" s="516"/>
+      <c r="C12" s="516"/>
+      <c r="D12" s="516"/>
+      <c r="E12" s="516"/>
+      <c r="F12" s="516"/>
+      <c r="G12" s="516"/>
+      <c r="H12" s="516"/>
+      <c r="I12" s="516"/>
+      <c r="J12" s="516"/>
+      <c r="K12" s="516"/>
+      <c r="L12" s="516"/>
+      <c r="M12" s="517"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="493" t="s">
+      <c r="A13" s="518" t="s">
         <v>384</v>
       </c>
-      <c r="B13" s="494"/>
-      <c r="C13" s="494"/>
-      <c r="D13" s="494"/>
-      <c r="E13" s="494"/>
-      <c r="F13" s="494"/>
-      <c r="G13" s="494"/>
-      <c r="H13" s="494"/>
-      <c r="I13" s="494"/>
-      <c r="J13" s="494"/>
-      <c r="K13" s="494"/>
-      <c r="L13" s="494"/>
-      <c r="M13" s="495"/>
+      <c r="B13" s="519"/>
+      <c r="C13" s="519"/>
+      <c r="D13" s="519"/>
+      <c r="E13" s="519"/>
+      <c r="F13" s="519"/>
+      <c r="G13" s="519"/>
+      <c r="H13" s="519"/>
+      <c r="I13" s="519"/>
+      <c r="J13" s="519"/>
+      <c r="K13" s="519"/>
+      <c r="L13" s="519"/>
+      <c r="M13" s="520"/>
     </row>
     <row r="14" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="217" t="s">
@@ -12548,515 +12536,515 @@
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="486" t="s">
+      <c r="B15" s="504" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="487"/>
-      <c r="D15" s="499" t="s">
+      <c r="C15" s="505"/>
+      <c r="D15" s="503" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="486"/>
-      <c r="F15" s="487"/>
-      <c r="G15" s="499" t="s">
+      <c r="E15" s="504"/>
+      <c r="F15" s="505"/>
+      <c r="G15" s="503" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="486"/>
-      <c r="I15" s="487"/>
-      <c r="J15" s="503" t="s">
+      <c r="H15" s="504"/>
+      <c r="I15" s="505"/>
+      <c r="J15" s="509" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="524" t="s">
+      <c r="K15" s="499" t="s">
         <v>346</v>
       </c>
-      <c r="L15" s="478" t="s">
+      <c r="L15" s="524" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="522" t="s">
+      <c r="M15" s="493" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="488"/>
-      <c r="C16" s="489"/>
-      <c r="D16" s="499"/>
-      <c r="E16" s="486"/>
-      <c r="F16" s="487"/>
-      <c r="G16" s="499"/>
-      <c r="H16" s="486"/>
-      <c r="I16" s="487"/>
-      <c r="J16" s="503"/>
-      <c r="K16" s="524"/>
-      <c r="L16" s="478"/>
-      <c r="M16" s="522"/>
+      <c r="B16" s="482"/>
+      <c r="C16" s="483"/>
+      <c r="D16" s="503"/>
+      <c r="E16" s="504"/>
+      <c r="F16" s="505"/>
+      <c r="G16" s="503"/>
+      <c r="H16" s="504"/>
+      <c r="I16" s="505"/>
+      <c r="J16" s="509"/>
+      <c r="K16" s="499"/>
+      <c r="L16" s="524"/>
+      <c r="M16" s="493"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="526" t="s">
+      <c r="A17" s="501" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="527"/>
+      <c r="B17" s="502"/>
       <c r="C17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="500"/>
-      <c r="E17" s="488"/>
-      <c r="F17" s="489"/>
-      <c r="G17" s="500"/>
-      <c r="H17" s="488"/>
-      <c r="I17" s="489"/>
-      <c r="J17" s="504"/>
-      <c r="K17" s="525"/>
-      <c r="L17" s="479"/>
-      <c r="M17" s="523"/>
+      <c r="D17" s="485"/>
+      <c r="E17" s="482"/>
+      <c r="F17" s="483"/>
+      <c r="G17" s="485"/>
+      <c r="H17" s="482"/>
+      <c r="I17" s="483"/>
+      <c r="J17" s="510"/>
+      <c r="K17" s="500"/>
+      <c r="L17" s="525"/>
+      <c r="M17" s="494"/>
     </row>
     <row r="18" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="474"/>
-      <c r="B18" s="475"/>
+      <c r="A18" s="511"/>
+      <c r="B18" s="512"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="473"/>
-      <c r="E18" s="473"/>
-      <c r="F18" s="473"/>
-      <c r="G18" s="473"/>
-      <c r="H18" s="473"/>
-      <c r="I18" s="473"/>
+      <c r="D18" s="498"/>
+      <c r="E18" s="498"/>
+      <c r="F18" s="498"/>
+      <c r="G18" s="498"/>
+      <c r="H18" s="498"/>
+      <c r="I18" s="498"/>
       <c r="J18" s="14"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="474"/>
-      <c r="B19" s="475"/>
+      <c r="A19" s="511"/>
+      <c r="B19" s="512"/>
       <c r="C19" s="24"/>
-      <c r="D19" s="473"/>
-      <c r="E19" s="473"/>
-      <c r="F19" s="473"/>
-      <c r="G19" s="473"/>
-      <c r="H19" s="473"/>
-      <c r="I19" s="473"/>
+      <c r="D19" s="498"/>
+      <c r="E19" s="498"/>
+      <c r="F19" s="498"/>
+      <c r="G19" s="498"/>
+      <c r="H19" s="498"/>
+      <c r="I19" s="498"/>
       <c r="J19" s="14"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="474"/>
-      <c r="B20" s="475"/>
+      <c r="A20" s="511"/>
+      <c r="B20" s="512"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="473"/>
-      <c r="E20" s="473"/>
-      <c r="F20" s="473"/>
-      <c r="G20" s="473"/>
-      <c r="H20" s="473"/>
-      <c r="I20" s="473"/>
+      <c r="D20" s="498"/>
+      <c r="E20" s="498"/>
+      <c r="F20" s="498"/>
+      <c r="G20" s="498"/>
+      <c r="H20" s="498"/>
+      <c r="I20" s="498"/>
       <c r="J20" s="14"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="474"/>
-      <c r="B21" s="475"/>
+      <c r="A21" s="511"/>
+      <c r="B21" s="512"/>
       <c r="C21" s="24"/>
-      <c r="D21" s="473"/>
-      <c r="E21" s="473"/>
-      <c r="F21" s="473"/>
-      <c r="G21" s="473"/>
-      <c r="H21" s="473"/>
-      <c r="I21" s="473"/>
+      <c r="D21" s="498"/>
+      <c r="E21" s="498"/>
+      <c r="F21" s="498"/>
+      <c r="G21" s="498"/>
+      <c r="H21" s="498"/>
+      <c r="I21" s="498"/>
       <c r="J21" s="14"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="474"/>
-      <c r="B22" s="475"/>
+      <c r="A22" s="511"/>
+      <c r="B22" s="512"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="473"/>
-      <c r="E22" s="473"/>
-      <c r="F22" s="473"/>
-      <c r="G22" s="473"/>
-      <c r="H22" s="473"/>
-      <c r="I22" s="473"/>
+      <c r="D22" s="498"/>
+      <c r="E22" s="498"/>
+      <c r="F22" s="498"/>
+      <c r="G22" s="498"/>
+      <c r="H22" s="498"/>
+      <c r="I22" s="498"/>
       <c r="J22" s="14"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="474"/>
-      <c r="B23" s="475"/>
+      <c r="A23" s="511"/>
+      <c r="B23" s="512"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="473"/>
-      <c r="E23" s="473"/>
-      <c r="F23" s="473"/>
-      <c r="G23" s="473"/>
-      <c r="H23" s="473"/>
-      <c r="I23" s="473"/>
+      <c r="D23" s="498"/>
+      <c r="E23" s="498"/>
+      <c r="F23" s="498"/>
+      <c r="G23" s="498"/>
+      <c r="H23" s="498"/>
+      <c r="I23" s="498"/>
       <c r="J23" s="14"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="474"/>
-      <c r="B24" s="475"/>
+      <c r="A24" s="511"/>
+      <c r="B24" s="512"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="473"/>
-      <c r="E24" s="473"/>
-      <c r="F24" s="473"/>
-      <c r="G24" s="473"/>
-      <c r="H24" s="473"/>
-      <c r="I24" s="473"/>
+      <c r="D24" s="498"/>
+      <c r="E24" s="498"/>
+      <c r="F24" s="498"/>
+      <c r="G24" s="498"/>
+      <c r="H24" s="498"/>
+      <c r="I24" s="498"/>
       <c r="J24" s="14"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="474"/>
-      <c r="B25" s="475"/>
+      <c r="A25" s="511"/>
+      <c r="B25" s="512"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="473"/>
-      <c r="E25" s="473"/>
-      <c r="F25" s="473"/>
-      <c r="G25" s="473"/>
-      <c r="H25" s="473"/>
-      <c r="I25" s="473"/>
+      <c r="D25" s="498"/>
+      <c r="E25" s="498"/>
+      <c r="F25" s="498"/>
+      <c r="G25" s="498"/>
+      <c r="H25" s="498"/>
+      <c r="I25" s="498"/>
       <c r="J25" s="14"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="474"/>
-      <c r="B26" s="475"/>
+      <c r="A26" s="511"/>
+      <c r="B26" s="512"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="473"/>
-      <c r="E26" s="473"/>
-      <c r="F26" s="473"/>
-      <c r="G26" s="473"/>
-      <c r="H26" s="473"/>
-      <c r="I26" s="473"/>
+      <c r="D26" s="498"/>
+      <c r="E26" s="498"/>
+      <c r="F26" s="498"/>
+      <c r="G26" s="498"/>
+      <c r="H26" s="498"/>
+      <c r="I26" s="498"/>
       <c r="J26" s="14"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="474"/>
-      <c r="B27" s="475"/>
+      <c r="A27" s="511"/>
+      <c r="B27" s="512"/>
       <c r="C27" s="24"/>
-      <c r="D27" s="473"/>
-      <c r="E27" s="473"/>
-      <c r="F27" s="473"/>
-      <c r="G27" s="473"/>
-      <c r="H27" s="473"/>
-      <c r="I27" s="473"/>
+      <c r="D27" s="498"/>
+      <c r="E27" s="498"/>
+      <c r="F27" s="498"/>
+      <c r="G27" s="498"/>
+      <c r="H27" s="498"/>
+      <c r="I27" s="498"/>
       <c r="J27" s="14"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="10"/>
     </row>
     <row r="28" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="474"/>
-      <c r="B28" s="475"/>
+      <c r="A28" s="511"/>
+      <c r="B28" s="512"/>
       <c r="C28" s="24"/>
-      <c r="D28" s="473"/>
-      <c r="E28" s="473"/>
-      <c r="F28" s="473"/>
-      <c r="G28" s="473"/>
-      <c r="H28" s="473"/>
-      <c r="I28" s="473"/>
+      <c r="D28" s="498"/>
+      <c r="E28" s="498"/>
+      <c r="F28" s="498"/>
+      <c r="G28" s="498"/>
+      <c r="H28" s="498"/>
+      <c r="I28" s="498"/>
       <c r="J28" s="14"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="10"/>
     </row>
     <row r="29" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="474"/>
-      <c r="B29" s="475"/>
+      <c r="A29" s="511"/>
+      <c r="B29" s="512"/>
       <c r="C29" s="24"/>
-      <c r="D29" s="473"/>
-      <c r="E29" s="473"/>
-      <c r="F29" s="473"/>
-      <c r="G29" s="473"/>
-      <c r="H29" s="473"/>
-      <c r="I29" s="473"/>
+      <c r="D29" s="498"/>
+      <c r="E29" s="498"/>
+      <c r="F29" s="498"/>
+      <c r="G29" s="498"/>
+      <c r="H29" s="498"/>
+      <c r="I29" s="498"/>
       <c r="J29" s="14"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="10"/>
     </row>
     <row r="30" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="474"/>
-      <c r="B30" s="475"/>
+      <c r="A30" s="511"/>
+      <c r="B30" s="512"/>
       <c r="C30" s="24"/>
-      <c r="D30" s="473"/>
-      <c r="E30" s="473"/>
-      <c r="F30" s="473"/>
-      <c r="G30" s="473"/>
-      <c r="H30" s="473"/>
-      <c r="I30" s="473"/>
+      <c r="D30" s="498"/>
+      <c r="E30" s="498"/>
+      <c r="F30" s="498"/>
+      <c r="G30" s="498"/>
+      <c r="H30" s="498"/>
+      <c r="I30" s="498"/>
       <c r="J30" s="14"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="474"/>
-      <c r="B31" s="475"/>
+      <c r="A31" s="511"/>
+      <c r="B31" s="512"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="473"/>
-      <c r="E31" s="473"/>
-      <c r="F31" s="473"/>
-      <c r="G31" s="473"/>
-      <c r="H31" s="473"/>
-      <c r="I31" s="473"/>
+      <c r="D31" s="498"/>
+      <c r="E31" s="498"/>
+      <c r="F31" s="498"/>
+      <c r="G31" s="498"/>
+      <c r="H31" s="498"/>
+      <c r="I31" s="498"/>
       <c r="J31" s="14"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="10"/>
     </row>
     <row r="32" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="474"/>
-      <c r="B32" s="475"/>
+      <c r="A32" s="511"/>
+      <c r="B32" s="512"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="473"/>
-      <c r="E32" s="473"/>
-      <c r="F32" s="473"/>
-      <c r="G32" s="473"/>
-      <c r="H32" s="473"/>
-      <c r="I32" s="473"/>
+      <c r="D32" s="498"/>
+      <c r="E32" s="498"/>
+      <c r="F32" s="498"/>
+      <c r="G32" s="498"/>
+      <c r="H32" s="498"/>
+      <c r="I32" s="498"/>
       <c r="J32" s="14"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="10"/>
     </row>
     <row r="33" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="474"/>
-      <c r="B33" s="475"/>
+      <c r="A33" s="511"/>
+      <c r="B33" s="512"/>
       <c r="C33" s="24"/>
-      <c r="D33" s="473"/>
-      <c r="E33" s="473"/>
-      <c r="F33" s="473"/>
-      <c r="G33" s="473"/>
-      <c r="H33" s="473"/>
-      <c r="I33" s="473"/>
+      <c r="D33" s="498"/>
+      <c r="E33" s="498"/>
+      <c r="F33" s="498"/>
+      <c r="G33" s="498"/>
+      <c r="H33" s="498"/>
+      <c r="I33" s="498"/>
       <c r="J33" s="14"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="10"/>
     </row>
     <row r="34" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="474"/>
-      <c r="B34" s="475"/>
+      <c r="A34" s="511"/>
+      <c r="B34" s="512"/>
       <c r="C34" s="24"/>
-      <c r="D34" s="473"/>
-      <c r="E34" s="473"/>
-      <c r="F34" s="473"/>
-      <c r="G34" s="473"/>
-      <c r="H34" s="473"/>
-      <c r="I34" s="473"/>
+      <c r="D34" s="498"/>
+      <c r="E34" s="498"/>
+      <c r="F34" s="498"/>
+      <c r="G34" s="498"/>
+      <c r="H34" s="498"/>
+      <c r="I34" s="498"/>
       <c r="J34" s="14"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="10"/>
     </row>
     <row r="35" spans="1:14" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="474"/>
-      <c r="B35" s="475"/>
+      <c r="A35" s="511"/>
+      <c r="B35" s="512"/>
       <c r="C35" s="24"/>
-      <c r="D35" s="473"/>
-      <c r="E35" s="473"/>
-      <c r="F35" s="473"/>
-      <c r="G35" s="473"/>
-      <c r="H35" s="473"/>
-      <c r="I35" s="473"/>
+      <c r="D35" s="498"/>
+      <c r="E35" s="498"/>
+      <c r="F35" s="498"/>
+      <c r="G35" s="498"/>
+      <c r="H35" s="498"/>
+      <c r="I35" s="498"/>
       <c r="J35" s="14"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="10"/>
     </row>
     <row r="36" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="474"/>
-      <c r="B36" s="475"/>
+      <c r="A36" s="511"/>
+      <c r="B36" s="512"/>
       <c r="C36" s="24"/>
-      <c r="D36" s="473"/>
-      <c r="E36" s="473"/>
-      <c r="F36" s="473"/>
-      <c r="G36" s="473"/>
-      <c r="H36" s="473"/>
-      <c r="I36" s="473"/>
+      <c r="D36" s="498"/>
+      <c r="E36" s="498"/>
+      <c r="F36" s="498"/>
+      <c r="G36" s="498"/>
+      <c r="H36" s="498"/>
+      <c r="I36" s="498"/>
       <c r="J36" s="14"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="10"/>
     </row>
     <row r="37" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="474"/>
-      <c r="B37" s="475"/>
+      <c r="A37" s="511"/>
+      <c r="B37" s="512"/>
       <c r="C37" s="24"/>
-      <c r="D37" s="473"/>
-      <c r="E37" s="473"/>
-      <c r="F37" s="473"/>
-      <c r="G37" s="473"/>
-      <c r="H37" s="473"/>
-      <c r="I37" s="473"/>
+      <c r="D37" s="498"/>
+      <c r="E37" s="498"/>
+      <c r="F37" s="498"/>
+      <c r="G37" s="498"/>
+      <c r="H37" s="498"/>
+      <c r="I37" s="498"/>
       <c r="J37" s="14"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="474"/>
-      <c r="B38" s="475"/>
+      <c r="A38" s="511"/>
+      <c r="B38" s="512"/>
       <c r="C38" s="24"/>
-      <c r="D38" s="473"/>
-      <c r="E38" s="473"/>
-      <c r="F38" s="473"/>
-      <c r="G38" s="473"/>
-      <c r="H38" s="473"/>
-      <c r="I38" s="473"/>
+      <c r="D38" s="498"/>
+      <c r="E38" s="498"/>
+      <c r="F38" s="498"/>
+      <c r="G38" s="498"/>
+      <c r="H38" s="498"/>
+      <c r="I38" s="498"/>
       <c r="J38" s="14"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="10"/>
     </row>
     <row r="39" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="474"/>
-      <c r="B39" s="475"/>
+      <c r="A39" s="511"/>
+      <c r="B39" s="512"/>
       <c r="C39" s="24"/>
-      <c r="D39" s="473"/>
-      <c r="E39" s="473"/>
-      <c r="F39" s="473"/>
-      <c r="G39" s="473"/>
-      <c r="H39" s="473"/>
-      <c r="I39" s="473"/>
+      <c r="D39" s="498"/>
+      <c r="E39" s="498"/>
+      <c r="F39" s="498"/>
+      <c r="G39" s="498"/>
+      <c r="H39" s="498"/>
+      <c r="I39" s="498"/>
       <c r="J39" s="14"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="10"/>
     </row>
     <row r="40" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="474"/>
-      <c r="B40" s="475"/>
+      <c r="A40" s="511"/>
+      <c r="B40" s="512"/>
       <c r="C40" s="24"/>
-      <c r="D40" s="473"/>
-      <c r="E40" s="473"/>
-      <c r="F40" s="473"/>
-      <c r="G40" s="473"/>
-      <c r="H40" s="473"/>
-      <c r="I40" s="473"/>
+      <c r="D40" s="498"/>
+      <c r="E40" s="498"/>
+      <c r="F40" s="498"/>
+      <c r="G40" s="498"/>
+      <c r="H40" s="498"/>
+      <c r="I40" s="498"/>
       <c r="J40" s="14"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="10"/>
     </row>
     <row r="41" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="474"/>
-      <c r="B41" s="475"/>
+      <c r="A41" s="511"/>
+      <c r="B41" s="512"/>
       <c r="C41" s="24"/>
-      <c r="D41" s="473"/>
-      <c r="E41" s="473"/>
-      <c r="F41" s="473"/>
-      <c r="G41" s="473"/>
-      <c r="H41" s="473"/>
-      <c r="I41" s="473"/>
+      <c r="D41" s="498"/>
+      <c r="E41" s="498"/>
+      <c r="F41" s="498"/>
+      <c r="G41" s="498"/>
+      <c r="H41" s="498"/>
+      <c r="I41" s="498"/>
       <c r="J41" s="14"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="10"/>
     </row>
     <row r="42" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="474"/>
-      <c r="B42" s="475"/>
+      <c r="A42" s="511"/>
+      <c r="B42" s="512"/>
       <c r="C42" s="24"/>
-      <c r="D42" s="473"/>
-      <c r="E42" s="473"/>
-      <c r="F42" s="473"/>
-      <c r="G42" s="473"/>
-      <c r="H42" s="473"/>
-      <c r="I42" s="473"/>
+      <c r="D42" s="498"/>
+      <c r="E42" s="498"/>
+      <c r="F42" s="498"/>
+      <c r="G42" s="498"/>
+      <c r="H42" s="498"/>
+      <c r="I42" s="498"/>
       <c r="J42" s="14"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="10"/>
     </row>
     <row r="43" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="474"/>
-      <c r="B43" s="475"/>
+      <c r="A43" s="511"/>
+      <c r="B43" s="512"/>
       <c r="C43" s="24"/>
-      <c r="D43" s="473"/>
-      <c r="E43" s="473"/>
-      <c r="F43" s="473"/>
-      <c r="G43" s="473"/>
-      <c r="H43" s="473"/>
-      <c r="I43" s="473"/>
+      <c r="D43" s="498"/>
+      <c r="E43" s="498"/>
+      <c r="F43" s="498"/>
+      <c r="G43" s="498"/>
+      <c r="H43" s="498"/>
+      <c r="I43" s="498"/>
       <c r="J43" s="14"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="10"/>
     </row>
     <row r="44" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="474"/>
-      <c r="B44" s="475"/>
+      <c r="A44" s="511"/>
+      <c r="B44" s="512"/>
       <c r="C44" s="24"/>
-      <c r="D44" s="473"/>
-      <c r="E44" s="473"/>
-      <c r="F44" s="473"/>
-      <c r="G44" s="473"/>
-      <c r="H44" s="473"/>
-      <c r="I44" s="473"/>
+      <c r="D44" s="498"/>
+      <c r="E44" s="498"/>
+      <c r="F44" s="498"/>
+      <c r="G44" s="498"/>
+      <c r="H44" s="498"/>
+      <c r="I44" s="498"/>
       <c r="J44" s="14"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="10"/>
     </row>
     <row r="45" spans="1:14" s="13" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="476"/>
-      <c r="B45" s="477"/>
+      <c r="A45" s="522"/>
+      <c r="B45" s="523"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="480"/>
-      <c r="E45" s="480"/>
-      <c r="F45" s="480"/>
-      <c r="G45" s="480"/>
-      <c r="H45" s="480"/>
-      <c r="I45" s="480"/>
+      <c r="D45" s="514"/>
+      <c r="E45" s="514"/>
+      <c r="F45" s="514"/>
+      <c r="G45" s="514"/>
+      <c r="H45" s="514"/>
+      <c r="I45" s="514"/>
       <c r="J45" s="15"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="12"/>
     </row>
     <row r="46" spans="1:14" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="481" t="s">
+      <c r="A46" s="526" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="482"/>
-      <c r="C46" s="482"/>
-      <c r="D46" s="482"/>
-      <c r="E46" s="482"/>
-      <c r="F46" s="482"/>
-      <c r="G46" s="482"/>
-      <c r="H46" s="482"/>
-      <c r="I46" s="482"/>
-      <c r="J46" s="482"/>
-      <c r="K46" s="483"/>
-      <c r="L46" s="483"/>
-      <c r="M46" s="484"/>
+      <c r="B46" s="527"/>
+      <c r="C46" s="527"/>
+      <c r="D46" s="527"/>
+      <c r="E46" s="527"/>
+      <c r="F46" s="527"/>
+      <c r="G46" s="527"/>
+      <c r="H46" s="527"/>
+      <c r="I46" s="527"/>
+      <c r="J46" s="527"/>
+      <c r="K46" s="528"/>
+      <c r="L46" s="528"/>
+      <c r="M46" s="529"/>
     </row>
     <row r="47" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="450" t="s">
+      <c r="A47" s="272" t="s">
         <v>392</v>
       </c>
-      <c r="B47" s="451"/>
-      <c r="C47" s="452"/>
-      <c r="D47" s="506"/>
-      <c r="E47" s="507"/>
-      <c r="F47" s="507"/>
-      <c r="G47" s="507"/>
-      <c r="H47" s="508"/>
+      <c r="B47" s="273"/>
+      <c r="C47" s="274"/>
+      <c r="D47" s="474"/>
+      <c r="E47" s="475"/>
+      <c r="F47" s="475"/>
+      <c r="G47" s="475"/>
+      <c r="H47" s="476"/>
       <c r="I47" s="248" t="s">
         <v>393</v>
       </c>
@@ -13067,21 +13055,21 @@
       <c r="N47" s="251"/>
     </row>
     <row r="48" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="505" t="s">
+      <c r="A48" s="473" t="s">
         <v>397</v>
       </c>
-      <c r="B48" s="505"/>
-      <c r="C48" s="505"/>
-      <c r="D48" s="505"/>
-      <c r="E48" s="505"/>
-      <c r="F48" s="505"/>
-      <c r="G48" s="505"/>
-      <c r="H48" s="505"/>
-      <c r="I48" s="505"/>
-      <c r="J48" s="505"/>
-      <c r="K48" s="505"/>
-      <c r="L48" s="505"/>
-      <c r="M48" s="505"/>
+      <c r="B48" s="473"/>
+      <c r="C48" s="473"/>
+      <c r="D48" s="473"/>
+      <c r="E48" s="473"/>
+      <c r="F48" s="473"/>
+      <c r="G48" s="473"/>
+      <c r="H48" s="473"/>
+      <c r="I48" s="473"/>
+      <c r="J48" s="473"/>
+      <c r="K48" s="473"/>
+      <c r="L48" s="473"/>
+      <c r="M48" s="473"/>
       <c r="N48" s="254"/>
     </row>
   </sheetData>
@@ -13095,6 +13083,108 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="126">
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="G15:I17"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="J15:J17"/>
     <mergeCell ref="A48:M48"/>
     <mergeCell ref="D47:H47"/>
     <mergeCell ref="A1:M1"/>
@@ -13119,108 +13209,6 @@
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="G15:I17"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -13238,7 +13226,7 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13258,280 +13246,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="552"/>
-      <c r="B1" s="553"/>
-      <c r="C1" s="553"/>
-      <c r="D1" s="553"/>
-      <c r="E1" s="553"/>
-      <c r="F1" s="553"/>
-      <c r="G1" s="553"/>
-      <c r="H1" s="553"/>
-      <c r="I1" s="553"/>
-      <c r="J1" s="553"/>
-      <c r="K1" s="554"/>
+      <c r="A1" s="556"/>
+      <c r="B1" s="557"/>
+      <c r="C1" s="557"/>
+      <c r="D1" s="557"/>
+      <c r="E1" s="557"/>
+      <c r="F1" s="557"/>
+      <c r="G1" s="557"/>
+      <c r="H1" s="557"/>
+      <c r="I1" s="557"/>
+      <c r="J1" s="557"/>
+      <c r="K1" s="558"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="577" t="s">
+      <c r="A2" s="576" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="578"/>
-      <c r="C2" s="578"/>
-      <c r="D2" s="578"/>
-      <c r="E2" s="578"/>
-      <c r="F2" s="578"/>
-      <c r="G2" s="578"/>
-      <c r="H2" s="578"/>
-      <c r="I2" s="578"/>
-      <c r="J2" s="578"/>
-      <c r="K2" s="579"/>
+      <c r="B2" s="577"/>
+      <c r="C2" s="577"/>
+      <c r="D2" s="577"/>
+      <c r="E2" s="577"/>
+      <c r="F2" s="577"/>
+      <c r="G2" s="577"/>
+      <c r="H2" s="577"/>
+      <c r="I2" s="577"/>
+      <c r="J2" s="577"/>
+      <c r="K2" s="578"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="561" t="s">
+      <c r="A3" s="562" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="562" t="s">
+      <c r="B3" s="564" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="562"/>
-      <c r="D3" s="563"/>
-      <c r="E3" s="512" t="s">
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="480" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="513"/>
-      <c r="G3" s="589" t="s">
+      <c r="F3" s="481"/>
+      <c r="G3" s="543" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="514" t="s">
+      <c r="H3" s="484" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="572"/>
-      <c r="J3" s="572"/>
-      <c r="K3" s="573"/>
+      <c r="I3" s="571"/>
+      <c r="J3" s="571"/>
+      <c r="K3" s="572"/>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="551"/>
-      <c r="B4" s="564"/>
-      <c r="C4" s="564"/>
-      <c r="D4" s="565"/>
-      <c r="E4" s="488"/>
-      <c r="F4" s="489"/>
-      <c r="G4" s="524"/>
-      <c r="H4" s="574"/>
-      <c r="I4" s="555"/>
-      <c r="J4" s="555"/>
-      <c r="K4" s="575"/>
+      <c r="A4" s="563"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="566"/>
+      <c r="D4" s="567"/>
+      <c r="E4" s="482"/>
+      <c r="F4" s="483"/>
+      <c r="G4" s="499"/>
+      <c r="H4" s="573"/>
+      <c r="I4" s="559"/>
+      <c r="J4" s="559"/>
+      <c r="K4" s="574"/>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
-      <c r="B5" s="580"/>
-      <c r="C5" s="580"/>
-      <c r="D5" s="581"/>
+      <c r="B5" s="579"/>
+      <c r="C5" s="579"/>
+      <c r="D5" s="580"/>
       <c r="E5" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="525"/>
-      <c r="H5" s="576"/>
-      <c r="I5" s="437"/>
-      <c r="J5" s="437"/>
-      <c r="K5" s="438"/>
+      <c r="G5" s="500"/>
+      <c r="H5" s="575"/>
+      <c r="I5" s="329"/>
+      <c r="J5" s="329"/>
+      <c r="K5" s="330"/>
     </row>
     <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="569"/>
-      <c r="B6" s="570"/>
-      <c r="C6" s="570"/>
-      <c r="D6" s="571"/>
+      <c r="A6" s="540"/>
+      <c r="B6" s="541"/>
+      <c r="C6" s="541"/>
+      <c r="D6" s="542"/>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="558"/>
-      <c r="I6" s="559"/>
-      <c r="J6" s="559"/>
-      <c r="K6" s="560"/>
+      <c r="H6" s="544"/>
+      <c r="I6" s="545"/>
+      <c r="J6" s="545"/>
+      <c r="K6" s="546"/>
     </row>
     <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="569"/>
-      <c r="B7" s="570"/>
-      <c r="C7" s="570"/>
-      <c r="D7" s="571"/>
+      <c r="A7" s="540"/>
+      <c r="B7" s="541"/>
+      <c r="C7" s="541"/>
+      <c r="D7" s="542"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
       <c r="G7" s="39"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="559"/>
-      <c r="J7" s="559"/>
-      <c r="K7" s="560"/>
+      <c r="H7" s="544"/>
+      <c r="I7" s="545"/>
+      <c r="J7" s="545"/>
+      <c r="K7" s="546"/>
     </row>
     <row r="8" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="569"/>
-      <c r="B8" s="570"/>
-      <c r="C8" s="570"/>
-      <c r="D8" s="571"/>
+      <c r="A8" s="540"/>
+      <c r="B8" s="541"/>
+      <c r="C8" s="541"/>
+      <c r="D8" s="542"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
       <c r="G8" s="39"/>
-      <c r="H8" s="558"/>
-      <c r="I8" s="559"/>
-      <c r="J8" s="559"/>
-      <c r="K8" s="560"/>
+      <c r="H8" s="544"/>
+      <c r="I8" s="545"/>
+      <c r="J8" s="545"/>
+      <c r="K8" s="546"/>
     </row>
     <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="569"/>
-      <c r="B9" s="570"/>
-      <c r="C9" s="570"/>
-      <c r="D9" s="571"/>
+      <c r="A9" s="540"/>
+      <c r="B9" s="541"/>
+      <c r="C9" s="541"/>
+      <c r="D9" s="542"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="39"/>
-      <c r="H9" s="558"/>
-      <c r="I9" s="559"/>
-      <c r="J9" s="559"/>
-      <c r="K9" s="560"/>
+      <c r="H9" s="544"/>
+      <c r="I9" s="545"/>
+      <c r="J9" s="545"/>
+      <c r="K9" s="546"/>
     </row>
     <row r="10" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="569"/>
-      <c r="B10" s="570"/>
-      <c r="C10" s="570"/>
-      <c r="D10" s="571"/>
+      <c r="A10" s="540"/>
+      <c r="B10" s="541"/>
+      <c r="C10" s="541"/>
+      <c r="D10" s="542"/>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
       <c r="G10" s="39"/>
-      <c r="H10" s="558"/>
-      <c r="I10" s="559"/>
-      <c r="J10" s="559"/>
-      <c r="K10" s="560"/>
+      <c r="H10" s="544"/>
+      <c r="I10" s="545"/>
+      <c r="J10" s="545"/>
+      <c r="K10" s="546"/>
     </row>
     <row r="11" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="569"/>
-      <c r="B11" s="570"/>
-      <c r="C11" s="570"/>
-      <c r="D11" s="571"/>
+      <c r="A11" s="540"/>
+      <c r="B11" s="541"/>
+      <c r="C11" s="541"/>
+      <c r="D11" s="542"/>
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
       <c r="G11" s="39"/>
-      <c r="H11" s="558"/>
-      <c r="I11" s="559"/>
-      <c r="J11" s="559"/>
-      <c r="K11" s="560"/>
+      <c r="H11" s="544"/>
+      <c r="I11" s="545"/>
+      <c r="J11" s="545"/>
+      <c r="K11" s="546"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="566"/>
-      <c r="B12" s="567"/>
-      <c r="C12" s="567"/>
-      <c r="D12" s="568"/>
+      <c r="A12" s="568"/>
+      <c r="B12" s="569"/>
+      <c r="C12" s="569"/>
+      <c r="D12" s="570"/>
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
       <c r="G12" s="40"/>
-      <c r="H12" s="530"/>
-      <c r="I12" s="531"/>
-      <c r="J12" s="531"/>
-      <c r="K12" s="532"/>
+      <c r="H12" s="581"/>
+      <c r="I12" s="582"/>
+      <c r="J12" s="582"/>
+      <c r="K12" s="583"/>
     </row>
     <row r="13" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="490" t="s">
+      <c r="A13" s="515" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="491"/>
-      <c r="C13" s="491"/>
-      <c r="D13" s="491"/>
-      <c r="E13" s="491"/>
-      <c r="F13" s="491"/>
-      <c r="G13" s="491"/>
-      <c r="H13" s="491"/>
-      <c r="I13" s="491"/>
-      <c r="J13" s="491"/>
-      <c r="K13" s="492"/>
+      <c r="B13" s="516"/>
+      <c r="C13" s="516"/>
+      <c r="D13" s="516"/>
+      <c r="E13" s="516"/>
+      <c r="F13" s="516"/>
+      <c r="G13" s="516"/>
+      <c r="H13" s="516"/>
+      <c r="I13" s="516"/>
+      <c r="J13" s="516"/>
+      <c r="K13" s="517"/>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="533" t="s">
+      <c r="A14" s="584" t="s">
         <v>342</v>
       </c>
-      <c r="B14" s="534"/>
-      <c r="C14" s="534"/>
-      <c r="D14" s="534"/>
-      <c r="E14" s="534"/>
-      <c r="F14" s="534"/>
-      <c r="G14" s="534"/>
-      <c r="H14" s="534"/>
-      <c r="I14" s="534"/>
-      <c r="J14" s="534"/>
-      <c r="K14" s="535"/>
+      <c r="B14" s="585"/>
+      <c r="C14" s="585"/>
+      <c r="D14" s="585"/>
+      <c r="E14" s="585"/>
+      <c r="F14" s="585"/>
+      <c r="G14" s="585"/>
+      <c r="H14" s="585"/>
+      <c r="I14" s="585"/>
+      <c r="J14" s="585"/>
+      <c r="K14" s="586"/>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="551" t="s">
+      <c r="A15" s="563" t="s">
         <v>362</v>
       </c>
-      <c r="B15" s="486" t="s">
+      <c r="B15" s="504" t="s">
         <v>364</v>
       </c>
-      <c r="C15" s="555"/>
-      <c r="D15" s="556"/>
-      <c r="E15" s="486" t="s">
+      <c r="C15" s="559"/>
+      <c r="D15" s="560"/>
+      <c r="E15" s="504" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="487"/>
-      <c r="G15" s="524" t="s">
+      <c r="F15" s="505"/>
+      <c r="G15" s="499" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="503" t="s">
+      <c r="H15" s="509" t="s">
         <v>339</v>
       </c>
-      <c r="I15" s="499" t="s">
+      <c r="I15" s="503" t="s">
         <v>360</v>
       </c>
-      <c r="J15" s="555"/>
-      <c r="K15" s="575"/>
+      <c r="J15" s="559"/>
+      <c r="K15" s="574"/>
     </row>
     <row r="16" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="551"/>
-      <c r="B16" s="555"/>
-      <c r="C16" s="555"/>
-      <c r="D16" s="556"/>
-      <c r="E16" s="488"/>
-      <c r="F16" s="489"/>
-      <c r="G16" s="524"/>
-      <c r="H16" s="503"/>
-      <c r="I16" s="574"/>
-      <c r="J16" s="555"/>
-      <c r="K16" s="575"/>
+      <c r="A16" s="563"/>
+      <c r="B16" s="559"/>
+      <c r="C16" s="559"/>
+      <c r="D16" s="560"/>
+      <c r="E16" s="482"/>
+      <c r="F16" s="483"/>
+      <c r="G16" s="499"/>
+      <c r="H16" s="509"/>
+      <c r="I16" s="573"/>
+      <c r="J16" s="559"/>
+      <c r="K16" s="574"/>
     </row>
     <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
-      <c r="B17" s="437"/>
-      <c r="C17" s="437"/>
-      <c r="D17" s="557"/>
+      <c r="B17" s="329"/>
+      <c r="C17" s="329"/>
+      <c r="D17" s="561"/>
       <c r="E17" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="525"/>
-      <c r="H17" s="504"/>
-      <c r="I17" s="576"/>
-      <c r="J17" s="437"/>
-      <c r="K17" s="438"/>
+      <c r="G17" s="500"/>
+      <c r="H17" s="510"/>
+      <c r="I17" s="575"/>
+      <c r="J17" s="329"/>
+      <c r="K17" s="330"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="542"/>
-      <c r="B18" s="543"/>
-      <c r="C18" s="543"/>
-      <c r="D18" s="544"/>
+      <c r="A18" s="547"/>
+      <c r="B18" s="548"/>
+      <c r="C18" s="548"/>
+      <c r="D18" s="549"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="32"/>
       <c r="H18" s="31"/>
-      <c r="I18" s="539"/>
-      <c r="J18" s="540"/>
-      <c r="K18" s="541"/>
+      <c r="I18" s="550"/>
+      <c r="J18" s="551"/>
+      <c r="K18" s="552"/>
     </row>
     <row r="19" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="542"/>
-      <c r="B19" s="543"/>
-      <c r="C19" s="543"/>
-      <c r="D19" s="544"/>
+      <c r="A19" s="547"/>
+      <c r="B19" s="548"/>
+      <c r="C19" s="548"/>
+      <c r="D19" s="549"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="32"/>
@@ -13541,10 +13529,10 @@
       <c r="K19" s="35"/>
     </row>
     <row r="20" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="536"/>
-      <c r="B20" s="537"/>
-      <c r="C20" s="537"/>
-      <c r="D20" s="538"/>
+      <c r="A20" s="547"/>
+      <c r="B20" s="548"/>
+      <c r="C20" s="548"/>
+      <c r="D20" s="549"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="32"/>
@@ -13554,10 +13542,10 @@
       <c r="K20" s="35"/>
     </row>
     <row r="21" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="536"/>
-      <c r="B21" s="537"/>
-      <c r="C21" s="537"/>
-      <c r="D21" s="538"/>
+      <c r="A21" s="547"/>
+      <c r="B21" s="548"/>
+      <c r="C21" s="548"/>
+      <c r="D21" s="549"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
       <c r="G21" s="32"/>
@@ -13567,10 +13555,10 @@
       <c r="K21" s="35"/>
     </row>
     <row r="22" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="536"/>
-      <c r="B22" s="537"/>
-      <c r="C22" s="537"/>
-      <c r="D22" s="538"/>
+      <c r="A22" s="547"/>
+      <c r="B22" s="548"/>
+      <c r="C22" s="548"/>
+      <c r="D22" s="549"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
       <c r="G22" s="32"/>
@@ -13580,10 +13568,10 @@
       <c r="K22" s="35"/>
     </row>
     <row r="23" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="536"/>
-      <c r="B23" s="537"/>
-      <c r="C23" s="537"/>
-      <c r="D23" s="538"/>
+      <c r="A23" s="547"/>
+      <c r="B23" s="548"/>
+      <c r="C23" s="548"/>
+      <c r="D23" s="549"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="32"/>
@@ -13593,10 +13581,10 @@
       <c r="K23" s="35"/>
     </row>
     <row r="24" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="536"/>
-      <c r="B24" s="537"/>
-      <c r="C24" s="537"/>
-      <c r="D24" s="538"/>
+      <c r="A24" s="547"/>
+      <c r="B24" s="548"/>
+      <c r="C24" s="548"/>
+      <c r="D24" s="549"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
       <c r="G24" s="32"/>
@@ -13606,10 +13594,10 @@
       <c r="K24" s="35"/>
     </row>
     <row r="25" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="536"/>
-      <c r="B25" s="537"/>
-      <c r="C25" s="537"/>
-      <c r="D25" s="538"/>
+      <c r="A25" s="547"/>
+      <c r="B25" s="548"/>
+      <c r="C25" s="548"/>
+      <c r="D25" s="549"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="32"/>
@@ -13619,43 +13607,43 @@
       <c r="K25" s="35"/>
     </row>
     <row r="26" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="542"/>
-      <c r="B26" s="543"/>
-      <c r="C26" s="543"/>
-      <c r="D26" s="544"/>
+      <c r="A26" s="547"/>
+      <c r="B26" s="548"/>
+      <c r="C26" s="548"/>
+      <c r="D26" s="549"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
       <c r="G26" s="32"/>
       <c r="H26" s="31"/>
-      <c r="I26" s="539"/>
-      <c r="J26" s="540"/>
-      <c r="K26" s="541"/>
+      <c r="I26" s="550"/>
+      <c r="J26" s="551"/>
+      <c r="K26" s="552"/>
     </row>
     <row r="27" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="542"/>
-      <c r="B27" s="543"/>
-      <c r="C27" s="543"/>
-      <c r="D27" s="544"/>
+      <c r="A27" s="547"/>
+      <c r="B27" s="548"/>
+      <c r="C27" s="548"/>
+      <c r="D27" s="549"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="32"/>
       <c r="H27" s="31"/>
-      <c r="I27" s="539"/>
-      <c r="J27" s="540"/>
-      <c r="K27" s="541"/>
+      <c r="I27" s="550"/>
+      <c r="J27" s="551"/>
+      <c r="K27" s="552"/>
     </row>
     <row r="28" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="542"/>
-      <c r="B28" s="543"/>
-      <c r="C28" s="543"/>
-      <c r="D28" s="544"/>
+      <c r="A28" s="547"/>
+      <c r="B28" s="548"/>
+      <c r="C28" s="548"/>
+      <c r="D28" s="549"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="32"/>
       <c r="H28" s="31"/>
-      <c r="I28" s="539"/>
-      <c r="J28" s="540"/>
-      <c r="K28" s="541"/>
+      <c r="I28" s="550"/>
+      <c r="J28" s="551"/>
+      <c r="K28" s="552"/>
     </row>
     <row r="29" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="201"/>
@@ -13736,86 +13724,86 @@
       <c r="K34" s="35"/>
     </row>
     <row r="35" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="542"/>
-      <c r="B35" s="543"/>
-      <c r="C35" s="543"/>
-      <c r="D35" s="544"/>
+      <c r="A35" s="547"/>
+      <c r="B35" s="548"/>
+      <c r="C35" s="548"/>
+      <c r="D35" s="549"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
       <c r="G35" s="32"/>
       <c r="H35" s="31"/>
-      <c r="I35" s="539"/>
-      <c r="J35" s="540"/>
-      <c r="K35" s="541"/>
+      <c r="I35" s="550"/>
+      <c r="J35" s="551"/>
+      <c r="K35" s="552"/>
     </row>
     <row r="36" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="542"/>
-      <c r="B36" s="543"/>
-      <c r="C36" s="543"/>
-      <c r="D36" s="544"/>
+      <c r="A36" s="547"/>
+      <c r="B36" s="548"/>
+      <c r="C36" s="548"/>
+      <c r="D36" s="549"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
       <c r="G36" s="32"/>
       <c r="H36" s="31"/>
-      <c r="I36" s="539"/>
-      <c r="J36" s="540"/>
-      <c r="K36" s="541"/>
+      <c r="I36" s="550"/>
+      <c r="J36" s="551"/>
+      <c r="K36" s="552"/>
     </row>
     <row r="37" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="542"/>
-      <c r="B37" s="543"/>
-      <c r="C37" s="543"/>
-      <c r="D37" s="544"/>
+      <c r="A37" s="547"/>
+      <c r="B37" s="548"/>
+      <c r="C37" s="548"/>
+      <c r="D37" s="549"/>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
       <c r="G37" s="32"/>
       <c r="H37" s="31"/>
-      <c r="I37" s="539"/>
-      <c r="J37" s="540"/>
-      <c r="K37" s="541"/>
+      <c r="I37" s="550"/>
+      <c r="J37" s="551"/>
+      <c r="K37" s="552"/>
     </row>
     <row r="38" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="545"/>
-      <c r="B38" s="546"/>
-      <c r="C38" s="546"/>
-      <c r="D38" s="547"/>
+      <c r="A38" s="587"/>
+      <c r="B38" s="588"/>
+      <c r="C38" s="588"/>
+      <c r="D38" s="589"/>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
       <c r="G38" s="36"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="548"/>
-      <c r="J38" s="549"/>
-      <c r="K38" s="550"/>
+      <c r="I38" s="590"/>
+      <c r="J38" s="591"/>
+      <c r="K38" s="592"/>
     </row>
     <row r="39" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="453" t="s">
+      <c r="A39" s="275" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="454"/>
-      <c r="C39" s="454"/>
-      <c r="D39" s="454"/>
-      <c r="E39" s="454"/>
-      <c r="F39" s="454"/>
-      <c r="G39" s="454"/>
-      <c r="H39" s="454"/>
-      <c r="I39" s="454"/>
-      <c r="J39" s="454"/>
-      <c r="K39" s="455"/>
+      <c r="B39" s="276"/>
+      <c r="C39" s="276"/>
+      <c r="D39" s="276"/>
+      <c r="E39" s="276"/>
+      <c r="F39" s="276"/>
+      <c r="G39" s="276"/>
+      <c r="H39" s="276"/>
+      <c r="I39" s="276"/>
+      <c r="J39" s="276"/>
+      <c r="K39" s="277"/>
     </row>
     <row r="40" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="586" t="s">
+      <c r="A40" s="553" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="587"/>
-      <c r="C40" s="587"/>
-      <c r="D40" s="587"/>
-      <c r="E40" s="587"/>
-      <c r="F40" s="587"/>
-      <c r="G40" s="587"/>
-      <c r="H40" s="587"/>
-      <c r="I40" s="587"/>
-      <c r="J40" s="587"/>
-      <c r="K40" s="588"/>
+      <c r="B40" s="554"/>
+      <c r="C40" s="554"/>
+      <c r="D40" s="554"/>
+      <c r="E40" s="554"/>
+      <c r="F40" s="554"/>
+      <c r="G40" s="554"/>
+      <c r="H40" s="554"/>
+      <c r="I40" s="554"/>
+      <c r="J40" s="554"/>
+      <c r="K40" s="555"/>
     </row>
     <row r="41" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="145" t="s">
@@ -13827,143 +13815,143 @@
       <c r="C41" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="590" t="s">
+      <c r="D41" s="537" t="s">
         <v>365</v>
       </c>
-      <c r="E41" s="590"/>
-      <c r="F41" s="590"/>
-      <c r="G41" s="590"/>
-      <c r="H41" s="591"/>
+      <c r="E41" s="537"/>
+      <c r="F41" s="537"/>
+      <c r="G41" s="537"/>
+      <c r="H41" s="538"/>
       <c r="I41" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="590" t="s">
+      <c r="J41" s="537" t="s">
         <v>86</v>
       </c>
-      <c r="K41" s="593"/>
+      <c r="K41" s="539"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="582"/>
-      <c r="B42" s="583"/>
-      <c r="C42" s="584"/>
-      <c r="D42" s="585"/>
-      <c r="E42" s="585"/>
-      <c r="F42" s="585"/>
-      <c r="G42" s="585"/>
-      <c r="H42" s="583"/>
-      <c r="I42" s="584"/>
-      <c r="J42" s="585"/>
-      <c r="K42" s="592"/>
+      <c r="A42" s="532"/>
+      <c r="B42" s="533"/>
+      <c r="C42" s="534"/>
+      <c r="D42" s="535"/>
+      <c r="E42" s="535"/>
+      <c r="F42" s="535"/>
+      <c r="G42" s="535"/>
+      <c r="H42" s="533"/>
+      <c r="I42" s="534"/>
+      <c r="J42" s="535"/>
+      <c r="K42" s="536"/>
     </row>
     <row r="43" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="582"/>
-      <c r="B43" s="583"/>
-      <c r="C43" s="584"/>
-      <c r="D43" s="585"/>
-      <c r="E43" s="585"/>
-      <c r="F43" s="585"/>
-      <c r="G43" s="585"/>
-      <c r="H43" s="583"/>
-      <c r="I43" s="584"/>
-      <c r="J43" s="585"/>
-      <c r="K43" s="592"/>
+      <c r="A43" s="532"/>
+      <c r="B43" s="533"/>
+      <c r="C43" s="534"/>
+      <c r="D43" s="535"/>
+      <c r="E43" s="535"/>
+      <c r="F43" s="535"/>
+      <c r="G43" s="535"/>
+      <c r="H43" s="533"/>
+      <c r="I43" s="534"/>
+      <c r="J43" s="535"/>
+      <c r="K43" s="536"/>
     </row>
     <row r="44" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="582"/>
-      <c r="B44" s="583"/>
-      <c r="C44" s="584"/>
-      <c r="D44" s="585"/>
-      <c r="E44" s="585"/>
-      <c r="F44" s="585"/>
-      <c r="G44" s="585"/>
-      <c r="H44" s="583"/>
-      <c r="I44" s="584"/>
-      <c r="J44" s="585"/>
-      <c r="K44" s="592"/>
+      <c r="A44" s="532"/>
+      <c r="B44" s="533"/>
+      <c r="C44" s="534"/>
+      <c r="D44" s="535"/>
+      <c r="E44" s="535"/>
+      <c r="F44" s="535"/>
+      <c r="G44" s="535"/>
+      <c r="H44" s="533"/>
+      <c r="I44" s="534"/>
+      <c r="J44" s="535"/>
+      <c r="K44" s="536"/>
     </row>
     <row r="45" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="582"/>
-      <c r="B45" s="583"/>
-      <c r="C45" s="584"/>
-      <c r="D45" s="585"/>
-      <c r="E45" s="585"/>
-      <c r="F45" s="585"/>
-      <c r="G45" s="585"/>
-      <c r="H45" s="583"/>
-      <c r="I45" s="584"/>
-      <c r="J45" s="585"/>
-      <c r="K45" s="592"/>
+      <c r="A45" s="532"/>
+      <c r="B45" s="533"/>
+      <c r="C45" s="534"/>
+      <c r="D45" s="535"/>
+      <c r="E45" s="535"/>
+      <c r="F45" s="535"/>
+      <c r="G45" s="535"/>
+      <c r="H45" s="533"/>
+      <c r="I45" s="534"/>
+      <c r="J45" s="535"/>
+      <c r="K45" s="536"/>
     </row>
     <row r="46" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="582"/>
-      <c r="B46" s="583"/>
-      <c r="C46" s="584"/>
-      <c r="D46" s="585"/>
-      <c r="E46" s="585"/>
-      <c r="F46" s="585"/>
-      <c r="G46" s="585"/>
-      <c r="H46" s="583"/>
-      <c r="I46" s="584"/>
-      <c r="J46" s="585"/>
-      <c r="K46" s="592"/>
+      <c r="A46" s="532"/>
+      <c r="B46" s="533"/>
+      <c r="C46" s="534"/>
+      <c r="D46" s="535"/>
+      <c r="E46" s="535"/>
+      <c r="F46" s="535"/>
+      <c r="G46" s="535"/>
+      <c r="H46" s="533"/>
+      <c r="I46" s="534"/>
+      <c r="J46" s="535"/>
+      <c r="K46" s="536"/>
     </row>
     <row r="47" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="582"/>
-      <c r="B47" s="583"/>
-      <c r="C47" s="584"/>
-      <c r="D47" s="585"/>
-      <c r="E47" s="585"/>
-      <c r="F47" s="585"/>
-      <c r="G47" s="585"/>
-      <c r="H47" s="583"/>
-      <c r="I47" s="584"/>
-      <c r="J47" s="585"/>
-      <c r="K47" s="592"/>
+      <c r="A47" s="532"/>
+      <c r="B47" s="533"/>
+      <c r="C47" s="534"/>
+      <c r="D47" s="535"/>
+      <c r="E47" s="535"/>
+      <c r="F47" s="535"/>
+      <c r="G47" s="535"/>
+      <c r="H47" s="533"/>
+      <c r="I47" s="534"/>
+      <c r="J47" s="535"/>
+      <c r="K47" s="536"/>
     </row>
     <row r="48" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="582"/>
-      <c r="B48" s="583"/>
-      <c r="C48" s="584"/>
-      <c r="D48" s="585"/>
-      <c r="E48" s="585"/>
-      <c r="F48" s="585"/>
-      <c r="G48" s="585"/>
-      <c r="H48" s="583"/>
-      <c r="I48" s="584"/>
-      <c r="J48" s="585"/>
-      <c r="K48" s="592"/>
+      <c r="A48" s="532"/>
+      <c r="B48" s="533"/>
+      <c r="C48" s="534"/>
+      <c r="D48" s="535"/>
+      <c r="E48" s="535"/>
+      <c r="F48" s="535"/>
+      <c r="G48" s="535"/>
+      <c r="H48" s="533"/>
+      <c r="I48" s="534"/>
+      <c r="J48" s="535"/>
+      <c r="K48" s="536"/>
     </row>
     <row r="49" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="453" t="s">
+      <c r="A49" s="275" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="454"/>
-      <c r="C49" s="454"/>
-      <c r="D49" s="454"/>
-      <c r="E49" s="454"/>
-      <c r="F49" s="454"/>
-      <c r="G49" s="454"/>
-      <c r="H49" s="454"/>
-      <c r="I49" s="454"/>
-      <c r="J49" s="454"/>
-      <c r="K49" s="492"/>
+      <c r="B49" s="276"/>
+      <c r="C49" s="276"/>
+      <c r="D49" s="276"/>
+      <c r="E49" s="276"/>
+      <c r="F49" s="276"/>
+      <c r="G49" s="276"/>
+      <c r="H49" s="276"/>
+      <c r="I49" s="276"/>
+      <c r="J49" s="276"/>
+      <c r="K49" s="517"/>
     </row>
     <row r="50" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="450" t="s">
+      <c r="A50" s="272" t="s">
         <v>392</v>
       </c>
-      <c r="B50" s="452"/>
-      <c r="C50" s="506"/>
-      <c r="D50" s="507"/>
-      <c r="E50" s="507"/>
-      <c r="F50" s="508"/>
-      <c r="G50" s="594" t="s">
+      <c r="B50" s="274"/>
+      <c r="C50" s="474"/>
+      <c r="D50" s="475"/>
+      <c r="E50" s="475"/>
+      <c r="F50" s="476"/>
+      <c r="G50" s="530" t="s">
         <v>393</v>
       </c>
-      <c r="H50" s="595"/>
-      <c r="I50" s="506"/>
-      <c r="J50" s="507"/>
-      <c r="K50" s="508"/>
+      <c r="H50" s="531"/>
+      <c r="I50" s="474"/>
+      <c r="J50" s="475"/>
+      <c r="K50" s="476"/>
       <c r="L50" s="252"/>
       <c r="M50" s="252"/>
     </row>
@@ -13984,6 +13972,73 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="83">
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B15:D17"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="H3:K5"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="I15:K17"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="I44:K44"/>
     <mergeCell ref="G50:H50"/>
     <mergeCell ref="C50:F50"/>
     <mergeCell ref="I50:K50"/>
@@ -14000,73 +14055,6 @@
     <mergeCell ref="I46:K46"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="I47:K47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B15:D17"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="H3:K5"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="I15:K17"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A36:D36"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14104,35 +14092,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="617"/>
-      <c r="B1" s="618"/>
-      <c r="C1" s="618"/>
-      <c r="D1" s="618"/>
-      <c r="E1" s="618"/>
-      <c r="F1" s="618"/>
-      <c r="G1" s="618"/>
-      <c r="H1" s="618"/>
-      <c r="I1" s="618"/>
-      <c r="J1" s="618"/>
-      <c r="K1" s="618"/>
-      <c r="L1" s="618"/>
-      <c r="M1" s="619"/>
+      <c r="A1" s="716"/>
+      <c r="B1" s="717"/>
+      <c r="C1" s="717"/>
+      <c r="D1" s="717"/>
+      <c r="E1" s="717"/>
+      <c r="F1" s="717"/>
+      <c r="G1" s="717"/>
+      <c r="H1" s="717"/>
+      <c r="I1" s="717"/>
+      <c r="J1" s="717"/>
+      <c r="K1" s="717"/>
+      <c r="L1" s="717"/>
+      <c r="M1" s="718"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="643" t="s">
+      <c r="A2" s="646" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="644"/>
-      <c r="C2" s="622" t="s">
+      <c r="B2" s="647"/>
+      <c r="C2" s="721" t="s">
         <v>347</v>
       </c>
-      <c r="D2" s="622"/>
-      <c r="E2" s="622"/>
-      <c r="F2" s="623"/>
+      <c r="D2" s="721"/>
+      <c r="E2" s="721"/>
+      <c r="F2" s="722"/>
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
-      <c r="I2" s="620"/>
-      <c r="J2" s="620"/>
+      <c r="I2" s="719"/>
+      <c r="J2" s="719"/>
       <c r="K2" s="42"/>
       <c r="L2" s="42"/>
       <c r="M2" s="43"/>
@@ -14140,16 +14128,16 @@
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="626" t="s">
+      <c r="C3" s="704" t="s">
         <v>343</v>
       </c>
-      <c r="D3" s="626"/>
-      <c r="E3" s="626"/>
-      <c r="F3" s="627"/>
+      <c r="D3" s="704"/>
+      <c r="E3" s="704"/>
+      <c r="F3" s="705"/>
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="621"/>
+      <c r="I3" s="720"/>
+      <c r="J3" s="720"/>
       <c r="K3" s="47"/>
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
@@ -14157,45 +14145,45 @@
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="45"/>
-      <c r="C4" s="626" t="s">
+      <c r="C4" s="704" t="s">
         <v>348</v>
       </c>
-      <c r="D4" s="626"/>
-      <c r="E4" s="626"/>
-      <c r="F4" s="627"/>
+      <c r="D4" s="704"/>
+      <c r="E4" s="704"/>
+      <c r="F4" s="705"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="45"/>
-      <c r="C5" s="626"/>
-      <c r="D5" s="626"/>
-      <c r="E5" s="626"/>
-      <c r="F5" s="627"/>
-      <c r="G5" s="654"/>
-      <c r="H5" s="654"/>
-      <c r="I5" s="654"/>
-      <c r="J5" s="654"/>
-      <c r="K5" s="654"/>
-      <c r="L5" s="654"/>
+      <c r="C5" s="704"/>
+      <c r="D5" s="704"/>
+      <c r="E5" s="704"/>
+      <c r="F5" s="705"/>
+      <c r="G5" s="608"/>
+      <c r="H5" s="608"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="608"/>
+      <c r="K5" s="608"/>
+      <c r="L5" s="608"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="45"/>
-      <c r="C6" s="626" t="s">
+      <c r="C6" s="704" t="s">
         <v>344</v>
       </c>
-      <c r="D6" s="626"/>
-      <c r="E6" s="626"/>
-      <c r="F6" s="627"/>
-      <c r="G6" s="596"/>
-      <c r="H6" s="597"/>
-      <c r="I6" s="597"/>
-      <c r="J6" s="597"/>
-      <c r="K6" s="597"/>
-      <c r="L6" s="597"/>
-      <c r="M6" s="598"/>
+      <c r="D6" s="704"/>
+      <c r="E6" s="704"/>
+      <c r="F6" s="705"/>
+      <c r="G6" s="623"/>
+      <c r="H6" s="624"/>
+      <c r="I6" s="624"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="624"/>
+      <c r="L6" s="624"/>
+      <c r="M6" s="625"/>
     </row>
     <row r="7" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
@@ -14213,19 +14201,19 @@
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="45"/>
-      <c r="C8" s="626" t="s">
+      <c r="C8" s="704" t="s">
         <v>366</v>
       </c>
-      <c r="D8" s="626"/>
-      <c r="E8" s="626"/>
-      <c r="F8" s="627"/>
-      <c r="G8" s="596"/>
-      <c r="H8" s="597"/>
-      <c r="I8" s="597"/>
-      <c r="J8" s="597"/>
-      <c r="K8" s="597"/>
-      <c r="L8" s="597"/>
-      <c r="M8" s="598"/>
+      <c r="D8" s="704"/>
+      <c r="E8" s="704"/>
+      <c r="F8" s="705"/>
+      <c r="G8" s="623"/>
+      <c r="H8" s="624"/>
+      <c r="I8" s="624"/>
+      <c r="J8" s="624"/>
+      <c r="K8" s="624"/>
+      <c r="L8" s="624"/>
+      <c r="M8" s="625"/>
     </row>
     <row r="9" spans="1:13" ht="3.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
@@ -14239,114 +14227,114 @@
     <row r="10" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="45"/>
-      <c r="C10" s="626"/>
-      <c r="D10" s="626"/>
-      <c r="E10" s="626"/>
-      <c r="F10" s="627"/>
-      <c r="G10" s="654" t="s">
+      <c r="C10" s="704"/>
+      <c r="D10" s="704"/>
+      <c r="E10" s="704"/>
+      <c r="F10" s="705"/>
+      <c r="G10" s="608" t="s">
         <v>329</v>
       </c>
-      <c r="H10" s="654"/>
-      <c r="I10" s="654"/>
-      <c r="J10" s="654"/>
-      <c r="K10" s="654"/>
-      <c r="L10" s="654"/>
+      <c r="H10" s="608"/>
+      <c r="I10" s="608"/>
+      <c r="J10" s="608"/>
+      <c r="K10" s="608"/>
+      <c r="L10" s="608"/>
       <c r="M10" s="95"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="45"/>
-      <c r="C11" s="626"/>
-      <c r="D11" s="626"/>
-      <c r="E11" s="626"/>
-      <c r="F11" s="627"/>
+      <c r="C11" s="704"/>
+      <c r="D11" s="704"/>
+      <c r="E11" s="704"/>
+      <c r="F11" s="705"/>
       <c r="G11" s="151"/>
-      <c r="H11" s="646"/>
-      <c r="I11" s="646"/>
-      <c r="J11" s="646"/>
-      <c r="K11" s="646"/>
-      <c r="L11" s="646"/>
+      <c r="H11" s="715"/>
+      <c r="I11" s="715"/>
+      <c r="J11" s="715"/>
+      <c r="K11" s="715"/>
+      <c r="L11" s="715"/>
       <c r="M11" s="95"/>
     </row>
     <row r="12" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50"/>
       <c r="B12" s="51"/>
-      <c r="C12" s="655"/>
-      <c r="D12" s="655"/>
-      <c r="E12" s="655"/>
-      <c r="F12" s="656"/>
+      <c r="C12" s="706"/>
+      <c r="D12" s="706"/>
+      <c r="E12" s="706"/>
+      <c r="F12" s="707"/>
       <c r="G12" s="152"/>
       <c r="H12" s="152"/>
-      <c r="I12" s="645"/>
-      <c r="J12" s="645"/>
-      <c r="K12" s="645"/>
-      <c r="L12" s="645"/>
+      <c r="I12" s="714"/>
+      <c r="J12" s="714"/>
+      <c r="K12" s="714"/>
+      <c r="L12" s="714"/>
       <c r="M12" s="134"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="657" t="s">
+      <c r="A13" s="708" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="658"/>
-      <c r="C13" s="635" t="s">
+      <c r="B13" s="709"/>
+      <c r="C13" s="710" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="635"/>
-      <c r="E13" s="555"/>
-      <c r="F13" s="556"/>
-      <c r="G13" s="604"/>
-      <c r="H13" s="605"/>
-      <c r="I13" s="605"/>
-      <c r="J13" s="605"/>
-      <c r="K13" s="605"/>
-      <c r="L13" s="605"/>
-      <c r="M13" s="606"/>
+      <c r="D13" s="710"/>
+      <c r="E13" s="559"/>
+      <c r="F13" s="560"/>
+      <c r="G13" s="612"/>
+      <c r="H13" s="613"/>
+      <c r="I13" s="613"/>
+      <c r="J13" s="613"/>
+      <c r="K13" s="613"/>
+      <c r="L13" s="613"/>
+      <c r="M13" s="614"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="66"/>
       <c r="B14" s="67"/>
-      <c r="C14" s="635"/>
-      <c r="D14" s="635"/>
-      <c r="E14" s="555"/>
-      <c r="F14" s="556"/>
-      <c r="G14" s="659" t="s">
+      <c r="C14" s="710"/>
+      <c r="D14" s="710"/>
+      <c r="E14" s="559"/>
+      <c r="F14" s="560"/>
+      <c r="G14" s="607" t="s">
         <v>329</v>
       </c>
-      <c r="H14" s="654"/>
-      <c r="I14" s="654"/>
-      <c r="J14" s="654"/>
-      <c r="K14" s="654"/>
-      <c r="L14" s="654"/>
+      <c r="H14" s="608"/>
+      <c r="I14" s="608"/>
+      <c r="J14" s="608"/>
+      <c r="K14" s="608"/>
+      <c r="L14" s="608"/>
       <c r="M14" s="133"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="66"/>
       <c r="B15" s="67"/>
-      <c r="C15" s="635"/>
-      <c r="D15" s="635"/>
-      <c r="E15" s="555"/>
-      <c r="F15" s="556"/>
+      <c r="C15" s="710"/>
+      <c r="D15" s="710"/>
+      <c r="E15" s="559"/>
+      <c r="F15" s="560"/>
       <c r="G15" s="46"/>
-      <c r="H15" s="660"/>
-      <c r="I15" s="660"/>
-      <c r="J15" s="660"/>
-      <c r="K15" s="660"/>
-      <c r="L15" s="660"/>
+      <c r="H15" s="712"/>
+      <c r="I15" s="712"/>
+      <c r="J15" s="712"/>
+      <c r="K15" s="712"/>
+      <c r="L15" s="712"/>
       <c r="M15" s="133"/>
     </row>
     <row r="16" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="54"/>
-      <c r="C16" s="555"/>
-      <c r="D16" s="555"/>
-      <c r="E16" s="555"/>
-      <c r="F16" s="556"/>
+      <c r="C16" s="559"/>
+      <c r="D16" s="559"/>
+      <c r="E16" s="559"/>
+      <c r="F16" s="560"/>
       <c r="G16" s="130"/>
       <c r="H16" s="257"/>
-      <c r="I16" s="632"/>
-      <c r="J16" s="632"/>
-      <c r="K16" s="632"/>
-      <c r="L16" s="632"/>
+      <c r="I16" s="711"/>
+      <c r="J16" s="711"/>
+      <c r="K16" s="711"/>
+      <c r="L16" s="711"/>
       <c r="M16" s="131"/>
     </row>
     <row r="17" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14367,211 +14355,211 @@
     <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55"/>
       <c r="B18" s="56"/>
-      <c r="C18" s="739" t="s">
+      <c r="C18" s="602" t="s">
         <v>391</v>
       </c>
-      <c r="D18" s="739"/>
-      <c r="E18" s="740"/>
-      <c r="F18" s="741"/>
-      <c r="G18" s="599"/>
-      <c r="H18" s="600"/>
-      <c r="I18" s="600"/>
-      <c r="J18" s="600"/>
-      <c r="K18" s="600"/>
-      <c r="L18" s="600"/>
-      <c r="M18" s="601"/>
+      <c r="D18" s="602"/>
+      <c r="E18" s="603"/>
+      <c r="F18" s="604"/>
+      <c r="G18" s="731"/>
+      <c r="H18" s="732"/>
+      <c r="I18" s="732"/>
+      <c r="J18" s="732"/>
+      <c r="K18" s="732"/>
+      <c r="L18" s="732"/>
+      <c r="M18" s="733"/>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="55"/>
       <c r="B19" s="56"/>
-      <c r="C19" s="739"/>
-      <c r="D19" s="739"/>
-      <c r="E19" s="740"/>
-      <c r="F19" s="741"/>
-      <c r="G19" s="659" t="s">
+      <c r="C19" s="602"/>
+      <c r="D19" s="602"/>
+      <c r="E19" s="603"/>
+      <c r="F19" s="604"/>
+      <c r="G19" s="607" t="s">
         <v>329</v>
       </c>
-      <c r="H19" s="654"/>
-      <c r="I19" s="654"/>
-      <c r="J19" s="654"/>
-      <c r="K19" s="654"/>
-      <c r="L19" s="654"/>
+      <c r="H19" s="608"/>
+      <c r="I19" s="608"/>
+      <c r="J19" s="608"/>
+      <c r="K19" s="608"/>
+      <c r="L19" s="608"/>
       <c r="M19" s="61"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="55"/>
       <c r="B20" s="56"/>
-      <c r="C20" s="739"/>
-      <c r="D20" s="739"/>
-      <c r="E20" s="740"/>
-      <c r="F20" s="741"/>
+      <c r="C20" s="602"/>
+      <c r="D20" s="602"/>
+      <c r="E20" s="603"/>
+      <c r="F20" s="604"/>
       <c r="G20" s="60"/>
-      <c r="H20" s="608" t="s">
+      <c r="H20" s="736" t="s">
         <v>330</v>
       </c>
-      <c r="I20" s="608"/>
+      <c r="I20" s="736"/>
       <c r="J20" s="266"/>
-      <c r="K20" s="602"/>
-      <c r="L20" s="602"/>
+      <c r="K20" s="734"/>
+      <c r="L20" s="734"/>
       <c r="M20" s="61"/>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="55"/>
       <c r="B21" s="56"/>
-      <c r="C21" s="739"/>
-      <c r="D21" s="739"/>
-      <c r="E21" s="740"/>
-      <c r="F21" s="741"/>
-      <c r="G21" s="609" t="s">
+      <c r="C21" s="602"/>
+      <c r="D21" s="602"/>
+      <c r="E21" s="603"/>
+      <c r="F21" s="604"/>
+      <c r="G21" s="737" t="s">
         <v>332</v>
       </c>
-      <c r="H21" s="610"/>
-      <c r="I21" s="610"/>
+      <c r="H21" s="738"/>
+      <c r="I21" s="738"/>
       <c r="J21" s="266"/>
-      <c r="K21" s="603"/>
-      <c r="L21" s="603"/>
+      <c r="K21" s="735"/>
+      <c r="L21" s="735"/>
       <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="63"/>
-      <c r="C22" s="742"/>
-      <c r="D22" s="742"/>
-      <c r="E22" s="742"/>
-      <c r="F22" s="743"/>
+      <c r="C22" s="605"/>
+      <c r="D22" s="605"/>
+      <c r="E22" s="605"/>
+      <c r="F22" s="606"/>
       <c r="G22" s="130" t="s">
         <v>331</v>
       </c>
       <c r="H22" s="257"/>
-      <c r="I22" s="744"/>
-      <c r="J22" s="744"/>
-      <c r="K22" s="744"/>
+      <c r="I22" s="609"/>
+      <c r="J22" s="609"/>
+      <c r="K22" s="609"/>
       <c r="L22" s="135"/>
       <c r="M22" s="131"/>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="661" t="s">
+      <c r="A23" s="593" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="662"/>
-      <c r="C23" s="639" t="s">
+      <c r="B23" s="594"/>
+      <c r="C23" s="610" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="639"/>
-      <c r="E23" s="639"/>
-      <c r="F23" s="640"/>
-      <c r="G23" s="604"/>
-      <c r="H23" s="605"/>
-      <c r="I23" s="605"/>
-      <c r="J23" s="605"/>
-      <c r="K23" s="605"/>
-      <c r="L23" s="605"/>
-      <c r="M23" s="606"/>
+      <c r="D23" s="610"/>
+      <c r="E23" s="610"/>
+      <c r="F23" s="611"/>
+      <c r="G23" s="612"/>
+      <c r="H23" s="613"/>
+      <c r="I23" s="613"/>
+      <c r="J23" s="613"/>
+      <c r="K23" s="613"/>
+      <c r="L23" s="613"/>
+      <c r="M23" s="614"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
       <c r="B24" s="54"/>
-      <c r="C24" s="629"/>
-      <c r="D24" s="629"/>
-      <c r="E24" s="629"/>
-      <c r="F24" s="628"/>
-      <c r="G24" s="659" t="s">
+      <c r="C24" s="595"/>
+      <c r="D24" s="595"/>
+      <c r="E24" s="595"/>
+      <c r="F24" s="596"/>
+      <c r="G24" s="607" t="s">
         <v>329</v>
       </c>
-      <c r="H24" s="654"/>
-      <c r="I24" s="654"/>
-      <c r="J24" s="654"/>
-      <c r="K24" s="654"/>
-      <c r="L24" s="654"/>
+      <c r="H24" s="608"/>
+      <c r="I24" s="608"/>
+      <c r="J24" s="608"/>
+      <c r="K24" s="608"/>
+      <c r="L24" s="608"/>
       <c r="M24" s="129"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
       <c r="B25" s="54"/>
-      <c r="C25" s="629"/>
-      <c r="D25" s="629"/>
-      <c r="E25" s="629"/>
-      <c r="F25" s="628"/>
+      <c r="C25" s="595"/>
+      <c r="D25" s="595"/>
+      <c r="E25" s="595"/>
+      <c r="F25" s="596"/>
       <c r="G25" s="128"/>
-      <c r="H25" s="607"/>
-      <c r="I25" s="607"/>
-      <c r="J25" s="607"/>
-      <c r="K25" s="607"/>
-      <c r="L25" s="607"/>
+      <c r="H25" s="713"/>
+      <c r="I25" s="713"/>
+      <c r="J25" s="713"/>
+      <c r="K25" s="713"/>
+      <c r="L25" s="713"/>
       <c r="M25" s="129"/>
     </row>
     <row r="26" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="64"/>
       <c r="B26" s="65"/>
-      <c r="C26" s="641"/>
-      <c r="D26" s="641"/>
-      <c r="E26" s="641"/>
-      <c r="F26" s="642"/>
+      <c r="C26" s="597"/>
+      <c r="D26" s="597"/>
+      <c r="E26" s="597"/>
+      <c r="F26" s="598"/>
       <c r="G26" s="130"/>
       <c r="H26" s="257"/>
-      <c r="I26" s="632"/>
-      <c r="J26" s="632"/>
-      <c r="K26" s="632"/>
-      <c r="L26" s="632"/>
+      <c r="I26" s="711"/>
+      <c r="J26" s="711"/>
+      <c r="K26" s="711"/>
+      <c r="L26" s="711"/>
       <c r="M26" s="131"/>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="661" t="s">
+      <c r="A27" s="593" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="662"/>
-      <c r="C27" s="639" t="s">
+      <c r="B27" s="594"/>
+      <c r="C27" s="610" t="s">
         <v>359</v>
       </c>
-      <c r="D27" s="639"/>
-      <c r="E27" s="639"/>
-      <c r="F27" s="640"/>
-      <c r="G27" s="604"/>
-      <c r="H27" s="605"/>
-      <c r="I27" s="605"/>
-      <c r="J27" s="605"/>
-      <c r="K27" s="605"/>
-      <c r="L27" s="605"/>
-      <c r="M27" s="606"/>
+      <c r="D27" s="610"/>
+      <c r="E27" s="610"/>
+      <c r="F27" s="611"/>
+      <c r="G27" s="612"/>
+      <c r="H27" s="613"/>
+      <c r="I27" s="613"/>
+      <c r="J27" s="613"/>
+      <c r="K27" s="613"/>
+      <c r="L27" s="613"/>
+      <c r="M27" s="614"/>
     </row>
     <row r="28" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53"/>
       <c r="B28" s="54"/>
-      <c r="C28" s="629"/>
-      <c r="D28" s="629"/>
-      <c r="E28" s="629"/>
-      <c r="F28" s="628"/>
-      <c r="G28" s="659" t="s">
+      <c r="C28" s="595"/>
+      <c r="D28" s="595"/>
+      <c r="E28" s="595"/>
+      <c r="F28" s="596"/>
+      <c r="G28" s="607" t="s">
         <v>329</v>
       </c>
-      <c r="H28" s="654"/>
-      <c r="I28" s="654"/>
-      <c r="J28" s="654"/>
-      <c r="K28" s="654"/>
-      <c r="L28" s="654"/>
+      <c r="H28" s="608"/>
+      <c r="I28" s="608"/>
+      <c r="J28" s="608"/>
+      <c r="K28" s="608"/>
+      <c r="L28" s="608"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
       <c r="B29" s="54"/>
-      <c r="C29" s="629"/>
-      <c r="D29" s="629"/>
-      <c r="E29" s="629"/>
-      <c r="F29" s="628"/>
-      <c r="H29" s="613"/>
-      <c r="I29" s="613"/>
-      <c r="J29" s="613"/>
-      <c r="K29" s="613"/>
-      <c r="L29" s="613"/>
+      <c r="C29" s="595"/>
+      <c r="D29" s="595"/>
+      <c r="E29" s="595"/>
+      <c r="F29" s="596"/>
+      <c r="H29" s="599"/>
+      <c r="I29" s="599"/>
+      <c r="J29" s="599"/>
+      <c r="K29" s="599"/>
+      <c r="L29" s="599"/>
       <c r="M29" s="129"/>
     </row>
     <row r="30" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="64"/>
       <c r="B30" s="65"/>
-      <c r="C30" s="641"/>
-      <c r="D30" s="641"/>
-      <c r="E30" s="641"/>
-      <c r="F30" s="642"/>
+      <c r="C30" s="597"/>
+      <c r="D30" s="597"/>
+      <c r="E30" s="597"/>
+      <c r="F30" s="598"/>
       <c r="G30" s="148"/>
       <c r="H30" s="258"/>
       <c r="I30" s="188"/>
@@ -14581,39 +14569,39 @@
       <c r="M30" s="131"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="661" t="s">
+      <c r="A31" s="593" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="662"/>
-      <c r="C31" s="639" t="s">
+      <c r="B31" s="594"/>
+      <c r="C31" s="610" t="s">
         <v>355</v>
       </c>
-      <c r="D31" s="639"/>
-      <c r="E31" s="639"/>
-      <c r="F31" s="640"/>
-      <c r="G31" s="604"/>
-      <c r="H31" s="605"/>
-      <c r="I31" s="605"/>
-      <c r="J31" s="605"/>
-      <c r="K31" s="605"/>
-      <c r="L31" s="605"/>
-      <c r="M31" s="606"/>
+      <c r="D31" s="610"/>
+      <c r="E31" s="610"/>
+      <c r="F31" s="611"/>
+      <c r="G31" s="612"/>
+      <c r="H31" s="613"/>
+      <c r="I31" s="613"/>
+      <c r="J31" s="613"/>
+      <c r="K31" s="613"/>
+      <c r="L31" s="613"/>
+      <c r="M31" s="614"/>
     </row>
     <row r="32" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
       <c r="B32" s="54"/>
-      <c r="C32" s="629"/>
-      <c r="D32" s="629"/>
-      <c r="E32" s="629"/>
-      <c r="F32" s="628"/>
-      <c r="G32" s="611" t="s">
+      <c r="C32" s="595"/>
+      <c r="D32" s="595"/>
+      <c r="E32" s="595"/>
+      <c r="F32" s="596"/>
+      <c r="G32" s="600" t="s">
         <v>356</v>
       </c>
-      <c r="H32" s="612"/>
-      <c r="I32" s="612"/>
-      <c r="J32" s="612"/>
-      <c r="K32" s="613"/>
-      <c r="L32" s="613"/>
+      <c r="H32" s="601"/>
+      <c r="I32" s="601"/>
+      <c r="J32" s="601"/>
+      <c r="K32" s="599"/>
+      <c r="L32" s="599"/>
       <c r="M32" s="129"/>
     </row>
     <row r="33" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14634,44 +14622,44 @@
     <row r="34" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53"/>
       <c r="B34" s="54"/>
-      <c r="C34" s="629" t="s">
+      <c r="C34" s="595" t="s">
         <v>357</v>
       </c>
-      <c r="D34" s="629"/>
-      <c r="E34" s="629"/>
-      <c r="F34" s="628"/>
-      <c r="G34" s="614"/>
-      <c r="H34" s="615"/>
-      <c r="I34" s="615"/>
-      <c r="J34" s="615"/>
-      <c r="K34" s="615"/>
-      <c r="L34" s="615"/>
-      <c r="M34" s="616"/>
+      <c r="D34" s="595"/>
+      <c r="E34" s="595"/>
+      <c r="F34" s="596"/>
+      <c r="G34" s="739"/>
+      <c r="H34" s="740"/>
+      <c r="I34" s="740"/>
+      <c r="J34" s="740"/>
+      <c r="K34" s="740"/>
+      <c r="L34" s="740"/>
+      <c r="M34" s="741"/>
     </row>
     <row r="35" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
       <c r="B35" s="54"/>
-      <c r="C35" s="629"/>
-      <c r="D35" s="629"/>
-      <c r="E35" s="629"/>
-      <c r="F35" s="628"/>
-      <c r="G35" s="611" t="s">
+      <c r="C35" s="595"/>
+      <c r="D35" s="595"/>
+      <c r="E35" s="595"/>
+      <c r="F35" s="596"/>
+      <c r="G35" s="600" t="s">
         <v>356</v>
       </c>
-      <c r="H35" s="612"/>
-      <c r="I35" s="612"/>
-      <c r="J35" s="612"/>
-      <c r="K35" s="613"/>
-      <c r="L35" s="613"/>
+      <c r="H35" s="601"/>
+      <c r="I35" s="601"/>
+      <c r="J35" s="601"/>
+      <c r="K35" s="599"/>
+      <c r="L35" s="599"/>
       <c r="M35" s="129"/>
     </row>
     <row r="36" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="64"/>
       <c r="B36" s="65"/>
-      <c r="C36" s="641"/>
-      <c r="D36" s="641"/>
-      <c r="E36" s="641"/>
-      <c r="F36" s="642"/>
+      <c r="C36" s="597"/>
+      <c r="D36" s="597"/>
+      <c r="E36" s="597"/>
+      <c r="F36" s="598"/>
       <c r="G36" s="132"/>
       <c r="H36" s="75"/>
       <c r="I36" s="123"/>
@@ -14680,82 +14668,82 @@
       <c r="M36" s="131"/>
     </row>
     <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="661" t="s">
+      <c r="A37" s="593" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="662"/>
-      <c r="C37" s="633" t="s">
+      <c r="B37" s="594"/>
+      <c r="C37" s="726" t="s">
         <v>349</v>
       </c>
-      <c r="D37" s="633"/>
-      <c r="E37" s="633"/>
-      <c r="F37" s="634"/>
-      <c r="G37" s="604"/>
-      <c r="H37" s="605"/>
-      <c r="I37" s="605"/>
-      <c r="J37" s="605"/>
-      <c r="K37" s="605"/>
-      <c r="L37" s="605"/>
-      <c r="M37" s="606"/>
+      <c r="D37" s="726"/>
+      <c r="E37" s="726"/>
+      <c r="F37" s="727"/>
+      <c r="G37" s="612"/>
+      <c r="H37" s="613"/>
+      <c r="I37" s="613"/>
+      <c r="J37" s="613"/>
+      <c r="K37" s="613"/>
+      <c r="L37" s="613"/>
+      <c r="M37" s="614"/>
     </row>
     <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53"/>
       <c r="B38" s="54"/>
-      <c r="C38" s="635"/>
-      <c r="D38" s="635"/>
-      <c r="E38" s="635"/>
-      <c r="F38" s="636"/>
-      <c r="G38" s="659" t="s">
+      <c r="C38" s="710"/>
+      <c r="D38" s="710"/>
+      <c r="E38" s="710"/>
+      <c r="F38" s="728"/>
+      <c r="G38" s="607" t="s">
         <v>340</v>
       </c>
-      <c r="H38" s="654"/>
-      <c r="I38" s="654"/>
-      <c r="J38" s="654"/>
-      <c r="K38" s="654"/>
-      <c r="L38" s="654"/>
-      <c r="M38" s="712"/>
+      <c r="H38" s="608"/>
+      <c r="I38" s="608"/>
+      <c r="J38" s="608"/>
+      <c r="K38" s="608"/>
+      <c r="L38" s="608"/>
+      <c r="M38" s="622"/>
     </row>
     <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53"/>
       <c r="B39" s="54"/>
-      <c r="C39" s="635"/>
-      <c r="D39" s="635"/>
-      <c r="E39" s="635"/>
-      <c r="F39" s="636"/>
+      <c r="C39" s="710"/>
+      <c r="D39" s="710"/>
+      <c r="E39" s="710"/>
+      <c r="F39" s="728"/>
       <c r="G39" s="128"/>
-      <c r="H39" s="607"/>
-      <c r="I39" s="607"/>
-      <c r="J39" s="607"/>
-      <c r="K39" s="607"/>
-      <c r="L39" s="607"/>
+      <c r="H39" s="713"/>
+      <c r="I39" s="713"/>
+      <c r="J39" s="713"/>
+      <c r="K39" s="713"/>
+      <c r="L39" s="713"/>
       <c r="M39" s="129"/>
     </row>
     <row r="40" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="64"/>
       <c r="B40" s="65"/>
-      <c r="C40" s="637"/>
-      <c r="D40" s="637"/>
-      <c r="E40" s="637"/>
-      <c r="F40" s="638"/>
+      <c r="C40" s="729"/>
+      <c r="D40" s="729"/>
+      <c r="E40" s="729"/>
+      <c r="F40" s="730"/>
       <c r="G40" s="130"/>
       <c r="H40" s="257"/>
-      <c r="I40" s="632"/>
-      <c r="J40" s="632"/>
-      <c r="K40" s="632"/>
-      <c r="L40" s="632"/>
+      <c r="I40" s="711"/>
+      <c r="J40" s="711"/>
+      <c r="K40" s="711"/>
+      <c r="L40" s="711"/>
       <c r="M40" s="131"/>
     </row>
     <row r="41" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="630" t="s">
+      <c r="A41" s="724" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="631"/>
-      <c r="C41" s="629" t="s">
+      <c r="B41" s="725"/>
+      <c r="C41" s="595" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="629"/>
-      <c r="E41" s="629"/>
-      <c r="F41" s="628"/>
+      <c r="D41" s="595"/>
+      <c r="E41" s="595"/>
+      <c r="F41" s="596"/>
       <c r="G41" s="52"/>
       <c r="H41" s="52"/>
       <c r="I41" s="70"/>
@@ -14767,10 +14755,10 @@
     <row r="42" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="68"/>
       <c r="B42" s="69"/>
-      <c r="C42" s="629"/>
-      <c r="D42" s="629"/>
-      <c r="E42" s="629"/>
-      <c r="F42" s="628"/>
+      <c r="C42" s="595"/>
+      <c r="D42" s="595"/>
+      <c r="E42" s="595"/>
+      <c r="F42" s="596"/>
       <c r="G42" s="73"/>
       <c r="H42" s="73"/>
       <c r="I42" s="73"/>
@@ -14784,27 +14772,27 @@
         <v>80</v>
       </c>
       <c r="B43" s="69"/>
-      <c r="C43" s="629" t="s">
+      <c r="C43" s="595" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="629"/>
-      <c r="E43" s="629"/>
-      <c r="F43" s="628"/>
-      <c r="G43" s="596"/>
-      <c r="H43" s="597"/>
-      <c r="I43" s="597"/>
-      <c r="J43" s="597"/>
-      <c r="K43" s="597"/>
-      <c r="L43" s="597"/>
-      <c r="M43" s="598"/>
+      <c r="D43" s="595"/>
+      <c r="E43" s="595"/>
+      <c r="F43" s="596"/>
+      <c r="G43" s="623"/>
+      <c r="H43" s="624"/>
+      <c r="I43" s="624"/>
+      <c r="J43" s="624"/>
+      <c r="K43" s="624"/>
+      <c r="L43" s="624"/>
+      <c r="M43" s="625"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="68"/>
       <c r="B44" s="69"/>
-      <c r="C44" s="629"/>
-      <c r="D44" s="629"/>
-      <c r="E44" s="629"/>
-      <c r="F44" s="628"/>
+      <c r="C44" s="595"/>
+      <c r="D44" s="595"/>
+      <c r="E44" s="595"/>
+      <c r="F44" s="596"/>
       <c r="G44" s="198" t="s">
         <v>327</v>
       </c>
@@ -14820,27 +14808,27 @@
         <v>81</v>
       </c>
       <c r="B45" s="69"/>
-      <c r="C45" s="628" t="s">
+      <c r="C45" s="596" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="628"/>
-      <c r="E45" s="628"/>
-      <c r="F45" s="628"/>
-      <c r="G45" s="596"/>
-      <c r="H45" s="597"/>
-      <c r="I45" s="597"/>
-      <c r="J45" s="597"/>
-      <c r="K45" s="597"/>
-      <c r="L45" s="597"/>
-      <c r="M45" s="598"/>
+      <c r="D45" s="596"/>
+      <c r="E45" s="596"/>
+      <c r="F45" s="596"/>
+      <c r="G45" s="623"/>
+      <c r="H45" s="624"/>
+      <c r="I45" s="624"/>
+      <c r="J45" s="624"/>
+      <c r="K45" s="624"/>
+      <c r="L45" s="624"/>
+      <c r="M45" s="625"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="68"/>
       <c r="B46" s="69"/>
-      <c r="C46" s="628"/>
-      <c r="D46" s="628"/>
-      <c r="E46" s="628"/>
-      <c r="F46" s="628"/>
+      <c r="C46" s="596"/>
+      <c r="D46" s="596"/>
+      <c r="E46" s="596"/>
+      <c r="F46" s="596"/>
       <c r="G46" s="199" t="s">
         <v>328</v>
       </c>
@@ -14857,27 +14845,27 @@
         <v>83</v>
       </c>
       <c r="B47" s="69"/>
-      <c r="C47" s="629" t="s">
+      <c r="C47" s="595" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="629"/>
+      <c r="D47" s="595"/>
       <c r="E47" s="120"/>
       <c r="F47" s="121"/>
-      <c r="G47" s="596"/>
-      <c r="H47" s="597"/>
-      <c r="I47" s="597"/>
-      <c r="J47" s="597"/>
-      <c r="K47" s="597"/>
-      <c r="L47" s="597"/>
-      <c r="M47" s="598"/>
+      <c r="G47" s="623"/>
+      <c r="H47" s="624"/>
+      <c r="I47" s="624"/>
+      <c r="J47" s="624"/>
+      <c r="K47" s="624"/>
+      <c r="L47" s="624"/>
+      <c r="M47" s="625"/>
     </row>
     <row r="48" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="725"/>
-      <c r="B48" s="726"/>
-      <c r="C48" s="726"/>
-      <c r="D48" s="726"/>
-      <c r="E48" s="726"/>
-      <c r="F48" s="727"/>
+      <c r="A48" s="639"/>
+      <c r="B48" s="640"/>
+      <c r="C48" s="640"/>
+      <c r="D48" s="640"/>
+      <c r="E48" s="640"/>
+      <c r="F48" s="641"/>
       <c r="G48" s="200" t="s">
         <v>328</v>
       </c>
@@ -14890,12 +14878,12 @@
       <c r="N48" s="75"/>
     </row>
     <row r="49" spans="1:14" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="728"/>
-      <c r="B49" s="729"/>
-      <c r="C49" s="729"/>
-      <c r="D49" s="729"/>
-      <c r="E49" s="729"/>
-      <c r="F49" s="730"/>
+      <c r="A49" s="642"/>
+      <c r="B49" s="643"/>
+      <c r="C49" s="643"/>
+      <c r="D49" s="643"/>
+      <c r="E49" s="643"/>
+      <c r="F49" s="644"/>
       <c r="G49" s="122"/>
       <c r="H49" s="118"/>
       <c r="I49" s="118"/>
@@ -14906,10 +14894,10 @@
       <c r="N49" s="75"/>
     </row>
     <row r="50" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="710" t="s">
+      <c r="A50" s="620" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="711"/>
+      <c r="B50" s="621"/>
       <c r="C50" s="196" t="s">
         <v>383</v>
       </c>
@@ -14919,127 +14907,127 @@
       <c r="G50" s="196"/>
       <c r="H50" s="196"/>
       <c r="I50" s="197"/>
-      <c r="J50" s="713"/>
-      <c r="K50" s="714"/>
-      <c r="L50" s="714"/>
-      <c r="M50" s="715"/>
+      <c r="J50" s="626"/>
+      <c r="K50" s="627"/>
+      <c r="L50" s="627"/>
+      <c r="M50" s="628"/>
     </row>
     <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="722" t="s">
+      <c r="A51" s="636" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="723"/>
-      <c r="C51" s="723"/>
-      <c r="D51" s="723"/>
-      <c r="E51" s="724"/>
+      <c r="B51" s="637"/>
+      <c r="C51" s="637"/>
+      <c r="D51" s="637"/>
+      <c r="E51" s="638"/>
       <c r="F51" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="731" t="s">
+      <c r="G51" s="645" t="s">
         <v>77</v>
       </c>
-      <c r="H51" s="590"/>
-      <c r="I51" s="593"/>
-      <c r="J51" s="716"/>
-      <c r="K51" s="717"/>
-      <c r="L51" s="717"/>
-      <c r="M51" s="718"/>
+      <c r="H51" s="537"/>
+      <c r="I51" s="539"/>
+      <c r="J51" s="629"/>
+      <c r="K51" s="630"/>
+      <c r="L51" s="630"/>
+      <c r="M51" s="631"/>
     </row>
     <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="647"/>
-      <c r="B52" s="648"/>
-      <c r="C52" s="650"/>
-      <c r="D52" s="650"/>
-      <c r="E52" s="651"/>
+      <c r="A52" s="697"/>
+      <c r="B52" s="698"/>
+      <c r="C52" s="700"/>
+      <c r="D52" s="700"/>
+      <c r="E52" s="701"/>
       <c r="F52" s="76"/>
-      <c r="G52" s="732"/>
-      <c r="H52" s="733"/>
-      <c r="I52" s="734"/>
-      <c r="J52" s="716"/>
-      <c r="K52" s="717"/>
-      <c r="L52" s="717"/>
-      <c r="M52" s="718"/>
+      <c r="G52" s="648"/>
+      <c r="H52" s="649"/>
+      <c r="I52" s="650"/>
+      <c r="J52" s="629"/>
+      <c r="K52" s="630"/>
+      <c r="L52" s="630"/>
+      <c r="M52" s="631"/>
     </row>
     <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="647"/>
-      <c r="B53" s="648"/>
-      <c r="C53" s="648"/>
-      <c r="D53" s="648"/>
-      <c r="E53" s="649"/>
+      <c r="A53" s="697"/>
+      <c r="B53" s="698"/>
+      <c r="C53" s="698"/>
+      <c r="D53" s="698"/>
+      <c r="E53" s="699"/>
       <c r="F53" s="76"/>
-      <c r="G53" s="732"/>
-      <c r="H53" s="733"/>
-      <c r="I53" s="734"/>
-      <c r="J53" s="716"/>
-      <c r="K53" s="717"/>
-      <c r="L53" s="717"/>
-      <c r="M53" s="718"/>
+      <c r="G53" s="648"/>
+      <c r="H53" s="649"/>
+      <c r="I53" s="650"/>
+      <c r="J53" s="629"/>
+      <c r="K53" s="630"/>
+      <c r="L53" s="630"/>
+      <c r="M53" s="631"/>
     </row>
     <row r="54" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="735"/>
-      <c r="B54" s="736"/>
-      <c r="C54" s="737"/>
-      <c r="D54" s="737"/>
-      <c r="E54" s="738"/>
+      <c r="A54" s="651"/>
+      <c r="B54" s="652"/>
+      <c r="C54" s="653"/>
+      <c r="D54" s="653"/>
+      <c r="E54" s="654"/>
       <c r="F54" s="208"/>
-      <c r="G54" s="719"/>
-      <c r="H54" s="720"/>
-      <c r="I54" s="721"/>
-      <c r="J54" s="716"/>
-      <c r="K54" s="717"/>
-      <c r="L54" s="717"/>
-      <c r="M54" s="718"/>
+      <c r="G54" s="633"/>
+      <c r="H54" s="634"/>
+      <c r="I54" s="635"/>
+      <c r="J54" s="629"/>
+      <c r="K54" s="630"/>
+      <c r="L54" s="630"/>
+      <c r="M54" s="631"/>
     </row>
     <row r="55" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="643" t="s">
+      <c r="A55" s="646" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="644"/>
-      <c r="C55" s="652" t="s">
+      <c r="B55" s="647"/>
+      <c r="C55" s="702" t="s">
         <v>400</v>
       </c>
-      <c r="D55" s="652"/>
-      <c r="E55" s="652"/>
-      <c r="F55" s="652"/>
-      <c r="G55" s="652"/>
-      <c r="H55" s="652"/>
+      <c r="D55" s="702"/>
+      <c r="E55" s="702"/>
+      <c r="F55" s="702"/>
+      <c r="G55" s="702"/>
+      <c r="H55" s="702"/>
       <c r="I55" s="262"/>
-      <c r="J55" s="717"/>
-      <c r="K55" s="717"/>
-      <c r="L55" s="717"/>
-      <c r="M55" s="718"/>
+      <c r="J55" s="630"/>
+      <c r="K55" s="630"/>
+      <c r="L55" s="630"/>
+      <c r="M55" s="631"/>
     </row>
     <row r="56" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="77"/>
       <c r="B56" s="78"/>
-      <c r="C56" s="653"/>
-      <c r="D56" s="653"/>
-      <c r="E56" s="653"/>
-      <c r="F56" s="653"/>
-      <c r="G56" s="653"/>
-      <c r="H56" s="653"/>
+      <c r="C56" s="703"/>
+      <c r="D56" s="703"/>
+      <c r="E56" s="703"/>
+      <c r="F56" s="703"/>
+      <c r="G56" s="703"/>
+      <c r="H56" s="703"/>
       <c r="I56" s="263"/>
       <c r="J56" s="207"/>
-      <c r="K56" s="624" t="s">
+      <c r="K56" s="632" t="s">
         <v>75</v>
       </c>
-      <c r="L56" s="624"/>
+      <c r="L56" s="632"/>
       <c r="M56" s="186"/>
     </row>
     <row r="57" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="77"/>
       <c r="B57" s="78"/>
-      <c r="C57" s="653"/>
-      <c r="D57" s="653"/>
-      <c r="E57" s="653"/>
-      <c r="F57" s="653"/>
-      <c r="G57" s="653"/>
-      <c r="H57" s="653"/>
+      <c r="C57" s="703"/>
+      <c r="D57" s="703"/>
+      <c r="E57" s="703"/>
+      <c r="F57" s="703"/>
+      <c r="G57" s="703"/>
+      <c r="H57" s="703"/>
       <c r="I57" s="263"/>
-      <c r="J57" s="624"/>
-      <c r="K57" s="624"/>
-      <c r="L57" s="624"/>
-      <c r="M57" s="625"/>
+      <c r="J57" s="632"/>
+      <c r="K57" s="632"/>
+      <c r="L57" s="632"/>
+      <c r="M57" s="723"/>
     </row>
     <row r="58" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="184"/>
@@ -15051,8 +15039,8 @@
       <c r="G58" s="264"/>
       <c r="H58" s="264"/>
       <c r="I58" s="265"/>
-      <c r="K58" s="684"/>
-      <c r="L58" s="685"/>
+      <c r="K58" s="675"/>
+      <c r="L58" s="676"/>
       <c r="M58" s="2"/>
     </row>
     <row r="59" spans="1:14" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15064,102 +15052,102 @@
       <c r="G59" s="47"/>
       <c r="H59" s="47"/>
       <c r="I59" s="47"/>
-      <c r="K59" s="686"/>
-      <c r="L59" s="687"/>
+      <c r="K59" s="677"/>
+      <c r="L59" s="678"/>
       <c r="M59" s="2"/>
     </row>
     <row r="60" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="79"/>
-      <c r="B60" s="703" t="s">
+      <c r="B60" s="694" t="s">
         <v>399</v>
       </c>
-      <c r="C60" s="704"/>
-      <c r="D60" s="705"/>
-      <c r="F60" s="694"/>
-      <c r="G60" s="695"/>
-      <c r="H60" s="695"/>
-      <c r="I60" s="696"/>
-      <c r="K60" s="686"/>
-      <c r="L60" s="687"/>
+      <c r="C60" s="695"/>
+      <c r="D60" s="696"/>
+      <c r="F60" s="685"/>
+      <c r="G60" s="686"/>
+      <c r="H60" s="686"/>
+      <c r="I60" s="687"/>
+      <c r="K60" s="677"/>
+      <c r="L60" s="678"/>
       <c r="M60" s="80"/>
     </row>
     <row r="61" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="79"/>
-      <c r="B61" s="690" t="s">
+      <c r="B61" s="681" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="691"/>
+      <c r="C61" s="682"/>
       <c r="D61" s="136"/>
-      <c r="F61" s="697"/>
-      <c r="G61" s="698"/>
-      <c r="H61" s="698"/>
-      <c r="I61" s="699"/>
-      <c r="K61" s="686"/>
-      <c r="L61" s="687"/>
+      <c r="F61" s="688"/>
+      <c r="G61" s="689"/>
+      <c r="H61" s="689"/>
+      <c r="I61" s="690"/>
+      <c r="K61" s="677"/>
+      <c r="L61" s="678"/>
       <c r="M61" s="80"/>
     </row>
     <row r="62" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="79"/>
-      <c r="B62" s="678" t="s">
+      <c r="B62" s="670" t="s">
         <v>390</v>
       </c>
-      <c r="C62" s="679"/>
-      <c r="D62" s="682"/>
-      <c r="F62" s="700"/>
-      <c r="G62" s="701"/>
-      <c r="H62" s="701"/>
-      <c r="I62" s="702"/>
-      <c r="K62" s="686"/>
-      <c r="L62" s="687"/>
+      <c r="C62" s="671"/>
+      <c r="D62" s="615"/>
+      <c r="F62" s="691"/>
+      <c r="G62" s="692"/>
+      <c r="H62" s="692"/>
+      <c r="I62" s="693"/>
+      <c r="K62" s="677"/>
+      <c r="L62" s="678"/>
       <c r="M62" s="80"/>
     </row>
     <row r="63" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="79"/>
-      <c r="B63" s="692"/>
-      <c r="C63" s="693"/>
-      <c r="D63" s="706"/>
-      <c r="F63" s="707" t="s">
+      <c r="B63" s="683"/>
+      <c r="C63" s="684"/>
+      <c r="D63" s="616"/>
+      <c r="F63" s="617" t="s">
         <v>94</v>
       </c>
-      <c r="G63" s="708"/>
-      <c r="H63" s="708"/>
-      <c r="I63" s="709"/>
-      <c r="K63" s="686"/>
-      <c r="L63" s="687"/>
+      <c r="G63" s="618"/>
+      <c r="H63" s="618"/>
+      <c r="I63" s="619"/>
+      <c r="K63" s="677"/>
+      <c r="L63" s="678"/>
       <c r="M63" s="80"/>
     </row>
     <row r="64" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="79"/>
-      <c r="B64" s="678" t="s">
+      <c r="B64" s="670" t="s">
         <v>389</v>
       </c>
-      <c r="C64" s="679"/>
-      <c r="D64" s="682"/>
+      <c r="C64" s="671"/>
+      <c r="D64" s="615"/>
       <c r="F64" s="81"/>
       <c r="G64" s="188"/>
       <c r="H64" s="188"/>
       <c r="I64" s="189"/>
       <c r="J64" s="82"/>
-      <c r="K64" s="688"/>
-      <c r="L64" s="689"/>
+      <c r="K64" s="679"/>
+      <c r="L64" s="680"/>
       <c r="M64" s="80"/>
     </row>
     <row r="65" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="79"/>
-      <c r="B65" s="680"/>
-      <c r="C65" s="681"/>
-      <c r="D65" s="683"/>
-      <c r="F65" s="675" t="s">
+      <c r="B65" s="672"/>
+      <c r="C65" s="673"/>
+      <c r="D65" s="674"/>
+      <c r="F65" s="667" t="s">
         <v>95</v>
       </c>
-      <c r="G65" s="676"/>
-      <c r="H65" s="676"/>
-      <c r="I65" s="677"/>
+      <c r="G65" s="668"/>
+      <c r="H65" s="668"/>
+      <c r="I65" s="669"/>
       <c r="J65" s="82"/>
-      <c r="K65" s="673" t="s">
+      <c r="K65" s="665" t="s">
         <v>97</v>
       </c>
-      <c r="L65" s="674"/>
+      <c r="L65" s="666"/>
       <c r="M65" s="80"/>
     </row>
     <row r="66" spans="1:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15178,32 +15166,32 @@
       <c r="M66" s="88"/>
     </row>
     <row r="67" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="670" t="s">
+      <c r="A67" s="662" t="s">
         <v>341</v>
       </c>
-      <c r="B67" s="671"/>
-      <c r="C67" s="671"/>
-      <c r="D67" s="671"/>
-      <c r="E67" s="671"/>
-      <c r="F67" s="671"/>
-      <c r="G67" s="671"/>
-      <c r="H67" s="671"/>
-      <c r="I67" s="671"/>
-      <c r="J67" s="671"/>
-      <c r="K67" s="671"/>
-      <c r="L67" s="671"/>
-      <c r="M67" s="672"/>
+      <c r="B67" s="663"/>
+      <c r="C67" s="663"/>
+      <c r="D67" s="663"/>
+      <c r="E67" s="663"/>
+      <c r="F67" s="663"/>
+      <c r="G67" s="663"/>
+      <c r="H67" s="663"/>
+      <c r="I67" s="663"/>
+      <c r="J67" s="663"/>
+      <c r="K67" s="663"/>
+      <c r="L67" s="663"/>
+      <c r="M67" s="664"/>
     </row>
     <row r="68" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="79"/>
       <c r="B68" s="82"/>
       <c r="C68" s="89"/>
       <c r="D68" s="89"/>
-      <c r="E68" s="667"/>
-      <c r="F68" s="668"/>
-      <c r="G68" s="668"/>
-      <c r="H68" s="668"/>
-      <c r="I68" s="669"/>
+      <c r="E68" s="659"/>
+      <c r="F68" s="660"/>
+      <c r="G68" s="660"/>
+      <c r="H68" s="660"/>
+      <c r="I68" s="661"/>
       <c r="J68" s="137"/>
       <c r="K68" s="137"/>
       <c r="M68" s="80"/>
@@ -15213,13 +15201,13 @@
       <c r="B69" s="82"/>
       <c r="C69" s="247"/>
       <c r="D69" s="247"/>
-      <c r="E69" s="664" t="s">
+      <c r="E69" s="656" t="s">
         <v>96</v>
       </c>
-      <c r="F69" s="665"/>
-      <c r="G69" s="665"/>
-      <c r="H69" s="665"/>
-      <c r="I69" s="666"/>
+      <c r="F69" s="657"/>
+      <c r="G69" s="657"/>
+      <c r="H69" s="657"/>
+      <c r="I69" s="658"/>
       <c r="J69" s="139"/>
       <c r="K69" s="138"/>
       <c r="L69" s="90"/>
@@ -15241,21 +15229,21 @@
       <c r="M70" s="93"/>
     </row>
     <row r="71" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="663" t="s">
+      <c r="A71" s="655" t="s">
         <v>381</v>
       </c>
-      <c r="B71" s="663"/>
-      <c r="C71" s="663"/>
-      <c r="D71" s="663"/>
-      <c r="E71" s="663"/>
-      <c r="F71" s="663"/>
-      <c r="G71" s="663"/>
-      <c r="H71" s="663"/>
-      <c r="I71" s="663"/>
-      <c r="J71" s="663"/>
-      <c r="K71" s="663"/>
-      <c r="L71" s="663"/>
-      <c r="M71" s="663"/>
+      <c r="B71" s="655"/>
+      <c r="C71" s="655"/>
+      <c r="D71" s="655"/>
+      <c r="E71" s="655"/>
+      <c r="F71" s="655"/>
+      <c r="G71" s="655"/>
+      <c r="H71" s="655"/>
+      <c r="I71" s="655"/>
+      <c r="J71" s="655"/>
+      <c r="K71" s="655"/>
+      <c r="L71" s="655"/>
+      <c r="M71" s="655"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -15268,18 +15256,75 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="97">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C34:F36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="C18:F22"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="C23:F26"/>
-    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="G47:M47"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="G31:M31"/>
+    <mergeCell ref="G34:M34"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C45:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="C37:F40"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="C43:F44"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="C27:F30"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="C55:H57"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F16"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="G43:M43"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="C31:F32"/>
+    <mergeCell ref="A71:M71"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="A67:M67"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="K58:L64"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="F60:I62"/>
+    <mergeCell ref="B60:D60"/>
     <mergeCell ref="D62:D63"/>
     <mergeCell ref="F63:I63"/>
     <mergeCell ref="A37:B37"/>
@@ -15296,75 +15341,18 @@
     <mergeCell ref="G52:I52"/>
     <mergeCell ref="A54:E54"/>
     <mergeCell ref="G53:I53"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="C31:F32"/>
-    <mergeCell ref="A71:M71"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="A67:M67"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="K58:L64"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C63"/>
-    <mergeCell ref="F60:I62"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="C55:H57"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F16"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="G43:M43"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C45:F46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="C37:F40"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="C43:F44"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="C27:F30"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G47:M47"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="G23:M23"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="G31:M31"/>
-    <mergeCell ref="G34:M34"/>
+    <mergeCell ref="C18:F22"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="C23:F26"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C34:F36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="G32:J32"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
